--- a/AL30.xlsx
+++ b/AL30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/AL30/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="355" documentId="8_{0C586AFB-54DC-4688-A370-CFA444316B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6162B3E9-DFCB-4408-AAAB-B4D542235575}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="8_{0C586AFB-54DC-4688-A370-CFA444316B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA90FCE0-8755-48DD-BCA0-396E6F56500B}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="2" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Fecha Pago</t>
   </si>
@@ -147,12 +147,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -220,7 +221,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -266,7 +267,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -6979,15 +6981,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="11" max="11" width="14.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7015,20 +7020,23 @@
       <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="11">
+      <c r="N1" s="11">
         <v>45188</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="21">
+      <c r="R1" s="21">
         <v>0.4</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
         <v>44386</v>
       </c>
@@ -7054,60 +7062,61 @@
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="L2" t="s">
+      <c r="K2" s="9"/>
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="12">
+      <c r="N2" s="12">
         <v>30.68</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="11">
-        <f t="array" ref="Q2:AD2">+TRANSPOSE(O10:O23)</f>
+      <c r="R2" s="11">
+        <f t="array" ref="R2:AE2">+TRANSPOSE(P10:P23)</f>
         <v>45300</v>
       </c>
-      <c r="R2" s="11">
+      <c r="S2" s="11">
         <v>45482</v>
       </c>
-      <c r="S2" s="11">
+      <c r="T2" s="11">
         <v>45666</v>
       </c>
-      <c r="T2" s="11">
+      <c r="U2" s="11">
         <v>45847</v>
       </c>
-      <c r="U2" s="11">
+      <c r="V2" s="11">
         <v>46031</v>
       </c>
-      <c r="V2" s="11">
+      <c r="W2" s="11">
         <v>46212</v>
       </c>
-      <c r="W2" s="11">
+      <c r="X2" s="11">
         <v>46396</v>
       </c>
-      <c r="X2" s="11">
+      <c r="Y2" s="11">
         <v>46577</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Z2" s="11">
         <v>46761</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="AA2" s="11">
         <v>46943</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AB2" s="11">
         <v>47127</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AC2" s="11">
         <v>47308</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AD2" s="11">
         <v>47492</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AE2" s="11">
         <v>47673</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
@@ -7133,74 +7142,75 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="L3" t="s">
+      <c r="K3" s="9"/>
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="13">
+      <c r="N3" s="13">
         <f>44.69%*0+4%</f>
         <v>0.04</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="9">
-        <f>+SUMPRODUCT($P$10:$P$23,Q$10:Q$23)/10000</f>
+      <c r="R3" s="9">
+        <f>+SUMPRODUCT($Q$10:$Q$23,R$10:R$23)/10000</f>
         <v>90.517385605851175</v>
       </c>
-      <c r="R3" s="9">
-        <f t="shared" ref="R3:AD3" si="2">+SUMPRODUCT($P$10:$P$23,R$10:R$23)/10000</f>
+      <c r="S3" s="9">
+        <f t="shared" ref="S3:AE3" si="2">+SUMPRODUCT($Q$10:$Q$23,S$10:S$23)/10000</f>
         <v>91.927556641208099</v>
       </c>
-      <c r="S3" s="9">
+      <c r="T3" s="9">
         <f t="shared" si="2"/>
         <v>89.286438955691537</v>
       </c>
-      <c r="T3" s="9">
+      <c r="U3" s="9">
         <f t="shared" si="2"/>
         <v>82.529098280129304</v>
       </c>
-      <c r="U3" s="9">
+      <c r="V3" s="9">
         <f t="shared" si="2"/>
         <v>75.66853000427362</v>
       </c>
-      <c r="V3" s="9">
+      <c r="W3" s="9">
         <f t="shared" si="2"/>
         <v>68.702689818770438</v>
       </c>
-      <c r="W3" s="9">
+      <c r="X3" s="9">
         <f t="shared" si="2"/>
         <v>61.629492928962108</v>
       </c>
-      <c r="X3" s="9">
+      <c r="Y3" s="9">
         <f t="shared" si="2"/>
         <v>54.446813253120354</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Z3" s="9">
         <f t="shared" si="2"/>
         <v>47.15248260480125</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="AA3" s="9">
         <f t="shared" si="2"/>
         <v>39.499536922354928</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AB3" s="9">
         <f t="shared" si="2"/>
         <v>31.766419321293345</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AC3" s="9">
         <f t="shared" si="2"/>
         <v>23.951542084739472</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AD3" s="9">
         <f t="shared" si="2"/>
         <v>16.053286052825726</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AE3" s="9">
         <f t="shared" si="2"/>
         <v>8.07</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" s="3">
         <v>44751</v>
       </c>
@@ -7226,54 +7236,55 @@
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="P4" t="s">
+      <c r="K4" s="9"/>
+      <c r="Q4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <f t="array" ref="Q4:AD4">+TRANSPOSE(B7:B20)</f>
+      <c r="R4">
+        <f t="array" ref="R4:AE4">+TRANSPOSE(B7:B20)</f>
         <v>100</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>100</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>96</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>88</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>80</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>72</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>64</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>56</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>48</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>40</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>32</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>24</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>16</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>44935</v>
       </c>
@@ -7299,74 +7310,75 @@
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="L5" t="s">
+      <c r="K5" s="9"/>
+      <c r="M5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="15">
+      <c r="N5" s="15">
         <f>+SUM(J7:J20)</f>
-        <v>894390.89701684844</v>
-      </c>
-      <c r="P5" t="s">
+        <v>874113.63501179824</v>
+      </c>
+      <c r="Q5" t="s">
         <v>28</v>
       </c>
-      <c r="Q5">
-        <f>+Q4*$Q$1</f>
+      <c r="R5">
+        <f>+R4*$R$1</f>
         <v>40</v>
       </c>
-      <c r="R5">
-        <f t="shared" ref="R5:AD5" si="3">+R4*$Q$1</f>
+      <c r="S5">
+        <f t="shared" ref="S5:AE5" si="3">+S4*$R$1</f>
         <v>40</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f t="shared" si="3"/>
         <v>38.400000000000006</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f t="shared" si="3"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <f t="shared" si="3"/>
         <v>28.8</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f t="shared" si="3"/>
         <v>25.6</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f t="shared" si="3"/>
         <v>22.400000000000002</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <f t="shared" si="3"/>
         <v>19.200000000000003</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="3"/>
         <v>6.4</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" s="3">
         <v>45116</v>
       </c>
@@ -7392,74 +7404,75 @@
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="L6" t="s">
+      <c r="K6" s="9"/>
+      <c r="M6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="12">
-        <f>+M5/10000</f>
-        <v>89.43908970168485</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="N6" s="12">
+        <f>+N5/10000</f>
+        <v>87.411363501179821</v>
+      </c>
+      <c r="Q6" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="20">
-        <f t="shared" ref="Q6:AD6" si="4">+Q3-Q5</f>
+      <c r="R6" s="20">
+        <f t="shared" ref="R6:AE6" si="4">+R3-R5</f>
         <v>50.517385605851175</v>
       </c>
-      <c r="R6" s="20">
+      <c r="S6" s="20">
         <f t="shared" si="4"/>
         <v>51.927556641208099</v>
       </c>
-      <c r="S6" s="20">
+      <c r="T6" s="20">
         <f t="shared" si="4"/>
         <v>50.886438955691531</v>
       </c>
-      <c r="T6" s="20">
+      <c r="U6" s="20">
         <f t="shared" si="4"/>
         <v>47.329098280129301</v>
       </c>
-      <c r="U6" s="20">
+      <c r="V6" s="20">
         <f t="shared" si="4"/>
         <v>43.66853000427362</v>
       </c>
-      <c r="V6" s="20">
+      <c r="W6" s="20">
         <f t="shared" si="4"/>
         <v>39.90268981877044</v>
       </c>
-      <c r="W6" s="20">
+      <c r="X6" s="20">
         <f t="shared" si="4"/>
         <v>36.029492928962107</v>
       </c>
-      <c r="X6" s="20">
+      <c r="Y6" s="20">
         <f t="shared" si="4"/>
         <v>32.046813253120348</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Z6" s="20">
         <f t="shared" si="4"/>
         <v>27.952482604801247</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="AA6" s="20">
         <f t="shared" si="4"/>
         <v>23.499536922354928</v>
       </c>
-      <c r="AA6" s="20">
+      <c r="AB6" s="20">
         <f t="shared" si="4"/>
         <v>18.966419321293344</v>
       </c>
-      <c r="AB6" s="20">
+      <c r="AC6" s="20">
         <f t="shared" si="4"/>
         <v>14.351542084739471</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AD6" s="20">
         <f t="shared" si="4"/>
         <v>9.6532860528257256</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AE6" s="20">
         <f t="shared" si="4"/>
         <v>4.87</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45300</v>
       </c>
@@ -7483,82 +7496,89 @@
         <f>+D7/C7*2</f>
         <v>0.75</v>
       </c>
+      <c r="H7" s="15">
+        <f>+A7-$N$1</f>
+        <v>112</v>
+      </c>
       <c r="I7" s="9">
-        <f>+YEARFRAC($M$1,A7,0)</f>
+        <f>+YEARFRAC($N$1,A7,0)</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="J7" s="9">
-        <f>+F7/(1+$M$3)^I7</f>
-        <v>3705.3278122919805</v>
-      </c>
-      <c r="L7" t="s">
+        <f>+F7/(1+K7/100)^I7</f>
+        <v>3688.7745908029106</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5.5351710299999999</v>
+      </c>
+      <c r="M7" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="12">
-        <f>+M2-M6</f>
-        <v>-58.75908970168485</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="N7" s="12">
+        <f>+N2-N6</f>
+        <v>-56.731363501179821</v>
+      </c>
+      <c r="Q7" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="16">
-        <f>+(1+$M$3)^-YEARFRAC(Q$2,$M$1)</f>
+      <c r="R7" s="16">
+        <f>+(1+$N$3)^-YEARFRAC(R$2,$N$1)</f>
         <v>0.98808741661119481</v>
       </c>
-      <c r="R7" s="16">
-        <f t="shared" ref="R7:AD7" si="5">+(1+$M$3)^-YEARFRAC(R$2,$M$1)</f>
+      <c r="S7" s="16">
+        <f t="shared" ref="S7:AE7" si="5">+(1+$N$3)^-YEARFRAC(S$2,$N$1)</f>
         <v>0.96889942662230122</v>
       </c>
-      <c r="S7" s="16">
+      <c r="T7" s="16">
         <f t="shared" si="5"/>
         <v>0.95008405443384114</v>
       </c>
-      <c r="T7" s="16">
+      <c r="U7" s="16">
         <f t="shared" si="5"/>
         <v>0.93163406405990479</v>
       </c>
-      <c r="U7" s="16">
+      <c r="V7" s="16">
         <f t="shared" si="5"/>
         <v>0.91354236003253952</v>
       </c>
-      <c r="V7" s="16">
+      <c r="W7" s="16">
         <f t="shared" si="5"/>
         <v>0.89580198467298544</v>
       </c>
-      <c r="W7" s="16">
+      <c r="X7" s="16">
         <f t="shared" si="5"/>
         <v>0.87840611541590341</v>
       </c>
-      <c r="X7" s="16">
+      <c r="Y7" s="16">
         <f t="shared" si="5"/>
         <v>0.86134806218556292</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Z7" s="16">
         <f t="shared" si="5"/>
         <v>0.84462126482298405</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="AA7" s="16">
         <f t="shared" si="5"/>
         <v>0.82821929056304122</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AB7" s="16">
         <f t="shared" si="5"/>
         <v>0.81213583156056146</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AC7" s="16">
         <f t="shared" si="5"/>
         <v>0.79636470246446267</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AD7" s="16">
         <f t="shared" si="5"/>
         <v>0.78089983803900143</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AE7" s="16">
         <f t="shared" si="5"/>
         <v>0.76573529083121405</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" s="3">
         <v>45482</v>
       </c>
@@ -7582,86 +7602,93 @@
         <f t="shared" ref="G8:G20" si="6">+D8/C8*2</f>
         <v>0.75</v>
       </c>
+      <c r="H8" s="15">
+        <f t="shared" ref="H8:H20" si="7">+A8-$N$1</f>
+        <v>294</v>
+      </c>
       <c r="I8" s="9">
-        <f>+YEARFRAC($M$1,A8,0)</f>
+        <f>+YEARFRAC($N$1,A8,0)</f>
         <v>0.80555555555555558</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" ref="J8:J20" si="7">+F8/(1+$M$3)^I8</f>
-        <v>42389.349914725673</v>
-      </c>
-      <c r="L8" t="s">
+        <f t="shared" ref="J8:J20" si="8">+F8/(1+K8/100)^I8</f>
+        <v>41910.18442163444</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5.4780901999999996</v>
+      </c>
+      <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="16">
-        <f>+M7/M2</f>
-        <v>-1.9152245665477461</v>
-      </c>
-      <c r="O8" s="23">
-        <f>+SUM(Q8:AD8)</f>
+      <c r="N8" s="16">
+        <f>+N7/N2</f>
+        <v>-1.8491317959967348</v>
+      </c>
+      <c r="P8" s="23">
+        <f>+SUM(R8:AE8)</f>
         <v>408.72969708415582</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="23">
-        <f>+Q7*Q6</f>
+      <c r="R8" s="23">
+        <f>+R7*R6</f>
         <v>49.915593037237045</v>
       </c>
-      <c r="R8" s="23">
-        <f t="shared" ref="R8:AD8" si="8">+R7*R6</f>
+      <c r="S8" s="23">
+        <f t="shared" ref="S8:AE8" si="9">+S7*S6</f>
         <v>50.312579855563598</v>
       </c>
-      <c r="S8" s="23">
-        <f t="shared" si="8"/>
+      <c r="T8" s="23">
+        <f t="shared" si="9"/>
         <v>48.346394238723569</v>
       </c>
-      <c r="T8" s="23">
-        <f t="shared" si="8"/>
+      <c r="U8" s="23">
+        <f t="shared" si="9"/>
         <v>44.09340017900751</v>
       </c>
-      <c r="U8" s="23">
-        <f t="shared" si="8"/>
+      <c r="V8" s="23">
+        <f t="shared" si="9"/>
         <v>39.893051959255885</v>
       </c>
-      <c r="V8" s="23">
-        <f t="shared" si="8"/>
+      <c r="W8" s="23">
+        <f t="shared" si="9"/>
         <v>35.744908733445094</v>
       </c>
-      <c r="W8" s="23">
-        <f t="shared" si="8"/>
+      <c r="X8" s="23">
+        <f t="shared" si="9"/>
         <v>31.648526924134362</v>
       </c>
-      <c r="X8" s="23">
-        <f t="shared" si="8"/>
+      <c r="Y8" s="23">
+        <f t="shared" si="9"/>
         <v>27.603460494797826</v>
       </c>
-      <c r="Y8" s="23">
-        <f t="shared" si="8"/>
+      <c r="Z8" s="23">
+        <f t="shared" si="9"/>
         <v>23.609261212609688</v>
       </c>
-      <c r="Z8" s="23">
-        <f t="shared" si="8"/>
+      <c r="AA8" s="23">
+        <f t="shared" si="9"/>
         <v>19.462769798392792</v>
       </c>
-      <c r="AA8" s="23">
-        <f t="shared" si="8"/>
+      <c r="AB8" s="23">
+        <f t="shared" si="9"/>
         <v>15.40330872722487</v>
       </c>
-      <c r="AB8" s="23">
-        <f t="shared" si="8"/>
+      <c r="AC8" s="23">
+        <f t="shared" si="9"/>
         <v>11.429061542219763</v>
       </c>
-      <c r="AC8" s="23">
-        <f t="shared" si="8"/>
+      <c r="AD8" s="23">
+        <f t="shared" si="9"/>
         <v>7.5382495151957603</v>
       </c>
-      <c r="AD8" s="23">
-        <f t="shared" si="8"/>
+      <c r="AE8" s="23">
+        <f t="shared" si="9"/>
         <v>3.7291308663480125</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45666</v>
       </c>
@@ -7678,32 +7705,39 @@
         <v>80000</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:F20" si="9">+E9+D9*10000</f>
+        <f t="shared" ref="F9:F20" si="10">+E9+D9*10000</f>
         <v>83600</v>
       </c>
       <c r="G9">
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
+      <c r="H9" s="15">
+        <f t="shared" si="7"/>
+        <v>478</v>
+      </c>
       <c r="I9" s="9">
-        <f t="shared" ref="I9:I20" si="10">+YEARFRAC($M$1,A9,0)</f>
+        <f t="shared" ref="I9:I20" si="11">+YEARFRAC($N$1,A9,0)</f>
         <v>1.3055555555555556</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="7"/>
-        <v>79427.026950669111</v>
-      </c>
-      <c r="O9" t="s">
+        <f t="shared" si="8"/>
+        <v>78088.55111439382</v>
+      </c>
+      <c r="K9" s="9">
+        <v>5.3626843400000004</v>
+      </c>
+      <c r="P9" t="s">
         <v>26</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" s="3">
         <v>45847</v>
       </c>
@@ -7720,43 +7754,50 @@
         <v>80000</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>83300</v>
       </c>
       <c r="G10">
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
+      <c r="H10" s="15">
+        <f t="shared" si="7"/>
+        <v>659</v>
+      </c>
       <c r="I10" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8055555555555556</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="7"/>
-        <v>77605.117536190068</v>
-      </c>
-      <c r="L10" t="s">
+        <f t="shared" si="8"/>
+        <v>76066.337893188291</v>
+      </c>
+      <c r="K10" s="9">
+        <v>5.1600082699999996</v>
+      </c>
+      <c r="M10" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="12">
-        <f>+M6-M2</f>
-        <v>58.75908970168485</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" ref="O10:O23" si="11">+A7</f>
+      <c r="N10" s="12">
+        <f>+N6-N2</f>
+        <v>56.731363501179821</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" ref="P10:P23" si="12">+A7</f>
         <v>45300</v>
       </c>
-      <c r="P10" s="15">
-        <f t="shared" ref="P10:P23" si="12">+F7</f>
+      <c r="Q10" s="15">
+        <f t="shared" ref="Q10:Q23" si="13">+F7</f>
         <v>3750</v>
       </c>
-      <c r="Q10" s="13">
-        <f t="shared" ref="Q10:Q23" si="13">+(1+$M$3)^-YEARFRAC($O10,$O$10)</f>
+      <c r="R10" s="13">
+        <f t="shared" ref="R10:R23" si="14">+(1+$N$3)^-YEARFRAC($P10,$P$10)</f>
         <v>1</v>
       </c>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.75">
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>46031</v>
       </c>
@@ -7773,46 +7814,53 @@
         <v>80000</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>83000</v>
       </c>
       <c r="G11">
         <f t="shared" si="6"/>
         <v>0.74999999999999989</v>
       </c>
+      <c r="H11" s="15">
+        <f t="shared" si="7"/>
+        <v>843</v>
+      </c>
       <c r="I11" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3055555555555554</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="7"/>
-        <v>75824.015882700784</v>
-      </c>
-      <c r="L11" t="s">
+        <f t="shared" si="8"/>
+        <v>74217.39282570497</v>
+      </c>
+      <c r="K11" s="9">
+        <v>4.9705677799999997</v>
+      </c>
+      <c r="M11" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="22">
-        <f>+M10/SUM(Q8:AD8)*2</f>
-        <v>0.28752053066301464</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" si="11"/>
+      <c r="N11" s="22">
+        <f>+N10/SUM(R8:AE8)*2</f>
+        <v>0.27759844173739623</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="12"/>
         <v>45482</v>
       </c>
-      <c r="P11" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q11" s="15">
+        <f t="shared" si="13"/>
         <v>43750</v>
       </c>
-      <c r="Q11" s="13">
-        <f t="shared" si="13"/>
+      <c r="R11" s="13">
+        <f t="shared" si="14"/>
         <v>0.98058067569092011</v>
       </c>
-      <c r="R11" s="13">
-        <f t="shared" ref="R11:R23" si="14">+(1+$M$3)^-YEARFRAC($O11,$O$11)</f>
+      <c r="S11" s="13">
+        <f t="shared" ref="S11:S23" si="15">+(1+$N$3)^-YEARFRAC($P11,$P$11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" s="3">
         <v>46212</v>
       </c>
@@ -7829,43 +7877,50 @@
         <v>80000</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82700</v>
       </c>
       <c r="G12">
         <f t="shared" si="6"/>
         <v>0.75000000000000011</v>
       </c>
+      <c r="H12" s="15">
+        <f t="shared" si="7"/>
+        <v>1024</v>
+      </c>
       <c r="I12" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.8055555555555554</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="7"/>
-        <v>74082.824132455891</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
+        <v>72440.438784892947</v>
+      </c>
+      <c r="K12" s="9">
+        <v>4.8343869399999999</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="12"/>
         <v>45666</v>
       </c>
-      <c r="P12" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q12" s="15">
+        <f t="shared" si="13"/>
         <v>83600</v>
-      </c>
-      <c r="Q12" s="13">
-        <f t="shared" si="13"/>
-        <v>0.96153846153846145</v>
       </c>
       <c r="R12" s="13">
         <f t="shared" si="14"/>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="15"/>
         <v>0.98058067569092011</v>
       </c>
-      <c r="S12" s="13">
-        <f t="shared" ref="S12:S23" si="15">+(1+$M$3)^-YEARFRAC($O12,$O$12)</f>
+      <c r="T12" s="13">
+        <f t="shared" ref="T12:T23" si="16">+(1+$N$3)^-YEARFRAC($P12,$P$12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>46396</v>
       </c>
@@ -7882,47 +7937,54 @@
         <v>80000</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82400</v>
       </c>
       <c r="G13">
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
+      <c r="H13" s="15">
+        <f t="shared" si="7"/>
+        <v>1208</v>
+      </c>
       <c r="I13" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3055555555555554</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="7"/>
-        <v>72380.663910270436</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
+        <v>70735.315890208323</v>
+      </c>
+      <c r="K13" s="9">
+        <v>4.7259706399999999</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="12"/>
         <v>45847</v>
       </c>
-      <c r="P13" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q13" s="15">
+        <f t="shared" si="13"/>
         <v>83300</v>
-      </c>
-      <c r="Q13" s="13">
-        <f t="shared" si="13"/>
-        <v>0.94286603431819238</v>
       </c>
       <c r="R13" s="13">
         <f t="shared" si="14"/>
-        <v>0.96153846153846145</v>
+        <v>0.94286603431819238</v>
       </c>
       <c r="S13" s="13">
         <f t="shared" si="15"/>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="16"/>
         <v>0.98058067569092011</v>
       </c>
-      <c r="T13" s="13">
-        <f t="shared" ref="T13:T23" si="16">+(1+$M$3)^-YEARFRAC($O13,$O$13)</f>
+      <c r="U13" s="13">
+        <f t="shared" ref="U13:U23" si="17">+(1+$N$3)^-YEARFRAC($P13,$P$13)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" s="3">
         <v>46577</v>
       </c>
@@ -7939,51 +8001,59 @@
         <v>80000</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82100</v>
       </c>
       <c r="G14">
         <f t="shared" si="6"/>
         <v>0.74999999999999989</v>
       </c>
+      <c r="H14" s="15">
+        <f t="shared" si="7"/>
+        <v>1389</v>
+      </c>
       <c r="I14" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.8055555555555554</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="7"/>
-        <v>70716.67590543472</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
+        <v>69086.473172169019</v>
+      </c>
+      <c r="K14" s="9">
+        <v>4.6393241200000004</v>
+      </c>
+      <c r="N14" s="24"/>
+      <c r="P14" s="11">
+        <f t="shared" si="12"/>
         <v>46031</v>
       </c>
-      <c r="P14" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q14" s="15">
+        <f t="shared" si="13"/>
         <v>83000</v>
-      </c>
-      <c r="Q14" s="13">
-        <f t="shared" si="13"/>
-        <v>0.92455621301775137</v>
       </c>
       <c r="R14" s="13">
         <f t="shared" si="14"/>
-        <v>0.94286603431819238</v>
+        <v>0.92455621301775137</v>
       </c>
       <c r="S14" s="13">
         <f t="shared" si="15"/>
-        <v>0.96153846153846145</v>
+        <v>0.94286603431819238</v>
       </c>
       <c r="T14" s="13">
         <f t="shared" si="16"/>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" si="17"/>
         <v>0.98058067569092011</v>
       </c>
-      <c r="U14" s="13">
-        <f t="shared" ref="U14:U23" si="17">+(1+$M$3)^-YEARFRAC($O14,$O$14)</f>
+      <c r="V14" s="13">
+        <f t="shared" ref="V14:V23" si="18">+(1+$N$3)^-YEARFRAC($P14,$P$14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>46761</v>
       </c>
@@ -8000,55 +8070,62 @@
         <v>80000</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84200</v>
       </c>
       <c r="G15">
         <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
+      <c r="H15" s="15">
+        <f t="shared" si="7"/>
+        <v>1573</v>
+      </c>
       <c r="I15" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.3055555555555554</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="7"/>
-        <v>71117.110498095251</v>
-      </c>
-      <c r="O15" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
+        <v>69459.729306806636</v>
+      </c>
+      <c r="K15" s="9">
+        <v>4.5711533299999996</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="12"/>
         <v>46212</v>
       </c>
-      <c r="P15" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q15" s="15">
+        <f t="shared" si="13"/>
         <v>82700</v>
-      </c>
-      <c r="Q15" s="13">
-        <f t="shared" si="13"/>
-        <v>0.9066019560751849</v>
       </c>
       <c r="R15" s="13">
         <f t="shared" si="14"/>
-        <v>0.92455621301775137</v>
+        <v>0.9066019560751849</v>
       </c>
       <c r="S15" s="13">
         <f t="shared" si="15"/>
-        <v>0.94286603431819238</v>
+        <v>0.92455621301775137</v>
       </c>
       <c r="T15" s="13">
         <f t="shared" si="16"/>
-        <v>0.96153846153846145</v>
+        <v>0.94286603431819238</v>
       </c>
       <c r="U15" s="13">
         <f t="shared" si="17"/>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="V15" s="13">
+        <f t="shared" si="18"/>
         <v>0.98058067569092011</v>
       </c>
-      <c r="V15" s="13">
-        <f t="shared" ref="V15:V23" si="18">+(1+$M$3)^-YEARFRAC($O15,$O$15)</f>
+      <c r="W15" s="13">
+        <f t="shared" ref="W15:W23" si="19">+(1+$N$3)^-YEARFRAC($P15,$P$15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A16" s="3">
         <v>46943</v>
       </c>
@@ -8065,59 +8142,66 @@
         <v>80000</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>83500</v>
       </c>
       <c r="G16">
         <f t="shared" si="6"/>
         <v>1.7499999999999998</v>
       </c>
+      <c r="H16" s="15">
+        <f t="shared" si="7"/>
+        <v>1755</v>
+      </c>
       <c r="I16" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.8055555555555554</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="7"/>
-        <v>69156.310762013949</v>
-      </c>
-      <c r="O16" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
+        <v>67508.312373478329</v>
+      </c>
+      <c r="K16" s="9">
+        <v>4.5232771300000003</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="12"/>
         <v>46396</v>
       </c>
-      <c r="P16" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q16" s="15">
+        <f t="shared" si="13"/>
         <v>82400</v>
-      </c>
-      <c r="Q16" s="13">
-        <f t="shared" si="13"/>
-        <v>0.88899635867091487</v>
       </c>
       <c r="R16" s="13">
         <f t="shared" si="14"/>
-        <v>0.9066019560751849</v>
+        <v>0.88899635867091487</v>
       </c>
       <c r="S16" s="13">
         <f t="shared" si="15"/>
-        <v>0.92455621301775137</v>
+        <v>0.9066019560751849</v>
       </c>
       <c r="T16" s="13">
         <f t="shared" si="16"/>
-        <v>0.94286603431819238</v>
+        <v>0.92455621301775137</v>
       </c>
       <c r="U16" s="13">
         <f t="shared" si="17"/>
-        <v>0.96153846153846145</v>
+        <v>0.94286603431819238</v>
       </c>
       <c r="V16" s="13">
         <f t="shared" si="18"/>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="W16" s="13">
+        <f t="shared" si="19"/>
         <v>0.98058067569092011</v>
       </c>
-      <c r="W16" s="13">
-        <f t="shared" ref="W16:W23" si="19">+(1+$M$3)^-YEARFRAC($O16,$O$16)</f>
+      <c r="X16" s="13">
+        <f t="shared" ref="X16:X23" si="20">+(1+$N$3)^-YEARFRAC($P16,$P$16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>47127</v>
       </c>
@@ -8134,63 +8218,70 @@
         <v>80000</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82800</v>
       </c>
       <c r="G17">
         <f t="shared" si="6"/>
         <v>1.7500000000000002</v>
       </c>
+      <c r="H17" s="15">
+        <f t="shared" si="7"/>
+        <v>1939</v>
+      </c>
       <c r="I17" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.3055555555555554</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="7"/>
-        <v>67244.846853214491</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
+        <v>65574.661129188811</v>
+      </c>
+      <c r="K17" s="9">
+        <v>4.4941832899999996</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="12"/>
         <v>46577</v>
       </c>
-      <c r="P17" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q17" s="15">
+        <f t="shared" si="13"/>
         <v>82100</v>
-      </c>
-      <c r="Q17" s="13">
-        <f t="shared" si="13"/>
-        <v>0.87173265007229317</v>
       </c>
       <c r="R17" s="13">
         <f t="shared" si="14"/>
-        <v>0.88899635867091487</v>
+        <v>0.87173265007229317</v>
       </c>
       <c r="S17" s="13">
         <f t="shared" si="15"/>
-        <v>0.9066019560751849</v>
+        <v>0.88899635867091487</v>
       </c>
       <c r="T17" s="13">
         <f t="shared" si="16"/>
-        <v>0.92455621301775137</v>
+        <v>0.9066019560751849</v>
       </c>
       <c r="U17" s="13">
         <f t="shared" si="17"/>
-        <v>0.94286603431819238</v>
+        <v>0.92455621301775137</v>
       </c>
       <c r="V17" s="13">
         <f t="shared" si="18"/>
-        <v>0.96153846153846145</v>
+        <v>0.94286603431819238</v>
       </c>
       <c r="W17" s="13">
         <f t="shared" si="19"/>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="X17" s="13">
+        <f t="shared" si="20"/>
         <v>0.98058067569092011</v>
       </c>
-      <c r="X17" s="13">
-        <f t="shared" ref="X17:X23" si="20">+(1+$M$3)^-YEARFRAC($O17,$O$17)</f>
+      <c r="Y17" s="13">
+        <f t="shared" ref="Y17:Y23" si="21">+(1+$N$3)^-YEARFRAC($P17,$P$17)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" s="3">
         <v>47308</v>
       </c>
@@ -8207,67 +8298,74 @@
         <v>80000</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82100</v>
       </c>
       <c r="G18">
         <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
+      <c r="H18" s="15">
+        <f t="shared" si="7"/>
+        <v>2120</v>
+      </c>
       <c r="I18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.8055555555555554</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="7"/>
-        <v>65381.542072332384</v>
-      </c>
-      <c r="O18" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
+        <v>63654.846240706065</v>
+      </c>
+      <c r="K18" s="9">
+        <v>4.4805632800000001</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="12"/>
         <v>46761</v>
       </c>
-      <c r="P18" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q18" s="15">
+        <f t="shared" si="13"/>
         <v>84200</v>
-      </c>
-      <c r="Q18" s="13">
-        <f t="shared" si="13"/>
-        <v>0.85480419102972571</v>
       </c>
       <c r="R18" s="13">
         <f t="shared" si="14"/>
-        <v>0.87173265007229317</v>
+        <v>0.85480419102972571</v>
       </c>
       <c r="S18" s="13">
         <f t="shared" si="15"/>
-        <v>0.88899635867091487</v>
+        <v>0.87173265007229317</v>
       </c>
       <c r="T18" s="13">
         <f t="shared" si="16"/>
-        <v>0.9066019560751849</v>
+        <v>0.88899635867091487</v>
       </c>
       <c r="U18" s="13">
         <f t="shared" si="17"/>
-        <v>0.92455621301775137</v>
+        <v>0.9066019560751849</v>
       </c>
       <c r="V18" s="13">
         <f t="shared" si="18"/>
-        <v>0.94286603431819238</v>
+        <v>0.92455621301775137</v>
       </c>
       <c r="W18" s="13">
         <f t="shared" si="19"/>
-        <v>0.96153846153846145</v>
+        <v>0.94286603431819238</v>
       </c>
       <c r="X18" s="13">
         <f t="shared" si="20"/>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="Y18" s="13">
+        <f t="shared" si="21"/>
         <v>0.98058067569092011</v>
       </c>
-      <c r="Y18" s="13">
-        <f t="shared" ref="Y18:Y23" si="21">+(1+$M$3)^-YEARFRAC($O18,$O$18)</f>
+      <c r="Z18" s="13">
+        <f t="shared" ref="Z18:Z23" si="22">+(1+$N$3)^-YEARFRAC($P18,$P$18)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>47492</v>
       </c>
@@ -8284,71 +8382,78 @@
         <v>80000</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>81400</v>
       </c>
       <c r="G19">
         <f t="shared" si="6"/>
         <v>1.7500000000000002</v>
       </c>
+      <c r="H19" s="15">
+        <f t="shared" si="7"/>
+        <v>2304</v>
+      </c>
       <c r="I19" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.3055555555555554</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="7"/>
-        <v>63565.246816374718</v>
-      </c>
-      <c r="O19" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
+        <v>61763.520096687695</v>
+      </c>
+      <c r="K19" s="9">
+        <v>4.4753337399999999</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="12"/>
         <v>46943</v>
       </c>
-      <c r="P19" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q19" s="15">
+        <f t="shared" si="13"/>
         <v>83500</v>
-      </c>
-      <c r="Q19" s="13">
-        <f t="shared" si="13"/>
-        <v>0.83820447122335884</v>
       </c>
       <c r="R19" s="13">
         <f t="shared" si="14"/>
-        <v>0.85480419102972571</v>
+        <v>0.83820447122335884</v>
       </c>
       <c r="S19" s="13">
         <f t="shared" si="15"/>
-        <v>0.87173265007229317</v>
+        <v>0.85480419102972571</v>
       </c>
       <c r="T19" s="13">
         <f t="shared" si="16"/>
-        <v>0.88899635867091487</v>
+        <v>0.87173265007229317</v>
       </c>
       <c r="U19" s="13">
         <f t="shared" si="17"/>
-        <v>0.9066019560751849</v>
+        <v>0.88899635867091487</v>
       </c>
       <c r="V19" s="13">
         <f t="shared" si="18"/>
-        <v>0.92455621301775137</v>
+        <v>0.9066019560751849</v>
       </c>
       <c r="W19" s="13">
         <f t="shared" si="19"/>
-        <v>0.94286603431819238</v>
+        <v>0.92455621301775137</v>
       </c>
       <c r="X19" s="13">
         <f t="shared" si="20"/>
-        <v>0.96153846153846145</v>
+        <v>0.94286603431819238</v>
       </c>
       <c r="Y19" s="13">
         <f t="shared" si="21"/>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="Z19" s="13">
+        <f t="shared" si="22"/>
         <v>0.98058067569092011</v>
       </c>
-      <c r="Z19" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O19,$O$19)</f>
+      <c r="AA19" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P19,$P$19)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" s="3">
         <v>47673</v>
       </c>
@@ -8365,257 +8470,264 @@
         <v>80000</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80700</v>
       </c>
       <c r="G20">
         <f t="shared" si="6"/>
         <v>1.7500000000000002</v>
       </c>
+      <c r="H20" s="15">
+        <f t="shared" si="7"/>
+        <v>2485</v>
+      </c>
       <c r="I20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.8055555555555554</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="7"/>
-        <v>61794.837970078981</v>
-      </c>
-      <c r="O20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
+        <v>59919.097171935944</v>
+      </c>
+      <c r="K20" s="9">
+        <v>4.472118</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="12"/>
         <v>47127</v>
       </c>
-      <c r="P20" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q20" s="15">
+        <f t="shared" si="13"/>
         <v>82800</v>
-      </c>
-      <c r="Q20" s="13">
-        <f t="shared" si="13"/>
-        <v>0.82192710675935154</v>
       </c>
       <c r="R20" s="13">
         <f t="shared" si="14"/>
-        <v>0.83820447122335884</v>
+        <v>0.82192710675935154</v>
       </c>
       <c r="S20" s="13">
         <f t="shared" si="15"/>
-        <v>0.85480419102972571</v>
+        <v>0.83820447122335884</v>
       </c>
       <c r="T20" s="13">
         <f t="shared" si="16"/>
-        <v>0.87173265007229317</v>
+        <v>0.85480419102972571</v>
       </c>
       <c r="U20" s="13">
         <f t="shared" si="17"/>
-        <v>0.88899635867091487</v>
+        <v>0.87173265007229317</v>
       </c>
       <c r="V20" s="13">
         <f t="shared" si="18"/>
-        <v>0.9066019560751849</v>
+        <v>0.88899635867091487</v>
       </c>
       <c r="W20" s="13">
         <f t="shared" si="19"/>
-        <v>0.92455621301775137</v>
+        <v>0.9066019560751849</v>
       </c>
       <c r="X20" s="13">
         <f t="shared" si="20"/>
-        <v>0.94286603431819238</v>
+        <v>0.92455621301775137</v>
       </c>
       <c r="Y20" s="13">
         <f t="shared" si="21"/>
+        <v>0.94286603431819238</v>
+      </c>
+      <c r="Z20" s="13">
+        <f t="shared" si="22"/>
         <v>0.96153846153846145</v>
       </c>
-      <c r="Z20" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O20,$O$19)</f>
+      <c r="AA20" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P20,$P$19)</f>
         <v>0.98058067569092011</v>
       </c>
-      <c r="AA20" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O20,$O$20)</f>
+      <c r="AB20" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P20,$P$20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.75">
-      <c r="O21" s="11">
-        <f t="shared" si="11"/>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="P21" s="11">
+        <f t="shared" si="12"/>
         <v>47308</v>
       </c>
-      <c r="P21" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q21" s="15">
+        <f t="shared" si="13"/>
         <v>82100</v>
-      </c>
-      <c r="Q21" s="13">
-        <f t="shared" si="13"/>
-        <v>0.80596583771476804</v>
       </c>
       <c r="R21" s="13">
         <f t="shared" si="14"/>
-        <v>0.82192710675935154</v>
+        <v>0.80596583771476804</v>
       </c>
       <c r="S21" s="13">
         <f t="shared" si="15"/>
-        <v>0.83820447122335884</v>
+        <v>0.82192710675935154</v>
       </c>
       <c r="T21" s="13">
         <f t="shared" si="16"/>
-        <v>0.85480419102972571</v>
+        <v>0.83820447122335884</v>
       </c>
       <c r="U21" s="13">
         <f t="shared" si="17"/>
-        <v>0.87173265007229317</v>
+        <v>0.85480419102972571</v>
       </c>
       <c r="V21" s="13">
         <f t="shared" si="18"/>
-        <v>0.88899635867091487</v>
+        <v>0.87173265007229317</v>
       </c>
       <c r="W21" s="13">
         <f t="shared" si="19"/>
-        <v>0.9066019560751849</v>
+        <v>0.88899635867091487</v>
       </c>
       <c r="X21" s="13">
         <f t="shared" si="20"/>
-        <v>0.92455621301775137</v>
+        <v>0.9066019560751849</v>
       </c>
       <c r="Y21" s="13">
         <f t="shared" si="21"/>
+        <v>0.92455621301775137</v>
+      </c>
+      <c r="Z21" s="13">
+        <f t="shared" si="22"/>
         <v>0.94286603431819238</v>
       </c>
-      <c r="Z21" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O21,$O$19)</f>
+      <c r="AA21" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P21,$P$19)</f>
         <v>0.96153846153846145</v>
       </c>
-      <c r="AA21" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O21,$O$20)</f>
+      <c r="AB21" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P21,$P$20)</f>
         <v>0.98058067569092011</v>
       </c>
-      <c r="AB21" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O21,$O$21)</f>
+      <c r="AC21" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P21,$P$21)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.75">
-      <c r="O22" s="11">
-        <f t="shared" si="11"/>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="P22" s="11">
+        <f t="shared" si="12"/>
         <v>47492</v>
       </c>
-      <c r="P22" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q22" s="15">
+        <f t="shared" si="13"/>
         <v>81400</v>
-      </c>
-      <c r="Q22" s="13">
-        <f t="shared" si="13"/>
-        <v>0.79031452573014571</v>
       </c>
       <c r="R22" s="13">
         <f t="shared" si="14"/>
-        <v>0.80596583771476804</v>
+        <v>0.79031452573014571</v>
       </c>
       <c r="S22" s="13">
         <f t="shared" si="15"/>
-        <v>0.82192710675935154</v>
+        <v>0.80596583771476804</v>
       </c>
       <c r="T22" s="13">
         <f t="shared" si="16"/>
-        <v>0.83820447122335884</v>
+        <v>0.82192710675935154</v>
       </c>
       <c r="U22" s="13">
         <f t="shared" si="17"/>
-        <v>0.85480419102972571</v>
+        <v>0.83820447122335884</v>
       </c>
       <c r="V22" s="13">
         <f t="shared" si="18"/>
-        <v>0.87173265007229317</v>
+        <v>0.85480419102972571</v>
       </c>
       <c r="W22" s="13">
         <f t="shared" si="19"/>
-        <v>0.88899635867091487</v>
+        <v>0.87173265007229317</v>
       </c>
       <c r="X22" s="13">
         <f t="shared" si="20"/>
-        <v>0.9066019560751849</v>
+        <v>0.88899635867091487</v>
       </c>
       <c r="Y22" s="13">
         <f t="shared" si="21"/>
+        <v>0.9066019560751849</v>
+      </c>
+      <c r="Z22" s="13">
+        <f t="shared" si="22"/>
         <v>0.92455621301775137</v>
       </c>
-      <c r="Z22" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O22,$O$19)</f>
+      <c r="AA22" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P22,$P$19)</f>
         <v>0.94286603431819238</v>
       </c>
-      <c r="AA22" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O22,$O$20)</f>
+      <c r="AB22" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P22,$P$20)</f>
         <v>0.96153846153846145</v>
       </c>
-      <c r="AB22" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O22,$O$21)</f>
+      <c r="AC22" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P22,$P$21)</f>
         <v>0.98058067569092011</v>
       </c>
-      <c r="AC22" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O22,$O$22)</f>
+      <c r="AD22" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P22,$P$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.75">
-      <c r="O23" s="11">
-        <f t="shared" si="11"/>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="P23" s="11">
+        <f t="shared" si="12"/>
         <v>47673</v>
       </c>
-      <c r="P23" s="15">
-        <f t="shared" si="12"/>
+      <c r="Q23" s="15">
+        <f t="shared" si="13"/>
         <v>80700</v>
-      </c>
-      <c r="Q23" s="13">
-        <f t="shared" si="13"/>
-        <v>0.77496715164881547</v>
       </c>
       <c r="R23" s="13">
         <f t="shared" si="14"/>
-        <v>0.79031452573014571</v>
+        <v>0.77496715164881547</v>
       </c>
       <c r="S23" s="13">
         <f t="shared" si="15"/>
-        <v>0.80596583771476804</v>
+        <v>0.79031452573014571</v>
       </c>
       <c r="T23" s="13">
         <f t="shared" si="16"/>
-        <v>0.82192710675935154</v>
+        <v>0.80596583771476804</v>
       </c>
       <c r="U23" s="13">
         <f t="shared" si="17"/>
-        <v>0.83820447122335884</v>
+        <v>0.82192710675935154</v>
       </c>
       <c r="V23" s="13">
         <f t="shared" si="18"/>
-        <v>0.85480419102972571</v>
+        <v>0.83820447122335884</v>
       </c>
       <c r="W23" s="13">
         <f t="shared" si="19"/>
-        <v>0.87173265007229317</v>
+        <v>0.85480419102972571</v>
       </c>
       <c r="X23" s="13">
         <f t="shared" si="20"/>
-        <v>0.88899635867091487</v>
+        <v>0.87173265007229317</v>
       </c>
       <c r="Y23" s="13">
         <f t="shared" si="21"/>
+        <v>0.88899635867091487</v>
+      </c>
+      <c r="Z23" s="13">
+        <f t="shared" si="22"/>
         <v>0.9066019560751849</v>
       </c>
-      <c r="Z23" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O23,$O$19)</f>
+      <c r="AA23" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P23,$P$19)</f>
         <v>0.92455621301775137</v>
       </c>
-      <c r="AA23" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O23,$O$20)</f>
+      <c r="AB23" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P23,$P$20)</f>
         <v>0.94286603431819238</v>
       </c>
-      <c r="AB23" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O23,$O$21)</f>
+      <c r="AC23" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P23,$P$21)</f>
         <v>0.96153846153846145</v>
       </c>
-      <c r="AC23" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O23,$O$22)</f>
+      <c r="AD23" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P23,$P$22)</f>
         <v>0.98058067569092011</v>
       </c>
-      <c r="AD23" s="13">
-        <f>+(1+$M$3)^-YEARFRAC($O23,$O$23)</f>
+      <c r="AE23" s="13">
+        <f>+(1+$N$3)^-YEARFRAC($P23,$P$23)</f>
         <v>1</v>
       </c>
     </row>

--- a/AL30.xlsx
+++ b/AL30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="392" documentId="8_{0C586AFB-54DC-4688-A370-CFA444316B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA90FCE0-8755-48DD-BCA0-396E6F56500B}"/>
+  <xr:revisionPtr revIDLastSave="585" documentId="8_{0C586AFB-54DC-4688-A370-CFA444316B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD6F3B1C-7CDF-4B89-A662-5A24387CAC68}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Fecha Pago</t>
   </si>
@@ -142,18 +142,27 @@
   <si>
     <t>PD</t>
   </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="0.000000%"/>
+    <numFmt numFmtId="168" formatCode="0.000000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??????_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -221,7 +230,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -268,7 +277,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -6981,10 +6994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6992,7 +7005,7 @@
     <col min="11" max="11" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7021,22 +7034,25 @@
         <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="11">
+      <c r="X1" s="11">
         <v>45188</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="21">
+      <c r="AB1" s="21">
         <v>0.4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
         <v>44386</v>
       </c>
@@ -7063,60 +7079,60 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="M2" t="s">
+      <c r="W2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="12">
+      <c r="X2" s="12">
         <v>30.68</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AA2" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="11">
-        <f t="array" ref="R2:AE2">+TRANSPOSE(P10:P23)</f>
+      <c r="AB2" s="11">
+        <f t="array" ref="AB2:AO2">+TRANSPOSE(Z10:Z23)</f>
         <v>45300</v>
       </c>
-      <c r="S2" s="11">
+      <c r="AC2" s="11">
         <v>45482</v>
       </c>
-      <c r="T2" s="11">
+      <c r="AD2" s="11">
         <v>45666</v>
       </c>
-      <c r="U2" s="11">
+      <c r="AE2" s="11">
         <v>45847</v>
       </c>
-      <c r="V2" s="11">
+      <c r="AF2" s="11">
         <v>46031</v>
       </c>
-      <c r="W2" s="11">
+      <c r="AG2" s="11">
         <v>46212</v>
       </c>
-      <c r="X2" s="11">
+      <c r="AH2" s="11">
         <v>46396</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="AI2" s="11">
         <v>46577</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="AJ2" s="11">
         <v>46761</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AK2" s="11">
         <v>46943</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AL2" s="11">
         <v>47127</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AM2" s="11">
         <v>47308</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AN2" s="11">
         <v>47492</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AO2" s="11">
         <v>47673</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
@@ -7143,74 +7159,81 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="M3" t="s">
+      <c r="W3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="13">
+      <c r="X3" s="13">
         <f>44.69%*0+4%</f>
         <v>0.04</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Y3" s="28">
+        <f>+Z3-AB3</f>
+        <v>1.9945161313136452</v>
+      </c>
+      <c r="Z3">
+        <v>90.851096387317099</v>
+      </c>
+      <c r="AA3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="9">
-        <f>+SUMPRODUCT($Q$10:$Q$23,R$10:R$23)/10000</f>
-        <v>90.517385605851175</v>
-      </c>
-      <c r="S3" s="9">
-        <f t="shared" ref="S3:AE3" si="2">+SUMPRODUCT($Q$10:$Q$23,S$10:S$23)/10000</f>
-        <v>91.927556641208099</v>
-      </c>
-      <c r="T3" s="9">
+      <c r="AB3" s="26">
+        <f>+SUMPRODUCT($AA$10:$AA$23,AB$10:AB$23)/10000</f>
+        <v>88.856580256003454</v>
+      </c>
+      <c r="AC3" s="26">
+        <f t="shared" ref="AC3:AO3" si="2">+SUMPRODUCT($AA$10:$AA$23,AC$10:AC$23)/10000</f>
+        <v>90.851096386455538</v>
+      </c>
+      <c r="AD3" s="26">
         <f t="shared" si="2"/>
-        <v>89.286438955691537</v>
-      </c>
-      <c r="U3" s="9">
-        <f t="shared" si="2"/>
-        <v>82.529098280129304</v>
-      </c>
-      <c r="V3" s="9">
-        <f t="shared" si="2"/>
-        <v>75.66853000427362</v>
-      </c>
-      <c r="W3" s="9">
-        <f t="shared" si="2"/>
-        <v>68.702689818770438</v>
-      </c>
-      <c r="X3" s="9">
-        <f t="shared" si="2"/>
-        <v>61.629492928962108</v>
-      </c>
-      <c r="Y3" s="9">
-        <f t="shared" si="2"/>
-        <v>54.446813253120354</v>
-      </c>
-      <c r="Z3" s="9">
-        <f t="shared" si="2"/>
-        <v>47.15248260480125</v>
-      </c>
-      <c r="AA3" s="9">
-        <f t="shared" si="2"/>
-        <v>39.499536922354928</v>
-      </c>
-      <c r="AB3" s="9">
-        <f t="shared" si="2"/>
-        <v>31.766419321293345</v>
-      </c>
-      <c r="AC3" s="9">
-        <f t="shared" si="2"/>
-        <v>23.951542084739472</v>
-      </c>
-      <c r="AD3" s="9">
-        <f t="shared" si="2"/>
-        <v>16.053286052825726</v>
+        <v>88.705341827276925</v>
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="2"/>
+        <v>82.167696756590487</v>
+      </c>
+      <c r="AF3" s="9">
+        <f t="shared" si="2"/>
+        <v>75.419679917879463</v>
+      </c>
+      <c r="AG3" s="9">
+        <f t="shared" si="2"/>
+        <v>68.503913026011645</v>
+      </c>
+      <c r="AH3" s="9">
+        <f t="shared" si="2"/>
+        <v>61.473792108162414</v>
+      </c>
+      <c r="AI3" s="9">
+        <f t="shared" si="2"/>
+        <v>54.295549939296301</v>
+      </c>
+      <c r="AJ3" s="9">
+        <f t="shared" si="2"/>
+        <v>47.019005748327928</v>
+      </c>
+      <c r="AK3" s="9">
+        <f t="shared" si="2"/>
+        <v>39.382131305578348</v>
+      </c>
+      <c r="AL3" s="9">
+        <f t="shared" si="2"/>
+        <v>31.685079457674856</v>
+      </c>
+      <c r="AM3" s="9">
+        <f t="shared" si="2"/>
+        <v>23.902807293328763</v>
+      </c>
+      <c r="AN3" s="9">
+        <f t="shared" si="2"/>
+        <v>16.038339555722729</v>
+      </c>
+      <c r="AO3" s="9">
+        <f t="shared" si="2"/>
         <v>8.07</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A4" s="3">
         <v>44751</v>
       </c>
@@ -7237,54 +7260,54 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="Q4" t="s">
+      <c r="AA4" t="s">
         <v>1</v>
       </c>
-      <c r="R4">
-        <f t="array" ref="R4:AE4">+TRANSPOSE(B7:B20)</f>
+      <c r="AB4">
+        <f t="array" ref="AB4:AO4">+TRANSPOSE(B7:B20)</f>
         <v>100</v>
       </c>
-      <c r="S4">
+      <c r="AC4">
         <v>100</v>
       </c>
-      <c r="T4">
+      <c r="AD4">
         <v>96</v>
       </c>
-      <c r="U4">
+      <c r="AE4">
         <v>88</v>
       </c>
-      <c r="V4">
+      <c r="AF4">
         <v>80</v>
       </c>
-      <c r="W4">
+      <c r="AG4">
         <v>72</v>
       </c>
-      <c r="X4">
+      <c r="AH4">
         <v>64</v>
       </c>
-      <c r="Y4">
+      <c r="AI4">
         <v>56</v>
       </c>
-      <c r="Z4">
+      <c r="AJ4">
         <v>48</v>
       </c>
-      <c r="AA4">
+      <c r="AK4">
         <v>40</v>
       </c>
-      <c r="AB4">
+      <c r="AL4">
         <v>32</v>
       </c>
-      <c r="AC4">
+      <c r="AM4">
         <v>24</v>
       </c>
-      <c r="AD4">
+      <c r="AN4">
         <v>16</v>
       </c>
-      <c r="AE4">
+      <c r="AO4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>44935</v>
       </c>
@@ -7311,74 +7334,74 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="M5" t="s">
+      <c r="W5" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="15">
+      <c r="X5" s="15">
         <f>+SUM(J7:J20)</f>
         <v>874113.63501179824</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="AA5" t="s">
         <v>28</v>
       </c>
-      <c r="R5">
-        <f>+R4*$R$1</f>
+      <c r="AB5">
+        <f>+AB4*$AB$1</f>
         <v>40</v>
       </c>
-      <c r="S5">
-        <f t="shared" ref="S5:AE5" si="3">+S4*$R$1</f>
+      <c r="AC5">
+        <f t="shared" ref="AC5:AO5" si="3">+AC4*$AB$1</f>
         <v>40</v>
       </c>
-      <c r="T5">
+      <c r="AD5">
         <f t="shared" si="3"/>
         <v>38.400000000000006</v>
       </c>
-      <c r="U5">
+      <c r="AE5">
         <f t="shared" si="3"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="V5">
+      <c r="AF5">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="W5">
+      <c r="AG5">
         <f t="shared" si="3"/>
         <v>28.8</v>
       </c>
-      <c r="X5">
+      <c r="AH5">
         <f t="shared" si="3"/>
         <v>25.6</v>
       </c>
-      <c r="Y5">
+      <c r="AI5">
         <f t="shared" si="3"/>
         <v>22.400000000000002</v>
       </c>
-      <c r="Z5">
+      <c r="AJ5">
         <f t="shared" si="3"/>
         <v>19.200000000000003</v>
       </c>
-      <c r="AA5">
+      <c r="AK5">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="AB5">
+      <c r="AL5">
         <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
-      <c r="AC5">
+      <c r="AM5">
         <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="AD5">
+      <c r="AN5">
         <f t="shared" si="3"/>
         <v>6.4</v>
       </c>
-      <c r="AE5">
+      <c r="AO5">
         <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A6" s="3">
         <v>45116</v>
       </c>
@@ -7405,74 +7428,78 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="M6" t="s">
+      <c r="W6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="12">
-        <f>+N5/10000</f>
+      <c r="X6" s="12">
+        <f>+X5/10000</f>
         <v>87.411363501179821</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Z6" s="23">
+        <f>+SUM(AB6:AO6)</f>
+        <v>446.77101357830895</v>
+      </c>
+      <c r="AA6" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="20">
-        <f t="shared" ref="R6:AE6" si="4">+R3-R5</f>
-        <v>50.517385605851175</v>
-      </c>
-      <c r="S6" s="20">
-        <f t="shared" si="4"/>
-        <v>51.927556641208099</v>
-      </c>
-      <c r="T6" s="20">
-        <f t="shared" si="4"/>
-        <v>50.886438955691531</v>
-      </c>
-      <c r="U6" s="20">
-        <f t="shared" si="4"/>
-        <v>47.329098280129301</v>
-      </c>
-      <c r="V6" s="20">
-        <f t="shared" si="4"/>
-        <v>43.66853000427362</v>
-      </c>
-      <c r="W6" s="20">
-        <f t="shared" si="4"/>
-        <v>39.90268981877044</v>
-      </c>
-      <c r="X6" s="20">
-        <f t="shared" si="4"/>
-        <v>36.029492928962107</v>
-      </c>
-      <c r="Y6" s="20">
-        <f t="shared" si="4"/>
-        <v>32.046813253120348</v>
-      </c>
-      <c r="Z6" s="20">
-        <f t="shared" si="4"/>
-        <v>27.952482604801247</v>
-      </c>
-      <c r="AA6" s="20">
-        <f t="shared" si="4"/>
-        <v>23.499536922354928</v>
-      </c>
       <c r="AB6" s="20">
-        <f t="shared" si="4"/>
-        <v>18.966419321293344</v>
+        <f t="shared" ref="AB6:AO6" si="4">+AB3-AB5</f>
+        <v>48.856580256003454</v>
       </c>
       <c r="AC6" s="20">
         <f t="shared" si="4"/>
-        <v>14.351542084739471</v>
+        <v>50.851096386455538</v>
       </c>
       <c r="AD6" s="20">
         <f t="shared" si="4"/>
-        <v>9.6532860528257256</v>
+        <v>50.305341827276919</v>
       </c>
       <c r="AE6" s="20">
         <f t="shared" si="4"/>
+        <v>46.967696756590485</v>
+      </c>
+      <c r="AF6" s="20">
+        <f t="shared" si="4"/>
+        <v>43.419679917879463</v>
+      </c>
+      <c r="AG6" s="20">
+        <f t="shared" si="4"/>
+        <v>39.703913026011648</v>
+      </c>
+      <c r="AH6" s="20">
+        <f t="shared" si="4"/>
+        <v>35.873792108162412</v>
+      </c>
+      <c r="AI6" s="20">
+        <f t="shared" si="4"/>
+        <v>31.895549939296298</v>
+      </c>
+      <c r="AJ6" s="20">
+        <f t="shared" si="4"/>
+        <v>27.819005748327925</v>
+      </c>
+      <c r="AK6" s="20">
+        <f t="shared" si="4"/>
+        <v>23.382131305578348</v>
+      </c>
+      <c r="AL6" s="20">
+        <f t="shared" si="4"/>
+        <v>18.885079457674856</v>
+      </c>
+      <c r="AM6" s="20">
+        <f t="shared" si="4"/>
+        <v>14.302807293328762</v>
+      </c>
+      <c r="AN6" s="20">
+        <f t="shared" si="4"/>
+        <v>9.6383395557227285</v>
+      </c>
+      <c r="AO6" s="20">
+        <f t="shared" si="4"/>
         <v>4.87</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45300</v>
       </c>
@@ -7497,11 +7524,11 @@
         <v>0.75</v>
       </c>
       <c r="H7" s="15">
-        <f>+A7-$N$1</f>
+        <f>+A7-$X$1</f>
         <v>112</v>
       </c>
       <c r="I7" s="9">
-        <f>+YEARFRAC($N$1,A7,0)</f>
+        <f>+YEARFRAC($X$1,A7,0)</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="J7" s="9">
@@ -7511,74 +7538,78 @@
       <c r="K7" s="9">
         <v>5.5351710299999999</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7" t="e">
+        <f>+(((1+K7/100)^(H7/365)/(1+$K$7/100)^($H$7/365))^(365/(H7-$H$7))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="12">
-        <f>+N2-N6</f>
+      <c r="X7" s="12">
+        <f>+X2-X6</f>
         <v>-56.731363501179821</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="AA7" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="16">
-        <f>+(1+$N$3)^-YEARFRAC(R$2,$N$1)</f>
-        <v>0.98808741661119481</v>
-      </c>
-      <c r="S7" s="16">
-        <f t="shared" ref="S7:AE7" si="5">+(1+$N$3)^-YEARFRAC(S$2,$N$1)</f>
-        <v>0.96889942662230122</v>
-      </c>
-      <c r="T7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.95008405443384114</v>
-      </c>
-      <c r="U7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.93163406405990479</v>
-      </c>
-      <c r="V7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.91354236003253952</v>
-      </c>
-      <c r="W7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.89580198467298544</v>
-      </c>
-      <c r="X7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.87840611541590341</v>
-      </c>
-      <c r="Y7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.86134806218556292</v>
-      </c>
-      <c r="Z7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.84462126482298405</v>
-      </c>
-      <c r="AA7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.82821929056304122</v>
-      </c>
-      <c r="AB7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.81213583156056146</v>
-      </c>
-      <c r="AC7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.79636470246446267</v>
-      </c>
-      <c r="AD7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.78089983803900143</v>
-      </c>
-      <c r="AE7" s="16">
-        <f t="shared" si="5"/>
-        <v>0.76573529083121405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AB7" s="25">
+        <f>+(1+$K$7/100)^-YEARFRAC(AB$2,$X$1)</f>
+        <v>0.98367322421410941</v>
+      </c>
+      <c r="AC7" s="25">
+        <f>+(1+$K$8/100)^-YEARFRAC(AC$2,$X$1)</f>
+        <v>0.95794707249450151</v>
+      </c>
+      <c r="AD7" s="25">
+        <f>+(1+$K$9/100)^-YEARFRAC(AD$2,$X$1)</f>
+        <v>0.93407357792337098</v>
+      </c>
+      <c r="AE7" s="25">
+        <f>+(1+$K$10/100)^-YEARFRAC(AE$2,$X$1)</f>
+        <v>0.91316131924595789</v>
+      </c>
+      <c r="AF7" s="25">
+        <f>+(1+$K$11/100)^-YEARFRAC(AF$2,$X$1)</f>
+        <v>0.89418545573138519</v>
+      </c>
+      <c r="AG7" s="25">
+        <f>+(1+$K$12/100)^-YEARFRAC(AG$2,$X$1)</f>
+        <v>0.87594242787053134</v>
+      </c>
+      <c r="AH7" s="25">
+        <f>+(1+$K$13/100)^-YEARFRAC(AH$2,$X$1)</f>
+        <v>0.85843829963845064</v>
+      </c>
+      <c r="AI7" s="25">
+        <f>+(1+$K$14/100)^-YEARFRAC(AI$2,$X$1)</f>
+        <v>0.84149175605565185</v>
+      </c>
+      <c r="AJ7" s="25">
+        <f>+(1+$K$15/100)^-YEARFRAC(AJ$2,$X$1)</f>
+        <v>0.82493740269366544</v>
+      </c>
+      <c r="AK7" s="25">
+        <f>+(1+$K$16/100)^-YEARFRAC(AK$2,$X$1)</f>
+        <v>0.80848278291590814</v>
+      </c>
+      <c r="AL7" s="25">
+        <f>+(1+$K$17/100)^-YEARFRAC(AL$2,$X$1)</f>
+        <v>0.79196450639116922</v>
+      </c>
+      <c r="AM7" s="25">
+        <f>+(1+$K$18/100)^-YEARFRAC(AM$2,$X$1)</f>
+        <v>0.77533308453965977</v>
+      </c>
+      <c r="AN7" s="25">
+        <f>+(1+$K$19/100)^-YEARFRAC(AN$2,$X$1)</f>
+        <v>0.75876560315341157</v>
+      </c>
+      <c r="AO7" s="25">
+        <f>+(1+$K$20/100)^-YEARFRAC(AO$2,$X$1)</f>
+        <v>0.7424919104329113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A8" s="3">
         <v>45482</v>
       </c>
@@ -7599,96 +7630,113 @@
         <v>43750</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G20" si="6">+D8/C8*2</f>
+        <f t="shared" ref="G8:G20" si="5">+D8/C8*2</f>
         <v>0.75</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" ref="H8:H20" si="7">+A8-$N$1</f>
+        <f t="shared" ref="H8:H20" si="6">+A8-$X$1</f>
         <v>294</v>
       </c>
       <c r="I8" s="9">
-        <f>+YEARFRAC($N$1,A8,0)</f>
+        <f>+YEARFRAC($X$1,A8,0)</f>
         <v>0.80555555555555558</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" ref="J8:J20" si="8">+F8/(1+K8/100)^I8</f>
+        <f t="shared" ref="J8:J20" si="7">+F8/(1+K8/100)^I8</f>
         <v>41910.18442163444</v>
       </c>
       <c r="K8" s="9">
         <v>5.4780901999999996</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="26">
+        <f t="shared" ref="L8:L20" si="8">+(((1+K8/100)^(H8/365)/(1+$K$7/100)^($H$7/365))^(365/(H8-$H$7))-1)*100</f>
+        <v>5.4429788817679459</v>
+      </c>
+      <c r="M8" s="26" t="e">
+        <f>+(((1+K8/100)^(H8/365)/(1+$K$8/100)^($H$8/365))^(365/(H8-$H$8))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="16">
-        <f>+N7/N2</f>
+      <c r="X8" s="16">
+        <f>+X7/X2</f>
         <v>-1.8491317959967348</v>
       </c>
-      <c r="P8" s="23">
-        <f>+SUM(R8:AE8)</f>
-        <v>408.72969708415582</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="Z8" s="23">
+        <f>+SUM(AB8:AO8)</f>
+        <v>396.71632837058939</v>
+      </c>
+      <c r="AA8" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="23">
-        <f>+R7*R6</f>
-        <v>49.915593037237045</v>
-      </c>
-      <c r="S8" s="23">
-        <f t="shared" ref="S8:AE8" si="9">+S7*S6</f>
-        <v>50.312579855563598</v>
-      </c>
-      <c r="T8" s="23">
-        <f t="shared" si="9"/>
-        <v>48.346394238723569</v>
-      </c>
-      <c r="U8" s="23">
-        <f t="shared" si="9"/>
-        <v>44.09340017900751</v>
-      </c>
-      <c r="V8" s="23">
-        <f t="shared" si="9"/>
-        <v>39.893051959255885</v>
-      </c>
-      <c r="W8" s="23">
-        <f t="shared" si="9"/>
-        <v>35.744908733445094</v>
-      </c>
-      <c r="X8" s="23">
-        <f t="shared" si="9"/>
-        <v>31.648526924134362</v>
-      </c>
-      <c r="Y8" s="23">
-        <f t="shared" si="9"/>
-        <v>27.603460494797826</v>
-      </c>
-      <c r="Z8" s="23">
-        <f t="shared" si="9"/>
-        <v>23.609261212609688</v>
-      </c>
-      <c r="AA8" s="23">
-        <f t="shared" si="9"/>
-        <v>19.462769798392792</v>
-      </c>
       <c r="AB8" s="23">
-        <f t="shared" si="9"/>
-        <v>15.40330872722487</v>
+        <f>+AB7*AB6</f>
+        <v>48.058909824498315</v>
       </c>
       <c r="AC8" s="23">
-        <f t="shared" si="9"/>
-        <v>11.429061542219763</v>
+        <f t="shared" ref="AC8:AO8" si="9">+AC7*AC6</f>
+        <v>48.712658916540803</v>
       </c>
       <c r="AD8" s="23">
         <f t="shared" si="9"/>
-        <v>7.5382495151957603</v>
+        <v>46.988890629262762</v>
       </c>
       <c r="AE8" s="23">
         <f t="shared" si="9"/>
-        <v>3.7291308663480125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+        <v>42.889083932192264</v>
+      </c>
+      <c r="AF8" s="23">
+        <f t="shared" si="9"/>
+        <v>38.82524627507992</v>
+      </c>
+      <c r="AG8" s="23">
+        <f t="shared" si="9"/>
+        <v>34.778341971965055</v>
+      </c>
+      <c r="AH8" s="23">
+        <f t="shared" si="9"/>
+        <v>30.79543709891421</v>
+      </c>
+      <c r="AI8" s="23">
+        <f t="shared" si="9"/>
+        <v>26.839842328779181</v>
+      </c>
+      <c r="AJ8" s="23">
+        <f t="shared" si="9"/>
+        <v>22.948938347545788</v>
+      </c>
+      <c r="AK8" s="23">
+        <f t="shared" si="9"/>
+        <v>18.904050588439159</v>
+      </c>
+      <c r="AL8" s="23">
+        <f t="shared" si="9"/>
+        <v>14.956312630855477</v>
+      </c>
+      <c r="AM8" s="23">
+        <f t="shared" si="9"/>
+        <v>11.089439696312931</v>
+      </c>
+      <c r="AN8" s="23">
+        <f t="shared" si="9"/>
+        <v>7.3132405263953411</v>
+      </c>
+      <c r="AO8" s="23">
+        <f t="shared" si="9"/>
+        <v>3.6159356038082779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45666</v>
       </c>
@@ -7709,35 +7757,55 @@
         <v>83600</v>
       </c>
       <c r="G9">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="15">
         <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="15">
+        <v>478</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" ref="I9:I20" si="11">+YEARFRAC($X$1,A9,0)</f>
+        <v>1.3055555555555556</v>
+      </c>
+      <c r="J9" s="9">
         <f t="shared" si="7"/>
-        <v>478</v>
-      </c>
-      <c r="I9" s="9">
-        <f t="shared" ref="I9:I20" si="11">+YEARFRAC($N$1,A9,0)</f>
-        <v>1.3055555555555556</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" si="8"/>
         <v>78088.55111439382</v>
       </c>
       <c r="K9" s="9">
         <v>5.3626843400000004</v>
       </c>
-      <c r="P9" t="s">
+      <c r="L9" s="26">
+        <f t="shared" si="8"/>
+        <v>5.3099578826998561</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" ref="M9:M20" si="12">+(((1+K9/100)^(H9/365)/(1+$K$8/100)^($H$8/365))^(365/(H9-$H$8))-1)*100</f>
+        <v>5.1785478505568916</v>
+      </c>
+      <c r="N9" s="26" t="e">
+        <f>+(((1+K9/100)^(H9/365)/(1+$K$9/100)^($H$9/365))^(365/(H9-$H$9))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="Z9" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="AA9" t="s">
         <v>3</v>
       </c>
-      <c r="R9" t="s">
+      <c r="AB9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A10" s="3">
         <v>45847</v>
       </c>
@@ -7758,11 +7826,11 @@
         <v>83300</v>
       </c>
       <c r="G10">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="15">
         <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="H10" s="15">
-        <f t="shared" si="7"/>
         <v>659</v>
       </c>
       <c r="I10" s="9">
@@ -7770,34 +7838,57 @@
         <v>1.8055555555555556</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>76066.337893188291</v>
       </c>
       <c r="K10" s="9">
         <v>5.1600082699999996</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" s="26">
+        <f t="shared" si="8"/>
+        <v>5.0833571404693689</v>
+      </c>
+      <c r="M10" s="26">
+        <f t="shared" si="12"/>
+        <v>4.9044974294241594</v>
+      </c>
+      <c r="N10" s="26">
+        <f t="shared" ref="N10:N20" si="13">+(((1+K10/100)^(H10/365)/(1+$K$9/100)^($H$9/365))^(365/(H10-$H$9))-1)*100</f>
+        <v>4.6266366349654975</v>
+      </c>
+      <c r="O10" s="26" t="e">
+        <f>+(((1+K10/100)^(H10/365)/(1+$K$10/100)^($H$10/365))^(365/(H10-$H$10))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="12">
-        <f>+N6-N2</f>
+      <c r="X10" s="12">
+        <f>+X6-X2</f>
         <v>56.731363501179821</v>
       </c>
-      <c r="P10" s="11">
-        <f t="shared" ref="P10:P23" si="12">+A7</f>
+      <c r="Z10" s="11">
+        <f t="shared" ref="Z10:Z23" si="14">+A7</f>
         <v>45300</v>
       </c>
-      <c r="Q10" s="15">
-        <f t="shared" ref="Q10:Q23" si="13">+F7</f>
+      <c r="AA10" s="15">
+        <f t="shared" ref="AA10:AA23" si="15">+F7</f>
         <v>3750</v>
       </c>
-      <c r="R10" s="13">
-        <f t="shared" ref="R10:R23" si="14">+(1+$N$3)^-YEARFRAC($P10,$P$10)</f>
+      <c r="AB10" s="13">
+        <f>+(1+$X$3)^-YEARFRAC($Z10,$Z$10)</f>
         <v>1</v>
       </c>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AC10" s="13"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>46031</v>
       </c>
@@ -7818,11 +7909,11 @@
         <v>83000</v>
       </c>
       <c r="G11">
+        <f t="shared" si="5"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="H11" s="15">
         <f t="shared" si="6"/>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="7"/>
         <v>843</v>
       </c>
       <c r="I11" s="9">
@@ -7830,37 +7921,63 @@
         <v>2.3055555555555554</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>74217.39282570497</v>
       </c>
       <c r="K11" s="9">
         <v>4.9705677799999997</v>
       </c>
-      <c r="M11" t="s">
+      <c r="L11" s="26">
+        <f t="shared" si="8"/>
+        <v>4.8843294764046252</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" si="12"/>
+        <v>4.699784600691026</v>
+      </c>
+      <c r="N11" s="26">
+        <f t="shared" si="13"/>
+        <v>4.4592622852936969</v>
+      </c>
+      <c r="O11" s="26">
+        <f t="shared" ref="O11:O20" si="16">+(((1+K11/100)^(H11/365)/(1+$K$10/100)^($H$10/365))^(365/(H11-$H$10))-1)*100</f>
+        <v>4.2948781085087262</v>
+      </c>
+      <c r="P11" s="26" t="e">
+        <f>+(((1+K11/100)^(H11/365)/(1+$K$11/100)^($H$11/365))^(365/(H11-$H$11))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="22">
-        <f>+N10/SUM(R8:AE8)*2</f>
-        <v>0.27759844173739623</v>
-      </c>
-      <c r="P11" s="11">
-        <f t="shared" si="12"/>
+      <c r="X11" s="22">
+        <f>+X10/SUM(AB8:AO8)*2</f>
+        <v>0.28600468114932071</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="14"/>
         <v>45482</v>
       </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="13"/>
+      <c r="AA11" s="15">
+        <f t="shared" si="15"/>
         <v>43750</v>
       </c>
-      <c r="R11" s="13">
-        <f t="shared" si="14"/>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="S11" s="13">
-        <f t="shared" ref="S11:S23" si="15">+(1+$N$3)^-YEARFRAC($P11,$P$11)</f>
+      <c r="AB11" s="27">
+        <f t="shared" ref="AB11:AB23" si="17">+(1+L8/100)^-((H8-$H$7)/365)</f>
+        <v>0.97391868425700878</v>
+      </c>
+      <c r="AC11" s="13">
+        <f>+(1+$X$3)^-YEARFRAC($Z11,$Z$11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A12" s="3">
         <v>46212</v>
       </c>
@@ -7881,11 +7998,11 @@
         <v>82700</v>
       </c>
       <c r="G12">
+        <f t="shared" si="5"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="H12" s="15">
         <f t="shared" si="6"/>
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
       <c r="I12" s="9">
@@ -7893,34 +8010,63 @@
         <v>2.8055555555555554</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>72440.438784892947</v>
       </c>
       <c r="K12" s="9">
         <v>4.8343869399999999</v>
       </c>
-      <c r="P12" s="11">
+      <c r="L12" s="26">
+        <f t="shared" si="8"/>
+        <v>4.7486471868301461</v>
+      </c>
+      <c r="M12" s="26">
         <f t="shared" si="12"/>
+        <v>4.5762530533879575</v>
+      </c>
+      <c r="N12" s="26">
+        <f t="shared" si="13"/>
+        <v>4.3740598904487893</v>
+      </c>
+      <c r="O12" s="26">
+        <f t="shared" si="16"/>
+        <v>4.2490357483834007</v>
+      </c>
+      <c r="P12" s="26">
+        <f t="shared" ref="P12:P20" si="18">+(((1+K12/100)^(H12/365)/(1+$K$11/100)^($H$11/365))^(365/(H12-$H$11))-1)*100</f>
+        <v>4.2024542236241746</v>
+      </c>
+      <c r="Q12" s="26" t="e">
+        <f>+(((1+K12/100)^(H12/365)/(1+$K$12/100)^($H$12/365))^(365/(H12-$H$12))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="Z12" s="11">
+        <f t="shared" si="14"/>
         <v>45666</v>
       </c>
-      <c r="Q12" s="15">
-        <f t="shared" si="13"/>
+      <c r="AA12" s="15">
+        <f t="shared" si="15"/>
         <v>83600</v>
       </c>
-      <c r="R12" s="13">
-        <f t="shared" si="14"/>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="S12" s="13">
-        <f t="shared" si="15"/>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="T12" s="13">
-        <f t="shared" ref="T12:T23" si="16">+(1+$N$3)^-YEARFRAC($P12,$P$12)</f>
+      <c r="AB12" s="27">
+        <f t="shared" si="17"/>
+        <v>0.94944322717756691</v>
+      </c>
+      <c r="AC12" s="27">
+        <f t="shared" ref="AC12:AC23" si="19">+(1+M9/100)^-((H9-$H$8)/365)</f>
+        <v>0.97486909587517168</v>
+      </c>
+      <c r="AD12" s="13">
+        <f>+(1+$X$3)^-YEARFRAC($Z12,$Z$12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>46396</v>
       </c>
@@ -7941,11 +8087,11 @@
         <v>82400</v>
       </c>
       <c r="G13">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="H13" s="15">
         <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="H13" s="15">
-        <f t="shared" si="7"/>
         <v>1208</v>
       </c>
       <c r="I13" s="9">
@@ -7953,38 +8099,70 @@
         <v>3.3055555555555554</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>70735.315890208323</v>
       </c>
       <c r="K13" s="9">
         <v>4.7259706399999999</v>
       </c>
-      <c r="P13" s="11">
+      <c r="L13" s="26">
+        <f t="shared" si="8"/>
+        <v>4.643628854920534</v>
+      </c>
+      <c r="M13" s="26">
         <f t="shared" si="12"/>
+        <v>4.4851834308631044</v>
+      </c>
+      <c r="N13" s="26">
+        <f t="shared" si="13"/>
+        <v>4.3111400407220835</v>
+      </c>
+      <c r="O13" s="26">
+        <f t="shared" si="16"/>
+        <v>4.207332532597996</v>
+      </c>
+      <c r="P13" s="26">
+        <f t="shared" si="18"/>
+        <v>4.1632278320903771</v>
+      </c>
+      <c r="Q13" s="26">
+        <f t="shared" ref="Q13:Q20" si="20">+(((1+K13/100)^(H13/365)/(1+$K$12/100)^($H$12/365))^(365/(H13-$H$12))-1)*100</f>
+        <v>4.1246554086828757</v>
+      </c>
+      <c r="R13" s="26" t="e">
+        <f>+(((1+K13/100)^(H13/365)/(1+$K$13/100)^($H$13/365))^(365/(H13-$H$13))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="Z13" s="11">
+        <f t="shared" si="14"/>
         <v>45847</v>
       </c>
-      <c r="Q13" s="15">
-        <f t="shared" si="13"/>
+      <c r="AA13" s="15">
+        <f t="shared" si="15"/>
         <v>83300</v>
       </c>
-      <c r="R13" s="13">
-        <f t="shared" si="14"/>
-        <v>0.94286603431819238</v>
-      </c>
-      <c r="S13" s="13">
-        <f t="shared" si="15"/>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="T13" s="13">
-        <f t="shared" si="16"/>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="U13" s="13">
-        <f t="shared" ref="U13:U23" si="17">+(1+$N$3)^-YEARFRAC($P13,$P$13)</f>
+      <c r="AB13" s="27">
+        <f t="shared" si="17"/>
+        <v>0.92838601596869119</v>
+      </c>
+      <c r="AC13" s="27">
+        <f t="shared" si="19"/>
+        <v>0.95324797744993039</v>
+      </c>
+      <c r="AD13" s="27">
+        <f>+(1+N10/100)^-((H10-$H$9)/365)</f>
+        <v>0.97782151622538471</v>
+      </c>
+      <c r="AE13" s="13">
+        <f t="shared" ref="AE13" si="21">+(1+$X$3)^-YEARFRAC($Z13,$Z$13)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A14" s="3">
         <v>46577</v>
       </c>
@@ -8005,11 +8183,11 @@
         <v>82100</v>
       </c>
       <c r="G14">
+        <f t="shared" si="5"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="H14" s="15">
         <f t="shared" si="6"/>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" si="7"/>
         <v>1389</v>
       </c>
       <c r="I14" s="9">
@@ -8017,43 +8195,78 @@
         <v>3.8055555555555554</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>69086.473172169019</v>
       </c>
       <c r="K14" s="9">
         <v>4.6393241200000004</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="P14" s="11">
+      <c r="L14" s="26">
+        <f t="shared" si="8"/>
+        <v>4.561117031462425</v>
+      </c>
+      <c r="M14" s="26">
         <f t="shared" si="12"/>
+        <v>4.4152592058345652</v>
+      </c>
+      <c r="N14" s="26">
+        <f t="shared" si="13"/>
+        <v>4.261767016018303</v>
+      </c>
+      <c r="O14" s="26">
+        <f t="shared" si="16"/>
+        <v>4.1714963743308742</v>
+      </c>
+      <c r="P14" s="26">
+        <f t="shared" si="18"/>
+        <v>4.1299500729113925</v>
+      </c>
+      <c r="Q14" s="26">
+        <f t="shared" si="20"/>
+        <v>4.094014673277302</v>
+      </c>
+      <c r="R14" s="26">
+        <f t="shared" ref="R14:R20" si="22">+(((1+K14/100)^(H14/365)/(1+$K$13/100)^($H$13/365))^(365/(H14-$H$13))-1)*100</f>
+        <v>4.0628753224142278</v>
+      </c>
+      <c r="S14" s="26" t="e">
+        <f>+(((1+K14/100)^(H14/365)/(1+$K$14/100)^($H$14/365))^(365/(H14-$H$14))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="X14" s="24"/>
+      <c r="Z14" s="11">
+        <f t="shared" si="14"/>
         <v>46031</v>
       </c>
-      <c r="Q14" s="15">
-        <f t="shared" si="13"/>
+      <c r="AA14" s="15">
+        <f t="shared" si="15"/>
         <v>83000</v>
       </c>
-      <c r="R14" s="13">
-        <f t="shared" si="14"/>
-        <v>0.92455621301775137</v>
-      </c>
-      <c r="S14" s="13">
-        <f t="shared" si="15"/>
-        <v>0.94286603431819238</v>
-      </c>
-      <c r="T14" s="13">
-        <f t="shared" si="16"/>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="U14" s="13">
+      <c r="AB14" s="27">
         <f t="shared" si="17"/>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="V14" s="13">
-        <f t="shared" ref="V14:V23" si="18">+(1+$N$3)^-YEARFRAC($P14,$P$14)</f>
+        <v>0.90891243763956242</v>
+      </c>
+      <c r="AC14" s="27">
+        <f t="shared" si="19"/>
+        <v>0.93325290122446036</v>
+      </c>
+      <c r="AD14" s="27">
+        <f>+(1+N11/100)^-(($H11-$H$9)/365)</f>
+        <v>0.95731099198159386</v>
+      </c>
+      <c r="AE14" s="27">
+        <f>+(1+O11/100)^-(($H11-$H$10)/365)</f>
+        <v>0.97902426577504031</v>
+      </c>
+      <c r="AF14" s="13">
+        <f t="shared" ref="AF14" si="23">+(1+$X$3)^-YEARFRAC($Z14,$Z$14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>46761</v>
       </c>
@@ -8074,11 +8287,11 @@
         <v>84200</v>
       </c>
       <c r="G15">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="H15" s="15">
         <f t="shared" si="6"/>
-        <v>1.75</v>
-      </c>
-      <c r="H15" s="15">
-        <f t="shared" si="7"/>
         <v>1573</v>
       </c>
       <c r="I15" s="9">
@@ -8086,46 +8299,84 @@
         <v>4.3055555555555554</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>69459.729306806636</v>
       </c>
       <c r="K15" s="9">
         <v>4.5711533299999996</v>
       </c>
-      <c r="P15" s="11">
+      <c r="L15" s="26">
+        <f t="shared" si="8"/>
+        <v>4.4976163343802833</v>
+      </c>
+      <c r="M15" s="26">
         <f t="shared" si="12"/>
+        <v>4.3637831314438325</v>
+      </c>
+      <c r="N15" s="26">
+        <f t="shared" si="13"/>
+        <v>4.2274936254728335</v>
+      </c>
+      <c r="O15" s="26">
+        <f t="shared" si="16"/>
+        <v>4.148631894552568</v>
+      </c>
+      <c r="P15" s="26">
+        <f t="shared" si="18"/>
+        <v>4.111802205426307</v>
+      </c>
+      <c r="Q15" s="26">
+        <f t="shared" si="20"/>
+        <v>4.0819323999029322</v>
+      </c>
+      <c r="R15" s="26">
+        <f t="shared" si="22"/>
+        <v>4.0604019677131342</v>
+      </c>
+      <c r="S15" s="26">
+        <f t="shared" ref="S15:S20" si="24">+(((1+K15/100)^(H15/365)/(1+$K$14/100)^($H$14/365))^(365/(H15-$H$14))-1)*100</f>
+        <v>4.0579689968039068</v>
+      </c>
+      <c r="T15" s="26" t="e">
+        <f>+(((1+K15/100)^(H15/365)/(1+$K$15/100)^($H$15/365))^(365/(H15-$H$15))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="Z15" s="11">
+        <f t="shared" si="14"/>
         <v>46212</v>
       </c>
-      <c r="Q15" s="15">
-        <f t="shared" si="13"/>
+      <c r="AA15" s="15">
+        <f t="shared" si="15"/>
         <v>82700</v>
       </c>
-      <c r="R15" s="13">
-        <f t="shared" si="14"/>
-        <v>0.9066019560751849</v>
-      </c>
-      <c r="S15" s="13">
-        <f t="shared" si="15"/>
-        <v>0.92455621301775137</v>
-      </c>
-      <c r="T15" s="13">
-        <f t="shared" si="16"/>
-        <v>0.94286603431819238</v>
-      </c>
-      <c r="U15" s="13">
+      <c r="AB15" s="27">
         <f t="shared" si="17"/>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="V15" s="13">
-        <f t="shared" si="18"/>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="W15" s="13">
-        <f t="shared" ref="W15:W23" si="19">+(1+$N$3)^-YEARFRAC($P15,$P$15)</f>
+        <v>0.89054638184803325</v>
+      </c>
+      <c r="AC15" s="27">
+        <f t="shared" si="19"/>
+        <v>0.91439500673243634</v>
+      </c>
+      <c r="AD15" s="27">
+        <f t="shared" ref="AD15:AD23" si="25">+(1+N12/100)^-((H12-$H$9)/365)</f>
+        <v>0.93796696459185058</v>
+      </c>
+      <c r="AE15" s="27">
+        <f t="shared" ref="AE15:AE23" si="26">+(1+O12/100)^-(($H12-$H$10)/365)</f>
+        <v>0.95924148633241157</v>
+      </c>
+      <c r="AF15" s="27">
+        <f>+(1+P12/100)^-(($H12-$H$11)/365)</f>
+        <v>0.97979337169240877</v>
+      </c>
+      <c r="AG15" s="13">
+        <f t="shared" ref="AG15" si="27">+(1+$X$3)^-YEARFRAC($Z15,$Z$15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A16" s="3">
         <v>46943</v>
       </c>
@@ -8146,11 +8397,11 @@
         <v>83500</v>
       </c>
       <c r="G16">
+        <f t="shared" si="5"/>
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="H16" s="15">
         <f t="shared" si="6"/>
-        <v>1.7499999999999998</v>
-      </c>
-      <c r="H16" s="15">
-        <f t="shared" si="7"/>
         <v>1755</v>
       </c>
       <c r="I16" s="9">
@@ -8158,50 +8409,91 @@
         <v>4.8055555555555554</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>67508.312373478329</v>
       </c>
       <c r="K16" s="9">
         <v>4.5232771300000003</v>
       </c>
-      <c r="P16" s="11">
+      <c r="L16" s="26">
+        <f t="shared" si="8"/>
+        <v>4.4546526525185648</v>
+      </c>
+      <c r="M16" s="26">
         <f t="shared" si="12"/>
+        <v>4.3321853274355338</v>
+      </c>
+      <c r="N16" s="26">
+        <f t="shared" si="13"/>
+        <v>4.2107975476220361</v>
+      </c>
+      <c r="O16" s="26">
+        <f t="shared" si="16"/>
+        <v>4.1422825788048456</v>
+      </c>
+      <c r="P16" s="26">
+        <f t="shared" si="18"/>
+        <v>4.1115228382808899</v>
+      </c>
+      <c r="Q16" s="26">
+        <f t="shared" si="20"/>
+        <v>4.0890199388937898</v>
+      </c>
+      <c r="R16" s="26">
+        <f t="shared" si="22"/>
+        <v>4.0770356118608575</v>
+      </c>
+      <c r="S16" s="26">
+        <f t="shared" si="24"/>
+        <v>4.0840390900061418</v>
+      </c>
+      <c r="T16" s="26">
+        <f t="shared" ref="T16:T20" si="28">+(((1+K16/100)^(H16/365)/(1+$K$15/100)^($H$15/365))^(365/(H16-$H$15))-1)*100</f>
+        <v>4.1104023072640494</v>
+      </c>
+      <c r="U16" s="26" t="e">
+        <f>+(((1+K16/100)^(H16/365)/(1+$K$16/100)^($H$16/365))^(365/(H16-$H$16))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="26"/>
+      <c r="Z16" s="11">
+        <f t="shared" si="14"/>
         <v>46396</v>
       </c>
-      <c r="Q16" s="15">
-        <f t="shared" si="13"/>
+      <c r="AA16" s="15">
+        <f t="shared" si="15"/>
         <v>82400</v>
       </c>
-      <c r="R16" s="13">
-        <f t="shared" si="14"/>
-        <v>0.88899635867091487</v>
-      </c>
-      <c r="S16" s="13">
-        <f t="shared" si="15"/>
-        <v>0.9066019560751849</v>
-      </c>
-      <c r="T16" s="13">
-        <f t="shared" si="16"/>
-        <v>0.92455621301775137</v>
-      </c>
-      <c r="U16" s="13">
+      <c r="AB16" s="27">
         <f t="shared" si="17"/>
-        <v>0.94286603431819238</v>
-      </c>
-      <c r="V16" s="13">
-        <f t="shared" si="18"/>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="W16" s="13">
+        <v>0.87258474661011476</v>
+      </c>
+      <c r="AC16" s="27">
         <f t="shared" si="19"/>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="X16" s="13">
-        <f t="shared" ref="X16:X23" si="20">+(1+$N$3)^-YEARFRAC($P16,$P$16)</f>
+        <v>0.89595236308234438</v>
+      </c>
+      <c r="AD16" s="27">
+        <f t="shared" si="25"/>
+        <v>0.9190488926905811</v>
+      </c>
+      <c r="AE16" s="27">
+        <f t="shared" si="26"/>
+        <v>0.93989432369858295</v>
+      </c>
+      <c r="AF16" s="27">
+        <f t="shared" ref="AF16:AF23" si="29">+(1+P13/100)^-(($H13-$H$11)/365)</f>
+        <v>0.96003169334574157</v>
+      </c>
+      <c r="AG16" s="27">
+        <f>+(1+Q13/100)^-(($H13-$H$12)/365)</f>
+        <v>0.97983076950956227</v>
+      </c>
+      <c r="AH16" s="13">
+        <f t="shared" ref="AH16" si="30">+(1+$X$3)^-YEARFRAC($Z16,$Z$16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>47127</v>
       </c>
@@ -8222,11 +8514,11 @@
         <v>82800</v>
       </c>
       <c r="G17">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="H17" s="15">
         <f t="shared" si="6"/>
-        <v>1.7500000000000002</v>
-      </c>
-      <c r="H17" s="15">
-        <f t="shared" si="7"/>
         <v>1939</v>
       </c>
       <c r="I17" s="9">
@@ -8234,54 +8526,98 @@
         <v>5.3055555555555554</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>65574.661129188811</v>
       </c>
       <c r="K17" s="9">
         <v>4.4941832899999996</v>
       </c>
-      <c r="P17" s="11">
+      <c r="L17" s="26">
+        <f t="shared" si="8"/>
+        <v>4.4307030134264735</v>
+      </c>
+      <c r="M17" s="26">
         <f t="shared" si="12"/>
+        <v>4.3193053155156313</v>
+      </c>
+      <c r="N17" s="26">
+        <f t="shared" si="13"/>
+        <v>4.2115902120785975</v>
+      </c>
+      <c r="O17" s="26">
+        <f t="shared" si="16"/>
+        <v>4.1530330758927203</v>
+      </c>
+      <c r="P17" s="26">
+        <f t="shared" si="18"/>
+        <v>4.1292385955917554</v>
+      </c>
+      <c r="Q17" s="26">
+        <f t="shared" si="20"/>
+        <v>4.1147615999095999</v>
+      </c>
+      <c r="R17" s="26">
+        <f t="shared" si="22"/>
+        <v>4.1122713775396003</v>
+      </c>
+      <c r="S17" s="26">
+        <f t="shared" si="24"/>
+        <v>4.1285322974609517</v>
+      </c>
+      <c r="T17" s="26">
+        <f t="shared" si="28"/>
+        <v>4.1640248163483884</v>
+      </c>
+      <c r="U17" s="26">
+        <f t="shared" ref="U17:U20" si="31">+(((1+K17/100)^(H17/365)/(1+$K$16/100)^($H$16/365))^(365/(H17-$H$16))-1)*100</f>
+        <v>4.2170916418554194</v>
+      </c>
+      <c r="V17" s="26" t="e">
+        <f>+(((1+K17/100)^(H17/365)/(1+$K$17/100)^($H$17/365))^(365/(H17-$H$17))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="14"/>
         <v>46577</v>
       </c>
-      <c r="Q17" s="15">
-        <f t="shared" si="13"/>
+      <c r="AA17" s="15">
+        <f t="shared" si="15"/>
         <v>82100</v>
       </c>
-      <c r="R17" s="13">
-        <f t="shared" si="14"/>
-        <v>0.87173265007229317</v>
-      </c>
-      <c r="S17" s="13">
-        <f t="shared" si="15"/>
-        <v>0.88899635867091487</v>
-      </c>
-      <c r="T17" s="13">
-        <f t="shared" si="16"/>
-        <v>0.9066019560751849</v>
-      </c>
-      <c r="U17" s="13">
+      <c r="AB17" s="27">
         <f t="shared" si="17"/>
-        <v>0.92455621301775137</v>
-      </c>
-      <c r="V17" s="13">
-        <f t="shared" si="18"/>
-        <v>0.94286603431819238</v>
-      </c>
-      <c r="W17" s="13">
+        <v>0.85552121766387323</v>
+      </c>
+      <c r="AC17" s="27">
         <f t="shared" si="19"/>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="X17" s="13">
-        <f t="shared" si="20"/>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="Y17" s="13">
-        <f t="shared" ref="Y17:Y23" si="21">+(1+$N$3)^-YEARFRAC($P17,$P$17)</f>
+        <v>0.87843187680143997</v>
+      </c>
+      <c r="AD17" s="27">
+        <f t="shared" si="25"/>
+        <v>0.90107675022033928</v>
+      </c>
+      <c r="AE17" s="27">
+        <f t="shared" si="26"/>
+        <v>0.92151454561840929</v>
+      </c>
+      <c r="AF17" s="27">
+        <f t="shared" si="29"/>
+        <v>0.941258125904465</v>
+      </c>
+      <c r="AG17" s="27">
+        <f t="shared" ref="AG17:AG23" si="32">+(1+Q14/100)^-(($H14-$H$12)/365)</f>
+        <v>0.96067002808828827</v>
+      </c>
+      <c r="AH17" s="27">
+        <f>+(1+R14/100)^-(($H14-$H$13)/365)</f>
+        <v>0.98044484617393202</v>
+      </c>
+      <c r="AI17" s="13">
+        <f t="shared" ref="AI17" si="33">+(1+$X$3)^-YEARFRAC($Z17,$Z$17)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A18" s="3">
         <v>47308</v>
       </c>
@@ -8302,11 +8638,11 @@
         <v>82100</v>
       </c>
       <c r="G18">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="H18" s="15">
         <f t="shared" si="6"/>
-        <v>1.75</v>
-      </c>
-      <c r="H18" s="15">
-        <f t="shared" si="7"/>
         <v>2120</v>
       </c>
       <c r="I18" s="9">
@@ -8314,58 +8650,106 @@
         <v>5.8055555555555554</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>63654.846240706065</v>
       </c>
       <c r="K18" s="9">
         <v>4.4805632800000001</v>
       </c>
-      <c r="P18" s="11">
+      <c r="L18" s="26">
+        <f t="shared" si="8"/>
+        <v>4.4220518172592094</v>
+      </c>
+      <c r="M18" s="26">
         <f t="shared" si="12"/>
+        <v>4.3208378761914856</v>
+      </c>
+      <c r="N18" s="26">
+        <f t="shared" si="13"/>
+        <v>4.2251610776168125</v>
+      </c>
+      <c r="O18" s="26">
+        <f t="shared" si="16"/>
+        <v>4.1755305452836566</v>
+      </c>
+      <c r="P18" s="26">
+        <f t="shared" si="18"/>
+        <v>4.1583452893522832</v>
+      </c>
+      <c r="Q18" s="26">
+        <f t="shared" si="20"/>
+        <v>4.1510626725093092</v>
+      </c>
+      <c r="R18" s="26">
+        <f t="shared" si="22"/>
+        <v>4.1563912656517266</v>
+      </c>
+      <c r="S18" s="26">
+        <f t="shared" si="24"/>
+        <v>4.1795593534426079</v>
+      </c>
+      <c r="T18" s="26">
+        <f t="shared" si="28"/>
+        <v>4.2204918744895847</v>
+      </c>
+      <c r="U18" s="26">
+        <f t="shared" si="31"/>
+        <v>4.2754293379786867</v>
+      </c>
+      <c r="V18" s="26">
+        <f t="shared" ref="V18:V20" si="34">+(((1+K18/100)^(H18/365)/(1+$K$17/100)^($H$17/365))^(365/(H18-$H$17))-1)*100</f>
+        <v>4.3347674294595295</v>
+      </c>
+      <c r="W18" s="26" t="e">
+        <f>+(((1+K18/100)^(H18/365)/(1+$K$18/100)^($H$18/365))^(365/(H18-$H$18))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="14"/>
         <v>46761</v>
       </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="13"/>
+      <c r="AA18" s="15">
+        <f t="shared" si="15"/>
         <v>84200</v>
       </c>
-      <c r="R18" s="13">
-        <f t="shared" si="14"/>
-        <v>0.85480419102972571</v>
-      </c>
-      <c r="S18" s="13">
-        <f t="shared" si="15"/>
-        <v>0.87173265007229317</v>
-      </c>
-      <c r="T18" s="13">
-        <f t="shared" si="16"/>
-        <v>0.88899635867091487</v>
-      </c>
-      <c r="U18" s="13">
+      <c r="AB18" s="27">
         <f t="shared" si="17"/>
-        <v>0.9066019560751849</v>
-      </c>
-      <c r="V18" s="13">
-        <f t="shared" si="18"/>
-        <v>0.92455621301775137</v>
-      </c>
-      <c r="W18" s="13">
+        <v>0.83853678258983899</v>
+      </c>
+      <c r="AC18" s="27">
         <f t="shared" si="19"/>
-        <v>0.94286603431819238</v>
-      </c>
-      <c r="X18" s="13">
-        <f t="shared" si="20"/>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="Y18" s="13">
-        <f t="shared" si="21"/>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="Z18" s="13">
-        <f t="shared" ref="Z18:Z23" si="22">+(1+$N$3)^-YEARFRAC($P18,$P$18)</f>
+        <v>0.86099260250823562</v>
+      </c>
+      <c r="AD18" s="27">
+        <f t="shared" si="25"/>
+        <v>0.88318791328111057</v>
+      </c>
+      <c r="AE18" s="27">
+        <f t="shared" si="26"/>
+        <v>0.90321996256578418</v>
+      </c>
+      <c r="AF18" s="27">
+        <f t="shared" si="29"/>
+        <v>0.92257157880632723</v>
+      </c>
+      <c r="AG18" s="27">
+        <f t="shared" si="32"/>
+        <v>0.94159810166173952</v>
+      </c>
+      <c r="AH18" s="27">
+        <f t="shared" ref="AH18:AH23" si="35">+(1+R15/100)^-(($H15-$H$13)/365)</f>
+        <v>0.96098033554614792</v>
+      </c>
+      <c r="AI18" s="27">
+        <f>+(1+S15/100)^-(($H15-$H$14)/365)</f>
+        <v>0.9801472661070717</v>
+      </c>
+      <c r="AJ18" s="13">
+        <f t="shared" ref="AJ18" si="36">+(1+$X$3)^-YEARFRAC($Z18,$Z$18)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>47492</v>
       </c>
@@ -8386,11 +8770,11 @@
         <v>81400</v>
       </c>
       <c r="G19">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="H19" s="15">
         <f t="shared" si="6"/>
-        <v>1.7500000000000002</v>
-      </c>
-      <c r="H19" s="15">
-        <f t="shared" si="7"/>
         <v>2304</v>
       </c>
       <c r="I19" s="9">
@@ -8398,62 +8782,114 @@
         <v>6.3055555555555554</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>61763.520096687695</v>
       </c>
       <c r="K19" s="9">
         <v>4.4753337399999999</v>
       </c>
-      <c r="P19" s="11">
+      <c r="L19" s="26">
+        <f t="shared" si="8"/>
+        <v>4.421468187522426</v>
+      </c>
+      <c r="M19" s="26">
         <f t="shared" si="12"/>
+        <v>4.3294632360785901</v>
+      </c>
+      <c r="N19" s="26">
+        <f t="shared" si="13"/>
+        <v>4.244284854036473</v>
+      </c>
+      <c r="O19" s="26">
+        <f t="shared" si="16"/>
+        <v>4.2022999591223131</v>
+      </c>
+      <c r="P19" s="26">
+        <f t="shared" si="18"/>
+        <v>4.1906463898020885</v>
+      </c>
+      <c r="Q19" s="26">
+        <f t="shared" si="20"/>
+        <v>4.1889767962836943</v>
+      </c>
+      <c r="R19" s="26">
+        <f t="shared" si="22"/>
+        <v>4.1997791719838418</v>
+      </c>
+      <c r="S19" s="26">
+        <f t="shared" si="24"/>
+        <v>4.2268820289466325</v>
+      </c>
+      <c r="T19" s="26">
+        <f t="shared" si="28"/>
+        <v>4.2694423026506056</v>
+      </c>
+      <c r="U19" s="26">
+        <f t="shared" si="31"/>
+        <v>4.3222195465906443</v>
+      </c>
+      <c r="V19" s="26">
+        <f t="shared" si="34"/>
+        <v>4.3752557289503002</v>
+      </c>
+      <c r="W19" s="26">
+        <f t="shared" ref="W19:W20" si="37">+(((1+K19/100)^(H19/365)/(1+$K$18/100)^($H$18/365))^(365/(H19-$H$18))-1)*100</f>
+        <v>4.4150992228672914</v>
+      </c>
+      <c r="X19" s="26" t="e">
+        <f>+(((1+K19/100)^(H19/365)/(1+$K$19/100)^($H$19/365))^(365/(H19-$H$19))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="14"/>
         <v>46943</v>
       </c>
-      <c r="Q19" s="15">
-        <f t="shared" si="13"/>
+      <c r="AA19" s="15">
+        <f t="shared" si="15"/>
         <v>83500</v>
       </c>
-      <c r="R19" s="13">
-        <f t="shared" si="14"/>
-        <v>0.83820447122335884</v>
-      </c>
-      <c r="S19" s="13">
-        <f t="shared" si="15"/>
-        <v>0.85480419102972571</v>
-      </c>
-      <c r="T19" s="13">
-        <f t="shared" si="16"/>
-        <v>0.87173265007229317</v>
-      </c>
-      <c r="U19" s="13">
+      <c r="AB19" s="27">
         <f t="shared" si="17"/>
-        <v>0.88899635867091487</v>
-      </c>
-      <c r="V19" s="13">
-        <f t="shared" si="18"/>
-        <v>0.9066019560751849</v>
-      </c>
-      <c r="W19" s="13">
+        <v>0.82186222579540658</v>
+      </c>
+      <c r="AC19" s="27">
         <f t="shared" si="19"/>
-        <v>0.92455621301775137</v>
-      </c>
-      <c r="X19" s="13">
-        <f t="shared" si="20"/>
-        <v>0.94286603431819238</v>
-      </c>
-      <c r="Y19" s="13">
-        <f t="shared" si="21"/>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="Z19" s="13">
-        <f t="shared" si="22"/>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="AA19" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P19,$P$19)</f>
+        <v>0.84387150496285634</v>
+      </c>
+      <c r="AD19" s="27">
+        <f t="shared" si="25"/>
+        <v>0.86562545528770207</v>
+      </c>
+      <c r="AE19" s="27">
+        <f t="shared" si="26"/>
+        <v>0.88525916123140225</v>
+      </c>
+      <c r="AF19" s="27">
+        <f t="shared" si="29"/>
+        <v>0.90422596474724837</v>
+      </c>
+      <c r="AG19" s="27">
+        <f t="shared" si="32"/>
+        <v>0.92287413945796359</v>
+      </c>
+      <c r="AH19" s="27">
+        <f t="shared" si="35"/>
+        <v>0.94187095177659363</v>
+      </c>
+      <c r="AI19" s="27">
+        <f t="shared" ref="AI19:AI23" si="38">+(1+S16/100)^-(($H16-$H$14)/365)</f>
+        <v>0.96065674214325425</v>
+      </c>
+      <c r="AJ19" s="27">
+        <f>+(1+T16/100)^-(($H16-$H$15)/365)</f>
+        <v>0.98011469843584886</v>
+      </c>
+      <c r="AK19" s="13">
+        <f>+(1+$X$3)^-YEARFRAC($Z19,$Z$19)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A20" s="3">
         <v>47673</v>
       </c>
@@ -8474,11 +8910,11 @@
         <v>80700</v>
       </c>
       <c r="G20">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="H20" s="15">
         <f t="shared" si="6"/>
-        <v>1.7500000000000002</v>
-      </c>
-      <c r="H20" s="15">
-        <f t="shared" si="7"/>
         <v>2485</v>
       </c>
       <c r="I20" s="9">
@@ -8486,248 +8922,300 @@
         <v>6.8055555555555554</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>59919.097171935944</v>
       </c>
       <c r="K20" s="9">
         <v>4.472118</v>
       </c>
-      <c r="P20" s="11">
+      <c r="L20" s="26">
+        <f t="shared" si="8"/>
+        <v>4.4222098818722744</v>
+      </c>
+      <c r="M20" s="26">
         <f t="shared" si="12"/>
+        <v>4.3378634105531111</v>
+      </c>
+      <c r="N20" s="26">
+        <f t="shared" si="13"/>
+        <v>4.2611272744993434</v>
+      </c>
+      <c r="O20" s="26">
+        <f t="shared" si="16"/>
+        <v>4.2249662409467037</v>
+      </c>
+      <c r="P20" s="26">
+        <f t="shared" si="18"/>
+        <v>4.2171349449303008</v>
+      </c>
+      <c r="Q20" s="26">
+        <f t="shared" si="20"/>
+        <v>4.21895385041966</v>
+      </c>
+      <c r="R20" s="26">
+        <f t="shared" si="22"/>
+        <v>4.2325481337213811</v>
+      </c>
+      <c r="S20" s="26">
+        <f t="shared" si="24"/>
+        <v>4.2605955215344382</v>
+      </c>
+      <c r="T20" s="26">
+        <f t="shared" si="28"/>
+        <v>4.3015241196660892</v>
+      </c>
+      <c r="U20" s="26">
+        <f t="shared" si="31"/>
+        <v>4.3492282831167461</v>
+      </c>
+      <c r="V20" s="26">
+        <f t="shared" si="34"/>
+        <v>4.3937955793358796</v>
+      </c>
+      <c r="W20" s="26">
+        <f t="shared" si="37"/>
+        <v>4.4230794580498722</v>
+      </c>
+      <c r="X20" s="26">
+        <f>+(((1+K20/100)^(H20/365)/(1+$K$19/100)^($H$19/365))^(365/(H20-$H$19))-1)*100</f>
+        <v>4.4311925874847446</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="14"/>
         <v>47127</v>
       </c>
-      <c r="Q20" s="15">
-        <f t="shared" si="13"/>
+      <c r="AA20" s="15">
+        <f t="shared" si="15"/>
         <v>82800</v>
       </c>
-      <c r="R20" s="13">
+      <c r="AB20" s="27">
+        <f t="shared" si="17"/>
+        <v>0.80492575504020869</v>
+      </c>
+      <c r="AC20" s="27">
+        <f t="shared" si="19"/>
+        <v>0.82648147946178596</v>
+      </c>
+      <c r="AD20" s="27">
+        <f t="shared" si="25"/>
+        <v>0.84778713671277706</v>
+      </c>
+      <c r="AE20" s="27">
+        <f t="shared" si="26"/>
+        <v>0.86701624237665587</v>
+      </c>
+      <c r="AF20" s="27">
+        <f t="shared" si="29"/>
+        <v>0.88559218875978141</v>
+      </c>
+      <c r="AG20" s="27">
+        <f t="shared" si="32"/>
+        <v>0.90385607245953037</v>
+      </c>
+      <c r="AH20" s="27">
+        <f t="shared" si="35"/>
+        <v>0.92246140924104703</v>
+      </c>
+      <c r="AI20" s="27">
+        <f t="shared" si="38"/>
+        <v>0.94086007269133154</v>
+      </c>
+      <c r="AJ20" s="27">
+        <f t="shared" ref="AJ20:AJ23" si="39">+(1+T17/100)^-(($H17-$H$15)/365)</f>
+        <v>0.95991705045326481</v>
+      </c>
+      <c r="AK20" s="27">
+        <f>+(1+U17/100)^-(($H17-$H$16)/365)</f>
+        <v>0.97939256699770227</v>
+      </c>
+      <c r="AL20" s="13">
+        <f>+(1+$X$3)^-YEARFRAC($Z20,$Z$20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.75">
+      <c r="Z21" s="11">
         <f t="shared" si="14"/>
-        <v>0.82192710675935154</v>
-      </c>
-      <c r="S20" s="13">
+        <v>47308</v>
+      </c>
+      <c r="AA21" s="15">
         <f t="shared" si="15"/>
-        <v>0.83820447122335884</v>
-      </c>
-      <c r="T20" s="13">
-        <f t="shared" si="16"/>
-        <v>0.85480419102972571</v>
-      </c>
-      <c r="U20" s="13">
+        <v>82100</v>
+      </c>
+      <c r="AB21" s="27">
         <f t="shared" si="17"/>
-        <v>0.87173265007229317</v>
-      </c>
-      <c r="V20" s="13">
-        <f t="shared" si="18"/>
-        <v>0.88899635867091487</v>
-      </c>
-      <c r="W20" s="13">
+        <v>0.78816479683970209</v>
+      </c>
+      <c r="AC21" s="27">
         <f t="shared" si="19"/>
-        <v>0.9066019560751849</v>
-      </c>
-      <c r="X20" s="13">
-        <f t="shared" si="20"/>
-        <v>0.92455621301775137</v>
-      </c>
-      <c r="Y20" s="13">
-        <f t="shared" si="21"/>
-        <v>0.94286603431819238</v>
-      </c>
-      <c r="Z20" s="13">
-        <f t="shared" si="22"/>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="AA20" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P20,$P$19)</f>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="AB20" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P20,$P$20)</f>
+        <v>0.80927166670078199</v>
+      </c>
+      <c r="AD21" s="27">
+        <f t="shared" si="25"/>
+        <v>0.83013367653661463</v>
+      </c>
+      <c r="AE21" s="27">
+        <f t="shared" si="26"/>
+        <v>0.84896237479117997</v>
+      </c>
+      <c r="AF21" s="27">
+        <f t="shared" si="29"/>
+        <v>0.86715151449193395</v>
+      </c>
+      <c r="AG21" s="27">
+        <f t="shared" si="32"/>
+        <v>0.88503508958638166</v>
+      </c>
+      <c r="AH21" s="27">
+        <f t="shared" si="35"/>
+        <v>0.90325300768965511</v>
+      </c>
+      <c r="AI21" s="27">
+        <f t="shared" si="38"/>
+        <v>0.92126855601770063</v>
+      </c>
+      <c r="AJ21" s="27">
+        <f t="shared" si="39"/>
+        <v>0.93992871058731409</v>
+      </c>
+      <c r="AK21" s="27">
+        <f t="shared" ref="AK21:AK23" si="40">+(1+U18/100)^-(($H18-$H$16)/365)</f>
+        <v>0.95899868871197724</v>
+      </c>
+      <c r="AL21" s="27">
+        <f>+(1+V18/100)^-(($H18-$H$17)/365)</f>
+        <v>0.97917701341328134</v>
+      </c>
+      <c r="AM21" s="13">
+        <f>+(1+$X$3)^-YEARFRAC($Z21,$Z$21)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
-      <c r="P21" s="11">
-        <f t="shared" si="12"/>
-        <v>47308</v>
-      </c>
-      <c r="Q21" s="15">
-        <f t="shared" si="13"/>
-        <v>82100</v>
-      </c>
-      <c r="R21" s="13">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.75">
+      <c r="Z22" s="11">
         <f t="shared" si="14"/>
-        <v>0.80596583771476804</v>
-      </c>
-      <c r="S21" s="13">
+        <v>47492</v>
+      </c>
+      <c r="AA22" s="15">
         <f t="shared" si="15"/>
-        <v>0.82192710675935154</v>
-      </c>
-      <c r="T21" s="13">
-        <f t="shared" si="16"/>
-        <v>0.83820447122335884</v>
-      </c>
-      <c r="U21" s="13">
+        <v>81400</v>
+      </c>
+      <c r="AB22" s="27">
         <f t="shared" si="17"/>
-        <v>0.85480419102972571</v>
-      </c>
-      <c r="V21" s="13">
-        <f t="shared" si="18"/>
-        <v>0.87173265007229317</v>
-      </c>
-      <c r="W21" s="13">
+        <v>0.77118446265703189</v>
+      </c>
+      <c r="AC22" s="27">
         <f t="shared" si="19"/>
-        <v>0.88899635867091487</v>
-      </c>
-      <c r="X21" s="13">
-        <f t="shared" si="20"/>
-        <v>0.9066019560751849</v>
-      </c>
-      <c r="Y21" s="13">
-        <f t="shared" si="21"/>
-        <v>0.92455621301775137</v>
-      </c>
-      <c r="Z21" s="13">
-        <f t="shared" si="22"/>
-        <v>0.94286603431819238</v>
-      </c>
-      <c r="AA21" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P21,$P$19)</f>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="AB21" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P21,$P$20)</f>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="AC21" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P21,$P$21)</f>
+        <v>0.79183660311985882</v>
+      </c>
+      <c r="AD22" s="27">
+        <f t="shared" si="25"/>
+        <v>0.81224915885655535</v>
+      </c>
+      <c r="AE22" s="27">
+        <f t="shared" si="26"/>
+        <v>0.83067220896511229</v>
+      </c>
+      <c r="AF22" s="27">
+        <f t="shared" si="29"/>
+        <v>0.848469479260061</v>
+      </c>
+      <c r="AG22" s="27">
+        <f t="shared" si="32"/>
+        <v>0.86596776807592579</v>
+      </c>
+      <c r="AH22" s="27">
+        <f t="shared" si="35"/>
+        <v>0.8837931967674082</v>
+      </c>
+      <c r="AI22" s="27">
+        <f t="shared" si="38"/>
+        <v>0.90142061556680597</v>
+      </c>
+      <c r="AJ22" s="27">
+        <f t="shared" si="39"/>
+        <v>0.91967875311946679</v>
+      </c>
+      <c r="AK22" s="27">
+        <f t="shared" si="40"/>
+        <v>0.93833788493037518</v>
+      </c>
+      <c r="AL22" s="27">
+        <f t="shared" ref="AL22:AL23" si="41">+(1+V19/100)^-(($H19-$H$17)/365)</f>
+        <v>0.95808148494206036</v>
+      </c>
+      <c r="AM22" s="27">
+        <f>+(1+W19/100)^-(($H19-$H$18)/365)</f>
+        <v>0.97845585815205716</v>
+      </c>
+      <c r="AN22" s="13">
+        <f>+(1+$X$3)^-YEARFRAC($Z22,$Z$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
-      <c r="P22" s="11">
-        <f t="shared" si="12"/>
-        <v>47492</v>
-      </c>
-      <c r="Q22" s="15">
-        <f t="shared" si="13"/>
-        <v>81400</v>
-      </c>
-      <c r="R22" s="13">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.75">
+      <c r="Z23" s="11">
         <f t="shared" si="14"/>
-        <v>0.79031452573014571</v>
-      </c>
-      <c r="S22" s="13">
+        <v>47673</v>
+      </c>
+      <c r="AA23" s="15">
         <f t="shared" si="15"/>
-        <v>0.80596583771476804</v>
-      </c>
-      <c r="T22" s="13">
-        <f t="shared" si="16"/>
-        <v>0.82192710675935154</v>
-      </c>
-      <c r="U22" s="13">
+        <v>80700</v>
+      </c>
+      <c r="AB23" s="27">
         <f t="shared" si="17"/>
-        <v>0.83820447122335884</v>
-      </c>
-      <c r="V22" s="13">
-        <f t="shared" si="18"/>
-        <v>0.85480419102972571</v>
-      </c>
-      <c r="W22" s="13">
+        <v>0.75478026594334802</v>
+      </c>
+      <c r="AC23" s="27">
         <f t="shared" si="19"/>
-        <v>0.87173265007229317</v>
-      </c>
-      <c r="X22" s="13">
-        <f t="shared" si="20"/>
-        <v>0.88899635867091487</v>
-      </c>
-      <c r="Y22" s="13">
-        <f t="shared" si="21"/>
-        <v>0.9066019560751849</v>
-      </c>
-      <c r="Z22" s="13">
-        <f t="shared" si="22"/>
-        <v>0.92455621301775137</v>
-      </c>
-      <c r="AA22" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P22,$P$19)</f>
-        <v>0.94286603431819238</v>
-      </c>
-      <c r="AB22" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P22,$P$20)</f>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="AC22" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P22,$P$21)</f>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="AD22" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P22,$P$22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
-      <c r="P23" s="11">
-        <f t="shared" si="12"/>
-        <v>47673</v>
-      </c>
-      <c r="Q23" s="15">
-        <f t="shared" si="13"/>
-        <v>80700</v>
-      </c>
-      <c r="R23" s="13">
-        <f t="shared" si="14"/>
-        <v>0.77496715164881547</v>
-      </c>
-      <c r="S23" s="13">
-        <f t="shared" si="15"/>
-        <v>0.79031452573014571</v>
-      </c>
-      <c r="T23" s="13">
-        <f t="shared" si="16"/>
-        <v>0.80596583771476804</v>
-      </c>
-      <c r="U23" s="13">
-        <f t="shared" si="17"/>
-        <v>0.82192710675935154</v>
-      </c>
-      <c r="V23" s="13">
-        <f t="shared" si="18"/>
-        <v>0.83820447122335884</v>
-      </c>
-      <c r="W23" s="13">
-        <f t="shared" si="19"/>
-        <v>0.85480419102972571</v>
-      </c>
-      <c r="X23" s="13">
-        <f t="shared" si="20"/>
-        <v>0.87173265007229317</v>
-      </c>
-      <c r="Y23" s="13">
-        <f t="shared" si="21"/>
-        <v>0.88899635867091487</v>
-      </c>
-      <c r="Z23" s="13">
-        <f t="shared" si="22"/>
-        <v>0.9066019560751849</v>
-      </c>
-      <c r="AA23" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P23,$P$19)</f>
-        <v>0.92455621301775137</v>
-      </c>
-      <c r="AB23" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P23,$P$20)</f>
-        <v>0.94286603431819238</v>
-      </c>
-      <c r="AC23" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P23,$P$21)</f>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="AD23" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P23,$P$22)</f>
-        <v>0.98058067569092011</v>
-      </c>
-      <c r="AE23" s="13">
-        <f>+(1+$N$3)^-YEARFRAC($P23,$P$23)</f>
+        <v>0.77499310583527892</v>
+      </c>
+      <c r="AD23" s="27">
+        <f t="shared" si="25"/>
+        <v>0.79497145731093499</v>
+      </c>
+      <c r="AE23" s="27">
+        <f t="shared" si="26"/>
+        <v>0.81300262278918456</v>
+      </c>
+      <c r="AF23" s="27">
+        <f t="shared" si="29"/>
+        <v>0.83042131968565103</v>
+      </c>
+      <c r="AG23" s="27">
+        <f t="shared" si="32"/>
+        <v>0.84754739486679154</v>
+      </c>
+      <c r="AH23" s="27">
+        <f t="shared" si="35"/>
+        <v>0.86499365119041638</v>
+      </c>
+      <c r="AI23" s="27">
+        <f t="shared" si="38"/>
+        <v>0.88224610957561767</v>
+      </c>
+      <c r="AJ23" s="27">
+        <f t="shared" si="39"/>
+        <v>0.90011587042394581</v>
+      </c>
+      <c r="AK23" s="27">
+        <f t="shared" si="40"/>
+        <v>0.91837809580901908</v>
+      </c>
+      <c r="AL23" s="27">
+        <f t="shared" si="41"/>
+        <v>0.93770172120488793</v>
+      </c>
+      <c r="AM23" s="27">
+        <f>+(1+W20/100)^-(($H20-$H$18)/365)</f>
+        <v>0.95764270235080773</v>
+      </c>
+      <c r="AN23" s="27">
+        <f>+(1+X20/100)^-(($H20-$H$19)/365)</f>
+        <v>0.9787285694823703</v>
+      </c>
+      <c r="AO23" s="13">
+        <f>+(1+$X$3)^-YEARFRAC($Z23,$Z$23)</f>
         <v>1</v>
       </c>
     </row>

--- a/AL30.xlsx
+++ b/AL30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="585" documentId="8_{0C586AFB-54DC-4688-A370-CFA444316B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD6F3B1C-7CDF-4B89-A662-5A24387CAC68}"/>
+  <xr:revisionPtr revIDLastSave="601" documentId="8_{0C586AFB-54DC-4688-A370-CFA444316B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122922D0-98C5-4F0D-9B6A-A10D1736CF81}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
@@ -6996,8 +6996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
   <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7049,7 +7049,7 @@
         <v>28</v>
       </c>
       <c r="AB1" s="21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.75">
@@ -7346,59 +7346,59 @@
       </c>
       <c r="AB5">
         <f>+AB4*$AB$1</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AC5">
         <f t="shared" ref="AC5:AO5" si="3">+AC4*$AB$1</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AD5">
         <f t="shared" si="3"/>
-        <v>38.400000000000006</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="AE5">
         <f t="shared" si="3"/>
-        <v>35.200000000000003</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AF5">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AG5">
         <f t="shared" si="3"/>
-        <v>28.8</v>
+        <v>14.4</v>
       </c>
       <c r="AH5">
         <f t="shared" si="3"/>
-        <v>25.6</v>
+        <v>12.8</v>
       </c>
       <c r="AI5">
         <f t="shared" si="3"/>
-        <v>22.400000000000002</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="3"/>
-        <v>19.200000000000003</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="AK5">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AL5">
         <f t="shared" si="3"/>
-        <v>12.8</v>
+        <v>6.4</v>
       </c>
       <c r="AM5">
         <f t="shared" si="3"/>
-        <v>9.6000000000000014</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="AN5">
         <f t="shared" si="3"/>
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="AO5">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.75">
@@ -7437,66 +7437,66 @@
       </c>
       <c r="Z6" s="23">
         <f>+SUM(AB6:AO6)</f>
-        <v>446.77101357830895</v>
+        <v>611.57101357830891</v>
       </c>
       <c r="AA6" t="s">
         <v>29</v>
       </c>
       <c r="AB6" s="20">
         <f t="shared" ref="AB6:AO6" si="4">+AB3-AB5</f>
-        <v>48.856580256003454</v>
+        <v>68.856580256003454</v>
       </c>
       <c r="AC6" s="20">
         <f t="shared" si="4"/>
-        <v>50.851096386455538</v>
+        <v>70.851096386455538</v>
       </c>
       <c r="AD6" s="20">
         <f t="shared" si="4"/>
-        <v>50.305341827276919</v>
+        <v>69.505341827276922</v>
       </c>
       <c r="AE6" s="20">
         <f t="shared" si="4"/>
-        <v>46.967696756590485</v>
+        <v>64.567696756590493</v>
       </c>
       <c r="AF6" s="20">
         <f t="shared" si="4"/>
-        <v>43.419679917879463</v>
+        <v>59.419679917879463</v>
       </c>
       <c r="AG6" s="20">
         <f t="shared" si="4"/>
-        <v>39.703913026011648</v>
+        <v>54.103913026011647</v>
       </c>
       <c r="AH6" s="20">
         <f t="shared" si="4"/>
-        <v>35.873792108162412</v>
+        <v>48.673792108162417</v>
       </c>
       <c r="AI6" s="20">
         <f t="shared" si="4"/>
-        <v>31.895549939296298</v>
+        <v>43.095549939296298</v>
       </c>
       <c r="AJ6" s="20">
         <f t="shared" si="4"/>
-        <v>27.819005748327925</v>
+        <v>37.419005748327926</v>
       </c>
       <c r="AK6" s="20">
         <f t="shared" si="4"/>
-        <v>23.382131305578348</v>
+        <v>31.382131305578348</v>
       </c>
       <c r="AL6" s="20">
         <f t="shared" si="4"/>
-        <v>18.885079457674856</v>
+        <v>25.285079457674854</v>
       </c>
       <c r="AM6" s="20">
         <f t="shared" si="4"/>
-        <v>14.302807293328762</v>
+        <v>19.102807293328762</v>
       </c>
       <c r="AN6" s="20">
         <f t="shared" si="4"/>
-        <v>9.6383395557227285</v>
+        <v>12.83833955572273</v>
       </c>
       <c r="AO6" s="20">
         <f t="shared" si="4"/>
-        <v>4.87</v>
+        <v>6.4700000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.75">
@@ -7674,66 +7674,66 @@
       </c>
       <c r="Z8" s="23">
         <f>+SUM(AB8:AO8)</f>
-        <v>396.71632837058939</v>
+        <v>543.68131233851648</v>
       </c>
       <c r="AA8" t="s">
         <v>31</v>
       </c>
       <c r="AB8" s="23">
         <f>+AB7*AB6</f>
-        <v>48.058909824498315</v>
+        <v>67.732374308780507</v>
       </c>
       <c r="AC8" s="23">
         <f t="shared" ref="AC8:AO8" si="9">+AC7*AC6</f>
-        <v>48.712658916540803</v>
+        <v>67.87160036643084</v>
       </c>
       <c r="AD8" s="23">
         <f t="shared" si="9"/>
-        <v>46.988890629262762</v>
+        <v>64.92310332539148</v>
       </c>
       <c r="AE8" s="23">
         <f t="shared" si="9"/>
-        <v>42.889083932192264</v>
+        <v>58.960723150921133</v>
       </c>
       <c r="AF8" s="23">
         <f t="shared" si="9"/>
-        <v>38.82524627507992</v>
+        <v>53.132213566782085</v>
       </c>
       <c r="AG8" s="23">
         <f t="shared" si="9"/>
-        <v>34.778341971965055</v>
+        <v>47.391912933300709</v>
       </c>
       <c r="AH8" s="23">
         <f t="shared" si="9"/>
-        <v>30.79543709891421</v>
+        <v>41.783447334286386</v>
       </c>
       <c r="AI8" s="23">
         <f t="shared" si="9"/>
-        <v>26.839842328779181</v>
+        <v>36.264549996602483</v>
       </c>
       <c r="AJ8" s="23">
         <f t="shared" si="9"/>
-        <v>22.948938347545788</v>
+        <v>30.868337413404976</v>
       </c>
       <c r="AK8" s="23">
         <f t="shared" si="9"/>
-        <v>18.904050588439159</v>
+        <v>25.371912851766425</v>
       </c>
       <c r="AL8" s="23">
         <f t="shared" si="9"/>
-        <v>14.956312630855477</v>
+        <v>20.02488547175896</v>
       </c>
       <c r="AM8" s="23">
         <f t="shared" si="9"/>
-        <v>11.089439696312931</v>
+        <v>14.811038502103299</v>
       </c>
       <c r="AN8" s="23">
         <f t="shared" si="9"/>
-        <v>7.3132405263953411</v>
+        <v>9.7412904564862597</v>
       </c>
       <c r="AO8" s="23">
         <f t="shared" si="9"/>
-        <v>3.6159356038082779</v>
+        <v>4.8039226605009366</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.75">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="X11" s="22">
         <f>+X10/SUM(AB8:AO8)*2</f>
-        <v>0.28600468114932071</v>
+        <v>0.20869344674424542</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="14"/>

--- a/AL30.xlsx
+++ b/AL30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="601" documentId="8_{0C586AFB-54DC-4688-A370-CFA444316B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122922D0-98C5-4F0D-9B6A-A10D1736CF81}"/>
+  <xr:revisionPtr revIDLastSave="605" documentId="8_{0C586AFB-54DC-4688-A370-CFA444316B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A22E2F-3AE8-4A87-B592-3DA53426907A}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="3" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Fecha Pago</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Spot</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Enero y Julio</t>
   </si>
 </sst>
 </file>
@@ -6996,9 +7005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
   <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -9227,10 +9234,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41DBF5A-A256-4AE5-B1B8-E1745051911F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9273,6 +9280,24 @@
       </c>
       <c r="B5" s="11">
         <v>44081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/AL30.xlsx
+++ b/AL30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="605" documentId="8_{0C586AFB-54DC-4688-A370-CFA444316B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A22E2F-3AE8-4A87-B592-3DA53426907A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{F393664B-1674-4DE9-BAC3-13BA0D7779BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6ABA3C2-43ED-458C-8AAE-86C64CF0A4C2}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="3" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="PRICES" sheetId="5" r:id="rId1"/>
     <sheet name="FF" sheetId="3" r:id="rId2"/>
     <sheet name="FFant" sheetId="1" r:id="rId3"/>
-    <sheet name="Datos" sheetId="2" r:id="rId4"/>
+    <sheet name="PDs Ejemplo" sheetId="6" r:id="rId4"/>
+    <sheet name="Datos" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PRICES!$A$1:$B$742</definedName>
@@ -26,23 +27,50 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>SANCHEZ CIMETTI Juan Augusto</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{26E7458B-C334-4FF0-9373-5768209491A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AE38. Vence en Enero del 38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{F37CA226-177E-4013-AC84-B9BEF54DEFE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vence en Enero del 38</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Fecha Pago</t>
   </si>
@@ -157,23 +185,44 @@
   <si>
     <t>Enero y Julio</t>
   </si>
+  <si>
+    <t>PD anual</t>
+  </si>
+  <si>
+    <t>AL30</t>
+  </si>
+  <si>
+    <t>AL35</t>
+  </si>
+  <si>
+    <t>AL38</t>
+  </si>
+  <si>
+    <t>AL41</t>
+  </si>
+  <si>
+    <t>AL46</t>
+  </si>
+  <si>
+    <t>Prob Superv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.000000%"/>
-    <numFmt numFmtId="169" formatCode="0.0000%"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??????_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000000%"/>
+    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??????_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +250,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -234,10 +290,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -265,32 +321,32 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -299,7 +355,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -616,16 +683,16 @@
   <dimension ref="A1:B742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A742" sqref="A742"/>
+      <pane ySplit="1" topLeftCell="A723" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -633,7 +700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>44088</v>
       </c>
@@ -641,7 +708,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>44089</v>
       </c>
@@ -649,7 +716,7 @@
         <v>51.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>44090</v>
       </c>
@@ -657,7 +724,7 @@
         <v>47.96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>44091</v>
       </c>
@@ -665,7 +732,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>44092</v>
       </c>
@@ -673,7 +740,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>44095</v>
       </c>
@@ -681,7 +748,7 @@
         <v>46.12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>44096</v>
       </c>
@@ -689,7 +756,7 @@
         <v>45.39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>44097</v>
       </c>
@@ -697,7 +764,7 @@
         <v>46.55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>44098</v>
       </c>
@@ -705,7 +772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>44099</v>
       </c>
@@ -713,7 +780,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>44102</v>
       </c>
@@ -721,7 +788,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>44103</v>
       </c>
@@ -729,7 +796,7 @@
         <v>44.67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>44104</v>
       </c>
@@ -737,7 +804,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>44105</v>
       </c>
@@ -745,7 +812,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>44106</v>
       </c>
@@ -753,7 +820,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>44109</v>
       </c>
@@ -761,7 +828,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>44110</v>
       </c>
@@ -769,7 +836,7 @@
         <v>44.45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>44111</v>
       </c>
@@ -777,7 +844,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>44112</v>
       </c>
@@ -785,7 +852,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>44113</v>
       </c>
@@ -793,7 +860,7 @@
         <v>44.73</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>44117</v>
       </c>
@@ -801,7 +868,7 @@
         <v>44.74</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>44118</v>
       </c>
@@ -809,7 +876,7 @@
         <v>44.45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>44119</v>
       </c>
@@ -817,7 +884,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>44120</v>
       </c>
@@ -825,7 +892,7 @@
         <v>44.19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>44123</v>
       </c>
@@ -833,7 +900,7 @@
         <v>43.35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>44124</v>
       </c>
@@ -841,7 +908,7 @@
         <v>41.38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>44125</v>
       </c>
@@ -849,7 +916,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>44126</v>
       </c>
@@ -857,7 +924,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>44127</v>
       </c>
@@ -865,7 +932,7 @@
         <v>40.15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>44130</v>
       </c>
@@ -873,7 +940,7 @@
         <v>38.229999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>44131</v>
       </c>
@@ -881,7 +948,7 @@
         <v>39.22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>44132</v>
       </c>
@@ -889,7 +956,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>44133</v>
       </c>
@@ -897,7 +964,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>44134</v>
       </c>
@@ -905,7 +972,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>44137</v>
       </c>
@@ -913,7 +980,7 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>44138</v>
       </c>
@@ -921,7 +988,7 @@
         <v>38.380000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>44139</v>
       </c>
@@ -929,7 +996,7 @@
         <v>38.39</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>44140</v>
       </c>
@@ -937,7 +1004,7 @@
         <v>37.99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>44141</v>
       </c>
@@ -945,7 +1012,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>44144</v>
       </c>
@@ -953,7 +1020,7 @@
         <v>38.35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>44145</v>
       </c>
@@ -961,7 +1028,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>44146</v>
       </c>
@@ -969,7 +1036,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>44147</v>
       </c>
@@ -977,7 +1044,7 @@
         <v>39.47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>44148</v>
       </c>
@@ -985,7 +1052,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>44151</v>
       </c>
@@ -993,7 +1060,7 @@
         <v>40.26</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>44152</v>
       </c>
@@ -1001,7 +1068,7 @@
         <v>40.18</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>44153</v>
       </c>
@@ -1009,7 +1076,7 @@
         <v>39.74</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>44154</v>
       </c>
@@ -1017,7 +1084,7 @@
         <v>39.43</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>44155</v>
       </c>
@@ -1025,7 +1092,7 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>44159</v>
       </c>
@@ -1033,7 +1100,7 @@
         <v>38.85</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>44160</v>
       </c>
@@ -1041,7 +1108,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>44161</v>
       </c>
@@ -1049,7 +1116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>44162</v>
       </c>
@@ -1057,7 +1124,7 @@
         <v>39.01</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>44165</v>
       </c>
@@ -1065,7 +1132,7 @@
         <v>38.61</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>44166</v>
       </c>
@@ -1073,7 +1140,7 @@
         <v>38.479999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>44167</v>
       </c>
@@ -1081,7 +1148,7 @@
         <v>38.65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>44168</v>
       </c>
@@ -1089,7 +1156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>44169</v>
       </c>
@@ -1097,7 +1164,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>44174</v>
       </c>
@@ -1105,7 +1172,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>44175</v>
       </c>
@@ -1113,7 +1180,7 @@
         <v>39.67</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>44176</v>
       </c>
@@ -1121,7 +1188,7 @@
         <v>39.85</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>44179</v>
       </c>
@@ -1129,7 +1196,7 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>44180</v>
       </c>
@@ -1137,7 +1204,7 @@
         <v>40.03</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>44181</v>
       </c>
@@ -1145,7 +1212,7 @@
         <v>39.78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>44182</v>
       </c>
@@ -1153,7 +1220,7 @@
         <v>39.840000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>44183</v>
       </c>
@@ -1161,7 +1228,7 @@
         <v>40.22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>44186</v>
       </c>
@@ -1169,7 +1236,7 @@
         <v>40.74</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>44187</v>
       </c>
@@ -1177,7 +1244,7 @@
         <v>40.71</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>44188</v>
       </c>
@@ -1185,7 +1252,7 @@
         <v>40.619999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>44193</v>
       </c>
@@ -1193,7 +1260,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>44194</v>
       </c>
@@ -1201,7 +1268,7 @@
         <v>40.93</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>44195</v>
       </c>
@@ -1209,7 +1276,7 @@
         <v>40.94</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
         <v>44200</v>
       </c>
@@ -1217,7 +1284,7 @@
         <v>40.549999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="11">
         <v>44201</v>
       </c>
@@ -1225,7 +1292,7 @@
         <v>40.25</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
         <v>44202</v>
       </c>
@@ -1233,7 +1300,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
         <v>44203</v>
       </c>
@@ -1241,7 +1308,7 @@
         <v>39.549999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="11">
         <v>44204</v>
       </c>
@@ -1249,7 +1316,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
         <v>44207</v>
       </c>
@@ -1257,7 +1324,7 @@
         <v>39.04</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
         <v>44208</v>
       </c>
@@ -1265,7 +1332,7 @@
         <v>39.04</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="11">
         <v>44209</v>
       </c>
@@ -1273,7 +1340,7 @@
         <v>38.979999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
         <v>44210</v>
       </c>
@@ -1281,7 +1348,7 @@
         <v>38.75</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="11">
         <v>44211</v>
       </c>
@@ -1289,7 +1356,7 @@
         <v>38.69</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="11">
         <v>44214</v>
       </c>
@@ -1297,7 +1364,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="11">
         <v>44215</v>
       </c>
@@ -1305,7 +1372,7 @@
         <v>38.79</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="11">
         <v>44216</v>
       </c>
@@ -1313,7 +1380,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="11">
         <v>44217</v>
       </c>
@@ -1321,7 +1388,7 @@
         <v>38.69</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>44218</v>
       </c>
@@ -1329,7 +1396,7 @@
         <v>38.69</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="11">
         <v>44221</v>
       </c>
@@ -1337,7 +1404,7 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="11">
         <v>44222</v>
       </c>
@@ -1345,7 +1412,7 @@
         <v>38.58</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="11">
         <v>44223</v>
       </c>
@@ -1353,7 +1420,7 @@
         <v>38.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="11">
         <v>44224</v>
       </c>
@@ -1361,7 +1428,7 @@
         <v>38.270000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="11">
         <v>44225</v>
       </c>
@@ -1369,7 +1436,7 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="11">
         <v>44228</v>
       </c>
@@ -1377,7 +1444,7 @@
         <v>38.090000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="11">
         <v>44229</v>
       </c>
@@ -1385,7 +1452,7 @@
         <v>37.97</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="11">
         <v>44230</v>
       </c>
@@ -1393,7 +1460,7 @@
         <v>37.78</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="11">
         <v>44231</v>
       </c>
@@ -1401,7 +1468,7 @@
         <v>37.64</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="11">
         <v>44232</v>
       </c>
@@ -1409,7 +1476,7 @@
         <v>37.619999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="11">
         <v>44235</v>
       </c>
@@ -1417,7 +1484,7 @@
         <v>37.619999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
         <v>44236</v>
       </c>
@@ -1425,7 +1492,7 @@
         <v>37.520000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="11">
         <v>44237</v>
       </c>
@@ -1433,7 +1500,7 @@
         <v>37.450000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="11">
         <v>44238</v>
       </c>
@@ -1441,7 +1508,7 @@
         <v>37.01</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>44239</v>
       </c>
@@ -1449,7 +1516,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="11">
         <v>44244</v>
       </c>
@@ -1457,7 +1524,7 @@
         <v>36.14</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="11">
         <v>44245</v>
       </c>
@@ -1465,7 +1532,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="11">
         <v>44246</v>
       </c>
@@ -1473,7 +1540,7 @@
         <v>36.19</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="11">
         <v>44249</v>
       </c>
@@ -1481,7 +1548,7 @@
         <v>36.35</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
         <v>44250</v>
       </c>
@@ -1489,7 +1556,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="11">
         <v>44251</v>
       </c>
@@ -1497,7 +1564,7 @@
         <v>36.08</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="11">
         <v>44252</v>
       </c>
@@ -1505,7 +1572,7 @@
         <v>36.47</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="11">
         <v>44253</v>
       </c>
@@ -1513,7 +1580,7 @@
         <v>36.78</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="11">
         <v>44256</v>
       </c>
@@ -1521,7 +1588,7 @@
         <v>36.78</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="11">
         <v>44257</v>
       </c>
@@ -1529,7 +1596,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="11">
         <v>44258</v>
       </c>
@@ -1537,7 +1604,7 @@
         <v>36.22</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="11">
         <v>44259</v>
       </c>
@@ -1545,7 +1612,7 @@
         <v>36.380000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="11">
         <v>44260</v>
       </c>
@@ -1553,7 +1620,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="11">
         <v>44263</v>
       </c>
@@ -1561,7 +1628,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="11">
         <v>44264</v>
       </c>
@@ -1569,7 +1636,7 @@
         <v>35.14</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="11">
         <v>44265</v>
       </c>
@@ -1577,7 +1644,7 @@
         <v>33.51</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="11">
         <v>44266</v>
       </c>
@@ -1585,7 +1652,7 @@
         <v>33.68</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="11">
         <v>44267</v>
       </c>
@@ -1593,7 +1660,7 @@
         <v>34.39</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="11">
         <v>44270</v>
       </c>
@@ -1601,7 +1668,7 @@
         <v>34.96</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="11">
         <v>44271</v>
       </c>
@@ -1609,7 +1676,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="11">
         <v>44272</v>
       </c>
@@ -1617,7 +1684,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="11">
         <v>44273</v>
       </c>
@@ -1625,7 +1692,7 @@
         <v>35.82</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="11">
         <v>44274</v>
       </c>
@@ -1633,7 +1700,7 @@
         <v>35.92</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="11">
         <v>44277</v>
       </c>
@@ -1641,7 +1708,7 @@
         <v>36.409999999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="11">
         <v>44278</v>
       </c>
@@ -1649,7 +1716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="11">
         <v>44280</v>
       </c>
@@ -1657,7 +1724,7 @@
         <v>35.33</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="11">
         <v>44281</v>
       </c>
@@ -1665,7 +1732,7 @@
         <v>35.32</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="11">
         <v>44284</v>
       </c>
@@ -1673,7 +1740,7 @@
         <v>34.67</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="11">
         <v>44285</v>
       </c>
@@ -1681,7 +1748,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="11">
         <v>44286</v>
       </c>
@@ -1689,7 +1756,7 @@
         <v>34.049999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="11">
         <v>44291</v>
       </c>
@@ -1697,7 +1764,7 @@
         <v>34.85</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="11">
         <v>44292</v>
       </c>
@@ -1705,7 +1772,7 @@
         <v>34.630000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="11">
         <v>44293</v>
       </c>
@@ -1713,7 +1780,7 @@
         <v>34.57</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="11">
         <v>44294</v>
       </c>
@@ -1721,7 +1788,7 @@
         <v>34.39</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="11">
         <v>44295</v>
       </c>
@@ -1729,7 +1796,7 @@
         <v>34.18</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="11">
         <v>44298</v>
       </c>
@@ -1737,7 +1804,7 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="11">
         <v>44299</v>
       </c>
@@ -1745,7 +1812,7 @@
         <v>34.82</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="11">
         <v>44300</v>
       </c>
@@ -1753,7 +1820,7 @@
         <v>34.57</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="11">
         <v>44301</v>
       </c>
@@ -1761,7 +1828,7 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="11">
         <v>44302</v>
       </c>
@@ -1769,7 +1836,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="11">
         <v>44305</v>
       </c>
@@ -1777,7 +1844,7 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="11">
         <v>44306</v>
       </c>
@@ -1785,7 +1852,7 @@
         <v>34.26</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
         <v>44307</v>
       </c>
@@ -1793,7 +1860,7 @@
         <v>34.35</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="11">
         <v>44308</v>
       </c>
@@ -1801,7 +1868,7 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="11">
         <v>44309</v>
       </c>
@@ -1809,7 +1876,7 @@
         <v>34.22</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="11">
         <v>44312</v>
       </c>
@@ -1817,7 +1884,7 @@
         <v>34.869999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="11">
         <v>44313</v>
       </c>
@@ -1825,7 +1892,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="11">
         <v>44314</v>
       </c>
@@ -1833,7 +1900,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="11">
         <v>44315</v>
       </c>
@@ -1841,7 +1908,7 @@
         <v>35.229999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="11">
         <v>44316</v>
       </c>
@@ -1849,7 +1916,7 @@
         <v>35.159999999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="11">
         <v>44319</v>
       </c>
@@ -1857,7 +1924,7 @@
         <v>35.18</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="11">
         <v>44320</v>
       </c>
@@ -1865,7 +1932,7 @@
         <v>35.119999999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="11">
         <v>44321</v>
       </c>
@@ -1873,7 +1940,7 @@
         <v>35.04</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="11">
         <v>44322</v>
       </c>
@@ -1881,7 +1948,7 @@
         <v>34.770000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="11">
         <v>44323</v>
       </c>
@@ -1889,7 +1956,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="11">
         <v>44326</v>
       </c>
@@ -1897,7 +1964,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="11">
         <v>44327</v>
       </c>
@@ -1905,7 +1972,7 @@
         <v>33.82</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="11">
         <v>44328</v>
       </c>
@@ -1913,7 +1980,7 @@
         <v>34.11</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="11">
         <v>44329</v>
       </c>
@@ -1921,7 +1988,7 @@
         <v>34.22</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="11">
         <v>44330</v>
       </c>
@@ -1929,7 +1996,7 @@
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="11">
         <v>44333</v>
       </c>
@@ -1937,7 +2004,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="11">
         <v>44334</v>
       </c>
@@ -1945,7 +2012,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="11">
         <v>44335</v>
       </c>
@@ -1953,7 +2020,7 @@
         <v>35.07</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="11">
         <v>44336</v>
       </c>
@@ -1961,7 +2028,7 @@
         <v>34.78</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="11">
         <v>44337</v>
       </c>
@@ -1969,7 +2036,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="11">
         <v>44342</v>
       </c>
@@ -1977,7 +2044,7 @@
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="11">
         <v>44343</v>
       </c>
@@ -1985,7 +2052,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="11">
         <v>44344</v>
       </c>
@@ -1993,7 +2060,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="11">
         <v>44347</v>
       </c>
@@ -2001,7 +2068,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="11">
         <v>44348</v>
       </c>
@@ -2009,7 +2076,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="11">
         <v>44349</v>
       </c>
@@ -2017,7 +2084,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="11">
         <v>44350</v>
       </c>
@@ -2025,7 +2092,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="11">
         <v>44351</v>
       </c>
@@ -2033,7 +2100,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="11">
         <v>44354</v>
       </c>
@@ -2041,7 +2108,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="11">
         <v>44355</v>
       </c>
@@ -2049,7 +2116,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="11">
         <v>44356</v>
       </c>
@@ -2057,7 +2124,7 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="11">
         <v>44357</v>
       </c>
@@ -2065,7 +2132,7 @@
         <v>37.97</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="11">
         <v>44358</v>
       </c>
@@ -2073,7 +2140,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="11">
         <v>44361</v>
       </c>
@@ -2081,7 +2148,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="11">
         <v>44362</v>
       </c>
@@ -2089,7 +2156,7 @@
         <v>38.06</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="11">
         <v>44363</v>
       </c>
@@ -2097,7 +2164,7 @@
         <v>37.96</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="11">
         <v>44364</v>
       </c>
@@ -2105,7 +2172,7 @@
         <v>37.53</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="11">
         <v>44365</v>
       </c>
@@ -2113,7 +2180,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="11">
         <v>44369</v>
       </c>
@@ -2121,7 +2188,7 @@
         <v>36.65</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="11">
         <v>44370</v>
       </c>
@@ -2129,7 +2196,7 @@
         <v>36.54</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="11">
         <v>44371</v>
       </c>
@@ -2137,7 +2204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="11">
         <v>44372</v>
       </c>
@@ -2145,7 +2212,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="11">
         <v>44375</v>
       </c>
@@ -2153,7 +2220,7 @@
         <v>34.85</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="11">
         <v>44376</v>
       </c>
@@ -2161,7 +2228,7 @@
         <v>34.15</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="11">
         <v>44377</v>
       </c>
@@ -2169,7 +2236,7 @@
         <v>33.93</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="11">
         <v>44378</v>
       </c>
@@ -2177,7 +2244,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="11">
         <v>44379</v>
       </c>
@@ -2185,7 +2252,7 @@
         <v>34.06</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="11">
         <v>44382</v>
       </c>
@@ -2193,7 +2260,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="11">
         <v>44383</v>
       </c>
@@ -2201,7 +2268,7 @@
         <v>33.770000000000003</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="11">
         <v>44384</v>
       </c>
@@ -2209,7 +2276,7 @@
         <v>33.76</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="11">
         <v>44385</v>
       </c>
@@ -2217,7 +2284,7 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="11">
         <v>44389</v>
       </c>
@@ -2225,7 +2292,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="11">
         <v>44390</v>
       </c>
@@ -2233,7 +2300,7 @@
         <v>34.75</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="11">
         <v>44391</v>
       </c>
@@ -2241,7 +2308,7 @@
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="11">
         <v>44392</v>
       </c>
@@ -2249,7 +2316,7 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="11">
         <v>44393</v>
       </c>
@@ -2257,7 +2324,7 @@
         <v>35.57</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
         <v>44396</v>
       </c>
@@ -2265,7 +2332,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="11">
         <v>44397</v>
       </c>
@@ -2273,7 +2340,7 @@
         <v>36.19</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
         <v>44398</v>
       </c>
@@ -2281,7 +2348,7 @@
         <v>36.32</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="11">
         <v>44399</v>
       </c>
@@ -2289,7 +2356,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="11">
         <v>44400</v>
       </c>
@@ -2297,7 +2364,7 @@
         <v>36.28</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="11">
         <v>44403</v>
       </c>
@@ -2305,7 +2372,7 @@
         <v>36.22</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="11">
         <v>44404</v>
       </c>
@@ -2313,7 +2380,7 @@
         <v>36.119999999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="11">
         <v>44405</v>
       </c>
@@ -2321,7 +2388,7 @@
         <v>36.01</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="11">
         <v>44406</v>
       </c>
@@ -2329,7 +2396,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="11">
         <v>44407</v>
       </c>
@@ -2337,7 +2404,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="11">
         <v>44410</v>
       </c>
@@ -2345,7 +2412,7 @@
         <v>35.78</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="11">
         <v>44411</v>
       </c>
@@ -2353,7 +2420,7 @@
         <v>35.590000000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="11">
         <v>44412</v>
       </c>
@@ -2361,7 +2428,7 @@
         <v>35.409999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="11">
         <v>44413</v>
       </c>
@@ -2369,7 +2436,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="11">
         <v>44414</v>
       </c>
@@ -2377,7 +2444,7 @@
         <v>34.97</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="11">
         <v>44417</v>
       </c>
@@ -2385,7 +2452,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="11">
         <v>44418</v>
       </c>
@@ -2393,7 +2460,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="11">
         <v>44419</v>
       </c>
@@ -2401,7 +2468,7 @@
         <v>35.53</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="11">
         <v>44420</v>
       </c>
@@ -2409,7 +2476,7 @@
         <v>35.68</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="11">
         <v>44421</v>
       </c>
@@ -2417,7 +2484,7 @@
         <v>35.119999999999997</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="11">
         <v>44425</v>
       </c>
@@ -2425,7 +2492,7 @@
         <v>35.270000000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="11">
         <v>44426</v>
       </c>
@@ -2433,7 +2500,7 @@
         <v>35.31</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="11">
         <v>44427</v>
       </c>
@@ -2441,7 +2508,7 @@
         <v>35.31</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="11">
         <v>44428</v>
       </c>
@@ -2449,7 +2516,7 @@
         <v>35.270000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="11">
         <v>44431</v>
       </c>
@@ -2457,7 +2524,7 @@
         <v>35.26</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="11">
         <v>44432</v>
       </c>
@@ -2465,7 +2532,7 @@
         <v>35.39</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="11">
         <v>44433</v>
       </c>
@@ -2473,7 +2540,7 @@
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="11">
         <v>44434</v>
       </c>
@@ -2481,7 +2548,7 @@
         <v>35.42</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
         <v>44435</v>
       </c>
@@ -2489,7 +2556,7 @@
         <v>35.630000000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="11">
         <v>44438</v>
       </c>
@@ -2497,7 +2564,7 @@
         <v>36.01</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="11">
         <v>44439</v>
       </c>
@@ -2505,7 +2572,7 @@
         <v>36.31</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="11">
         <v>44440</v>
       </c>
@@ -2513,7 +2580,7 @@
         <v>36.880000000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="11">
         <v>44441</v>
       </c>
@@ -2521,7 +2588,7 @@
         <v>37.46</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="11">
         <v>44442</v>
       </c>
@@ -2529,7 +2596,7 @@
         <v>37.520000000000003</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="11">
         <v>44445</v>
       </c>
@@ -2537,7 +2604,7 @@
         <v>37.76</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="11">
         <v>44446</v>
       </c>
@@ -2545,7 +2612,7 @@
         <v>37.85</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="11">
         <v>44447</v>
       </c>
@@ -2553,7 +2620,7 @@
         <v>37.79</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="11">
         <v>44448</v>
       </c>
@@ -2561,7 +2628,7 @@
         <v>37.74</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="11">
         <v>44449</v>
       </c>
@@ -2569,7 +2636,7 @@
         <v>37.68</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
         <v>44452</v>
       </c>
@@ -2577,7 +2644,7 @@
         <v>38.43</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="11">
         <v>44453</v>
       </c>
@@ -2585,7 +2652,7 @@
         <v>38.270000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="11">
         <v>44454</v>
       </c>
@@ -2593,7 +2660,7 @@
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="11">
         <v>44455</v>
       </c>
@@ -2601,7 +2668,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="11">
         <v>44456</v>
       </c>
@@ -2609,7 +2676,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="11">
         <v>44459</v>
       </c>
@@ -2617,7 +2684,7 @@
         <v>37.880000000000003</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="11">
         <v>44460</v>
       </c>
@@ -2625,7 +2692,7 @@
         <v>37.76</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="11">
         <v>44461</v>
       </c>
@@ -2633,7 +2700,7 @@
         <v>37.69</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="11">
         <v>44462</v>
       </c>
@@ -2641,7 +2708,7 @@
         <v>37.64</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="11">
         <v>44463</v>
       </c>
@@ -2649,7 +2716,7 @@
         <v>37.36</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="11">
         <v>44466</v>
       </c>
@@ -2657,7 +2724,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="11">
         <v>44467</v>
       </c>
@@ -2665,7 +2732,7 @@
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="11">
         <v>44468</v>
       </c>
@@ -2673,7 +2740,7 @@
         <v>37.229999999999997</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="11">
         <v>44469</v>
       </c>
@@ -2681,7 +2748,7 @@
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="11">
         <v>44470</v>
       </c>
@@ -2689,7 +2756,7 @@
         <v>36.979999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="11">
         <v>44473</v>
       </c>
@@ -2697,7 +2764,7 @@
         <v>36.869999999999997</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="11">
         <v>44474</v>
       </c>
@@ -2705,7 +2772,7 @@
         <v>36.69</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="11">
         <v>44475</v>
       </c>
@@ -2713,7 +2780,7 @@
         <v>36.380000000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="11">
         <v>44476</v>
       </c>
@@ -2721,7 +2788,7 @@
         <v>36.39</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="11">
         <v>44481</v>
       </c>
@@ -2729,7 +2796,7 @@
         <v>36.17</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="11">
         <v>44482</v>
       </c>
@@ -2737,7 +2804,7 @@
         <v>36.11</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="11">
         <v>44483</v>
       </c>
@@ -2745,7 +2812,7 @@
         <v>36.07</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="11">
         <v>44484</v>
       </c>
@@ -2753,7 +2820,7 @@
         <v>35.97</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="11">
         <v>44487</v>
       </c>
@@ -2761,7 +2828,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="11">
         <v>44488</v>
       </c>
@@ -2769,7 +2836,7 @@
         <v>35.82</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="11">
         <v>44489</v>
       </c>
@@ -2777,7 +2844,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="11">
         <v>44490</v>
       </c>
@@ -2785,7 +2852,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="11">
         <v>44491</v>
       </c>
@@ -2793,7 +2860,7 @@
         <v>35.82</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="11">
         <v>44494</v>
       </c>
@@ -2801,7 +2868,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="11">
         <v>44495</v>
       </c>
@@ -2809,7 +2876,7 @@
         <v>35.880000000000003</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="11">
         <v>44496</v>
       </c>
@@ -2817,7 +2884,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="11">
         <v>44497</v>
       </c>
@@ -2825,7 +2892,7 @@
         <v>35.82</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="11">
         <v>44498</v>
       </c>
@@ -2833,7 +2900,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="11">
         <v>44501</v>
       </c>
@@ -2841,7 +2908,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="11">
         <v>44502</v>
       </c>
@@ -2849,7 +2916,7 @@
         <v>35.69</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="11">
         <v>44503</v>
       </c>
@@ -2857,7 +2924,7 @@
         <v>35.58</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="11">
         <v>44504</v>
       </c>
@@ -2865,7 +2932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="11">
         <v>44505</v>
       </c>
@@ -2873,7 +2940,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="11">
         <v>44508</v>
       </c>
@@ -2881,7 +2948,7 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="11">
         <v>44509</v>
       </c>
@@ -2889,7 +2956,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="11">
         <v>44510</v>
       </c>
@@ -2897,7 +2964,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="11">
         <v>44511</v>
       </c>
@@ -2905,7 +2972,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="11">
         <v>44512</v>
       </c>
@@ -2913,7 +2980,7 @@
         <v>35.82</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="11">
         <v>44515</v>
       </c>
@@ -2921,7 +2988,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="11">
         <v>44516</v>
       </c>
@@ -2929,7 +2996,7 @@
         <v>32.85</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="11">
         <v>44517</v>
       </c>
@@ -2937,7 +3004,7 @@
         <v>32.57</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="11">
         <v>44518</v>
       </c>
@@ -2945,7 +3012,7 @@
         <v>31.21</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="11">
         <v>44519</v>
       </c>
@@ -2953,7 +3020,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="11">
         <v>44523</v>
       </c>
@@ -2961,7 +3028,7 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="11">
         <v>44524</v>
       </c>
@@ -2969,7 +3036,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="11">
         <v>44525</v>
       </c>
@@ -2977,7 +3044,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="11">
         <v>44526</v>
       </c>
@@ -2985,7 +3052,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="11">
         <v>44529</v>
       </c>
@@ -2993,7 +3060,7 @@
         <v>30.11</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="11">
         <v>44530</v>
       </c>
@@ -3001,7 +3068,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="11">
         <v>44531</v>
       </c>
@@ -3009,7 +3076,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="11">
         <v>44532</v>
       </c>
@@ -3017,7 +3084,7 @@
         <v>31.19</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="11">
         <v>44533</v>
       </c>
@@ -3025,7 +3092,7 @@
         <v>32.35</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="11">
         <v>44536</v>
       </c>
@@ -3033,7 +3100,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="11">
         <v>44537</v>
       </c>
@@ -3041,7 +3108,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="11">
         <v>44539</v>
       </c>
@@ -3049,7 +3116,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="11">
         <v>44540</v>
       </c>
@@ -3057,7 +3124,7 @@
         <v>33.46</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="11">
         <v>44543</v>
       </c>
@@ -3065,7 +3132,7 @@
         <v>33.049999999999997</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="11">
         <v>44544</v>
       </c>
@@ -3073,7 +3140,7 @@
         <v>32.950000000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="11">
         <v>44545</v>
       </c>
@@ -3081,7 +3148,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="11">
         <v>44546</v>
       </c>
@@ -3089,7 +3156,7 @@
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="11">
         <v>44547</v>
       </c>
@@ -3097,7 +3164,7 @@
         <v>32.08</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="11">
         <v>44550</v>
       </c>
@@ -3105,7 +3172,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="11">
         <v>44551</v>
       </c>
@@ -3113,7 +3180,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="11">
         <v>44552</v>
       </c>
@@ -3121,7 +3188,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="11">
         <v>44553</v>
       </c>
@@ -3129,7 +3196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="11">
         <v>44557</v>
       </c>
@@ -3137,7 +3204,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="11">
         <v>44558</v>
       </c>
@@ -3145,7 +3212,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="11">
         <v>44559</v>
       </c>
@@ -3153,7 +3220,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="11">
         <v>44560</v>
       </c>
@@ -3161,7 +3228,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="11">
         <v>44564</v>
       </c>
@@ -3169,7 +3236,7 @@
         <v>33.06</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="11">
         <v>44565</v>
       </c>
@@ -3177,7 +3244,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="11">
         <v>44566</v>
       </c>
@@ -3185,7 +3252,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="11">
         <v>44567</v>
       </c>
@@ -3193,7 +3260,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="11">
         <v>44568</v>
       </c>
@@ -3201,7 +3268,7 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="11">
         <v>44571</v>
       </c>
@@ -3209,7 +3276,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="11">
         <v>44572</v>
       </c>
@@ -3217,7 +3284,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="11">
         <v>44573</v>
       </c>
@@ -3225,7 +3292,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="11">
         <v>44574</v>
       </c>
@@ -3233,7 +3300,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="11">
         <v>44575</v>
       </c>
@@ -3241,7 +3308,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="11">
         <v>44578</v>
       </c>
@@ -3249,7 +3316,7 @@
         <v>29.22</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="11">
         <v>44579</v>
       </c>
@@ -3257,7 +3324,7 @@
         <v>29.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="11">
         <v>44580</v>
       </c>
@@ -3265,7 +3332,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="11">
         <v>44581</v>
       </c>
@@ -3273,7 +3340,7 @@
         <v>28.73</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="11">
         <v>44582</v>
       </c>
@@ -3281,7 +3348,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="11">
         <v>44585</v>
       </c>
@@ -3289,7 +3356,7 @@
         <v>27.82</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="11">
         <v>44586</v>
       </c>
@@ -3297,7 +3364,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="11">
         <v>44587</v>
       </c>
@@ -3305,7 +3372,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="11">
         <v>44588</v>
       </c>
@@ -3313,7 +3380,7 @@
         <v>28.67</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="11">
         <v>44589</v>
       </c>
@@ -3321,7 +3388,7 @@
         <v>30.74</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="11">
         <v>44592</v>
       </c>
@@ -3329,7 +3396,7 @@
         <v>31.62</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="11">
         <v>44593</v>
       </c>
@@ -3337,7 +3404,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="11">
         <v>44594</v>
       </c>
@@ -3345,7 +3412,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="11">
         <v>44595</v>
       </c>
@@ -3353,7 +3420,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="11">
         <v>44596</v>
       </c>
@@ -3361,7 +3428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="11">
         <v>44599</v>
       </c>
@@ -3369,7 +3436,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="11">
         <v>44600</v>
       </c>
@@ -3377,7 +3444,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="11">
         <v>44601</v>
       </c>
@@ -3385,7 +3452,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="11">
         <v>44602</v>
       </c>
@@ -3393,7 +3460,7 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="11">
         <v>44603</v>
       </c>
@@ -3401,7 +3468,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="11">
         <v>44606</v>
       </c>
@@ -3409,7 +3476,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="11">
         <v>44607</v>
       </c>
@@ -3417,7 +3484,7 @@
         <v>30.21</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="11">
         <v>44608</v>
       </c>
@@ -3425,7 +3492,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="11">
         <v>44609</v>
       </c>
@@ -3433,7 +3500,7 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="11">
         <v>44610</v>
       </c>
@@ -3441,7 +3508,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="11">
         <v>44613</v>
       </c>
@@ -3449,7 +3516,7 @@
         <v>30.89</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="11">
         <v>44614</v>
       </c>
@@ -3457,7 +3524,7 @@
         <v>30.66</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="11">
         <v>44615</v>
       </c>
@@ -3465,7 +3532,7 @@
         <v>30.41</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="11">
         <v>44616</v>
       </c>
@@ -3473,7 +3540,7 @@
         <v>30.01</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="11">
         <v>44617</v>
       </c>
@@ -3481,7 +3548,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="11">
         <v>44622</v>
       </c>
@@ -3489,7 +3556,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="11">
         <v>44623</v>
       </c>
@@ -3497,7 +3564,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="11">
         <v>44624</v>
       </c>
@@ -3505,7 +3572,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="11">
         <v>44627</v>
       </c>
@@ -3513,7 +3580,7 @@
         <v>28.05</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="11">
         <v>44628</v>
       </c>
@@ -3521,7 +3588,7 @@
         <v>28.13</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="11">
         <v>44629</v>
       </c>
@@ -3529,7 +3596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="11">
         <v>44630</v>
       </c>
@@ -3537,7 +3604,7 @@
         <v>29.47</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="11">
         <v>44631</v>
       </c>
@@ -3545,7 +3612,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="11">
         <v>44634</v>
       </c>
@@ -3553,7 +3620,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="11">
         <v>44635</v>
       </c>
@@ -3561,7 +3628,7 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="11">
         <v>44636</v>
       </c>
@@ -3569,7 +3636,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="11">
         <v>44637</v>
       </c>
@@ -3577,7 +3644,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="11">
         <v>44638</v>
       </c>
@@ -3585,7 +3652,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="11">
         <v>44641</v>
       </c>
@@ -3593,7 +3660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="11">
         <v>44642</v>
       </c>
@@ -3601,7 +3668,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="11">
         <v>44643</v>
       </c>
@@ -3609,7 +3676,7 @@
         <v>28.15</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="11">
         <v>44645</v>
       </c>
@@ -3617,7 +3684,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="11">
         <v>44648</v>
       </c>
@@ -3625,7 +3692,7 @@
         <v>29.42</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="11">
         <v>44649</v>
       </c>
@@ -3633,7 +3700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="11">
         <v>44650</v>
       </c>
@@ -3641,7 +3708,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="11">
         <v>44651</v>
       </c>
@@ -3649,7 +3716,7 @@
         <v>30.51</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="11">
         <v>44652</v>
       </c>
@@ -3657,7 +3724,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="11">
         <v>44655</v>
       </c>
@@ -3665,7 +3732,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="11">
         <v>44656</v>
       </c>
@@ -3673,7 +3740,7 @@
         <v>30.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="11">
         <v>44657</v>
       </c>
@@ -3681,7 +3748,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="11">
         <v>44658</v>
       </c>
@@ -3689,7 +3756,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="11">
         <v>44659</v>
       </c>
@@ -3697,7 +3764,7 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="11">
         <v>44662</v>
       </c>
@@ -3705,7 +3772,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="11">
         <v>44663</v>
       </c>
@@ -3713,7 +3780,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="11">
         <v>44664</v>
       </c>
@@ -3721,7 +3788,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="11">
         <v>44669</v>
       </c>
@@ -3729,7 +3796,7 @@
         <v>30.17</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="11">
         <v>44670</v>
       </c>
@@ -3737,7 +3804,7 @@
         <v>29.92</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="11">
         <v>44671</v>
       </c>
@@ -3745,7 +3812,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="11">
         <v>44672</v>
       </c>
@@ -3753,7 +3820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="11">
         <v>44673</v>
       </c>
@@ -3761,7 +3828,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="11">
         <v>44676</v>
       </c>
@@ -3769,7 +3836,7 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="11">
         <v>44677</v>
       </c>
@@ -3777,7 +3844,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="11">
         <v>44678</v>
       </c>
@@ -3785,7 +3852,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="11">
         <v>44679</v>
       </c>
@@ -3793,7 +3860,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="11">
         <v>44680</v>
       </c>
@@ -3801,7 +3868,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="11">
         <v>44683</v>
       </c>
@@ -3809,7 +3876,7 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="11">
         <v>44684</v>
       </c>
@@ -3817,7 +3884,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="11">
         <v>44685</v>
       </c>
@@ -3825,7 +3892,7 @@
         <v>28.56</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="11">
         <v>44686</v>
       </c>
@@ -3833,7 +3900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="11">
         <v>44687</v>
       </c>
@@ -3841,7 +3908,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="11">
         <v>44690</v>
       </c>
@@ -3849,7 +3916,7 @@
         <v>27.23</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="11">
         <v>44691</v>
       </c>
@@ -3857,7 +3924,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="11">
         <v>44692</v>
       </c>
@@ -3865,7 +3932,7 @@
         <v>27.43</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="11">
         <v>44693</v>
       </c>
@@ -3873,7 +3940,7 @@
         <v>26.97</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="11">
         <v>44694</v>
       </c>
@@ -3881,7 +3948,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="11">
         <v>44697</v>
       </c>
@@ -3889,7 +3956,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="11">
         <v>44698</v>
       </c>
@@ -3897,7 +3964,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="11">
         <v>44700</v>
       </c>
@@ -3905,7 +3972,7 @@
         <v>26.35</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="11">
         <v>44701</v>
       </c>
@@ -3913,7 +3980,7 @@
         <v>25.93</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="11">
         <v>44704</v>
       </c>
@@ -3921,7 +3988,7 @@
         <v>26.16</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="11">
         <v>44705</v>
       </c>
@@ -3929,7 +3996,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="11">
         <v>44707</v>
       </c>
@@ -3937,7 +4004,7 @@
         <v>26.24</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="11">
         <v>44708</v>
       </c>
@@ -3945,7 +4012,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="11">
         <v>44711</v>
       </c>
@@ -3953,7 +4020,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="11">
         <v>44712</v>
       </c>
@@ -3961,7 +4028,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="11">
         <v>44713</v>
       </c>
@@ -3969,7 +4036,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="11">
         <v>44714</v>
       </c>
@@ -3977,7 +4044,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="11">
         <v>44715</v>
       </c>
@@ -3985,7 +4052,7 @@
         <v>25.97</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="11">
         <v>44718</v>
       </c>
@@ -3993,7 +4060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="11">
         <v>44719</v>
       </c>
@@ -4001,7 +4068,7 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="11">
         <v>44720</v>
       </c>
@@ -4009,7 +4076,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="11">
         <v>44721</v>
       </c>
@@ -4017,7 +4084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="11">
         <v>44722</v>
       </c>
@@ -4025,7 +4092,7 @@
         <v>23.72</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="11">
         <v>44725</v>
       </c>
@@ -4033,7 +4100,7 @@
         <v>23.07</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="11">
         <v>44726</v>
       </c>
@@ -4041,7 +4108,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="11">
         <v>44727</v>
       </c>
@@ -4049,7 +4116,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="11">
         <v>44728</v>
       </c>
@@ -4057,7 +4124,7 @@
         <v>22.66</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="11">
         <v>44733</v>
       </c>
@@ -4065,7 +4132,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="11">
         <v>44734</v>
       </c>
@@ -4073,7 +4140,7 @@
         <v>22.35</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="11">
         <v>44735</v>
       </c>
@@ -4081,7 +4148,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="11">
         <v>44736</v>
       </c>
@@ -4089,7 +4156,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="11">
         <v>44739</v>
       </c>
@@ -4097,7 +4164,7 @@
         <v>20.239999999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="11">
         <v>44740</v>
       </c>
@@ -4105,7 +4172,7 @@
         <v>20.87</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="11">
         <v>44741</v>
       </c>
@@ -4113,7 +4180,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="11">
         <v>44742</v>
       </c>
@@ -4121,7 +4188,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="11">
         <v>44743</v>
       </c>
@@ -4129,7 +4196,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="11">
         <v>44746</v>
       </c>
@@ -4137,7 +4204,7 @@
         <v>20.22</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="11">
         <v>44747</v>
       </c>
@@ -4145,7 +4212,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="11">
         <v>44748</v>
       </c>
@@ -4153,7 +4220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="11">
         <v>44749</v>
       </c>
@@ -4161,7 +4228,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="11">
         <v>44750</v>
       </c>
@@ -4169,7 +4236,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="11">
         <v>44753</v>
       </c>
@@ -4177,7 +4244,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="11">
         <v>44754</v>
       </c>
@@ -4185,7 +4252,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="11">
         <v>44755</v>
       </c>
@@ -4193,7 +4260,7 @@
         <v>18.07</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="11">
         <v>44756</v>
       </c>
@@ -4201,7 +4268,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="11">
         <v>44757</v>
       </c>
@@ -4209,7 +4276,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="11">
         <v>44760</v>
       </c>
@@ -4217,7 +4284,7 @@
         <v>17.809999999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="11">
         <v>44761</v>
       </c>
@@ -4225,7 +4292,7 @@
         <v>18.170000000000002</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="11">
         <v>44762</v>
       </c>
@@ -4233,7 +4300,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="11">
         <v>44763</v>
       </c>
@@ -4241,7 +4308,7 @@
         <v>17.57</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="11">
         <v>44764</v>
       </c>
@@ -4249,7 +4316,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="11">
         <v>44767</v>
       </c>
@@ -4257,7 +4324,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="11">
         <v>44768</v>
       </c>
@@ -4265,7 +4332,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="11">
         <v>44769</v>
       </c>
@@ -4273,7 +4340,7 @@
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="11">
         <v>44770</v>
       </c>
@@ -4281,7 +4348,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="11">
         <v>44771</v>
       </c>
@@ -4289,7 +4356,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="11">
         <v>44774</v>
       </c>
@@ -4297,7 +4364,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="11">
         <v>44775</v>
       </c>
@@ -4305,7 +4372,7 @@
         <v>22.36</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="11">
         <v>44776</v>
       </c>
@@ -4313,7 +4380,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="11">
         <v>44777</v>
       </c>
@@ -4321,7 +4388,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="11">
         <v>44778</v>
       </c>
@@ -4329,7 +4396,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="11">
         <v>44781</v>
       </c>
@@ -4337,7 +4404,7 @@
         <v>22.46</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="11">
         <v>44782</v>
       </c>
@@ -4345,7 +4412,7 @@
         <v>21.82</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="11">
         <v>44783</v>
       </c>
@@ -4353,7 +4420,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="11">
         <v>44784</v>
       </c>
@@ -4361,7 +4428,7 @@
         <v>21.57</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="11">
         <v>44785</v>
       </c>
@@ -4369,7 +4436,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="11">
         <v>44789</v>
       </c>
@@ -4377,7 +4444,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="11">
         <v>44790</v>
       </c>
@@ -4385,7 +4452,7 @@
         <v>21.195</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="11">
         <v>44791</v>
       </c>
@@ -4393,7 +4460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="11">
         <v>44792</v>
       </c>
@@ -4401,7 +4468,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="11">
         <v>44795</v>
       </c>
@@ -4409,7 +4476,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="11">
         <v>44796</v>
       </c>
@@ -4417,7 +4484,7 @@
         <v>21.751000000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="11">
         <v>44797</v>
       </c>
@@ -4425,7 +4492,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="11">
         <v>44798</v>
       </c>
@@ -4433,7 +4500,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="11">
         <v>44799</v>
       </c>
@@ -4441,7 +4508,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="11">
         <v>44802</v>
       </c>
@@ -4449,7 +4516,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="11">
         <v>44803</v>
       </c>
@@ -4457,7 +4524,7 @@
         <v>21.895</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="11">
         <v>44804</v>
       </c>
@@ -4465,7 +4532,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="11">
         <v>44805</v>
       </c>
@@ -4473,7 +4540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="11">
         <v>44809</v>
       </c>
@@ -4481,7 +4548,7 @@
         <v>22.812999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="11">
         <v>44810</v>
       </c>
@@ -4489,7 +4556,7 @@
         <v>22.69</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="11">
         <v>44811</v>
       </c>
@@ -4497,7 +4564,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" s="11">
         <v>44812</v>
       </c>
@@ -4505,7 +4572,7 @@
         <v>22.77</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="11">
         <v>44813</v>
       </c>
@@ -4513,7 +4580,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="11">
         <v>44816</v>
       </c>
@@ -4521,7 +4588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="11">
         <v>44817</v>
       </c>
@@ -4529,7 +4596,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="11">
         <v>44818</v>
       </c>
@@ -4537,7 +4604,7 @@
         <v>22.37</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="11">
         <v>44819</v>
       </c>
@@ -4545,7 +4612,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="11">
         <v>44820</v>
       </c>
@@ -4553,7 +4620,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="11">
         <v>44823</v>
       </c>
@@ -4561,7 +4628,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="11">
         <v>44824</v>
       </c>
@@ -4569,7 +4636,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="11">
         <v>44825</v>
       </c>
@@ -4577,7 +4644,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="11">
         <v>44826</v>
       </c>
@@ -4585,7 +4652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="11">
         <v>44827</v>
       </c>
@@ -4593,7 +4660,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="11">
         <v>44830</v>
       </c>
@@ -4601,7 +4668,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="11">
         <v>44831</v>
       </c>
@@ -4609,7 +4676,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="11">
         <v>44832</v>
       </c>
@@ -4617,7 +4684,7 @@
         <v>19.39</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="11">
         <v>44833</v>
       </c>
@@ -4625,7 +4692,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="11">
         <v>44834</v>
       </c>
@@ -4633,7 +4700,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="11">
         <v>44837</v>
       </c>
@@ -4641,7 +4708,7 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="11">
         <v>44838</v>
       </c>
@@ -4649,7 +4716,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="11">
         <v>44839</v>
       </c>
@@ -4657,7 +4724,7 @@
         <v>19.170000000000002</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="11">
         <v>44840</v>
       </c>
@@ -4665,7 +4732,7 @@
         <v>18.989999999999998</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="11">
         <v>44845</v>
       </c>
@@ -4673,7 +4740,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="11">
         <v>44846</v>
       </c>
@@ -4681,7 +4748,7 @@
         <v>18.91</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="11">
         <v>44847</v>
       </c>
@@ -4689,7 +4756,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="11">
         <v>44848</v>
       </c>
@@ -4697,7 +4764,7 @@
         <v>18.311</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="11">
         <v>44851</v>
       </c>
@@ -4705,7 +4772,7 @@
         <v>18.402999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="11">
         <v>44852</v>
       </c>
@@ -4713,7 +4780,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="11">
         <v>44853</v>
       </c>
@@ -4721,7 +4788,7 @@
         <v>18.420999999999999</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="11">
         <v>44854</v>
       </c>
@@ -4729,7 +4796,7 @@
         <v>18.57</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="11">
         <v>44855</v>
       </c>
@@ -4737,7 +4804,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" s="11">
         <v>44858</v>
       </c>
@@ -4745,7 +4812,7 @@
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="11">
         <v>44859</v>
       </c>
@@ -4753,7 +4820,7 @@
         <v>20.361000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="11">
         <v>44860</v>
       </c>
@@ -4761,7 +4828,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" s="11">
         <v>44861</v>
       </c>
@@ -4769,7 +4836,7 @@
         <v>19.800999999999998</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" s="11">
         <v>44862</v>
       </c>
@@ -4777,7 +4844,7 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" s="11">
         <v>44865</v>
       </c>
@@ -4785,7 +4852,7 @@
         <v>19.63</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" s="11">
         <v>44866</v>
       </c>
@@ -4793,7 +4860,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" s="11">
         <v>44867</v>
       </c>
@@ -4801,7 +4868,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" s="11">
         <v>44868</v>
       </c>
@@ -4809,7 +4876,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" s="11">
         <v>44869</v>
       </c>
@@ -4817,7 +4884,7 @@
         <v>19.751000000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="11">
         <v>44872</v>
       </c>
@@ -4825,7 +4892,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" s="11">
         <v>44873</v>
       </c>
@@ -4833,7 +4900,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" s="11">
         <v>44874</v>
       </c>
@@ -4841,7 +4908,7 @@
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" s="11">
         <v>44875</v>
       </c>
@@ -4849,7 +4916,7 @@
         <v>20.748999999999999</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="11">
         <v>44876</v>
       </c>
@@ -4857,7 +4924,7 @@
         <v>20.698</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" s="11">
         <v>44879</v>
       </c>
@@ -4865,7 +4932,7 @@
         <v>21.23</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="11">
         <v>44880</v>
       </c>
@@ -4873,7 +4940,7 @@
         <v>22.414999999999999</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" s="11">
         <v>44881</v>
       </c>
@@ -4881,7 +4948,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="11">
         <v>44882</v>
       </c>
@@ -4889,7 +4956,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="11">
         <v>44883</v>
       </c>
@@ -4897,7 +4964,7 @@
         <v>21.248999999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="11">
         <v>44887</v>
       </c>
@@ -4905,7 +4972,7 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="11">
         <v>44888</v>
       </c>
@@ -4913,7 +4980,7 @@
         <v>22.13</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="11">
         <v>44889</v>
       </c>
@@ -4921,7 +4988,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" s="11">
         <v>44890</v>
       </c>
@@ -4929,7 +4996,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" s="11">
         <v>44893</v>
       </c>
@@ -4937,7 +5004,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="11">
         <v>44894</v>
       </c>
@@ -4945,7 +5012,7 @@
         <v>23.16</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" s="11">
         <v>44895</v>
       </c>
@@ -4953,7 +5020,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="11">
         <v>44896</v>
       </c>
@@ -4961,7 +5028,7 @@
         <v>23.93</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" s="11">
         <v>44897</v>
       </c>
@@ -4969,7 +5036,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" s="11">
         <v>44900</v>
       </c>
@@ -4977,7 +5044,7 @@
         <v>23.33</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" s="11">
         <v>44901</v>
       </c>
@@ -4985,7 +5052,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" s="11">
         <v>44902</v>
       </c>
@@ -4993,7 +5060,7 @@
         <v>23.178000000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" s="11">
         <v>44907</v>
       </c>
@@ -5001,7 +5068,7 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" s="11">
         <v>44908</v>
       </c>
@@ -5009,7 +5076,7 @@
         <v>24.035</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" s="11">
         <v>44909</v>
       </c>
@@ -5017,7 +5084,7 @@
         <v>23.86</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" s="11">
         <v>44910</v>
       </c>
@@ -5025,7 +5092,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" s="11">
         <v>44911</v>
       </c>
@@ -5033,7 +5100,7 @@
         <v>24.881</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" s="11">
         <v>44914</v>
       </c>
@@ -5041,7 +5108,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" s="11">
         <v>44915</v>
       </c>
@@ -5049,7 +5116,7 @@
         <v>25.69</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" s="11">
         <v>44916</v>
       </c>
@@ -5057,7 +5124,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" s="11">
         <v>44917</v>
       </c>
@@ -5065,7 +5132,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" s="11">
         <v>44918</v>
       </c>
@@ -5073,7 +5140,7 @@
         <v>25.43</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" s="11">
         <v>44921</v>
       </c>
@@ -5081,7 +5148,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" s="11">
         <v>44922</v>
       </c>
@@ -5089,7 +5156,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" s="11">
         <v>44923</v>
       </c>
@@ -5097,7 +5164,7 @@
         <v>24.31</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" s="11">
         <v>44924</v>
       </c>
@@ -5105,7 +5172,7 @@
         <v>24.02</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" s="11">
         <v>44925</v>
       </c>
@@ -5113,7 +5180,7 @@
         <v>24.131</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" s="11">
         <v>44928</v>
       </c>
@@ -5121,7 +5188,7 @@
         <v>24.43</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="11">
         <v>44929</v>
       </c>
@@ -5129,7 +5196,7 @@
         <v>25.065000000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="11">
         <v>44930</v>
       </c>
@@ -5137,7 +5204,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" s="11">
         <v>44931</v>
       </c>
@@ -5145,7 +5212,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="11">
         <v>44932</v>
       </c>
@@ -5153,7 +5220,7 @@
         <v>25.576000000000001</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" s="11">
         <v>44935</v>
       </c>
@@ -5161,7 +5228,7 @@
         <v>26.451000000000001</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" s="11">
         <v>44936</v>
       </c>
@@ -5169,7 +5236,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" s="11">
         <v>44937</v>
       </c>
@@ -5177,7 +5244,7 @@
         <v>28.06</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" s="11">
         <v>44938</v>
       </c>
@@ -5185,7 +5252,7 @@
         <v>28.36</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" s="11">
         <v>44939</v>
       </c>
@@ -5193,7 +5260,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" s="11">
         <v>44942</v>
       </c>
@@ -5201,7 +5268,7 @@
         <v>29.420999999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" s="11">
         <v>44943</v>
       </c>
@@ -5209,7 +5276,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" s="11">
         <v>44944</v>
       </c>
@@ -5217,7 +5284,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" s="11">
         <v>44945</v>
       </c>
@@ -5225,7 +5292,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" s="11">
         <v>44946</v>
       </c>
@@ -5233,7 +5300,7 @@
         <v>30.66</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" s="11">
         <v>44949</v>
       </c>
@@ -5241,7 +5308,7 @@
         <v>30.99</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" s="11">
         <v>44950</v>
       </c>
@@ -5249,7 +5316,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" s="11">
         <v>44951</v>
       </c>
@@ -5257,7 +5324,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" s="11">
         <v>44952</v>
       </c>
@@ -5265,7 +5332,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="11">
         <v>44953</v>
       </c>
@@ -5273,7 +5340,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" s="11">
         <v>44956</v>
       </c>
@@ -5281,7 +5348,7 @@
         <v>32.011000000000003</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" s="11">
         <v>44957</v>
       </c>
@@ -5289,7 +5356,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" s="11">
         <v>44958</v>
       </c>
@@ -5297,7 +5364,7 @@
         <v>32.01</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" s="11">
         <v>44959</v>
       </c>
@@ -5305,7 +5372,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" s="11">
         <v>44960</v>
       </c>
@@ -5313,7 +5380,7 @@
         <v>31.09</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" s="11">
         <v>44963</v>
       </c>
@@ -5321,7 +5388,7 @@
         <v>29.81</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" s="11">
         <v>44964</v>
       </c>
@@ -5329,7 +5396,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" s="11">
         <v>44965</v>
       </c>
@@ -5337,7 +5404,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" s="11">
         <v>44966</v>
       </c>
@@ -5345,7 +5412,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" s="11">
         <v>44967</v>
       </c>
@@ -5353,7 +5420,7 @@
         <v>29.347999999999999</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" s="11">
         <v>44970</v>
       </c>
@@ -5361,7 +5428,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" s="11">
         <v>44971</v>
       </c>
@@ -5369,7 +5436,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" s="11">
         <v>44972</v>
       </c>
@@ -5377,7 +5444,7 @@
         <v>28.428999999999998</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" s="11">
         <v>44973</v>
       </c>
@@ -5385,7 +5452,7 @@
         <v>27.55</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" s="11">
         <v>44974</v>
       </c>
@@ -5393,7 +5460,7 @@
         <v>26.518999999999998</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" s="11">
         <v>44979</v>
       </c>
@@ -5401,7 +5468,7 @@
         <v>27.303000000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="11">
         <v>44980</v>
       </c>
@@ -5409,7 +5476,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" s="11">
         <v>44981</v>
       </c>
@@ -5417,7 +5484,7 @@
         <v>27.875</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="11">
         <v>44984</v>
       </c>
@@ -5425,7 +5492,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" s="11">
         <v>44985</v>
       </c>
@@ -5433,7 +5500,7 @@
         <v>28.56</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" s="11">
         <v>44986</v>
       </c>
@@ -5441,7 +5508,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" s="11">
         <v>44987</v>
       </c>
@@ -5449,7 +5516,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" s="11">
         <v>44988</v>
       </c>
@@ -5457,7 +5524,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" s="11">
         <v>44991</v>
       </c>
@@ -5465,7 +5532,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" s="11">
         <v>44992</v>
       </c>
@@ -5473,7 +5540,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A607" s="11">
         <v>44993</v>
       </c>
@@ -5481,7 +5548,7 @@
         <v>26.45</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A608" s="11">
         <v>44994</v>
       </c>
@@ -5489,7 +5556,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A609" s="11">
         <v>44995</v>
       </c>
@@ -5497,7 +5564,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A610" s="11">
         <v>44998</v>
       </c>
@@ -5505,7 +5572,7 @@
         <v>24.902000000000001</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A611" s="11">
         <v>44999</v>
       </c>
@@ -5513,7 +5580,7 @@
         <v>24.83</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A612" s="11">
         <v>45000</v>
       </c>
@@ -5521,7 +5588,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A613" s="11">
         <v>45001</v>
       </c>
@@ -5529,7 +5596,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A614" s="11">
         <v>45002</v>
       </c>
@@ -5537,7 +5604,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A615" s="11">
         <v>45005</v>
       </c>
@@ -5545,7 +5612,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A616" s="11">
         <v>45006</v>
       </c>
@@ -5553,7 +5620,7 @@
         <v>25.021000000000001</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A617" s="11">
         <v>45007</v>
       </c>
@@ -5561,7 +5628,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A618" s="11">
         <v>45008</v>
       </c>
@@ -5569,7 +5636,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A619" s="11">
         <v>45012</v>
       </c>
@@ -5577,7 +5644,7 @@
         <v>23.399000000000001</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A620" s="11">
         <v>45013</v>
       </c>
@@ -5585,7 +5652,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A621" s="11">
         <v>45014</v>
       </c>
@@ -5593,7 +5660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A622" s="11">
         <v>45015</v>
       </c>
@@ -5601,7 +5668,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A623" s="11">
         <v>45016</v>
       </c>
@@ -5609,7 +5676,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A624" s="11">
         <v>45019</v>
       </c>
@@ -5617,7 +5684,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A625" s="11">
         <v>45020</v>
       </c>
@@ -5625,7 +5692,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A626" s="11">
         <v>45021</v>
       </c>
@@ -5633,7 +5700,7 @@
         <v>24.95</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A627" s="11">
         <v>45026</v>
       </c>
@@ -5641,7 +5708,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A628" s="11">
         <v>45027</v>
       </c>
@@ -5649,7 +5716,7 @@
         <v>25.39</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A629" s="11">
         <v>45028</v>
       </c>
@@ -5657,7 +5724,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A630" s="11">
         <v>45029</v>
       </c>
@@ -5665,7 +5732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A631" s="11">
         <v>45030</v>
       </c>
@@ -5673,7 +5740,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A632" s="11">
         <v>45033</v>
       </c>
@@ -5681,7 +5748,7 @@
         <v>25.12</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A633" s="11">
         <v>45034</v>
       </c>
@@ -5689,7 +5756,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A634" s="11">
         <v>45035</v>
       </c>
@@ -5697,7 +5764,7 @@
         <v>22.17</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A635" s="11">
         <v>45036</v>
       </c>
@@ -5705,7 +5772,7 @@
         <v>22.138999999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A636" s="11">
         <v>45037</v>
       </c>
@@ -5713,7 +5780,7 @@
         <v>21.379000000000001</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A637" s="11">
         <v>45040</v>
       </c>
@@ -5721,7 +5788,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A638" s="11">
         <v>45041</v>
       </c>
@@ -5729,7 +5796,7 @@
         <v>20.61</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A639" s="11">
         <v>45042</v>
       </c>
@@ -5737,7 +5804,7 @@
         <v>20.777999999999999</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A640" s="11">
         <v>45043</v>
       </c>
@@ -5745,7 +5812,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A641" s="11">
         <v>45044</v>
       </c>
@@ -5753,7 +5820,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A642" s="11">
         <v>45048</v>
       </c>
@@ -5761,7 +5828,7 @@
         <v>20.80649</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A643" s="11">
         <v>45049</v>
       </c>
@@ -5769,7 +5836,7 @@
         <v>21.524999999999999</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A644" s="11">
         <v>45050</v>
       </c>
@@ -5777,7 +5844,7 @@
         <v>21.423960000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A645" s="11">
         <v>45051</v>
       </c>
@@ -5785,7 +5852,7 @@
         <v>20.954999999999998</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A646" s="11">
         <v>45054</v>
       </c>
@@ -5793,7 +5860,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A647" s="11">
         <v>45055</v>
       </c>
@@ -5801,7 +5868,7 @@
         <v>21.074999999999999</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A648" s="11">
         <v>45056</v>
       </c>
@@ -5809,7 +5876,7 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A649" s="11">
         <v>45057</v>
       </c>
@@ -5817,7 +5884,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A650" s="11">
         <v>45058</v>
       </c>
@@ -5825,7 +5892,7 @@
         <v>22.092089999999999</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A651" s="11">
         <v>45061</v>
       </c>
@@ -5833,7 +5900,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A652" s="11">
         <v>45062</v>
       </c>
@@ -5841,7 +5908,7 @@
         <v>23.37143</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A653" s="11">
         <v>45063</v>
       </c>
@@ -5849,7 +5916,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A654" s="11">
         <v>45064</v>
       </c>
@@ -5857,7 +5924,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A655" s="11">
         <v>45065</v>
       </c>
@@ -5865,7 +5932,7 @@
         <v>22.19</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A656" s="11">
         <v>45068</v>
       </c>
@@ -5873,7 +5940,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A657" s="11">
         <v>45069</v>
       </c>
@@ -5881,7 +5948,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A658" s="11">
         <v>45070</v>
       </c>
@@ -5889,7 +5956,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A659" s="11">
         <v>45075</v>
       </c>
@@ -5897,7 +5964,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A660" s="11">
         <v>45076</v>
       </c>
@@ -5905,7 +5972,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A661" s="11">
         <v>45077</v>
       </c>
@@ -5913,7 +5980,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A662" s="11">
         <v>45078</v>
       </c>
@@ -5921,7 +5988,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A663" s="11">
         <v>45079</v>
       </c>
@@ -5929,7 +5996,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A664" s="11">
         <v>45082</v>
       </c>
@@ -5937,7 +6004,7 @@
         <v>21.420999999999999</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A665" s="11">
         <v>45083</v>
       </c>
@@ -5945,7 +6012,7 @@
         <v>22.87</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A666" s="11">
         <v>45084</v>
       </c>
@@ -5953,7 +6020,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A667" s="11">
         <v>45085</v>
       </c>
@@ -5961,7 +6028,7 @@
         <v>23.355</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A668" s="11">
         <v>45086</v>
       </c>
@@ -5969,7 +6036,7 @@
         <v>23.14</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A669" s="11">
         <v>45089</v>
       </c>
@@ -5977,7 +6044,7 @@
         <v>23.65</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A670" s="11">
         <v>45090</v>
       </c>
@@ -5985,7 +6052,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A671" s="11">
         <v>45091</v>
       </c>
@@ -5993,7 +6060,7 @@
         <v>23.65</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A672" s="11">
         <v>45092</v>
       </c>
@@ -6001,7 +6068,7 @@
         <v>23.81</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A673" s="11">
         <v>45093</v>
       </c>
@@ -6009,7 +6076,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A674" s="11">
         <v>45098</v>
       </c>
@@ -6017,7 +6084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A675" s="11">
         <v>45099</v>
       </c>
@@ -6025,7 +6092,7 @@
         <v>26.599630000000001</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A676" s="11">
         <v>45100</v>
       </c>
@@ -6033,7 +6100,7 @@
         <v>25.808389999999999</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A677" s="11">
         <v>45103</v>
       </c>
@@ -6041,7 +6108,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A678" s="11">
         <v>45104</v>
       </c>
@@ -6049,7 +6116,7 @@
         <v>28.06</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A679" s="11">
         <v>45105</v>
       </c>
@@ -6057,7 +6124,7 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A680" s="11">
         <v>45106</v>
       </c>
@@ -6065,7 +6132,7 @@
         <v>28.94</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A681" s="11">
         <v>45107</v>
       </c>
@@ -6073,7 +6140,7 @@
         <v>29.47</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A682" s="11">
         <v>45110</v>
       </c>
@@ -6081,7 +6148,7 @@
         <v>30.62</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A683" s="11">
         <v>45111</v>
       </c>
@@ -6089,7 +6156,7 @@
         <v>30.71</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A684" s="11">
         <v>45112</v>
       </c>
@@ -6097,7 +6164,7 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A685" s="11">
         <v>45113</v>
       </c>
@@ -6105,7 +6172,7 @@
         <v>28.29</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A686" s="11">
         <v>45114</v>
       </c>
@@ -6113,7 +6180,7 @@
         <v>28.15</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A687" s="11">
         <v>45117</v>
       </c>
@@ -6121,7 +6188,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A688" s="11">
         <v>45118</v>
       </c>
@@ -6129,7 +6196,7 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A689" s="11">
         <v>45119</v>
       </c>
@@ -6137,7 +6204,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A690" s="11">
         <v>45120</v>
       </c>
@@ -6145,7 +6212,7 @@
         <v>29.324590000000001</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A691" s="11">
         <v>45121</v>
       </c>
@@ -6153,7 +6220,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A692" s="11">
         <v>45124</v>
       </c>
@@ -6161,7 +6228,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A693" s="11">
         <v>45125</v>
       </c>
@@ -6169,7 +6236,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A694" s="11">
         <v>45126</v>
       </c>
@@ -6177,7 +6244,7 @@
         <v>28.48</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A695" s="11">
         <v>45127</v>
       </c>
@@ -6185,7 +6252,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A696" s="11">
         <v>45128</v>
       </c>
@@ -6193,7 +6260,7 @@
         <v>29.27</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A697" s="11">
         <v>45131</v>
       </c>
@@ -6201,7 +6268,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A698" s="11">
         <v>45132</v>
       </c>
@@ -6209,7 +6276,7 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A699" s="11">
         <v>45133</v>
       </c>
@@ -6217,7 +6284,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A700" s="11">
         <v>45134</v>
       </c>
@@ -6225,7 +6292,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A701" s="11">
         <v>45135</v>
       </c>
@@ -6233,7 +6300,7 @@
         <v>30.38</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A702" s="11">
         <v>45138</v>
       </c>
@@ -6241,7 +6308,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A703" s="11">
         <v>45139</v>
       </c>
@@ -6249,7 +6316,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A704" s="11">
         <v>45140</v>
       </c>
@@ -6257,7 +6324,7 @@
         <v>31.26</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A705" s="11">
         <v>45141</v>
       </c>
@@ -6265,7 +6332,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A706" s="11">
         <v>45142</v>
       </c>
@@ -6273,7 +6340,7 @@
         <v>31.59</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A707" s="11">
         <v>45145</v>
       </c>
@@ -6281,7 +6348,7 @@
         <v>32.880000000000003</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A708" s="11">
         <v>45146</v>
       </c>
@@ -6289,7 +6356,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A709" s="11">
         <v>45147</v>
       </c>
@@ -6297,7 +6364,7 @@
         <v>32.770000000000003</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A710" s="11">
         <v>45148</v>
       </c>
@@ -6305,7 +6372,7 @@
         <v>33.340000000000003</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A711" s="11">
         <v>45149</v>
       </c>
@@ -6313,7 +6380,7 @@
         <v>32.64</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A712" s="11">
         <v>45152</v>
       </c>
@@ -6321,7 +6388,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A713" s="11">
         <v>45153</v>
       </c>
@@ -6329,7 +6396,7 @@
         <v>27.87</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A714" s="11">
         <v>45154</v>
       </c>
@@ -6337,7 +6404,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A715" s="11">
         <v>45155</v>
       </c>
@@ -6345,7 +6412,7 @@
         <v>30.36</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A716" s="11">
         <v>45156</v>
       </c>
@@ -6353,7 +6420,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A717" s="11">
         <v>45160</v>
       </c>
@@ -6361,7 +6428,7 @@
         <v>32.590000000000003</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A718" s="11">
         <v>45161</v>
       </c>
@@ -6369,7 +6436,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A719" s="11">
         <v>45162</v>
       </c>
@@ -6377,7 +6444,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A720" s="11">
         <v>45163</v>
       </c>
@@ -6385,7 +6452,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A721" s="11">
         <v>45166</v>
       </c>
@@ -6393,7 +6460,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A722" s="11">
         <v>45167</v>
       </c>
@@ -6401,7 +6468,7 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A723" s="11">
         <v>45168</v>
       </c>
@@ -6409,7 +6476,7 @@
         <v>34.409999999999997</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A724" s="11">
         <v>45169</v>
       </c>
@@ -6417,7 +6484,7 @@
         <v>33.67</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A725" s="11">
         <v>45170</v>
       </c>
@@ -6425,7 +6492,7 @@
         <v>33.17</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A726" s="11">
         <v>45173</v>
       </c>
@@ -6433,7 +6500,7 @@
         <v>32.93</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A727" s="11">
         <v>45174</v>
       </c>
@@ -6441,7 +6508,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A728" s="11">
         <v>45175</v>
       </c>
@@ -6449,7 +6516,7 @@
         <v>32.01</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A729" s="11">
         <v>45176</v>
       </c>
@@ -6457,7 +6524,7 @@
         <v>31.84</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A730" s="11">
         <v>45177</v>
       </c>
@@ -6465,7 +6532,7 @@
         <v>30.97</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A731" s="11">
         <v>45180</v>
       </c>
@@ -6473,7 +6540,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A732" s="11">
         <v>45181</v>
       </c>
@@ -6481,7 +6548,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A733" s="11">
         <v>45182</v>
       </c>
@@ -6489,7 +6556,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A734" s="11">
         <v>45183</v>
       </c>
@@ -6497,7 +6564,7 @@
         <v>31.07</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A735" s="11">
         <v>45184</v>
       </c>
@@ -6505,7 +6572,7 @@
         <v>30.824999999999999</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A736" s="11">
         <v>45187</v>
       </c>
@@ -6513,7 +6580,7 @@
         <v>31.19</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A737" s="11">
         <v>45188</v>
       </c>
@@ -6521,7 +6588,7 @@
         <v>30.68</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A738" s="11">
         <v>45189</v>
       </c>
@@ -6529,7 +6596,7 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A739" s="11">
         <v>45190</v>
       </c>
@@ -6537,7 +6604,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A740" s="11">
         <v>45191</v>
       </c>
@@ -6545,7 +6612,7 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A741" s="11">
         <v>45194</v>
       </c>
@@ -6553,7 +6620,7 @@
         <v>29.893000000000001</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A742" s="11">
         <v>45195</v>
       </c>
@@ -6571,12 +6638,12 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6596,7 +6663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44386</v>
       </c>
@@ -6617,7 +6684,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
@@ -6638,7 +6705,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44751</v>
       </c>
@@ -6659,7 +6726,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44935</v>
       </c>
@@ -6680,7 +6747,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45116</v>
       </c>
@@ -6701,7 +6768,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45300</v>
       </c>
@@ -6722,7 +6789,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45482</v>
       </c>
@@ -6743,7 +6810,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45666</v>
       </c>
@@ -6764,7 +6831,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45847</v>
       </c>
@@ -6785,7 +6852,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>46031</v>
       </c>
@@ -6806,7 +6873,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>46212</v>
       </c>
@@ -6827,7 +6894,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>46396</v>
       </c>
@@ -6848,7 +6915,7 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>46577</v>
       </c>
@@ -6869,7 +6936,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>46761</v>
       </c>
@@ -6890,7 +6957,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>46943</v>
       </c>
@@ -6911,7 +6978,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>47127</v>
       </c>
@@ -6932,7 +6999,7 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>47308</v>
       </c>
@@ -6953,7 +7020,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>47492</v>
       </c>
@@ -6974,7 +7041,7 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>47673</v>
       </c>
@@ -7005,14 +7072,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
   <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7056,10 +7125,10 @@
         <v>28</v>
       </c>
       <c r="AB1" s="21">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.75">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44386</v>
       </c>
@@ -7139,7 +7208,7 @@
         <v>47673</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
@@ -7240,7 +7309,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44751</v>
       </c>
@@ -7314,7 +7383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44935</v>
       </c>
@@ -7353,62 +7422,62 @@
       </c>
       <c r="AB5">
         <f>+AB4*$AB$1</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC5">
         <f t="shared" ref="AC5:AO5" si="3">+AC4*$AB$1</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AD5">
         <f t="shared" si="3"/>
-        <v>19.200000000000003</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="AE5">
         <f t="shared" si="3"/>
-        <v>17.600000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="AF5">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AG5">
         <f t="shared" si="3"/>
-        <v>14.4</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="AH5">
         <f t="shared" si="3"/>
-        <v>12.8</v>
+        <v>19.2</v>
       </c>
       <c r="AI5">
         <f t="shared" si="3"/>
-        <v>11.200000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="3"/>
-        <v>9.6000000000000014</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="AK5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL5">
         <f t="shared" si="3"/>
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM5">
         <f t="shared" si="3"/>
-        <v>4.8000000000000007</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="AN5">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="AO5">
         <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.75">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45116</v>
       </c>
@@ -7444,69 +7513,69 @@
       </c>
       <c r="Z6" s="23">
         <f>+SUM(AB6:AO6)</f>
-        <v>611.57101357830891</v>
+        <v>529.17101357830882</v>
       </c>
       <c r="AA6" t="s">
         <v>29</v>
       </c>
       <c r="AB6" s="20">
         <f t="shared" ref="AB6:AO6" si="4">+AB3-AB5</f>
-        <v>68.856580256003454</v>
+        <v>58.856580256003454</v>
       </c>
       <c r="AC6" s="20">
         <f t="shared" si="4"/>
-        <v>70.851096386455538</v>
+        <v>60.851096386455538</v>
       </c>
       <c r="AD6" s="20">
         <f t="shared" si="4"/>
-        <v>69.505341827276922</v>
+        <v>59.905341827276928</v>
       </c>
       <c r="AE6" s="20">
         <f t="shared" si="4"/>
-        <v>64.567696756590493</v>
+        <v>55.767696756590489</v>
       </c>
       <c r="AF6" s="20">
         <f t="shared" si="4"/>
-        <v>59.419679917879463</v>
+        <v>51.419679917879463</v>
       </c>
       <c r="AG6" s="20">
         <f t="shared" si="4"/>
-        <v>54.103913026011647</v>
+        <v>46.903913026011651</v>
       </c>
       <c r="AH6" s="20">
         <f t="shared" si="4"/>
-        <v>48.673792108162417</v>
+        <v>42.273792108162411</v>
       </c>
       <c r="AI6" s="20">
         <f t="shared" si="4"/>
-        <v>43.095549939296298</v>
+        <v>37.495549939296296</v>
       </c>
       <c r="AJ6" s="20">
         <f t="shared" si="4"/>
-        <v>37.419005748327926</v>
+        <v>32.619005748327929</v>
       </c>
       <c r="AK6" s="20">
         <f t="shared" si="4"/>
-        <v>31.382131305578348</v>
+        <v>27.382131305578348</v>
       </c>
       <c r="AL6" s="20">
         <f t="shared" si="4"/>
-        <v>25.285079457674854</v>
+        <v>22.085079457674858</v>
       </c>
       <c r="AM6" s="20">
         <f t="shared" si="4"/>
-        <v>19.102807293328762</v>
+        <v>16.702807293328764</v>
       </c>
       <c r="AN6" s="20">
         <f t="shared" si="4"/>
-        <v>12.83833955572273</v>
+        <v>11.238339555722728</v>
       </c>
       <c r="AO6" s="20">
         <f t="shared" si="4"/>
-        <v>6.4700000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.75">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45300</v>
       </c>
@@ -7616,7 +7685,7 @@
         <v>0.7424919104329113</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45482</v>
       </c>
@@ -7681,69 +7750,69 @@
       </c>
       <c r="Z8" s="23">
         <f>+SUM(AB8:AO8)</f>
-        <v>543.68131233851648</v>
+        <v>470.19882035455305</v>
       </c>
       <c r="AA8" t="s">
         <v>31</v>
       </c>
       <c r="AB8" s="23">
         <f>+AB7*AB6</f>
-        <v>67.732374308780507</v>
+        <v>57.895642066639411</v>
       </c>
       <c r="AC8" s="23">
         <f t="shared" ref="AC8:AO8" si="9">+AC7*AC6</f>
-        <v>67.87160036643084</v>
+        <v>58.292129641485822</v>
       </c>
       <c r="AD8" s="23">
         <f t="shared" si="9"/>
-        <v>64.92310332539148</v>
+        <v>55.955996977327132</v>
       </c>
       <c r="AE8" s="23">
         <f t="shared" si="9"/>
-        <v>58.960723150921133</v>
+        <v>50.924903541556695</v>
       </c>
       <c r="AF8" s="23">
         <f t="shared" si="9"/>
-        <v>53.132213566782085</v>
+        <v>45.978729920931002</v>
       </c>
       <c r="AG8" s="23">
         <f t="shared" si="9"/>
-        <v>47.391912933300709</v>
+        <v>41.085127452632882</v>
       </c>
       <c r="AH8" s="23">
         <f t="shared" si="9"/>
-        <v>41.783447334286386</v>
+        <v>36.289442216600293</v>
       </c>
       <c r="AI8" s="23">
         <f t="shared" si="9"/>
-        <v>36.264549996602483</v>
+        <v>31.55219616269083</v>
       </c>
       <c r="AJ8" s="23">
         <f t="shared" si="9"/>
-        <v>30.868337413404976</v>
+        <v>26.908637880475386</v>
       </c>
       <c r="AK8" s="23">
         <f t="shared" si="9"/>
-        <v>25.371912851766425</v>
+        <v>22.137981720102793</v>
       </c>
       <c r="AL8" s="23">
         <f t="shared" si="9"/>
-        <v>20.02488547175896</v>
+        <v>17.490599051307221</v>
       </c>
       <c r="AM8" s="23">
         <f t="shared" si="9"/>
-        <v>14.811038502103299</v>
+        <v>12.950239099208117</v>
       </c>
       <c r="AN8" s="23">
         <f t="shared" si="9"/>
-        <v>9.7412904564862597</v>
+        <v>8.527265491440799</v>
       </c>
       <c r="AO8" s="23">
         <f t="shared" si="9"/>
-        <v>4.8039226605009366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.75">
+        <v>4.2099291321546071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45666</v>
       </c>
@@ -7812,7 +7881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45847</v>
       </c>
@@ -7895,7 +7964,7 @@
       </c>
       <c r="AC10" s="13"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>46031</v>
       </c>
@@ -7965,7 +8034,7 @@
       </c>
       <c r="X11" s="22">
         <f>+X10/SUM(AB8:AO8)*2</f>
-        <v>0.20869344674424542</v>
+        <v>0.24130797886052366</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="14"/>
@@ -7984,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>46212</v>
       </c>
@@ -8073,7 +8142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>46396</v>
       </c>
@@ -8169,7 +8238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>46577</v>
       </c>
@@ -8273,7 +8342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>46761</v>
       </c>
@@ -8383,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>46943</v>
       </c>
@@ -8500,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>47127</v>
       </c>
@@ -8624,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>47308</v>
       </c>
@@ -8756,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>47492</v>
       </c>
@@ -8896,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>47673</v>
       </c>
@@ -9040,7 +9109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="Z21" s="11">
         <f t="shared" si="14"/>
         <v>47308</v>
@@ -9098,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="Z22" s="11">
         <f t="shared" si="14"/>
         <v>47492</v>
@@ -9160,7 +9229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="Z23" s="11">
         <f t="shared" si="14"/>
         <v>47673</v>
@@ -9233,16 +9302,988 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41DBF5A-A256-4AE5-B1B8-E1745051911F}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1964DC9F-440D-4507-9807-7E23CFD75A02}">
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="21">
+        <f>+FFant!X11</f>
+        <v>0.24130797886052366</v>
+      </c>
+      <c r="C2" s="22">
+        <f>+B2+2%</f>
+        <v>0.26130797886052365</v>
+      </c>
+      <c r="D2" s="22">
+        <f t="shared" ref="D2:F2" si="0">+C2+2%</f>
+        <v>0.28130797886052367</v>
+      </c>
+      <c r="E2" s="22">
+        <f t="shared" si="0"/>
+        <v>0.30130797886052368</v>
+      </c>
+      <c r="F2" s="22">
+        <f t="shared" si="0"/>
+        <v>0.3213079788605237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>45300</v>
+      </c>
+      <c r="B3" s="21">
+        <f>+(1-B2/2)</f>
+        <v>0.87934601056973816</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:F3" si="1">+(1-C2/2)</f>
+        <v>0.86934601056973815</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.85934601056973814</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.84934601056973813</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" si="1"/>
+        <v>0.83934601056973812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>45482</v>
+      </c>
+      <c r="B4" s="21">
+        <f>+B3*B$3</f>
+        <v>0.77324940630491401</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" ref="C4:F4" si="2">+C3*C$3</f>
+        <v>0.75576248609351926</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.73847556588212449</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.72138864567072969</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.70450172545933498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>45666</v>
+      </c>
+      <c r="B5" s="21">
+        <f t="shared" ref="B5:B16" si="3">+B4*B$3</f>
+        <v>0.67995378060964462</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" ref="C5:C16" si="4">+C4*C$3</f>
+        <v>0.65701910222366822</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" ref="D5:D16" si="5">+D4*D$3</f>
+        <v>0.63460603144403349</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" ref="E5:E16" si="6">+E4*E$3</f>
+        <v>0.61270856827074061</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" ref="F5:F16" si="7">+F4*F$3</f>
+        <v>0.59132071270378972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>45847</v>
+      </c>
+      <c r="B6" s="21">
+        <f t="shared" si="3"/>
+        <v>0.59791464435090202</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="4"/>
+        <v>0.57117693538625691</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="5"/>
+        <v>0.54534616140492398</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="6"/>
+        <v>0.52040157810264953</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="7"/>
+        <v>0.49632268117518019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>46031</v>
+      </c>
+      <c r="B7" s="21">
+        <f t="shared" si="3"/>
+        <v>0.52577385717118952</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="4"/>
+        <v>0.49655039010749152</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="5"/>
+        <v>0.46864104818284191</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="6"/>
+        <v>0.4420010042556814</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="7"/>
+        <v>0.41658646239966357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>46212</v>
+      </c>
+      <c r="B8" s="21">
+        <f t="shared" si="3"/>
+        <v>0.46233714376534879</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="4"/>
+        <v>0.4316741006867949</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="5"/>
+        <v>0.40272481514514563</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="6"/>
+        <v>0.37541178963238087</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="7"/>
+        <v>0.34966018527251785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>46396</v>
+      </c>
+      <c r="B9" s="21">
+        <f t="shared" si="3"/>
+        <v>0.40655432290826693</v>
+      </c>
+      <c r="C9" s="21">
+        <f t="shared" si="4"/>
+        <v>0.37527415729834462</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="5"/>
+        <v>0.34607996325241613</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="6"/>
+        <v>0.31885450584510849</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="7"/>
+        <v>0.29348588156356337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>46577</v>
+      </c>
+      <c r="B10" s="21">
+        <f t="shared" si="3"/>
+        <v>0.35750192192926561</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="4"/>
+        <v>0.32624309151723629</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="5"/>
+        <v>0.29740243575908537</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="6"/>
+        <v>0.27081780249172815</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="7"/>
+        <v>0.24633620384891958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>46761</v>
+      </c>
+      <c r="B11" s="21">
+        <f t="shared" si="3"/>
+        <v>0.31436788881951372</v>
+      </c>
+      <c r="C11" s="21">
+        <f t="shared" si="4"/>
+        <v>0.28361813008644737</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="5"/>
+        <v>0.25557159670329282</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="6"/>
+        <v>0.23001802013761261</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="7"/>
+        <v>0.20676130995948441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>46943</v>
+      </c>
+      <c r="B12" s="21">
+        <f t="shared" si="3"/>
+        <v>0.27643814888467039</v>
+      </c>
+      <c r="C12" s="21">
+        <f t="shared" si="4"/>
+        <v>0.24656228991590204</v>
+      </c>
+      <c r="D12" s="21">
+        <f t="shared" si="5"/>
+        <v>0.21962443204191273</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" si="6"/>
+        <v>0.19536488776303096</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="7"/>
+        <v>0.17354428065466632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>47127</v>
+      </c>
+      <c r="B13" s="21">
+        <f t="shared" si="3"/>
+        <v>0.24308478339101822</v>
+      </c>
+      <c r="C13" s="21">
+        <f t="shared" si="4"/>
+        <v>0.21434794309532862</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="5"/>
+        <v>0.18873337949886226</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" si="6"/>
+        <v>0.165932388026935</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="7"/>
+        <v>0.14566369962468914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>47308</v>
+      </c>
+      <c r="B14" s="21">
+        <f t="shared" si="3"/>
+        <v>0.21375563450510082</v>
+      </c>
+      <c r="C14" s="21">
+        <f t="shared" si="4"/>
+        <v>0.18634252920375319</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" si="5"/>
+        <v>0.16218727673369168</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="6"/>
+        <v>0.14093401179498702</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="7"/>
+        <v>0.12226224516481149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>47492</v>
+      </c>
+      <c r="B15" s="21">
+        <f t="shared" si="3"/>
+        <v>0.18796516443886346</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" si="4"/>
+        <v>0.16199613436275775</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" si="5"/>
+        <v>0.13937498922626806</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="6"/>
+        <v>0.11970174067166064</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="7"/>
+        <v>0.10262032772238378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>47673</v>
+      </c>
+      <c r="B16" s="21">
+        <f t="shared" si="3"/>
+        <v>0.16528641747539941</v>
+      </c>
+      <c r="C16" s="21">
+        <f t="shared" si="4"/>
+        <v>0.14083069313598273</v>
+      </c>
+      <c r="D16" s="21">
+        <f t="shared" si="5"/>
+        <v>0.11977134096479369</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="6"/>
+        <v>0.10166819589772834</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="7"/>
+        <v>8.613396267714192E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>47857</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21">
+        <f t="shared" ref="C17:C26" si="8">+C16*C$3</f>
+        <v>0.12243060124353759</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" ref="D17:D26" si="9">+D16*D$3</f>
+        <v>0.10292502403868331</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" ref="E17:E26" si="10">+E16*E$3</f>
+        <v>8.6351476587558179E-2</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" ref="F17:F26" si="11">+F16*F$3</f>
+        <v>7.2296197947621793E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>48038</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21">
+        <f t="shared" si="8"/>
+        <v>0.10643455476272383</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" si="9"/>
+        <v>8.8448208795436897E-2</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="10"/>
+        <v>7.3342282146448681E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="11"/>
+        <v>6.0681525326696441E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>48222</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21">
+        <f t="shared" si="8"/>
+        <v>9.2528455569740278E-2</v>
+      </c>
+      <c r="D19" s="21">
+        <f t="shared" si="9"/>
+        <v>7.6007615370397921E-2</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="10"/>
+        <v>6.2292974747166316E-2</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="11"/>
+        <v>5.0932796198249183E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>48404</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21">
+        <f t="shared" si="8"/>
+        <v>8.0439243713732983E-2</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" si="9"/>
+        <v>6.5316841041470564E-2</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="10"/>
+        <v>5.2908289588027152E-2</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="11"/>
+        <v>4.2750239296161979E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>48588</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21">
+        <f t="shared" si="8"/>
+        <v>6.9929535615780664E-2</v>
+      </c>
+      <c r="D21" s="21">
+        <f t="shared" si="9"/>
+        <v>5.6129766772005471E-2</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="10"/>
+        <v>4.4937444687659277E-2</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="11"/>
+        <v>3.5882242804135205E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>48769</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21">
+        <f t="shared" si="8"/>
+        <v>6.0792962808573339E-2</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" si="9"/>
+        <v>4.8234891149732749E-2</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="10"/>
+        <v>3.8167439370661679E-2</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="11"/>
+        <v>3.0117617347945578E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>48953</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21">
+        <f t="shared" si="8"/>
+        <v>5.2850119688347699E-2</v>
+      </c>
+      <c r="D23" s="21">
+        <f t="shared" si="9"/>
+        <v>4.1450461279788409E-2</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="10"/>
+        <v>3.2417362363133854E-2</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="11"/>
+        <v>2.5279101968864057E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>49134</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21">
+        <f t="shared" si="8"/>
+        <v>4.5945040709198248E-2</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" si="9"/>
+        <v>3.5620288537061569E-2</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="10"/>
+        <v>2.7533557396321316E-2</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="11"/>
+        <v>2.1217913388351658E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>49318</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21">
+        <f t="shared" si="8"/>
+        <v>3.9942137846005712E-2</v>
+      </c>
+      <c r="D25" s="21">
+        <f t="shared" si="9"/>
+        <v>3.0610152849666832E-2</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" si="10"/>
+        <v>2.3385517131358415E-2</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="11"/>
+        <v>1.7809170955127199E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>49499</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21">
+        <f t="shared" si="8"/>
+        <v>3.4723538190051619E-2</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" si="9"/>
+        <v>2.6304712734291094E-2</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="10"/>
+        <v>1.9862395680629537E-2</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="11"/>
+        <v>1.4948056592740467E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>49683</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21">
+        <f t="shared" ref="D27:D31" si="12">+D26*D$3</f>
+        <v>2.260484994739604E-2</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" ref="E27:E31" si="13">+E26*E$3</f>
+        <v>1.6870046531700295E-2</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" ref="F27:F31" si="14">+F26*F$3</f>
+        <v>1.2546591666887383E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>49865</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.9425387621822342E-2</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="13"/>
+        <v>1.4328506719825492E-2</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" si="14"/>
+        <v>1.0530931661849445E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>50049</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21">
+        <f t="shared" si="12"/>
+        <v>1.6693129356583802E-2</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="13"/>
+        <v>1.2169860019905466E-2</v>
+      </c>
+      <c r="F29" s="21">
+        <f t="shared" si="14"/>
+        <v>8.8390954779558745E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>50230</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21">
+        <f t="shared" si="12"/>
+        <v>1.434517411650487E-2</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="13"/>
+        <v>1.0336422057098862E-2</v>
+      </c>
+      <c r="F30" s="21">
+        <f t="shared" si="14"/>
+        <v>7.4190595264672756E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>50414</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21">
+        <f t="shared" si="12"/>
+        <v>1.2327468147946729E-2</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="13"/>
+        <v>8.7791988377619642E-3</v>
+      </c>
+      <c r="F31" s="21">
+        <f t="shared" si="14"/>
+        <v>6.2271580157197181E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>50595</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21">
+        <f t="shared" ref="E32:E38" si="15">+E31*E$3</f>
+        <v>7.4565775088516056E-3</v>
+      </c>
+      <c r="F32" s="21">
+        <f t="shared" ref="F32:F48" si="16">+F31*F$3</f>
+        <v>5.2267402376817117E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
+        <v>50779</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="21">
+        <f t="shared" si="15"/>
+        <v>6.3332143596471473E-3</v>
+      </c>
+      <c r="F33" s="21">
+        <f t="shared" si="16"/>
+        <v>4.3870435667824692E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
+        <v>50960</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21">
+        <f t="shared" si="15"/>
+        <v>5.3790903504492829E-3</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="16"/>
+        <v>3.6822475159745001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
+        <v>51144</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="21">
+        <f t="shared" si="15"/>
+        <v>4.5687089296482727E-3</v>
+      </c>
+      <c r="F35" s="21">
+        <f t="shared" si="16"/>
+        <v>3.0906797624635249E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="11">
+        <v>51326</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="21">
+        <f t="shared" si="15"/>
+        <v>3.8804147028510989E-3</v>
+      </c>
+      <c r="F36" s="21">
+        <f t="shared" si="16"/>
+        <v>2.5941497285723856E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>51510</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="21">
+        <f t="shared" si="15"/>
+        <v>3.2958147472227366E-3</v>
+      </c>
+      <c r="F37" s="21">
+        <f t="shared" si="16"/>
+        <v>2.177389225497801E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>51691</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="21">
+        <f t="shared" si="15"/>
+        <v>2.7992871071305411E-3</v>
+      </c>
+      <c r="F38" s="21">
+        <f t="shared" si="16"/>
+        <v>1.8275829598791112E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
+        <v>51875</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21">
+        <f t="shared" si="16"/>
+        <v>1.5339744663597657E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>52056</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="21">
+        <f t="shared" si="16"/>
+        <v>1.2875353486549123E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <v>52240</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21">
+        <f t="shared" si="16"/>
+        <v>1.0806876583610175E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <v>52421</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="21">
+        <f t="shared" si="16"/>
+        <v>9.0707087471727209E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>52605</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="21">
+        <f t="shared" si="16"/>
+        <v>7.6134631999794501E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <v>52787</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="21">
+        <f t="shared" si="16"/>
+        <v>6.3903299635222641E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="11">
+        <v>52971</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="21">
+        <f t="shared" si="16"/>
+        <v>5.3636979611066727E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="11">
+        <v>53152</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="21">
+        <f t="shared" si="16"/>
+        <v>4.5019984855559241E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>53336</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="21">
+        <f t="shared" si="16"/>
+        <v>3.7787344684423678E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="11">
+        <v>53517</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="21">
+        <f t="shared" si="16"/>
+        <v>3.1716657010894613E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:F48">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41DBF5A-A256-4AE5-B1B8-E1745051911F}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -9250,7 +10291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -9258,7 +10299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -9266,7 +10307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -9274,7 +10315,7 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -9282,22 +10323,67 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -9307,5 +10393,6 @@
     <hyperlink ref="B3" r:id="rId3" display="https://www.cohen.com.ar/Bursatil/Especie/AL30" xr:uid="{920295F0-74E0-47BE-823B-F0708334A312}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/AL30.xlsx
+++ b/AL30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{F393664B-1674-4DE9-BAC3-13BA0D7779BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6ABA3C2-43ED-458C-8AAE-86C64CF0A4C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="3" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Fecha Pago</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Prob Superv</t>
+  </si>
+  <si>
+    <t>Vida Media</t>
   </si>
 </sst>
 </file>
@@ -377,6 +380,923 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PDs Ejemplo'!$N$4:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.71869202113947628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51731822124954541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3729423852359377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26927144834479211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19471426527178143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14101237452664309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10227290827686379</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5410685548362005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6719281902458103E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3400291117621141E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.390042323549596E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7118132510325457E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8621094164510186E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9383442694030033E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8838242998881735E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6259493369549898E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8144640429027499E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2539973080813852E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3355179767381274E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.299865500597885E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9182844072286846E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9806163426018544E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.34422850866233E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C82-43EC-97C1-BAC79798C611}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="630071631"/>
+        <c:axId val="848978591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="630071631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848978591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="848978591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630071631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E77DDAC-BC34-4E3A-BCB9-C3092B53040B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9303,15 +10223,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1964DC9F-440D-4507-9807-7E23CFD75A02}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -9330,8 +10253,32 @@
       <c r="F1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" t="str">
+        <f>+A1</f>
+        <v>Prob Superv</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" ref="I1:I2" si="0">+B1</f>
+        <v>AL30</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" ref="J1:J2" si="1">+C1</f>
+        <v>AL35</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" ref="K1:K2" si="2">+D1</f>
+        <v>AL38</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" ref="L1:L2" si="3">+E1</f>
+        <v>AL41</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" ref="M1:M2" si="4">+F1</f>
+        <v>AL46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -9344,19 +10291,46 @@
         <v>0.26130797886052365</v>
       </c>
       <c r="D2" s="22">
-        <f t="shared" ref="D2:F2" si="0">+C2+2%</f>
+        <f t="shared" ref="D2:F2" si="5">+C2+2%</f>
         <v>0.28130797886052367</v>
       </c>
       <c r="E2" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.30130797886052368</v>
       </c>
       <c r="F2" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.3213079788605237</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="9">
+        <f>+SUM(I4:I26)</f>
+        <v>2.6891435364863785</v>
+      </c>
+      <c r="J2" s="9">
+        <f t="shared" ref="J2:N2" si="6">+SUM(J4:J26)</f>
+        <v>2.7522790808946893</v>
+      </c>
+      <c r="K2" s="9">
+        <f t="shared" si="6"/>
+        <v>2.536813178421915</v>
+      </c>
+      <c r="L2" s="9">
+        <f t="shared" si="6"/>
+        <v>2.3152122606763128</v>
+      </c>
+      <c r="M2" s="9">
+        <f t="shared" si="6"/>
+        <v>2.1119948276096427</v>
+      </c>
+      <c r="N2" s="9">
+        <f t="shared" si="6"/>
+        <v>2.531838978306566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>45300</v>
       </c>
@@ -9365,23 +10339,51 @@
         <v>0.87934601056973816</v>
       </c>
       <c r="C3" s="21">
-        <f t="shared" ref="C3:F3" si="1">+(1-C2/2)</f>
+        <f t="shared" ref="C3:F3" si="7">+(1-C2/2)</f>
         <v>0.86934601056973815</v>
       </c>
       <c r="D3" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.85934601056973814</v>
       </c>
       <c r="E3" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.84934601056973813</v>
       </c>
       <c r="F3" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.83934601056973812</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3" t="str">
+        <f>+A2</f>
+        <v>PD anual</v>
+      </c>
+      <c r="I3" s="22">
+        <f>+B2</f>
+        <v>0.24130797886052366</v>
+      </c>
+      <c r="J3" s="22">
+        <f>+C2</f>
+        <v>0.26130797886052365</v>
+      </c>
+      <c r="K3" s="22">
+        <f>+D2</f>
+        <v>0.28130797886052367</v>
+      </c>
+      <c r="L3" s="22">
+        <f>+E2</f>
+        <v>0.30130797886052368</v>
+      </c>
+      <c r="M3" s="22">
+        <f>+F2</f>
+        <v>0.3213079788605237</v>
+      </c>
+      <c r="N3" s="22">
+        <f>+AVERAGE(I3:M3)</f>
+        <v>0.28130797886052367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>45482</v>
       </c>
@@ -9390,638 +10392,1176 @@
         <v>0.77324940630491401</v>
       </c>
       <c r="C4" s="21">
-        <f t="shared" ref="C4:F4" si="2">+C3*C$3</f>
+        <f t="shared" ref="C4:F4" si="8">+C3*C$3</f>
         <v>0.75576248609351926</v>
       </c>
       <c r="D4" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.73847556588212449</v>
       </c>
       <c r="E4" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.72138864567072969</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.70450172545933498</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>2024</v>
+      </c>
+      <c r="I4" s="21">
+        <f>+(1-I3)</f>
+        <v>0.75869202113947631</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" ref="J4:M4" si="9">+(1-J3)</f>
+        <v>0.7386920211394763</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" si="9"/>
+        <v>0.71869202113947628</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="9"/>
+        <v>0.69869202113947626</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="9"/>
+        <v>0.67869202113947624</v>
+      </c>
+      <c r="N4" s="22">
+        <f t="shared" ref="N4:N26" si="10">+AVERAGE(I4:M4)</f>
+        <v>0.71869202113947628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>45666</v>
       </c>
       <c r="B5" s="21">
-        <f t="shared" ref="B5:B16" si="3">+B4*B$3</f>
+        <f t="shared" ref="B5:B16" si="11">+B4*B$3</f>
         <v>0.67995378060964462</v>
       </c>
       <c r="C5" s="21">
-        <f t="shared" ref="C5:C16" si="4">+C4*C$3</f>
+        <f t="shared" ref="C5:C16" si="12">+C4*C$3</f>
         <v>0.65701910222366822</v>
       </c>
       <c r="D5" s="21">
-        <f t="shared" ref="D5:D16" si="5">+D4*D$3</f>
+        <f t="shared" ref="D5:D16" si="13">+D4*D$3</f>
         <v>0.63460603144403349</v>
       </c>
       <c r="E5" s="21">
-        <f t="shared" ref="E5:E16" si="6">+E4*E$3</f>
+        <f t="shared" ref="E5:E16" si="14">+E4*E$3</f>
         <v>0.61270856827074061</v>
       </c>
       <c r="F5" s="21">
-        <f t="shared" ref="F5:F16" si="7">+F4*F$3</f>
+        <f t="shared" ref="F5:F16" si="15">+F4*F$3</f>
         <v>0.59132071270378972</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <f>+H4+1</f>
+        <v>2025</v>
+      </c>
+      <c r="I5" s="21">
+        <f>+I4*(1-I$3)</f>
+        <v>0.57561358294070353</v>
+      </c>
+      <c r="J5" s="21">
+        <f>+J4*(1-J$3)</f>
+        <v>0.54566590209512444</v>
+      </c>
+      <c r="K5" s="21">
+        <f>+K4*(1-K$3)</f>
+        <v>0.51651822124954538</v>
+      </c>
+      <c r="L5" s="21">
+        <f>+L4*(1-L$3)</f>
+        <v>0.48817054040396635</v>
+      </c>
+      <c r="M5" s="21">
+        <f>+M4*(1-M$3)</f>
+        <v>0.46062285955838728</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="10"/>
+        <v>0.51731822124954541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>45847</v>
       </c>
       <c r="B6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.59791464435090202</v>
       </c>
       <c r="C6" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.57117693538625691</v>
       </c>
       <c r="D6" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.54534616140492398</v>
       </c>
       <c r="E6" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.52040157810264953</v>
       </c>
       <c r="F6" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.49632268117518019</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <f t="shared" ref="H6:H26" si="16">+H5+1</f>
+        <v>2026</v>
+      </c>
+      <c r="I6" s="21">
+        <f>+I5*(1-I$3)</f>
+        <v>0.43671343263661794</v>
+      </c>
+      <c r="J6" s="21">
+        <f>+J5*(1-J$3)</f>
+        <v>0.40307904808554307</v>
+      </c>
+      <c r="K6" s="21">
+        <f>+K5*(1-K$3)</f>
+        <v>0.37121752438520295</v>
+      </c>
+      <c r="L6" s="21">
+        <f>+L5*(1-L$3)</f>
+        <v>0.34108086153559758</v>
+      </c>
+      <c r="M6" s="21">
+        <f>+M5*(1-M$3)</f>
+        <v>0.31262105953672698</v>
+      </c>
+      <c r="N6" s="22">
+        <f t="shared" si="10"/>
+        <v>0.3729423852359377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>46031</v>
       </c>
       <c r="B7" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.52577385717118952</v>
       </c>
       <c r="C7" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.49655039010749152</v>
       </c>
       <c r="D7" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.46864104818284191</v>
       </c>
       <c r="E7" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.4420010042556814</v>
       </c>
       <c r="F7" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.41658646239966357</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <f t="shared" si="16"/>
+        <v>2027</v>
+      </c>
+      <c r="I7" s="21">
+        <f>+I6*(1-I$3)</f>
+        <v>0.33133099686583423</v>
+      </c>
+      <c r="J7" s="21">
+        <f>+J6*(1-J$3)</f>
+        <v>0.29775127670928597</v>
+      </c>
+      <c r="K7" s="21">
+        <f>+K6*(1-K$3)</f>
+        <v>0.2667910728827943</v>
+      </c>
+      <c r="L7" s="21">
+        <f>+L6*(1-L$3)</f>
+        <v>0.23831047651830051</v>
+      </c>
+      <c r="M7" s="21">
+        <f>+M6*(1-M$3)</f>
+        <v>0.21217341874774576</v>
+      </c>
+      <c r="N7" s="22">
+        <f t="shared" si="10"/>
+        <v>0.26927144834479211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>46212</v>
       </c>
       <c r="B8" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.46233714376534879</v>
       </c>
       <c r="C8" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.4316741006867949</v>
       </c>
       <c r="D8" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.40272481514514563</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.37541178963238087</v>
       </c>
       <c r="F8" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.34966018527251785</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <f t="shared" si="16"/>
+        <v>2028</v>
+      </c>
+      <c r="I8" s="21">
+        <f>+I7*(1-I$3)</f>
+        <v>0.25137818367829728</v>
+      </c>
+      <c r="J8" s="21">
+        <f>+J7*(1-J$3)</f>
+        <v>0.21994649238924194</v>
+      </c>
+      <c r="K8" s="21">
+        <f>+K7*(1-K$3)</f>
+        <v>0.19174061539210477</v>
+      </c>
+      <c r="L8" s="21">
+        <f>+L7*(1-L$3)</f>
+        <v>0.16650562849728309</v>
+      </c>
+      <c r="M8" s="21">
+        <f>+M7*(1-M$3)</f>
+        <v>0.14400040640198</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="10"/>
+        <v>0.19471426527178143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>46396</v>
       </c>
       <c r="B9" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.40655432290826693</v>
       </c>
       <c r="C9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37527415729834462</v>
       </c>
       <c r="D9" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.34607996325241613</v>
       </c>
       <c r="E9" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.31885450584510849</v>
       </c>
       <c r="F9" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.29348588156356337</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <f t="shared" si="16"/>
+        <v>2029</v>
+      </c>
+      <c r="I9" s="21">
+        <f>+I8*(1-I$3)</f>
+        <v>0.19071862224525787</v>
+      </c>
+      <c r="J9" s="21">
+        <f>+J8*(1-J$3)</f>
+        <v>0.16247271900554758</v>
+      </c>
+      <c r="K9" s="21">
+        <f>+K8*(1-K$3)</f>
+        <v>0.13780245041067876</v>
+      </c>
+      <c r="L9" s="21">
+        <f>+L8*(1-L$3)</f>
+        <v>0.11633615410586549</v>
+      </c>
+      <c r="M9" s="21">
+        <f>+M8*(1-M$3)</f>
+        <v>9.7731926865865779E-2</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="10"/>
+        <v>0.14101237452664309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>46577</v>
       </c>
       <c r="B10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.35750192192926561</v>
       </c>
       <c r="C10" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.32624309151723629</v>
       </c>
       <c r="D10" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.29740243575908537</v>
       </c>
       <c r="E10" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.27081780249172815</v>
       </c>
       <c r="F10" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.24633620384891958</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <f t="shared" si="16"/>
+        <v>2030</v>
+      </c>
+      <c r="I10" s="21">
+        <f>+I9*(1-I$3)</f>
+        <v>0.144696696980191</v>
+      </c>
+      <c r="J10" s="21">
+        <f>+J9*(1-J$3)</f>
+        <v>0.12001730118223414</v>
+      </c>
+      <c r="K10" s="21">
+        <f>+K9*(1-K$3)</f>
+        <v>9.9037521603623169E-2</v>
+      </c>
+      <c r="L10" s="21">
+        <f>+L9*(1-L$3)</f>
+        <v>8.1283142643820736E-2</v>
+      </c>
+      <c r="M10" s="21">
+        <f>+M9*(1-M$3)</f>
+        <v>6.6329878974449918E-2</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" si="10"/>
+        <v>0.10227290827686379</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>46761</v>
       </c>
       <c r="B11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.31436788881951372</v>
       </c>
       <c r="C11" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.28361813008644737</v>
       </c>
       <c r="D11" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.25557159670329282</v>
       </c>
       <c r="E11" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.23001802013761261</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.20676130995948441</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <f t="shared" si="16"/>
+        <v>2031</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21">
+        <f>+J10*(1-J$3)</f>
+        <v>8.8655822782009799E-2</v>
+      </c>
+      <c r="K11" s="21">
+        <f>+K10*(1-K$3)</f>
+        <v>7.1177476569952478E-2</v>
+      </c>
+      <c r="L11" s="21">
+        <f>+L10*(1-L$3)</f>
+        <v>5.6791883218379462E-2</v>
+      </c>
+      <c r="M11" s="21">
+        <f>+M10*(1-M$3)</f>
+        <v>4.5017559623106267E-2</v>
+      </c>
+      <c r="N11" s="22">
+        <f t="shared" si="10"/>
+        <v>6.5410685548362005E-2</v>
+      </c>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>46943</v>
       </c>
       <c r="B12" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.27643814888467039</v>
       </c>
       <c r="C12" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.24656228991590204</v>
       </c>
       <c r="D12" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.21962443204191273</v>
       </c>
       <c r="E12" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.19536488776303096</v>
       </c>
       <c r="F12" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.17354428065466632</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <f t="shared" si="16"/>
+        <v>2032</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21">
+        <f>+J11*(1-J$3)</f>
+        <v>6.5489348916626042E-2</v>
+      </c>
+      <c r="K12" s="21">
+        <f>+K11*(1-K$3)</f>
+        <v>5.1154684495666861E-2</v>
+      </c>
+      <c r="L12" s="21">
+        <f>+L11*(1-L$3)</f>
+        <v>3.9680035670166647E-2</v>
+      </c>
+      <c r="M12" s="21">
+        <f>+M11*(1-M$3)</f>
+        <v>3.0553058527372872E-2</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="10"/>
+        <v>4.6719281902458103E-2</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>47127</v>
       </c>
       <c r="B13" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.24308478339101822</v>
       </c>
       <c r="C13" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.21434794309532862</v>
       </c>
       <c r="D13" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.18873337949886226</v>
       </c>
       <c r="E13" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.165932388026935</v>
       </c>
       <c r="F13" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.14566369962468914</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <f t="shared" si="16"/>
+        <v>2033</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21">
+        <f>+J12*(1-J$3)</f>
+        <v>4.8376459514330866E-2</v>
+      </c>
+      <c r="K13" s="21">
+        <f>+K12*(1-K$3)</f>
+        <v>3.6764463590943049E-2</v>
+      </c>
+      <c r="L13" s="21">
+        <f>+L12*(1-L$3)</f>
+        <v>2.7724124321275245E-2</v>
+      </c>
+      <c r="M13" s="21">
+        <f>+M12*(1-M$3)</f>
+        <v>2.0736117043935406E-2</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="10"/>
+        <v>3.3400291117621141E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>47308</v>
       </c>
       <c r="B14" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.21375563450510082</v>
       </c>
       <c r="C14" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.18634252920375319</v>
       </c>
       <c r="D14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.16218727673369168</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.14093401179498702</v>
       </c>
       <c r="F14" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.12226224516481149</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <f t="shared" si="16"/>
+        <v>2034</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21">
+        <f>+J13*(1-J$3)</f>
+        <v>3.5735304654213117E-2</v>
+      </c>
+      <c r="K14" s="21">
+        <f>+K13*(1-K$3)</f>
+        <v>2.6422326644283546E-2</v>
+      </c>
+      <c r="L14" s="21">
+        <f>+L13*(1-L$3)</f>
+        <v>1.9370624456353912E-2</v>
+      </c>
+      <c r="M14" s="21">
+        <f>+M13*(1-M$3)</f>
+        <v>1.4073437187133261E-2</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="shared" si="10"/>
+        <v>2.390042323549596E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>47492</v>
       </c>
       <c r="B15" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.18796516443886346</v>
       </c>
       <c r="C15" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.16199613436275775</v>
       </c>
       <c r="D15" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.13937498922626806</v>
       </c>
       <c r="E15" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.11970174067166064</v>
       </c>
       <c r="F15" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.10262032772238378</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <f t="shared" si="16"/>
+        <v>2035</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21">
+        <f>+J14*(1-J$3)</f>
+        <v>2.639738442105562E-2</v>
+      </c>
+      <c r="K15" s="21">
+        <f>+K14*(1-K$3)</f>
+        <v>1.8989515339187579E-2</v>
+      </c>
+      <c r="L15" s="21">
+        <f>+L14*(1-L$3)</f>
+        <v>1.3534100752143684E-2</v>
+      </c>
+      <c r="M15" s="21">
+        <f>+M14*(1-M$3)</f>
+        <v>9.5515295289149392E-3</v>
+      </c>
+      <c r="N15" s="22">
+        <f t="shared" si="10"/>
+        <v>1.7118132510325457E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>47673</v>
       </c>
       <c r="B16" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.16528641747539941</v>
       </c>
       <c r="C16" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.14083069313598273</v>
       </c>
       <c r="D16" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.11977134096479369</v>
       </c>
       <c r="E16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.10166819589772834</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>8.613396267714192E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <f t="shared" si="16"/>
+        <v>2036</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21">
+        <f>+K15*(1-K$3)</f>
+        <v>1.3647613159579809E-2</v>
+      </c>
+      <c r="L16" s="21">
+        <f>+L15*(1-L$3)</f>
+        <v>9.4561682088205763E-3</v>
+      </c>
+      <c r="M16" s="21">
+        <f>+M15*(1-M$3)</f>
+        <v>6.4825468809526698E-3</v>
+      </c>
+      <c r="N16" s="22">
+        <f t="shared" si="10"/>
+        <v>9.8621094164510186E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>47857</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21">
-        <f t="shared" ref="C17:C26" si="8">+C16*C$3</f>
+        <f t="shared" ref="C17:C26" si="17">+C16*C$3</f>
         <v>0.12243060124353759</v>
       </c>
       <c r="D17" s="21">
-        <f t="shared" ref="D17:D26" si="9">+D16*D$3</f>
+        <f t="shared" ref="D17:D26" si="18">+D16*D$3</f>
         <v>0.10292502403868331</v>
       </c>
       <c r="E17" s="21">
-        <f t="shared" ref="E17:E26" si="10">+E16*E$3</f>
+        <f t="shared" ref="E17:E26" si="19">+E16*E$3</f>
         <v>8.6351476587558179E-2</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" ref="F17:F26" si="11">+F16*F$3</f>
+        <f t="shared" ref="F17:F26" si="20">+F16*F$3</f>
         <v>7.2296197947621793E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <f t="shared" si="16"/>
+        <v>2037</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21">
+        <f>+K16*(1-K$3)</f>
+        <v>9.8084306853881264E-3</v>
+      </c>
+      <c r="L17" s="21">
+        <f>+L16*(1-L$3)</f>
+        <v>6.6069492780557095E-3</v>
+      </c>
+      <c r="M17" s="21">
+        <f>+M16*(1-M$3)</f>
+        <v>4.3996528447651749E-3</v>
+      </c>
+      <c r="N17" s="22">
+        <f t="shared" si="10"/>
+        <v>6.9383442694030033E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>48038</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.10643455476272383</v>
       </c>
       <c r="D18" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>8.8448208795436897E-2</v>
       </c>
       <c r="E18" s="21">
+        <f t="shared" si="19"/>
+        <v>7.3342282146448681E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="20"/>
+        <v>6.0681525326696441E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="16"/>
+        <v>2038</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21">
+        <f>+K17*(1-K$3)</f>
+        <v>7.049240873488051E-3</v>
+      </c>
+      <c r="L18" s="21">
+        <f>+L17*(1-L$3)</f>
+        <v>4.616222744650747E-3</v>
+      </c>
+      <c r="M18" s="21">
+        <f>+M17*(1-M$3)</f>
+        <v>2.9860092815257228E-3</v>
+      </c>
+      <c r="N18" s="22">
         <f t="shared" si="10"/>
-        <v>7.3342282146448681E-2</v>
-      </c>
-      <c r="F18" s="21">
-        <f t="shared" si="11"/>
-        <v>6.0681525326696441E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.8838242998881735E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>48222</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.2528455569740278E-2</v>
       </c>
       <c r="D19" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>7.6007615370397921E-2</v>
       </c>
       <c r="E19" s="21">
+        <f t="shared" si="19"/>
+        <v>6.2292974747166316E-2</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="20"/>
+        <v>5.0932796198249183E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="16"/>
+        <v>2039</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21">
+        <f>+L18*(1-L$3)</f>
+        <v>3.2253179994900507E-3</v>
+      </c>
+      <c r="M19" s="21">
+        <f>+M18*(1-M$3)</f>
+        <v>2.0265806744199284E-3</v>
+      </c>
+      <c r="N19" s="22">
         <f t="shared" si="10"/>
-        <v>6.2292974747166316E-2</v>
-      </c>
-      <c r="F19" s="21">
-        <f t="shared" si="11"/>
-        <v>5.0932796198249183E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.6259493369549898E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>48404</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>8.0439243713732983E-2</v>
       </c>
       <c r="D20" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.5316841041470564E-2</v>
       </c>
       <c r="E20" s="21">
+        <f t="shared" si="19"/>
+        <v>5.2908289588027152E-2</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="20"/>
+        <v>4.2750239296161979E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="16"/>
+        <v>2040</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21">
+        <f>+L19*(1-L$3)</f>
+        <v>2.2535039518812357E-3</v>
+      </c>
+      <c r="M20" s="21">
+        <f>+M19*(1-M$3)</f>
+        <v>1.3754241339242641E-3</v>
+      </c>
+      <c r="N20" s="22">
         <f t="shared" si="10"/>
-        <v>5.2908289588027152E-2</v>
-      </c>
-      <c r="F20" s="21">
-        <f t="shared" si="11"/>
-        <v>4.2750239296161979E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.8144640429027499E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>48588</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>6.9929535615780664E-2</v>
       </c>
       <c r="D21" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.6129766772005471E-2</v>
       </c>
       <c r="E21" s="21">
+        <f t="shared" si="19"/>
+        <v>4.4937444687659277E-2</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="20"/>
+        <v>3.5882242804135205E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="16"/>
+        <v>2041</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21">
+        <f>+L20*(1-L$3)</f>
+        <v>1.5745052307856978E-3</v>
+      </c>
+      <c r="M21" s="21">
+        <f>+M20*(1-M$3)</f>
+        <v>9.334893853770725E-4</v>
+      </c>
+      <c r="N21" s="22">
         <f t="shared" si="10"/>
-        <v>4.4937444687659277E-2</v>
-      </c>
-      <c r="F21" s="21">
-        <f t="shared" si="11"/>
-        <v>3.5882242804135205E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.2539973080813852E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>48769</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>6.0792962808573339E-2</v>
       </c>
       <c r="D22" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4.8234891149732749E-2</v>
       </c>
       <c r="E22" s="21">
+        <f t="shared" si="19"/>
+        <v>3.8167439370661679E-2</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="20"/>
+        <v>3.0117617347945578E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="16"/>
+        <v>2042</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21">
+        <f>+M21*(1-M$3)</f>
+        <v>6.3355179767381274E-4</v>
+      </c>
+      <c r="N22" s="22">
         <f t="shared" si="10"/>
-        <v>3.8167439370661679E-2</v>
-      </c>
-      <c r="F22" s="21">
-        <f t="shared" si="11"/>
-        <v>3.0117617347945578E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.3355179767381274E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>48953</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.2850119688347699E-2</v>
       </c>
       <c r="D23" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4.1450461279788409E-2</v>
       </c>
       <c r="E23" s="21">
+        <f t="shared" si="19"/>
+        <v>3.2417362363133854E-2</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="20"/>
+        <v>2.5279101968864057E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="16"/>
+        <v>2043</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21">
+        <f>+M22*(1-M$3)</f>
+        <v>4.299865500597885E-4</v>
+      </c>
+      <c r="N23" s="22">
         <f t="shared" si="10"/>
-        <v>3.2417362363133854E-2</v>
-      </c>
-      <c r="F23" s="21">
-        <f t="shared" si="11"/>
-        <v>2.5279101968864057E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.299865500597885E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>49134</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.5945040709198248E-2</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.5620288537061569E-2</v>
       </c>
       <c r="E24" s="21">
+        <f t="shared" si="19"/>
+        <v>2.7533557396321316E-2</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="20"/>
+        <v>2.1217913388351658E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="16"/>
+        <v>2044</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21">
+        <f>+M23*(1-M$3)</f>
+        <v>2.9182844072286846E-4</v>
+      </c>
+      <c r="N24" s="22">
         <f t="shared" si="10"/>
-        <v>2.7533557396321316E-2</v>
-      </c>
-      <c r="F24" s="21">
-        <f t="shared" si="11"/>
-        <v>2.1217913388351658E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.9182844072286846E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>49318</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.9942137846005712E-2</v>
       </c>
       <c r="D25" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.0610152849666832E-2</v>
       </c>
       <c r="E25" s="21">
+        <f t="shared" si="19"/>
+        <v>2.3385517131358415E-2</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="20"/>
+        <v>1.7809170955127199E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="16"/>
+        <v>2045</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21">
+        <f>+M24*(1-M$3)</f>
+        <v>1.9806163426018544E-4</v>
+      </c>
+      <c r="N25" s="22">
         <f t="shared" si="10"/>
-        <v>2.3385517131358415E-2</v>
-      </c>
-      <c r="F25" s="21">
-        <f t="shared" si="11"/>
-        <v>1.7809170955127199E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.9806163426018544E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>49499</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.4723538190051619E-2</v>
       </c>
       <c r="D26" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.6304712734291094E-2</v>
       </c>
       <c r="E26" s="21">
+        <f t="shared" si="19"/>
+        <v>1.9862395680629537E-2</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="20"/>
+        <v>1.4948056592740467E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="16"/>
+        <v>2046</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21">
+        <f>+M25*(1-M$3)</f>
+        <v>1.34422850866233E-4</v>
+      </c>
+      <c r="N26" s="22">
         <f t="shared" si="10"/>
-        <v>1.9862395680629537E-2</v>
-      </c>
-      <c r="F26" s="21">
-        <f t="shared" si="11"/>
-        <v>1.4948056592740467E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.34422850866233E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>49683</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
       <c r="D27" s="21">
-        <f t="shared" ref="D27:D31" si="12">+D26*D$3</f>
+        <f t="shared" ref="D27:D31" si="21">+D26*D$3</f>
         <v>2.260484994739604E-2</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" ref="E27:E31" si="13">+E26*E$3</f>
+        <f t="shared" ref="E27:E31" si="22">+E26*E$3</f>
         <v>1.6870046531700295E-2</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" ref="F27:F31" si="14">+F26*F$3</f>
+        <f t="shared" ref="F27:F31" si="23">+F26*F$3</f>
         <v>1.2546591666887383E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>49865</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
       <c r="D28" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.9425387621822342E-2</v>
       </c>
       <c r="E28" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.4328506719825492E-2</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1.0530931661849445E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>50049</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.6693129356583802E-2</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.2169860019905466E-2</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>8.8390954779558745E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>50230</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.434517411650487E-2</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.0336422057098862E-2</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>7.4190595264672756E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>50414</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
       <c r="D31" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.2327468147946729E-2</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>8.7791988377619642E-3</v>
       </c>
       <c r="F31" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>6.2271580157197181E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>50595</v>
       </c>
@@ -10029,11 +11569,11 @@
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="21">
-        <f t="shared" ref="E32:E38" si="15">+E31*E$3</f>
+        <f t="shared" ref="E32:E38" si="24">+E31*E$3</f>
         <v>7.4565775088516056E-3</v>
       </c>
       <c r="F32" s="21">
-        <f t="shared" ref="F32:F48" si="16">+F31*F$3</f>
+        <f t="shared" ref="F32:F48" si="25">+F31*F$3</f>
         <v>5.2267402376817117E-3</v>
       </c>
     </row>
@@ -10045,11 +11585,11 @@
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>6.3332143596471473E-3</v>
       </c>
       <c r="F33" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>4.3870435667824692E-3</v>
       </c>
     </row>
@@ -10061,11 +11601,11 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>5.3790903504492829E-3</v>
       </c>
       <c r="F34" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>3.6822475159745001E-3</v>
       </c>
     </row>
@@ -10077,11 +11617,11 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>4.5687089296482727E-3</v>
       </c>
       <c r="F35" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>3.0906797624635249E-3</v>
       </c>
     </row>
@@ -10093,11 +11633,11 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>3.8804147028510989E-3</v>
       </c>
       <c r="F36" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>2.5941497285723856E-3</v>
       </c>
     </row>
@@ -10109,11 +11649,11 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>3.2958147472227366E-3</v>
       </c>
       <c r="F37" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>2.177389225497801E-3</v>
       </c>
     </row>
@@ -10125,11 +11665,11 @@
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>2.7992871071305411E-3</v>
       </c>
       <c r="F38" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>1.8275829598791112E-3</v>
       </c>
     </row>
@@ -10142,7 +11682,7 @@
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
       <c r="F39" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>1.5339744663597657E-3</v>
       </c>
     </row>
@@ -10155,7 +11695,7 @@
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>1.2875353486549123E-3</v>
       </c>
     </row>
@@ -10168,7 +11708,7 @@
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>1.0806876583610175E-3</v>
       </c>
     </row>
@@ -10181,7 +11721,7 @@
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>9.0707087471727209E-4</v>
       </c>
     </row>
@@ -10194,7 +11734,7 @@
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7.6134631999794501E-4</v>
       </c>
     </row>
@@ -10207,7 +11747,7 @@
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>6.3903299635222641E-4</v>
       </c>
     </row>
@@ -10220,7 +11760,7 @@
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>5.3636979611066727E-4</v>
       </c>
     </row>
@@ -10233,7 +11773,7 @@
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>4.5019984855559241E-4</v>
       </c>
     </row>
@@ -10246,7 +11786,7 @@
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>3.7787344684423678E-4</v>
       </c>
     </row>
@@ -10259,7 +11799,7 @@
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>3.1716657010894613E-4</v>
       </c>
     </row>
@@ -10270,6 +11810,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AL30.xlsx
+++ b/AL30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90BCDABC-A879-494A-897F-1FCECA1C7957}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="3" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -215,15 +226,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.000000%"/>
-    <numFmt numFmtId="170" formatCode="0.0000%"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??????_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.000000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??????_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -293,10 +304,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -324,32 +335,32 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -422,7 +433,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -584,7 +595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="848978591"/>
@@ -643,7 +654,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="630071631"/>
@@ -691,7 +702,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1299,10 +1310,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1607,12 +1614,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +1627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="11">
         <v>44088</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="11">
         <v>44089</v>
       </c>
@@ -1636,7 +1643,7 @@
         <v>51.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" s="11">
         <v>44090</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>47.96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" s="11">
         <v>44091</v>
       </c>
@@ -1652,7 +1659,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" s="11">
         <v>44092</v>
       </c>
@@ -1660,7 +1667,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" s="11">
         <v>44095</v>
       </c>
@@ -1668,7 +1675,7 @@
         <v>46.12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" s="11">
         <v>44096</v>
       </c>
@@ -1676,7 +1683,7 @@
         <v>45.39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" s="11">
         <v>44097</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>46.55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" s="11">
         <v>44098</v>
       </c>
@@ -1692,7 +1699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" s="11">
         <v>44099</v>
       </c>
@@ -1700,7 +1707,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" s="11">
         <v>44102</v>
       </c>
@@ -1708,7 +1715,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" s="11">
         <v>44103</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>44.67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" s="11">
         <v>44104</v>
       </c>
@@ -1724,7 +1731,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" s="11">
         <v>44105</v>
       </c>
@@ -1732,7 +1739,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" s="11">
         <v>44106</v>
       </c>
@@ -1740,7 +1747,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" s="11">
         <v>44109</v>
       </c>
@@ -1748,7 +1755,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" s="11">
         <v>44110</v>
       </c>
@@ -1756,7 +1763,7 @@
         <v>44.45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" s="11">
         <v>44111</v>
       </c>
@@ -1764,7 +1771,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" s="11">
         <v>44112</v>
       </c>
@@ -1772,7 +1779,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" s="11">
         <v>44113</v>
       </c>
@@ -1780,7 +1787,7 @@
         <v>44.73</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" s="11">
         <v>44117</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>44.74</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" s="11">
         <v>44118</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>44.45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" s="11">
         <v>44119</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" s="11">
         <v>44120</v>
       </c>
@@ -1812,7 +1819,7 @@
         <v>44.19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" s="11">
         <v>44123</v>
       </c>
@@ -1820,7 +1827,7 @@
         <v>43.35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" s="11">
         <v>44124</v>
       </c>
@@ -1828,7 +1835,7 @@
         <v>41.38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" s="11">
         <v>44125</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" s="11">
         <v>44126</v>
       </c>
@@ -1844,7 +1851,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" s="11">
         <v>44127</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>40.15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" s="11">
         <v>44130</v>
       </c>
@@ -1860,7 +1867,7 @@
         <v>38.229999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" s="11">
         <v>44131</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>39.22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" s="11">
         <v>44132</v>
       </c>
@@ -1876,7 +1883,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" s="11">
         <v>44133</v>
       </c>
@@ -1884,7 +1891,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" s="11">
         <v>44134</v>
       </c>
@@ -1892,7 +1899,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" s="11">
         <v>44137</v>
       </c>
@@ -1900,7 +1907,7 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" s="11">
         <v>44138</v>
       </c>
@@ -1908,7 +1915,7 @@
         <v>38.380000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" s="11">
         <v>44139</v>
       </c>
@@ -1916,7 +1923,7 @@
         <v>38.39</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" s="11">
         <v>44140</v>
       </c>
@@ -1924,7 +1931,7 @@
         <v>37.99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" s="11">
         <v>44141</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" s="11">
         <v>44144</v>
       </c>
@@ -1940,7 +1947,7 @@
         <v>38.35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" s="11">
         <v>44145</v>
       </c>
@@ -1948,7 +1955,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" s="11">
         <v>44146</v>
       </c>
@@ -1956,7 +1963,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" s="11">
         <v>44147</v>
       </c>
@@ -1964,7 +1971,7 @@
         <v>39.47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" s="11">
         <v>44148</v>
       </c>
@@ -1972,7 +1979,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" s="11">
         <v>44151</v>
       </c>
@@ -1980,7 +1987,7 @@
         <v>40.26</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" s="11">
         <v>44152</v>
       </c>
@@ -1988,7 +1995,7 @@
         <v>40.18</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" s="11">
         <v>44153</v>
       </c>
@@ -1996,7 +2003,7 @@
         <v>39.74</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" s="11">
         <v>44154</v>
       </c>
@@ -2004,7 +2011,7 @@
         <v>39.43</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" s="11">
         <v>44155</v>
       </c>
@@ -2012,7 +2019,7 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" s="11">
         <v>44159</v>
       </c>
@@ -2020,7 +2027,7 @@
         <v>38.85</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A52" s="11">
         <v>44160</v>
       </c>
@@ -2028,7 +2035,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" s="11">
         <v>44161</v>
       </c>
@@ -2036,7 +2043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" s="11">
         <v>44162</v>
       </c>
@@ -2044,7 +2051,7 @@
         <v>39.01</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" s="11">
         <v>44165</v>
       </c>
@@ -2052,7 +2059,7 @@
         <v>38.61</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" s="11">
         <v>44166</v>
       </c>
@@ -2060,7 +2067,7 @@
         <v>38.479999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" s="11">
         <v>44167</v>
       </c>
@@ -2068,7 +2075,7 @@
         <v>38.65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" s="11">
         <v>44168</v>
       </c>
@@ -2076,7 +2083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" s="11">
         <v>44169</v>
       </c>
@@ -2084,7 +2091,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" s="11">
         <v>44174</v>
       </c>
@@ -2092,7 +2099,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" s="11">
         <v>44175</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>39.67</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A62" s="11">
         <v>44176</v>
       </c>
@@ -2108,7 +2115,7 @@
         <v>39.85</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A63" s="11">
         <v>44179</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A64" s="11">
         <v>44180</v>
       </c>
@@ -2124,7 +2131,7 @@
         <v>40.03</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" s="11">
         <v>44181</v>
       </c>
@@ -2132,7 +2139,7 @@
         <v>39.78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A66" s="11">
         <v>44182</v>
       </c>
@@ -2140,7 +2147,7 @@
         <v>39.840000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" s="11">
         <v>44183</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>40.22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A68" s="11">
         <v>44186</v>
       </c>
@@ -2156,7 +2163,7 @@
         <v>40.74</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A69" s="11">
         <v>44187</v>
       </c>
@@ -2164,7 +2171,7 @@
         <v>40.71</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A70" s="11">
         <v>44188</v>
       </c>
@@ -2172,7 +2179,7 @@
         <v>40.619999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A71" s="11">
         <v>44193</v>
       </c>
@@ -2180,7 +2187,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A72" s="11">
         <v>44194</v>
       </c>
@@ -2188,7 +2195,7 @@
         <v>40.93</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A73" s="11">
         <v>44195</v>
       </c>
@@ -2196,7 +2203,7 @@
         <v>40.94</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A74" s="11">
         <v>44200</v>
       </c>
@@ -2204,7 +2211,7 @@
         <v>40.549999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A75" s="11">
         <v>44201</v>
       </c>
@@ -2212,7 +2219,7 @@
         <v>40.25</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A76" s="11">
         <v>44202</v>
       </c>
@@ -2220,7 +2227,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A77" s="11">
         <v>44203</v>
       </c>
@@ -2228,7 +2235,7 @@
         <v>39.549999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A78" s="11">
         <v>44204</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A79" s="11">
         <v>44207</v>
       </c>
@@ -2244,7 +2251,7 @@
         <v>39.04</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A80" s="11">
         <v>44208</v>
       </c>
@@ -2252,7 +2259,7 @@
         <v>39.04</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A81" s="11">
         <v>44209</v>
       </c>
@@ -2260,7 +2267,7 @@
         <v>38.979999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A82" s="11">
         <v>44210</v>
       </c>
@@ -2268,7 +2275,7 @@
         <v>38.75</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A83" s="11">
         <v>44211</v>
       </c>
@@ -2276,7 +2283,7 @@
         <v>38.69</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A84" s="11">
         <v>44214</v>
       </c>
@@ -2284,7 +2291,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A85" s="11">
         <v>44215</v>
       </c>
@@ -2292,7 +2299,7 @@
         <v>38.79</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A86" s="11">
         <v>44216</v>
       </c>
@@ -2300,7 +2307,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A87" s="11">
         <v>44217</v>
       </c>
@@ -2308,7 +2315,7 @@
         <v>38.69</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A88" s="11">
         <v>44218</v>
       </c>
@@ -2316,7 +2323,7 @@
         <v>38.69</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A89" s="11">
         <v>44221</v>
       </c>
@@ -2324,7 +2331,7 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A90" s="11">
         <v>44222</v>
       </c>
@@ -2332,7 +2339,7 @@
         <v>38.58</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A91" s="11">
         <v>44223</v>
       </c>
@@ -2340,7 +2347,7 @@
         <v>38.43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A92" s="11">
         <v>44224</v>
       </c>
@@ -2348,7 +2355,7 @@
         <v>38.270000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A93" s="11">
         <v>44225</v>
       </c>
@@ -2356,7 +2363,7 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A94" s="11">
         <v>44228</v>
       </c>
@@ -2364,7 +2371,7 @@
         <v>38.090000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A95" s="11">
         <v>44229</v>
       </c>
@@ -2372,7 +2379,7 @@
         <v>37.97</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A96" s="11">
         <v>44230</v>
       </c>
@@ -2380,7 +2387,7 @@
         <v>37.78</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A97" s="11">
         <v>44231</v>
       </c>
@@ -2388,7 +2395,7 @@
         <v>37.64</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A98" s="11">
         <v>44232</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>37.619999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A99" s="11">
         <v>44235</v>
       </c>
@@ -2404,7 +2411,7 @@
         <v>37.619999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A100" s="11">
         <v>44236</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>37.520000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A101" s="11">
         <v>44237</v>
       </c>
@@ -2420,7 +2427,7 @@
         <v>37.450000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A102" s="11">
         <v>44238</v>
       </c>
@@ -2428,7 +2435,7 @@
         <v>37.01</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A103" s="11">
         <v>44239</v>
       </c>
@@ -2436,7 +2443,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A104" s="11">
         <v>44244</v>
       </c>
@@ -2444,7 +2451,7 @@
         <v>36.14</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A105" s="11">
         <v>44245</v>
       </c>
@@ -2452,7 +2459,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A106" s="11">
         <v>44246</v>
       </c>
@@ -2460,7 +2467,7 @@
         <v>36.19</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A107" s="11">
         <v>44249</v>
       </c>
@@ -2468,7 +2475,7 @@
         <v>36.35</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A108" s="11">
         <v>44250</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A109" s="11">
         <v>44251</v>
       </c>
@@ -2484,7 +2491,7 @@
         <v>36.08</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A110" s="11">
         <v>44252</v>
       </c>
@@ -2492,7 +2499,7 @@
         <v>36.47</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A111" s="11">
         <v>44253</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>36.78</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A112" s="11">
         <v>44256</v>
       </c>
@@ -2508,7 +2515,7 @@
         <v>36.78</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A113" s="11">
         <v>44257</v>
       </c>
@@ -2516,7 +2523,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A114" s="11">
         <v>44258</v>
       </c>
@@ -2524,7 +2531,7 @@
         <v>36.22</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A115" s="11">
         <v>44259</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>36.380000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A116" s="11">
         <v>44260</v>
       </c>
@@ -2540,7 +2547,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A117" s="11">
         <v>44263</v>
       </c>
@@ -2548,7 +2555,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A118" s="11">
         <v>44264</v>
       </c>
@@ -2556,7 +2563,7 @@
         <v>35.14</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A119" s="11">
         <v>44265</v>
       </c>
@@ -2564,7 +2571,7 @@
         <v>33.51</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A120" s="11">
         <v>44266</v>
       </c>
@@ -2572,7 +2579,7 @@
         <v>33.68</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A121" s="11">
         <v>44267</v>
       </c>
@@ -2580,7 +2587,7 @@
         <v>34.39</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A122" s="11">
         <v>44270</v>
       </c>
@@ -2588,7 +2595,7 @@
         <v>34.96</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A123" s="11">
         <v>44271</v>
       </c>
@@ -2596,7 +2603,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A124" s="11">
         <v>44272</v>
       </c>
@@ -2604,7 +2611,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A125" s="11">
         <v>44273</v>
       </c>
@@ -2612,7 +2619,7 @@
         <v>35.82</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A126" s="11">
         <v>44274</v>
       </c>
@@ -2620,7 +2627,7 @@
         <v>35.92</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A127" s="11">
         <v>44277</v>
       </c>
@@ -2628,7 +2635,7 @@
         <v>36.409999999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A128" s="11">
         <v>44278</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A129" s="11">
         <v>44280</v>
       </c>
@@ -2644,7 +2651,7 @@
         <v>35.33</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A130" s="11">
         <v>44281</v>
       </c>
@@ -2652,7 +2659,7 @@
         <v>35.32</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A131" s="11">
         <v>44284</v>
       </c>
@@ -2660,7 +2667,7 @@
         <v>34.67</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A132" s="11">
         <v>44285</v>
       </c>
@@ -2668,7 +2675,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A133" s="11">
         <v>44286</v>
       </c>
@@ -2676,7 +2683,7 @@
         <v>34.049999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A134" s="11">
         <v>44291</v>
       </c>
@@ -2684,7 +2691,7 @@
         <v>34.85</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A135" s="11">
         <v>44292</v>
       </c>
@@ -2692,7 +2699,7 @@
         <v>34.630000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A136" s="11">
         <v>44293</v>
       </c>
@@ -2700,7 +2707,7 @@
         <v>34.57</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A137" s="11">
         <v>44294</v>
       </c>
@@ -2708,7 +2715,7 @@
         <v>34.39</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A138" s="11">
         <v>44295</v>
       </c>
@@ -2716,7 +2723,7 @@
         <v>34.18</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A139" s="11">
         <v>44298</v>
       </c>
@@ -2724,7 +2731,7 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A140" s="11">
         <v>44299</v>
       </c>
@@ -2732,7 +2739,7 @@
         <v>34.82</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A141" s="11">
         <v>44300</v>
       </c>
@@ -2740,7 +2747,7 @@
         <v>34.57</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A142" s="11">
         <v>44301</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A143" s="11">
         <v>44302</v>
       </c>
@@ -2756,7 +2763,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A144" s="11">
         <v>44305</v>
       </c>
@@ -2764,7 +2771,7 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A145" s="11">
         <v>44306</v>
       </c>
@@ -2772,7 +2779,7 @@
         <v>34.26</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A146" s="11">
         <v>44307</v>
       </c>
@@ -2780,7 +2787,7 @@
         <v>34.35</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A147" s="11">
         <v>44308</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A148" s="11">
         <v>44309</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>34.22</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A149" s="11">
         <v>44312</v>
       </c>
@@ -2804,7 +2811,7 @@
         <v>34.869999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A150" s="11">
         <v>44313</v>
       </c>
@@ -2812,7 +2819,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A151" s="11">
         <v>44314</v>
       </c>
@@ -2820,7 +2827,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A152" s="11">
         <v>44315</v>
       </c>
@@ -2828,7 +2835,7 @@
         <v>35.229999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A153" s="11">
         <v>44316</v>
       </c>
@@ -2836,7 +2843,7 @@
         <v>35.159999999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A154" s="11">
         <v>44319</v>
       </c>
@@ -2844,7 +2851,7 @@
         <v>35.18</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A155" s="11">
         <v>44320</v>
       </c>
@@ -2852,7 +2859,7 @@
         <v>35.119999999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A156" s="11">
         <v>44321</v>
       </c>
@@ -2860,7 +2867,7 @@
         <v>35.04</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A157" s="11">
         <v>44322</v>
       </c>
@@ -2868,7 +2875,7 @@
         <v>34.770000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A158" s="11">
         <v>44323</v>
       </c>
@@ -2876,7 +2883,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A159" s="11">
         <v>44326</v>
       </c>
@@ -2884,7 +2891,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A160" s="11">
         <v>44327</v>
       </c>
@@ -2892,7 +2899,7 @@
         <v>33.82</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A161" s="11">
         <v>44328</v>
       </c>
@@ -2900,7 +2907,7 @@
         <v>34.11</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A162" s="11">
         <v>44329</v>
       </c>
@@ -2908,7 +2915,7 @@
         <v>34.22</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A163" s="11">
         <v>44330</v>
       </c>
@@ -2916,7 +2923,7 @@
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A164" s="11">
         <v>44333</v>
       </c>
@@ -2924,7 +2931,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A165" s="11">
         <v>44334</v>
       </c>
@@ -2932,7 +2939,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A166" s="11">
         <v>44335</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>35.07</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A167" s="11">
         <v>44336</v>
       </c>
@@ -2948,7 +2955,7 @@
         <v>34.78</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A168" s="11">
         <v>44337</v>
       </c>
@@ -2956,7 +2963,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A169" s="11">
         <v>44342</v>
       </c>
@@ -2964,7 +2971,7 @@
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A170" s="11">
         <v>44343</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A171" s="11">
         <v>44344</v>
       </c>
@@ -2980,7 +2987,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A172" s="11">
         <v>44347</v>
       </c>
@@ -2988,7 +2995,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A173" s="11">
         <v>44348</v>
       </c>
@@ -2996,7 +3003,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A174" s="11">
         <v>44349</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A175" s="11">
         <v>44350</v>
       </c>
@@ -3012,7 +3019,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A176" s="11">
         <v>44351</v>
       </c>
@@ -3020,7 +3027,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A177" s="11">
         <v>44354</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A178" s="11">
         <v>44355</v>
       </c>
@@ -3036,7 +3043,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A179" s="11">
         <v>44356</v>
       </c>
@@ -3044,7 +3051,7 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A180" s="11">
         <v>44357</v>
       </c>
@@ -3052,7 +3059,7 @@
         <v>37.97</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A181" s="11">
         <v>44358</v>
       </c>
@@ -3060,7 +3067,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A182" s="11">
         <v>44361</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A183" s="11">
         <v>44362</v>
       </c>
@@ -3076,7 +3083,7 @@
         <v>38.06</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A184" s="11">
         <v>44363</v>
       </c>
@@ -3084,7 +3091,7 @@
         <v>37.96</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A185" s="11">
         <v>44364</v>
       </c>
@@ -3092,7 +3099,7 @@
         <v>37.53</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A186" s="11">
         <v>44365</v>
       </c>
@@ -3100,7 +3107,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A187" s="11">
         <v>44369</v>
       </c>
@@ -3108,7 +3115,7 @@
         <v>36.65</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A188" s="11">
         <v>44370</v>
       </c>
@@ -3116,7 +3123,7 @@
         <v>36.54</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A189" s="11">
         <v>44371</v>
       </c>
@@ -3124,7 +3131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A190" s="11">
         <v>44372</v>
       </c>
@@ -3132,7 +3139,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A191" s="11">
         <v>44375</v>
       </c>
@@ -3140,7 +3147,7 @@
         <v>34.85</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A192" s="11">
         <v>44376</v>
       </c>
@@ -3148,7 +3155,7 @@
         <v>34.15</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A193" s="11">
         <v>44377</v>
       </c>
@@ -3156,7 +3163,7 @@
         <v>33.93</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A194" s="11">
         <v>44378</v>
       </c>
@@ -3164,7 +3171,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A195" s="11">
         <v>44379</v>
       </c>
@@ -3172,7 +3179,7 @@
         <v>34.06</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A196" s="11">
         <v>44382</v>
       </c>
@@ -3180,7 +3187,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A197" s="11">
         <v>44383</v>
       </c>
@@ -3188,7 +3195,7 @@
         <v>33.770000000000003</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A198" s="11">
         <v>44384</v>
       </c>
@@ -3196,7 +3203,7 @@
         <v>33.76</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A199" s="11">
         <v>44385</v>
       </c>
@@ -3204,7 +3211,7 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A200" s="11">
         <v>44389</v>
       </c>
@@ -3212,7 +3219,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A201" s="11">
         <v>44390</v>
       </c>
@@ -3220,7 +3227,7 @@
         <v>34.75</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A202" s="11">
         <v>44391</v>
       </c>
@@ -3228,7 +3235,7 @@
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A203" s="11">
         <v>44392</v>
       </c>
@@ -3236,7 +3243,7 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A204" s="11">
         <v>44393</v>
       </c>
@@ -3244,7 +3251,7 @@
         <v>35.57</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A205" s="11">
         <v>44396</v>
       </c>
@@ -3252,7 +3259,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A206" s="11">
         <v>44397</v>
       </c>
@@ -3260,7 +3267,7 @@
         <v>36.19</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A207" s="11">
         <v>44398</v>
       </c>
@@ -3268,7 +3275,7 @@
         <v>36.32</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A208" s="11">
         <v>44399</v>
       </c>
@@ -3276,7 +3283,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A209" s="11">
         <v>44400</v>
       </c>
@@ -3284,7 +3291,7 @@
         <v>36.28</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A210" s="11">
         <v>44403</v>
       </c>
@@ -3292,7 +3299,7 @@
         <v>36.22</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A211" s="11">
         <v>44404</v>
       </c>
@@ -3300,7 +3307,7 @@
         <v>36.119999999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A212" s="11">
         <v>44405</v>
       </c>
@@ -3308,7 +3315,7 @@
         <v>36.01</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A213" s="11">
         <v>44406</v>
       </c>
@@ -3316,7 +3323,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A214" s="11">
         <v>44407</v>
       </c>
@@ -3324,7 +3331,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A215" s="11">
         <v>44410</v>
       </c>
@@ -3332,7 +3339,7 @@
         <v>35.78</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A216" s="11">
         <v>44411</v>
       </c>
@@ -3340,7 +3347,7 @@
         <v>35.590000000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A217" s="11">
         <v>44412</v>
       </c>
@@ -3348,7 +3355,7 @@
         <v>35.409999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A218" s="11">
         <v>44413</v>
       </c>
@@ -3356,7 +3363,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A219" s="11">
         <v>44414</v>
       </c>
@@ -3364,7 +3371,7 @@
         <v>34.97</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A220" s="11">
         <v>44417</v>
       </c>
@@ -3372,7 +3379,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A221" s="11">
         <v>44418</v>
       </c>
@@ -3380,7 +3387,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A222" s="11">
         <v>44419</v>
       </c>
@@ -3388,7 +3395,7 @@
         <v>35.53</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A223" s="11">
         <v>44420</v>
       </c>
@@ -3396,7 +3403,7 @@
         <v>35.68</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A224" s="11">
         <v>44421</v>
       </c>
@@ -3404,7 +3411,7 @@
         <v>35.119999999999997</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A225" s="11">
         <v>44425</v>
       </c>
@@ -3412,7 +3419,7 @@
         <v>35.270000000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A226" s="11">
         <v>44426</v>
       </c>
@@ -3420,7 +3427,7 @@
         <v>35.31</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A227" s="11">
         <v>44427</v>
       </c>
@@ -3428,7 +3435,7 @@
         <v>35.31</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A228" s="11">
         <v>44428</v>
       </c>
@@ -3436,7 +3443,7 @@
         <v>35.270000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A229" s="11">
         <v>44431</v>
       </c>
@@ -3444,7 +3451,7 @@
         <v>35.26</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A230" s="11">
         <v>44432</v>
       </c>
@@ -3452,7 +3459,7 @@
         <v>35.39</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A231" s="11">
         <v>44433</v>
       </c>
@@ -3460,7 +3467,7 @@
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A232" s="11">
         <v>44434</v>
       </c>
@@ -3468,7 +3475,7 @@
         <v>35.42</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A233" s="11">
         <v>44435</v>
       </c>
@@ -3476,7 +3483,7 @@
         <v>35.630000000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A234" s="11">
         <v>44438</v>
       </c>
@@ -3484,7 +3491,7 @@
         <v>36.01</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A235" s="11">
         <v>44439</v>
       </c>
@@ -3492,7 +3499,7 @@
         <v>36.31</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A236" s="11">
         <v>44440</v>
       </c>
@@ -3500,7 +3507,7 @@
         <v>36.880000000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A237" s="11">
         <v>44441</v>
       </c>
@@ -3508,7 +3515,7 @@
         <v>37.46</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A238" s="11">
         <v>44442</v>
       </c>
@@ -3516,7 +3523,7 @@
         <v>37.520000000000003</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A239" s="11">
         <v>44445</v>
       </c>
@@ -3524,7 +3531,7 @@
         <v>37.76</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A240" s="11">
         <v>44446</v>
       </c>
@@ -3532,7 +3539,7 @@
         <v>37.85</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A241" s="11">
         <v>44447</v>
       </c>
@@ -3540,7 +3547,7 @@
         <v>37.79</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A242" s="11">
         <v>44448</v>
       </c>
@@ -3548,7 +3555,7 @@
         <v>37.74</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A243" s="11">
         <v>44449</v>
       </c>
@@ -3556,7 +3563,7 @@
         <v>37.68</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A244" s="11">
         <v>44452</v>
       </c>
@@ -3564,7 +3571,7 @@
         <v>38.43</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A245" s="11">
         <v>44453</v>
       </c>
@@ -3572,7 +3579,7 @@
         <v>38.270000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A246" s="11">
         <v>44454</v>
       </c>
@@ -3580,7 +3587,7 @@
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A247" s="11">
         <v>44455</v>
       </c>
@@ -3588,7 +3595,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A248" s="11">
         <v>44456</v>
       </c>
@@ -3596,7 +3603,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A249" s="11">
         <v>44459</v>
       </c>
@@ -3604,7 +3611,7 @@
         <v>37.880000000000003</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A250" s="11">
         <v>44460</v>
       </c>
@@ -3612,7 +3619,7 @@
         <v>37.76</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A251" s="11">
         <v>44461</v>
       </c>
@@ -3620,7 +3627,7 @@
         <v>37.69</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A252" s="11">
         <v>44462</v>
       </c>
@@ -3628,7 +3635,7 @@
         <v>37.64</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A253" s="11">
         <v>44463</v>
       </c>
@@ -3636,7 +3643,7 @@
         <v>37.36</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A254" s="11">
         <v>44466</v>
       </c>
@@ -3644,7 +3651,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A255" s="11">
         <v>44467</v>
       </c>
@@ -3652,7 +3659,7 @@
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A256" s="11">
         <v>44468</v>
       </c>
@@ -3660,7 +3667,7 @@
         <v>37.229999999999997</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A257" s="11">
         <v>44469</v>
       </c>
@@ -3668,7 +3675,7 @@
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A258" s="11">
         <v>44470</v>
       </c>
@@ -3676,7 +3683,7 @@
         <v>36.979999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A259" s="11">
         <v>44473</v>
       </c>
@@ -3684,7 +3691,7 @@
         <v>36.869999999999997</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A260" s="11">
         <v>44474</v>
       </c>
@@ -3692,7 +3699,7 @@
         <v>36.69</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A261" s="11">
         <v>44475</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>36.380000000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A262" s="11">
         <v>44476</v>
       </c>
@@ -3708,7 +3715,7 @@
         <v>36.39</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A263" s="11">
         <v>44481</v>
       </c>
@@ -3716,7 +3723,7 @@
         <v>36.17</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A264" s="11">
         <v>44482</v>
       </c>
@@ -3724,7 +3731,7 @@
         <v>36.11</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A265" s="11">
         <v>44483</v>
       </c>
@@ -3732,7 +3739,7 @@
         <v>36.07</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A266" s="11">
         <v>44484</v>
       </c>
@@ -3740,7 +3747,7 @@
         <v>35.97</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A267" s="11">
         <v>44487</v>
       </c>
@@ -3748,7 +3755,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A268" s="11">
         <v>44488</v>
       </c>
@@ -3756,7 +3763,7 @@
         <v>35.82</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A269" s="11">
         <v>44489</v>
       </c>
@@ -3764,7 +3771,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A270" s="11">
         <v>44490</v>
       </c>
@@ -3772,7 +3779,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A271" s="11">
         <v>44491</v>
       </c>
@@ -3780,7 +3787,7 @@
         <v>35.82</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A272" s="11">
         <v>44494</v>
       </c>
@@ -3788,7 +3795,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A273" s="11">
         <v>44495</v>
       </c>
@@ -3796,7 +3803,7 @@
         <v>35.880000000000003</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A274" s="11">
         <v>44496</v>
       </c>
@@ -3804,7 +3811,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A275" s="11">
         <v>44497</v>
       </c>
@@ -3812,7 +3819,7 @@
         <v>35.82</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A276" s="11">
         <v>44498</v>
       </c>
@@ -3820,7 +3827,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A277" s="11">
         <v>44501</v>
       </c>
@@ -3828,7 +3835,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A278" s="11">
         <v>44502</v>
       </c>
@@ -3836,7 +3843,7 @@
         <v>35.69</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A279" s="11">
         <v>44503</v>
       </c>
@@ -3844,7 +3851,7 @@
         <v>35.58</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A280" s="11">
         <v>44504</v>
       </c>
@@ -3852,7 +3859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A281" s="11">
         <v>44505</v>
       </c>
@@ -3860,7 +3867,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A282" s="11">
         <v>44508</v>
       </c>
@@ -3868,7 +3875,7 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A283" s="11">
         <v>44509</v>
       </c>
@@ -3876,7 +3883,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A284" s="11">
         <v>44510</v>
       </c>
@@ -3884,7 +3891,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A285" s="11">
         <v>44511</v>
       </c>
@@ -3892,7 +3899,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A286" s="11">
         <v>44512</v>
       </c>
@@ -3900,7 +3907,7 @@
         <v>35.82</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A287" s="11">
         <v>44515</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A288" s="11">
         <v>44516</v>
       </c>
@@ -3916,7 +3923,7 @@
         <v>32.85</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A289" s="11">
         <v>44517</v>
       </c>
@@ -3924,7 +3931,7 @@
         <v>32.57</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A290" s="11">
         <v>44518</v>
       </c>
@@ -3932,7 +3939,7 @@
         <v>31.21</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A291" s="11">
         <v>44519</v>
       </c>
@@ -3940,7 +3947,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A292" s="11">
         <v>44523</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A293" s="11">
         <v>44524</v>
       </c>
@@ -3956,7 +3963,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A294" s="11">
         <v>44525</v>
       </c>
@@ -3964,7 +3971,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A295" s="11">
         <v>44526</v>
       </c>
@@ -3972,7 +3979,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A296" s="11">
         <v>44529</v>
       </c>
@@ -3980,7 +3987,7 @@
         <v>30.11</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A297" s="11">
         <v>44530</v>
       </c>
@@ -3988,7 +3995,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A298" s="11">
         <v>44531</v>
       </c>
@@ -3996,7 +4003,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A299" s="11">
         <v>44532</v>
       </c>
@@ -4004,7 +4011,7 @@
         <v>31.19</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A300" s="11">
         <v>44533</v>
       </c>
@@ -4012,7 +4019,7 @@
         <v>32.35</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A301" s="11">
         <v>44536</v>
       </c>
@@ -4020,7 +4027,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A302" s="11">
         <v>44537</v>
       </c>
@@ -4028,7 +4035,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A303" s="11">
         <v>44539</v>
       </c>
@@ -4036,7 +4043,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A304" s="11">
         <v>44540</v>
       </c>
@@ -4044,7 +4051,7 @@
         <v>33.46</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A305" s="11">
         <v>44543</v>
       </c>
@@ -4052,7 +4059,7 @@
         <v>33.049999999999997</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A306" s="11">
         <v>44544</v>
       </c>
@@ -4060,7 +4067,7 @@
         <v>32.950000000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A307" s="11">
         <v>44545</v>
       </c>
@@ -4068,7 +4075,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A308" s="11">
         <v>44546</v>
       </c>
@@ -4076,7 +4083,7 @@
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A309" s="11">
         <v>44547</v>
       </c>
@@ -4084,7 +4091,7 @@
         <v>32.08</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A310" s="11">
         <v>44550</v>
       </c>
@@ -4092,7 +4099,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A311" s="11">
         <v>44551</v>
       </c>
@@ -4100,7 +4107,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A312" s="11">
         <v>44552</v>
       </c>
@@ -4108,7 +4115,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A313" s="11">
         <v>44553</v>
       </c>
@@ -4116,7 +4123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A314" s="11">
         <v>44557</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A315" s="11">
         <v>44558</v>
       </c>
@@ -4132,7 +4139,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A316" s="11">
         <v>44559</v>
       </c>
@@ -4140,7 +4147,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A317" s="11">
         <v>44560</v>
       </c>
@@ -4148,7 +4155,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A318" s="11">
         <v>44564</v>
       </c>
@@ -4156,7 +4163,7 @@
         <v>33.06</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A319" s="11">
         <v>44565</v>
       </c>
@@ -4164,7 +4171,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A320" s="11">
         <v>44566</v>
       </c>
@@ -4172,7 +4179,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A321" s="11">
         <v>44567</v>
       </c>
@@ -4180,7 +4187,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A322" s="11">
         <v>44568</v>
       </c>
@@ -4188,7 +4195,7 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A323" s="11">
         <v>44571</v>
       </c>
@@ -4196,7 +4203,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A324" s="11">
         <v>44572</v>
       </c>
@@ -4204,7 +4211,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A325" s="11">
         <v>44573</v>
       </c>
@@ -4212,7 +4219,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A326" s="11">
         <v>44574</v>
       </c>
@@ -4220,7 +4227,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A327" s="11">
         <v>44575</v>
       </c>
@@ -4228,7 +4235,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A328" s="11">
         <v>44578</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>29.22</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A329" s="11">
         <v>44579</v>
       </c>
@@ -4244,7 +4251,7 @@
         <v>29.13</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A330" s="11">
         <v>44580</v>
       </c>
@@ -4252,7 +4259,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A331" s="11">
         <v>44581</v>
       </c>
@@ -4260,7 +4267,7 @@
         <v>28.73</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A332" s="11">
         <v>44582</v>
       </c>
@@ -4268,7 +4275,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A333" s="11">
         <v>44585</v>
       </c>
@@ -4276,7 +4283,7 @@
         <v>27.82</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A334" s="11">
         <v>44586</v>
       </c>
@@ -4284,7 +4291,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A335" s="11">
         <v>44587</v>
       </c>
@@ -4292,7 +4299,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A336" s="11">
         <v>44588</v>
       </c>
@@ -4300,7 +4307,7 @@
         <v>28.67</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A337" s="11">
         <v>44589</v>
       </c>
@@ -4308,7 +4315,7 @@
         <v>30.74</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A338" s="11">
         <v>44592</v>
       </c>
@@ -4316,7 +4323,7 @@
         <v>31.62</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A339" s="11">
         <v>44593</v>
       </c>
@@ -4324,7 +4331,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A340" s="11">
         <v>44594</v>
       </c>
@@ -4332,7 +4339,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A341" s="11">
         <v>44595</v>
       </c>
@@ -4340,7 +4347,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A342" s="11">
         <v>44596</v>
       </c>
@@ -4348,7 +4355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A343" s="11">
         <v>44599</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A344" s="11">
         <v>44600</v>
       </c>
@@ -4364,7 +4371,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A345" s="11">
         <v>44601</v>
       </c>
@@ -4372,7 +4379,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A346" s="11">
         <v>44602</v>
       </c>
@@ -4380,7 +4387,7 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A347" s="11">
         <v>44603</v>
       </c>
@@ -4388,7 +4395,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A348" s="11">
         <v>44606</v>
       </c>
@@ -4396,7 +4403,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A349" s="11">
         <v>44607</v>
       </c>
@@ -4404,7 +4411,7 @@
         <v>30.21</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A350" s="11">
         <v>44608</v>
       </c>
@@ -4412,7 +4419,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A351" s="11">
         <v>44609</v>
       </c>
@@ -4420,7 +4427,7 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A352" s="11">
         <v>44610</v>
       </c>
@@ -4428,7 +4435,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A353" s="11">
         <v>44613</v>
       </c>
@@ -4436,7 +4443,7 @@
         <v>30.89</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A354" s="11">
         <v>44614</v>
       </c>
@@ -4444,7 +4451,7 @@
         <v>30.66</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A355" s="11">
         <v>44615</v>
       </c>
@@ -4452,7 +4459,7 @@
         <v>30.41</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A356" s="11">
         <v>44616</v>
       </c>
@@ -4460,7 +4467,7 @@
         <v>30.01</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A357" s="11">
         <v>44617</v>
       </c>
@@ -4468,7 +4475,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A358" s="11">
         <v>44622</v>
       </c>
@@ -4476,7 +4483,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A359" s="11">
         <v>44623</v>
       </c>
@@ -4484,7 +4491,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A360" s="11">
         <v>44624</v>
       </c>
@@ -4492,7 +4499,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A361" s="11">
         <v>44627</v>
       </c>
@@ -4500,7 +4507,7 @@
         <v>28.05</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A362" s="11">
         <v>44628</v>
       </c>
@@ -4508,7 +4515,7 @@
         <v>28.13</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A363" s="11">
         <v>44629</v>
       </c>
@@ -4516,7 +4523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A364" s="11">
         <v>44630</v>
       </c>
@@ -4524,7 +4531,7 @@
         <v>29.47</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A365" s="11">
         <v>44631</v>
       </c>
@@ -4532,7 +4539,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A366" s="11">
         <v>44634</v>
       </c>
@@ -4540,7 +4547,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A367" s="11">
         <v>44635</v>
       </c>
@@ -4548,7 +4555,7 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A368" s="11">
         <v>44636</v>
       </c>
@@ -4556,7 +4563,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A369" s="11">
         <v>44637</v>
       </c>
@@ -4564,7 +4571,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A370" s="11">
         <v>44638</v>
       </c>
@@ -4572,7 +4579,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A371" s="11">
         <v>44641</v>
       </c>
@@ -4580,7 +4587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A372" s="11">
         <v>44642</v>
       </c>
@@ -4588,7 +4595,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A373" s="11">
         <v>44643</v>
       </c>
@@ -4596,7 +4603,7 @@
         <v>28.15</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A374" s="11">
         <v>44645</v>
       </c>
@@ -4604,7 +4611,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A375" s="11">
         <v>44648</v>
       </c>
@@ -4612,7 +4619,7 @@
         <v>29.42</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A376" s="11">
         <v>44649</v>
       </c>
@@ -4620,7 +4627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A377" s="11">
         <v>44650</v>
       </c>
@@ -4628,7 +4635,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A378" s="11">
         <v>44651</v>
       </c>
@@ -4636,7 +4643,7 @@
         <v>30.51</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A379" s="11">
         <v>44652</v>
       </c>
@@ -4644,7 +4651,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A380" s="11">
         <v>44655</v>
       </c>
@@ -4652,7 +4659,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A381" s="11">
         <v>44656</v>
       </c>
@@ -4660,7 +4667,7 @@
         <v>30.69</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A382" s="11">
         <v>44657</v>
       </c>
@@ -4668,7 +4675,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A383" s="11">
         <v>44658</v>
       </c>
@@ -4676,7 +4683,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A384" s="11">
         <v>44659</v>
       </c>
@@ -4684,7 +4691,7 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A385" s="11">
         <v>44662</v>
       </c>
@@ -4692,7 +4699,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A386" s="11">
         <v>44663</v>
       </c>
@@ -4700,7 +4707,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A387" s="11">
         <v>44664</v>
       </c>
@@ -4708,7 +4715,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A388" s="11">
         <v>44669</v>
       </c>
@@ -4716,7 +4723,7 @@
         <v>30.17</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A389" s="11">
         <v>44670</v>
       </c>
@@ -4724,7 +4731,7 @@
         <v>29.92</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A390" s="11">
         <v>44671</v>
       </c>
@@ -4732,7 +4739,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A391" s="11">
         <v>44672</v>
       </c>
@@ -4740,7 +4747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A392" s="11">
         <v>44673</v>
       </c>
@@ -4748,7 +4755,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A393" s="11">
         <v>44676</v>
       </c>
@@ -4756,7 +4763,7 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A394" s="11">
         <v>44677</v>
       </c>
@@ -4764,7 +4771,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A395" s="11">
         <v>44678</v>
       </c>
@@ -4772,7 +4779,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A396" s="11">
         <v>44679</v>
       </c>
@@ -4780,7 +4787,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A397" s="11">
         <v>44680</v>
       </c>
@@ -4788,7 +4795,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A398" s="11">
         <v>44683</v>
       </c>
@@ -4796,7 +4803,7 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A399" s="11">
         <v>44684</v>
       </c>
@@ -4804,7 +4811,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A400" s="11">
         <v>44685</v>
       </c>
@@ -4812,7 +4819,7 @@
         <v>28.56</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A401" s="11">
         <v>44686</v>
       </c>
@@ -4820,7 +4827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A402" s="11">
         <v>44687</v>
       </c>
@@ -4828,7 +4835,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A403" s="11">
         <v>44690</v>
       </c>
@@ -4836,7 +4843,7 @@
         <v>27.23</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A404" s="11">
         <v>44691</v>
       </c>
@@ -4844,7 +4851,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A405" s="11">
         <v>44692</v>
       </c>
@@ -4852,7 +4859,7 @@
         <v>27.43</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A406" s="11">
         <v>44693</v>
       </c>
@@ -4860,7 +4867,7 @@
         <v>26.97</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A407" s="11">
         <v>44694</v>
       </c>
@@ -4868,7 +4875,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A408" s="11">
         <v>44697</v>
       </c>
@@ -4876,7 +4883,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A409" s="11">
         <v>44698</v>
       </c>
@@ -4884,7 +4891,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A410" s="11">
         <v>44700</v>
       </c>
@@ -4892,7 +4899,7 @@
         <v>26.35</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A411" s="11">
         <v>44701</v>
       </c>
@@ -4900,7 +4907,7 @@
         <v>25.93</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A412" s="11">
         <v>44704</v>
       </c>
@@ -4908,7 +4915,7 @@
         <v>26.16</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A413" s="11">
         <v>44705</v>
       </c>
@@ -4916,7 +4923,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A414" s="11">
         <v>44707</v>
       </c>
@@ -4924,7 +4931,7 @@
         <v>26.24</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A415" s="11">
         <v>44708</v>
       </c>
@@ -4932,7 +4939,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A416" s="11">
         <v>44711</v>
       </c>
@@ -4940,7 +4947,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A417" s="11">
         <v>44712</v>
       </c>
@@ -4948,7 +4955,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A418" s="11">
         <v>44713</v>
       </c>
@@ -4956,7 +4963,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A419" s="11">
         <v>44714</v>
       </c>
@@ -4964,7 +4971,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A420" s="11">
         <v>44715</v>
       </c>
@@ -4972,7 +4979,7 @@
         <v>25.97</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A421" s="11">
         <v>44718</v>
       </c>
@@ -4980,7 +4987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A422" s="11">
         <v>44719</v>
       </c>
@@ -4988,7 +4995,7 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A423" s="11">
         <v>44720</v>
       </c>
@@ -4996,7 +5003,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A424" s="11">
         <v>44721</v>
       </c>
@@ -5004,7 +5011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A425" s="11">
         <v>44722</v>
       </c>
@@ -5012,7 +5019,7 @@
         <v>23.72</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A426" s="11">
         <v>44725</v>
       </c>
@@ -5020,7 +5027,7 @@
         <v>23.07</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A427" s="11">
         <v>44726</v>
       </c>
@@ -5028,7 +5035,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A428" s="11">
         <v>44727</v>
       </c>
@@ -5036,7 +5043,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A429" s="11">
         <v>44728</v>
       </c>
@@ -5044,7 +5051,7 @@
         <v>22.66</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A430" s="11">
         <v>44733</v>
       </c>
@@ -5052,7 +5059,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A431" s="11">
         <v>44734</v>
       </c>
@@ -5060,7 +5067,7 @@
         <v>22.35</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A432" s="11">
         <v>44735</v>
       </c>
@@ -5068,7 +5075,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A433" s="11">
         <v>44736</v>
       </c>
@@ -5076,7 +5083,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A434" s="11">
         <v>44739</v>
       </c>
@@ -5084,7 +5091,7 @@
         <v>20.239999999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A435" s="11">
         <v>44740</v>
       </c>
@@ -5092,7 +5099,7 @@
         <v>20.87</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A436" s="11">
         <v>44741</v>
       </c>
@@ -5100,7 +5107,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A437" s="11">
         <v>44742</v>
       </c>
@@ -5108,7 +5115,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A438" s="11">
         <v>44743</v>
       </c>
@@ -5116,7 +5123,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A439" s="11">
         <v>44746</v>
       </c>
@@ -5124,7 +5131,7 @@
         <v>20.22</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A440" s="11">
         <v>44747</v>
       </c>
@@ -5132,7 +5139,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A441" s="11">
         <v>44748</v>
       </c>
@@ -5140,7 +5147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A442" s="11">
         <v>44749</v>
       </c>
@@ -5148,7 +5155,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A443" s="11">
         <v>44750</v>
       </c>
@@ -5156,7 +5163,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A444" s="11">
         <v>44753</v>
       </c>
@@ -5164,7 +5171,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A445" s="11">
         <v>44754</v>
       </c>
@@ -5172,7 +5179,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A446" s="11">
         <v>44755</v>
       </c>
@@ -5180,7 +5187,7 @@
         <v>18.07</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A447" s="11">
         <v>44756</v>
       </c>
@@ -5188,7 +5195,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A448" s="11">
         <v>44757</v>
       </c>
@@ -5196,7 +5203,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A449" s="11">
         <v>44760</v>
       </c>
@@ -5204,7 +5211,7 @@
         <v>17.809999999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A450" s="11">
         <v>44761</v>
       </c>
@@ -5212,7 +5219,7 @@
         <v>18.170000000000002</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A451" s="11">
         <v>44762</v>
       </c>
@@ -5220,7 +5227,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A452" s="11">
         <v>44763</v>
       </c>
@@ -5228,7 +5235,7 @@
         <v>17.57</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A453" s="11">
         <v>44764</v>
       </c>
@@ -5236,7 +5243,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A454" s="11">
         <v>44767</v>
       </c>
@@ -5244,7 +5251,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A455" s="11">
         <v>44768</v>
       </c>
@@ -5252,7 +5259,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A456" s="11">
         <v>44769</v>
       </c>
@@ -5260,7 +5267,7 @@
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A457" s="11">
         <v>44770</v>
       </c>
@@ -5268,7 +5275,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A458" s="11">
         <v>44771</v>
       </c>
@@ -5276,7 +5283,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A459" s="11">
         <v>44774</v>
       </c>
@@ -5284,7 +5291,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A460" s="11">
         <v>44775</v>
       </c>
@@ -5292,7 +5299,7 @@
         <v>22.36</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A461" s="11">
         <v>44776</v>
       </c>
@@ -5300,7 +5307,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A462" s="11">
         <v>44777</v>
       </c>
@@ -5308,7 +5315,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A463" s="11">
         <v>44778</v>
       </c>
@@ -5316,7 +5323,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A464" s="11">
         <v>44781</v>
       </c>
@@ -5324,7 +5331,7 @@
         <v>22.46</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A465" s="11">
         <v>44782</v>
       </c>
@@ -5332,7 +5339,7 @@
         <v>21.82</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A466" s="11">
         <v>44783</v>
       </c>
@@ -5340,7 +5347,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A467" s="11">
         <v>44784</v>
       </c>
@@ -5348,7 +5355,7 @@
         <v>21.57</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A468" s="11">
         <v>44785</v>
       </c>
@@ -5356,7 +5363,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A469" s="11">
         <v>44789</v>
       </c>
@@ -5364,7 +5371,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A470" s="11">
         <v>44790</v>
       </c>
@@ -5372,7 +5379,7 @@
         <v>21.195</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A471" s="11">
         <v>44791</v>
       </c>
@@ -5380,7 +5387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A472" s="11">
         <v>44792</v>
       </c>
@@ -5388,7 +5395,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A473" s="11">
         <v>44795</v>
       </c>
@@ -5396,7 +5403,7 @@
         <v>21.33</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A474" s="11">
         <v>44796</v>
       </c>
@@ -5404,7 +5411,7 @@
         <v>21.751000000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A475" s="11">
         <v>44797</v>
       </c>
@@ -5412,7 +5419,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A476" s="11">
         <v>44798</v>
       </c>
@@ -5420,7 +5427,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A477" s="11">
         <v>44799</v>
       </c>
@@ -5428,7 +5435,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A478" s="11">
         <v>44802</v>
       </c>
@@ -5436,7 +5443,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A479" s="11">
         <v>44803</v>
       </c>
@@ -5444,7 +5451,7 @@
         <v>21.895</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A480" s="11">
         <v>44804</v>
       </c>
@@ -5452,7 +5459,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A481" s="11">
         <v>44805</v>
       </c>
@@ -5460,7 +5467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A482" s="11">
         <v>44809</v>
       </c>
@@ -5468,7 +5475,7 @@
         <v>22.812999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A483" s="11">
         <v>44810</v>
       </c>
@@ -5476,7 +5483,7 @@
         <v>22.69</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A484" s="11">
         <v>44811</v>
       </c>
@@ -5484,7 +5491,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A485" s="11">
         <v>44812</v>
       </c>
@@ -5492,7 +5499,7 @@
         <v>22.77</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A486" s="11">
         <v>44813</v>
       </c>
@@ -5500,7 +5507,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A487" s="11">
         <v>44816</v>
       </c>
@@ -5508,7 +5515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A488" s="11">
         <v>44817</v>
       </c>
@@ -5516,7 +5523,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A489" s="11">
         <v>44818</v>
       </c>
@@ -5524,7 +5531,7 @@
         <v>22.37</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A490" s="11">
         <v>44819</v>
       </c>
@@ -5532,7 +5539,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A491" s="11">
         <v>44820</v>
       </c>
@@ -5540,7 +5547,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A492" s="11">
         <v>44823</v>
       </c>
@@ -5548,7 +5555,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A493" s="11">
         <v>44824</v>
       </c>
@@ -5556,7 +5563,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A494" s="11">
         <v>44825</v>
       </c>
@@ -5564,7 +5571,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A495" s="11">
         <v>44826</v>
       </c>
@@ -5572,7 +5579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A496" s="11">
         <v>44827</v>
       </c>
@@ -5580,7 +5587,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A497" s="11">
         <v>44830</v>
       </c>
@@ -5588,7 +5595,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A498" s="11">
         <v>44831</v>
       </c>
@@ -5596,7 +5603,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A499" s="11">
         <v>44832</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>19.39</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A500" s="11">
         <v>44833</v>
       </c>
@@ -5612,7 +5619,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A501" s="11">
         <v>44834</v>
       </c>
@@ -5620,7 +5627,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A502" s="11">
         <v>44837</v>
       </c>
@@ -5628,7 +5635,7 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A503" s="11">
         <v>44838</v>
       </c>
@@ -5636,7 +5643,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A504" s="11">
         <v>44839</v>
       </c>
@@ -5644,7 +5651,7 @@
         <v>19.170000000000002</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A505" s="11">
         <v>44840</v>
       </c>
@@ -5652,7 +5659,7 @@
         <v>18.989999999999998</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A506" s="11">
         <v>44845</v>
       </c>
@@ -5660,7 +5667,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A507" s="11">
         <v>44846</v>
       </c>
@@ -5668,7 +5675,7 @@
         <v>18.91</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A508" s="11">
         <v>44847</v>
       </c>
@@ -5676,7 +5683,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A509" s="11">
         <v>44848</v>
       </c>
@@ -5684,7 +5691,7 @@
         <v>18.311</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A510" s="11">
         <v>44851</v>
       </c>
@@ -5692,7 +5699,7 @@
         <v>18.402999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A511" s="11">
         <v>44852</v>
       </c>
@@ -5700,7 +5707,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A512" s="11">
         <v>44853</v>
       </c>
@@ -5708,7 +5715,7 @@
         <v>18.420999999999999</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A513" s="11">
         <v>44854</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>18.57</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A514" s="11">
         <v>44855</v>
       </c>
@@ -5724,7 +5731,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A515" s="11">
         <v>44858</v>
       </c>
@@ -5732,7 +5739,7 @@
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A516" s="11">
         <v>44859</v>
       </c>
@@ -5740,7 +5747,7 @@
         <v>20.361000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A517" s="11">
         <v>44860</v>
       </c>
@@ -5748,7 +5755,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A518" s="11">
         <v>44861</v>
       </c>
@@ -5756,7 +5763,7 @@
         <v>19.800999999999998</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A519" s="11">
         <v>44862</v>
       </c>
@@ -5764,7 +5771,7 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A520" s="11">
         <v>44865</v>
       </c>
@@ -5772,7 +5779,7 @@
         <v>19.63</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A521" s="11">
         <v>44866</v>
       </c>
@@ -5780,7 +5787,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A522" s="11">
         <v>44867</v>
       </c>
@@ -5788,7 +5795,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A523" s="11">
         <v>44868</v>
       </c>
@@ -5796,7 +5803,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A524" s="11">
         <v>44869</v>
       </c>
@@ -5804,7 +5811,7 @@
         <v>19.751000000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A525" s="11">
         <v>44872</v>
       </c>
@@ -5812,7 +5819,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A526" s="11">
         <v>44873</v>
       </c>
@@ -5820,7 +5827,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A527" s="11">
         <v>44874</v>
       </c>
@@ -5828,7 +5835,7 @@
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A528" s="11">
         <v>44875</v>
       </c>
@@ -5836,7 +5843,7 @@
         <v>20.748999999999999</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A529" s="11">
         <v>44876</v>
       </c>
@@ -5844,7 +5851,7 @@
         <v>20.698</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A530" s="11">
         <v>44879</v>
       </c>
@@ -5852,7 +5859,7 @@
         <v>21.23</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A531" s="11">
         <v>44880</v>
       </c>
@@ -5860,7 +5867,7 @@
         <v>22.414999999999999</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A532" s="11">
         <v>44881</v>
       </c>
@@ -5868,7 +5875,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A533" s="11">
         <v>44882</v>
       </c>
@@ -5876,7 +5883,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A534" s="11">
         <v>44883</v>
       </c>
@@ -5884,7 +5891,7 @@
         <v>21.248999999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A535" s="11">
         <v>44887</v>
       </c>
@@ -5892,7 +5899,7 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A536" s="11">
         <v>44888</v>
       </c>
@@ -5900,7 +5907,7 @@
         <v>22.13</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A537" s="11">
         <v>44889</v>
       </c>
@@ -5908,7 +5915,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A538" s="11">
         <v>44890</v>
       </c>
@@ -5916,7 +5923,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A539" s="11">
         <v>44893</v>
       </c>
@@ -5924,7 +5931,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A540" s="11">
         <v>44894</v>
       </c>
@@ -5932,7 +5939,7 @@
         <v>23.16</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A541" s="11">
         <v>44895</v>
       </c>
@@ -5940,7 +5947,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A542" s="11">
         <v>44896</v>
       </c>
@@ -5948,7 +5955,7 @@
         <v>23.93</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A543" s="11">
         <v>44897</v>
       </c>
@@ -5956,7 +5963,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A544" s="11">
         <v>44900</v>
       </c>
@@ -5964,7 +5971,7 @@
         <v>23.33</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A545" s="11">
         <v>44901</v>
       </c>
@@ -5972,7 +5979,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A546" s="11">
         <v>44902</v>
       </c>
@@ -5980,7 +5987,7 @@
         <v>23.178000000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A547" s="11">
         <v>44907</v>
       </c>
@@ -5988,7 +5995,7 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A548" s="11">
         <v>44908</v>
       </c>
@@ -5996,7 +6003,7 @@
         <v>24.035</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A549" s="11">
         <v>44909</v>
       </c>
@@ -6004,7 +6011,7 @@
         <v>23.86</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A550" s="11">
         <v>44910</v>
       </c>
@@ -6012,7 +6019,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A551" s="11">
         <v>44911</v>
       </c>
@@ -6020,7 +6027,7 @@
         <v>24.881</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A552" s="11">
         <v>44914</v>
       </c>
@@ -6028,7 +6035,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A553" s="11">
         <v>44915</v>
       </c>
@@ -6036,7 +6043,7 @@
         <v>25.69</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A554" s="11">
         <v>44916</v>
       </c>
@@ -6044,7 +6051,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A555" s="11">
         <v>44917</v>
       </c>
@@ -6052,7 +6059,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A556" s="11">
         <v>44918</v>
       </c>
@@ -6060,7 +6067,7 @@
         <v>25.43</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A557" s="11">
         <v>44921</v>
       </c>
@@ -6068,7 +6075,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A558" s="11">
         <v>44922</v>
       </c>
@@ -6076,7 +6083,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A559" s="11">
         <v>44923</v>
       </c>
@@ -6084,7 +6091,7 @@
         <v>24.31</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A560" s="11">
         <v>44924</v>
       </c>
@@ -6092,7 +6099,7 @@
         <v>24.02</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A561" s="11">
         <v>44925</v>
       </c>
@@ -6100,7 +6107,7 @@
         <v>24.131</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A562" s="11">
         <v>44928</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>24.43</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A563" s="11">
         <v>44929</v>
       </c>
@@ -6116,7 +6123,7 @@
         <v>25.065000000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A564" s="11">
         <v>44930</v>
       </c>
@@ -6124,7 +6131,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A565" s="11">
         <v>44931</v>
       </c>
@@ -6132,7 +6139,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A566" s="11">
         <v>44932</v>
       </c>
@@ -6140,7 +6147,7 @@
         <v>25.576000000000001</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A567" s="11">
         <v>44935</v>
       </c>
@@ -6148,7 +6155,7 @@
         <v>26.451000000000001</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A568" s="11">
         <v>44936</v>
       </c>
@@ -6156,7 +6163,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A569" s="11">
         <v>44937</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>28.06</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A570" s="11">
         <v>44938</v>
       </c>
@@ -6172,7 +6179,7 @@
         <v>28.36</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A571" s="11">
         <v>44939</v>
       </c>
@@ -6180,7 +6187,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A572" s="11">
         <v>44942</v>
       </c>
@@ -6188,7 +6195,7 @@
         <v>29.420999999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A573" s="11">
         <v>44943</v>
       </c>
@@ -6196,7 +6203,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A574" s="11">
         <v>44944</v>
       </c>
@@ -6204,7 +6211,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A575" s="11">
         <v>44945</v>
       </c>
@@ -6212,7 +6219,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A576" s="11">
         <v>44946</v>
       </c>
@@ -6220,7 +6227,7 @@
         <v>30.66</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A577" s="11">
         <v>44949</v>
       </c>
@@ -6228,7 +6235,7 @@
         <v>30.99</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A578" s="11">
         <v>44950</v>
       </c>
@@ -6236,7 +6243,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A579" s="11">
         <v>44951</v>
       </c>
@@ -6244,7 +6251,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A580" s="11">
         <v>44952</v>
       </c>
@@ -6252,7 +6259,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A581" s="11">
         <v>44953</v>
       </c>
@@ -6260,7 +6267,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A582" s="11">
         <v>44956</v>
       </c>
@@ -6268,7 +6275,7 @@
         <v>32.011000000000003</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A583" s="11">
         <v>44957</v>
       </c>
@@ -6276,7 +6283,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A584" s="11">
         <v>44958</v>
       </c>
@@ -6284,7 +6291,7 @@
         <v>32.01</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A585" s="11">
         <v>44959</v>
       </c>
@@ -6292,7 +6299,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A586" s="11">
         <v>44960</v>
       </c>
@@ -6300,7 +6307,7 @@
         <v>31.09</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A587" s="11">
         <v>44963</v>
       </c>
@@ -6308,7 +6315,7 @@
         <v>29.81</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A588" s="11">
         <v>44964</v>
       </c>
@@ -6316,7 +6323,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A589" s="11">
         <v>44965</v>
       </c>
@@ -6324,7 +6331,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A590" s="11">
         <v>44966</v>
       </c>
@@ -6332,7 +6339,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A591" s="11">
         <v>44967</v>
       </c>
@@ -6340,7 +6347,7 @@
         <v>29.347999999999999</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A592" s="11">
         <v>44970</v>
       </c>
@@ -6348,7 +6355,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A593" s="11">
         <v>44971</v>
       </c>
@@ -6356,7 +6363,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A594" s="11">
         <v>44972</v>
       </c>
@@ -6364,7 +6371,7 @@
         <v>28.428999999999998</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A595" s="11">
         <v>44973</v>
       </c>
@@ -6372,7 +6379,7 @@
         <v>27.55</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A596" s="11">
         <v>44974</v>
       </c>
@@ -6380,7 +6387,7 @@
         <v>26.518999999999998</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A597" s="11">
         <v>44979</v>
       </c>
@@ -6388,7 +6395,7 @@
         <v>27.303000000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A598" s="11">
         <v>44980</v>
       </c>
@@ -6396,7 +6403,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A599" s="11">
         <v>44981</v>
       </c>
@@ -6404,7 +6411,7 @@
         <v>27.875</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A600" s="11">
         <v>44984</v>
       </c>
@@ -6412,7 +6419,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A601" s="11">
         <v>44985</v>
       </c>
@@ -6420,7 +6427,7 @@
         <v>28.56</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A602" s="11">
         <v>44986</v>
       </c>
@@ -6428,7 +6435,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A603" s="11">
         <v>44987</v>
       </c>
@@ -6436,7 +6443,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A604" s="11">
         <v>44988</v>
       </c>
@@ -6444,7 +6451,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A605" s="11">
         <v>44991</v>
       </c>
@@ -6452,7 +6459,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A606" s="11">
         <v>44992</v>
       </c>
@@ -6460,7 +6467,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A607" s="11">
         <v>44993</v>
       </c>
@@ -6468,7 +6475,7 @@
         <v>26.45</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A608" s="11">
         <v>44994</v>
       </c>
@@ -6476,7 +6483,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A609" s="11">
         <v>44995</v>
       </c>
@@ -6484,7 +6491,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A610" s="11">
         <v>44998</v>
       </c>
@@ -6492,7 +6499,7 @@
         <v>24.902000000000001</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A611" s="11">
         <v>44999</v>
       </c>
@@ -6500,7 +6507,7 @@
         <v>24.83</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A612" s="11">
         <v>45000</v>
       </c>
@@ -6508,7 +6515,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A613" s="11">
         <v>45001</v>
       </c>
@@ -6516,7 +6523,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A614" s="11">
         <v>45002</v>
       </c>
@@ -6524,7 +6531,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A615" s="11">
         <v>45005</v>
       </c>
@@ -6532,7 +6539,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A616" s="11">
         <v>45006</v>
       </c>
@@ -6540,7 +6547,7 @@
         <v>25.021000000000001</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A617" s="11">
         <v>45007</v>
       </c>
@@ -6548,7 +6555,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A618" s="11">
         <v>45008</v>
       </c>
@@ -6556,7 +6563,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A619" s="11">
         <v>45012</v>
       </c>
@@ -6564,7 +6571,7 @@
         <v>23.399000000000001</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A620" s="11">
         <v>45013</v>
       </c>
@@ -6572,7 +6579,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A621" s="11">
         <v>45014</v>
       </c>
@@ -6580,7 +6587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A622" s="11">
         <v>45015</v>
       </c>
@@ -6588,7 +6595,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A623" s="11">
         <v>45016</v>
       </c>
@@ -6596,7 +6603,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A624" s="11">
         <v>45019</v>
       </c>
@@ -6604,7 +6611,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A625" s="11">
         <v>45020</v>
       </c>
@@ -6612,7 +6619,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A626" s="11">
         <v>45021</v>
       </c>
@@ -6620,7 +6627,7 @@
         <v>24.95</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A627" s="11">
         <v>45026</v>
       </c>
@@ -6628,7 +6635,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A628" s="11">
         <v>45027</v>
       </c>
@@ -6636,7 +6643,7 @@
         <v>25.39</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A629" s="11">
         <v>45028</v>
       </c>
@@ -6644,7 +6651,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A630" s="11">
         <v>45029</v>
       </c>
@@ -6652,7 +6659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A631" s="11">
         <v>45030</v>
       </c>
@@ -6660,7 +6667,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A632" s="11">
         <v>45033</v>
       </c>
@@ -6668,7 +6675,7 @@
         <v>25.12</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A633" s="11">
         <v>45034</v>
       </c>
@@ -6676,7 +6683,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A634" s="11">
         <v>45035</v>
       </c>
@@ -6684,7 +6691,7 @@
         <v>22.17</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A635" s="11">
         <v>45036</v>
       </c>
@@ -6692,7 +6699,7 @@
         <v>22.138999999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A636" s="11">
         <v>45037</v>
       </c>
@@ -6700,7 +6707,7 @@
         <v>21.379000000000001</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A637" s="11">
         <v>45040</v>
       </c>
@@ -6708,7 +6715,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A638" s="11">
         <v>45041</v>
       </c>
@@ -6716,7 +6723,7 @@
         <v>20.61</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A639" s="11">
         <v>45042</v>
       </c>
@@ -6724,7 +6731,7 @@
         <v>20.777999999999999</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A640" s="11">
         <v>45043</v>
       </c>
@@ -6732,7 +6739,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A641" s="11">
         <v>45044</v>
       </c>
@@ -6740,7 +6747,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A642" s="11">
         <v>45048</v>
       </c>
@@ -6748,7 +6755,7 @@
         <v>20.80649</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A643" s="11">
         <v>45049</v>
       </c>
@@ -6756,7 +6763,7 @@
         <v>21.524999999999999</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A644" s="11">
         <v>45050</v>
       </c>
@@ -6764,7 +6771,7 @@
         <v>21.423960000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A645" s="11">
         <v>45051</v>
       </c>
@@ -6772,7 +6779,7 @@
         <v>20.954999999999998</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A646" s="11">
         <v>45054</v>
       </c>
@@ -6780,7 +6787,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A647" s="11">
         <v>45055</v>
       </c>
@@ -6788,7 +6795,7 @@
         <v>21.074999999999999</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A648" s="11">
         <v>45056</v>
       </c>
@@ -6796,7 +6803,7 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A649" s="11">
         <v>45057</v>
       </c>
@@ -6804,7 +6811,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A650" s="11">
         <v>45058</v>
       </c>
@@ -6812,7 +6819,7 @@
         <v>22.092089999999999</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A651" s="11">
         <v>45061</v>
       </c>
@@ -6820,7 +6827,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A652" s="11">
         <v>45062</v>
       </c>
@@ -6828,7 +6835,7 @@
         <v>23.37143</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A653" s="11">
         <v>45063</v>
       </c>
@@ -6836,7 +6843,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A654" s="11">
         <v>45064</v>
       </c>
@@ -6844,7 +6851,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A655" s="11">
         <v>45065</v>
       </c>
@@ -6852,7 +6859,7 @@
         <v>22.19</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A656" s="11">
         <v>45068</v>
       </c>
@@ -6860,7 +6867,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A657" s="11">
         <v>45069</v>
       </c>
@@ -6868,7 +6875,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A658" s="11">
         <v>45070</v>
       </c>
@@ -6876,7 +6883,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A659" s="11">
         <v>45075</v>
       </c>
@@ -6884,7 +6891,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A660" s="11">
         <v>45076</v>
       </c>
@@ -6892,7 +6899,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A661" s="11">
         <v>45077</v>
       </c>
@@ -6900,7 +6907,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A662" s="11">
         <v>45078</v>
       </c>
@@ -6908,7 +6915,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A663" s="11">
         <v>45079</v>
       </c>
@@ -6916,7 +6923,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A664" s="11">
         <v>45082</v>
       </c>
@@ -6924,7 +6931,7 @@
         <v>21.420999999999999</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A665" s="11">
         <v>45083</v>
       </c>
@@ -6932,7 +6939,7 @@
         <v>22.87</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A666" s="11">
         <v>45084</v>
       </c>
@@ -6940,7 +6947,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A667" s="11">
         <v>45085</v>
       </c>
@@ -6948,7 +6955,7 @@
         <v>23.355</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A668" s="11">
         <v>45086</v>
       </c>
@@ -6956,7 +6963,7 @@
         <v>23.14</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A669" s="11">
         <v>45089</v>
       </c>
@@ -6964,7 +6971,7 @@
         <v>23.65</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A670" s="11">
         <v>45090</v>
       </c>
@@ -6972,7 +6979,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A671" s="11">
         <v>45091</v>
       </c>
@@ -6980,7 +6987,7 @@
         <v>23.65</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A672" s="11">
         <v>45092</v>
       </c>
@@ -6988,7 +6995,7 @@
         <v>23.81</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A673" s="11">
         <v>45093</v>
       </c>
@@ -6996,7 +7003,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A674" s="11">
         <v>45098</v>
       </c>
@@ -7004,7 +7011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A675" s="11">
         <v>45099</v>
       </c>
@@ -7012,7 +7019,7 @@
         <v>26.599630000000001</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A676" s="11">
         <v>45100</v>
       </c>
@@ -7020,7 +7027,7 @@
         <v>25.808389999999999</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A677" s="11">
         <v>45103</v>
       </c>
@@ -7028,7 +7035,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A678" s="11">
         <v>45104</v>
       </c>
@@ -7036,7 +7043,7 @@
         <v>28.06</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A679" s="11">
         <v>45105</v>
       </c>
@@ -7044,7 +7051,7 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A680" s="11">
         <v>45106</v>
       </c>
@@ -7052,7 +7059,7 @@
         <v>28.94</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A681" s="11">
         <v>45107</v>
       </c>
@@ -7060,7 +7067,7 @@
         <v>29.47</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A682" s="11">
         <v>45110</v>
       </c>
@@ -7068,7 +7075,7 @@
         <v>30.62</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A683" s="11">
         <v>45111</v>
       </c>
@@ -7076,7 +7083,7 @@
         <v>30.71</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A684" s="11">
         <v>45112</v>
       </c>
@@ -7084,7 +7091,7 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A685" s="11">
         <v>45113</v>
       </c>
@@ -7092,7 +7099,7 @@
         <v>28.29</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A686" s="11">
         <v>45114</v>
       </c>
@@ -7100,7 +7107,7 @@
         <v>28.15</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A687" s="11">
         <v>45117</v>
       </c>
@@ -7108,7 +7115,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A688" s="11">
         <v>45118</v>
       </c>
@@ -7116,7 +7123,7 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A689" s="11">
         <v>45119</v>
       </c>
@@ -7124,7 +7131,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A690" s="11">
         <v>45120</v>
       </c>
@@ -7132,7 +7139,7 @@
         <v>29.324590000000001</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A691" s="11">
         <v>45121</v>
       </c>
@@ -7140,7 +7147,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A692" s="11">
         <v>45124</v>
       </c>
@@ -7148,7 +7155,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A693" s="11">
         <v>45125</v>
       </c>
@@ -7156,7 +7163,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A694" s="11">
         <v>45126</v>
       </c>
@@ -7164,7 +7171,7 @@
         <v>28.48</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A695" s="11">
         <v>45127</v>
       </c>
@@ -7172,7 +7179,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A696" s="11">
         <v>45128</v>
       </c>
@@ -7180,7 +7187,7 @@
         <v>29.27</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A697" s="11">
         <v>45131</v>
       </c>
@@ -7188,7 +7195,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A698" s="11">
         <v>45132</v>
       </c>
@@ -7196,7 +7203,7 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A699" s="11">
         <v>45133</v>
       </c>
@@ -7204,7 +7211,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A700" s="11">
         <v>45134</v>
       </c>
@@ -7212,7 +7219,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A701" s="11">
         <v>45135</v>
       </c>
@@ -7220,7 +7227,7 @@
         <v>30.38</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A702" s="11">
         <v>45138</v>
       </c>
@@ -7228,7 +7235,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A703" s="11">
         <v>45139</v>
       </c>
@@ -7236,7 +7243,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A704" s="11">
         <v>45140</v>
       </c>
@@ -7244,7 +7251,7 @@
         <v>31.26</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A705" s="11">
         <v>45141</v>
       </c>
@@ -7252,7 +7259,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A706" s="11">
         <v>45142</v>
       </c>
@@ -7260,7 +7267,7 @@
         <v>31.59</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A707" s="11">
         <v>45145</v>
       </c>
@@ -7268,7 +7275,7 @@
         <v>32.880000000000003</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A708" s="11">
         <v>45146</v>
       </c>
@@ -7276,7 +7283,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A709" s="11">
         <v>45147</v>
       </c>
@@ -7284,7 +7291,7 @@
         <v>32.770000000000003</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A710" s="11">
         <v>45148</v>
       </c>
@@ -7292,7 +7299,7 @@
         <v>33.340000000000003</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A711" s="11">
         <v>45149</v>
       </c>
@@ -7300,7 +7307,7 @@
         <v>32.64</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A712" s="11">
         <v>45152</v>
       </c>
@@ -7308,7 +7315,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A713" s="11">
         <v>45153</v>
       </c>
@@ -7316,7 +7323,7 @@
         <v>27.87</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A714" s="11">
         <v>45154</v>
       </c>
@@ -7324,7 +7331,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A715" s="11">
         <v>45155</v>
       </c>
@@ -7332,7 +7339,7 @@
         <v>30.36</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A716" s="11">
         <v>45156</v>
       </c>
@@ -7340,7 +7347,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A717" s="11">
         <v>45160</v>
       </c>
@@ -7348,7 +7355,7 @@
         <v>32.590000000000003</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A718" s="11">
         <v>45161</v>
       </c>
@@ -7356,7 +7363,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A719" s="11">
         <v>45162</v>
       </c>
@@ -7364,7 +7371,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A720" s="11">
         <v>45163</v>
       </c>
@@ -7372,7 +7379,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A721" s="11">
         <v>45166</v>
       </c>
@@ -7380,7 +7387,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A722" s="11">
         <v>45167</v>
       </c>
@@ -7388,7 +7395,7 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A723" s="11">
         <v>45168</v>
       </c>
@@ -7396,7 +7403,7 @@
         <v>34.409999999999997</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A724" s="11">
         <v>45169</v>
       </c>
@@ -7404,7 +7411,7 @@
         <v>33.67</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A725" s="11">
         <v>45170</v>
       </c>
@@ -7412,7 +7419,7 @@
         <v>33.17</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A726" s="11">
         <v>45173</v>
       </c>
@@ -7420,7 +7427,7 @@
         <v>32.93</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A727" s="11">
         <v>45174</v>
       </c>
@@ -7428,7 +7435,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A728" s="11">
         <v>45175</v>
       </c>
@@ -7436,7 +7443,7 @@
         <v>32.01</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A729" s="11">
         <v>45176</v>
       </c>
@@ -7444,7 +7451,7 @@
         <v>31.84</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A730" s="11">
         <v>45177</v>
       </c>
@@ -7452,7 +7459,7 @@
         <v>30.97</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A731" s="11">
         <v>45180</v>
       </c>
@@ -7460,7 +7467,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A732" s="11">
         <v>45181</v>
       </c>
@@ -7468,7 +7475,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A733" s="11">
         <v>45182</v>
       </c>
@@ -7476,7 +7483,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A734" s="11">
         <v>45183</v>
       </c>
@@ -7484,7 +7491,7 @@
         <v>31.07</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A735" s="11">
         <v>45184</v>
       </c>
@@ -7492,7 +7499,7 @@
         <v>30.824999999999999</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A736" s="11">
         <v>45187</v>
       </c>
@@ -7500,7 +7507,7 @@
         <v>31.19</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A737" s="11">
         <v>45188</v>
       </c>
@@ -7508,7 +7515,7 @@
         <v>30.68</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A738" s="11">
         <v>45189</v>
       </c>
@@ -7516,7 +7523,7 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A739" s="11">
         <v>45190</v>
       </c>
@@ -7524,7 +7531,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A740" s="11">
         <v>45191</v>
       </c>
@@ -7532,7 +7539,7 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A741" s="11">
         <v>45194</v>
       </c>
@@ -7540,7 +7547,7 @@
         <v>29.893000000000001</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A742" s="11">
         <v>45195</v>
       </c>
@@ -7561,9 +7568,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7583,7 +7590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
         <v>44386</v>
       </c>
@@ -7604,7 +7611,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
@@ -7625,7 +7632,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" s="3">
         <v>44751</v>
       </c>
@@ -7646,7 +7653,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>44935</v>
       </c>
@@ -7667,7 +7674,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" s="3">
         <v>45116</v>
       </c>
@@ -7688,7 +7695,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45300</v>
       </c>
@@ -7709,7 +7716,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="3">
         <v>45482</v>
       </c>
@@ -7730,7 +7737,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45666</v>
       </c>
@@ -7751,7 +7758,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="3">
         <v>45847</v>
       </c>
@@ -7772,7 +7779,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>46031</v>
       </c>
@@ -7793,7 +7800,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="3">
         <v>46212</v>
       </c>
@@ -7814,7 +7821,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>46396</v>
       </c>
@@ -7835,7 +7842,7 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" s="3">
         <v>46577</v>
       </c>
@@ -7856,7 +7863,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>46761</v>
       </c>
@@ -7877,7 +7884,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" s="3">
         <v>46943</v>
       </c>
@@ -7898,7 +7905,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>47127</v>
       </c>
@@ -7919,7 +7926,7 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" s="3">
         <v>47308</v>
       </c>
@@ -7940,7 +7947,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>47492</v>
       </c>
@@ -7961,7 +7968,7 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" s="3">
         <v>47673</v>
       </c>
@@ -7992,16 +7999,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
   <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A20"/>
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8048,7 +8055,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
         <v>44386</v>
       </c>
@@ -8128,7 +8135,7 @@
         <v>47673</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
@@ -8229,7 +8236,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A4" s="3">
         <v>44751</v>
       </c>
@@ -8303,7 +8310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>44935</v>
       </c>
@@ -8397,7 +8404,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A6" s="3">
         <v>45116</v>
       </c>
@@ -8495,7 +8502,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45300</v>
       </c>
@@ -8605,7 +8612,7 @@
         <v>0.7424919104329113</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A8" s="3">
         <v>45482</v>
       </c>
@@ -8732,7 +8739,7 @@
         <v>4.2099291321546071</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45666</v>
       </c>
@@ -8801,7 +8808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A10" s="3">
         <v>45847</v>
       </c>
@@ -8884,7 +8891,7 @@
       </c>
       <c r="AC10" s="13"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>46031</v>
       </c>
@@ -8973,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A12" s="3">
         <v>46212</v>
       </c>
@@ -9062,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>46396</v>
       </c>
@@ -9158,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A14" s="3">
         <v>46577</v>
       </c>
@@ -9262,7 +9269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>46761</v>
       </c>
@@ -9372,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A16" s="3">
         <v>46943</v>
       </c>
@@ -9489,7 +9496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>47127</v>
       </c>
@@ -9613,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A18" s="3">
         <v>47308</v>
       </c>
@@ -9745,7 +9752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>47492</v>
       </c>
@@ -9885,7 +9892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A20" s="3">
         <v>47673</v>
       </c>
@@ -10029,7 +10036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.75">
       <c r="Z21" s="11">
         <f t="shared" si="14"/>
         <v>47308</v>
@@ -10087,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.75">
       <c r="Z22" s="11">
         <f t="shared" si="14"/>
         <v>47492</v>
@@ -10149,7 +10156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.75">
       <c r="Z23" s="11">
         <f t="shared" si="14"/>
         <v>47673</v>
@@ -10225,16 +10232,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1964DC9F-440D-4507-9807-7E23CFD75A02}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -10258,27 +10265,27 @@
         <v>Prob Superv</v>
       </c>
       <c r="I1" t="str">
-        <f t="shared" ref="I1:I2" si="0">+B1</f>
+        <f t="shared" ref="I1" si="0">+B1</f>
         <v>AL30</v>
       </c>
       <c r="J1" t="str">
-        <f t="shared" ref="J1:J2" si="1">+C1</f>
+        <f t="shared" ref="J1" si="1">+C1</f>
         <v>AL35</v>
       </c>
       <c r="K1" t="str">
-        <f t="shared" ref="K1:K2" si="2">+D1</f>
+        <f t="shared" ref="K1" si="2">+D1</f>
         <v>AL38</v>
       </c>
       <c r="L1" t="str">
-        <f t="shared" ref="L1:L2" si="3">+E1</f>
+        <f t="shared" ref="L1" si="3">+E1</f>
         <v>AL41</v>
       </c>
       <c r="M1" t="str">
-        <f t="shared" ref="M1:M2" si="4">+F1</f>
+        <f t="shared" ref="M1" si="4">+F1</f>
         <v>AL46</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -10330,7 +10337,7 @@
         <v>2.531838978306566</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A3" s="11">
         <v>45300</v>
       </c>
@@ -10355,27 +10362,27 @@
         <v>0.83934601056973812</v>
       </c>
       <c r="H3" t="str">
-        <f>+A2</f>
+        <f t="shared" ref="H3:M3" si="8">+A2</f>
         <v>PD anual</v>
       </c>
       <c r="I3" s="22">
-        <f>+B2</f>
+        <f t="shared" si="8"/>
         <v>0.24130797886052366</v>
       </c>
       <c r="J3" s="22">
-        <f>+C2</f>
+        <f t="shared" si="8"/>
         <v>0.26130797886052365</v>
       </c>
       <c r="K3" s="22">
-        <f>+D2</f>
+        <f t="shared" si="8"/>
         <v>0.28130797886052367</v>
       </c>
       <c r="L3" s="22">
-        <f>+E2</f>
+        <f t="shared" si="8"/>
         <v>0.30130797886052368</v>
       </c>
       <c r="M3" s="22">
-        <f>+F2</f>
+        <f t="shared" si="8"/>
         <v>0.3213079788605237</v>
       </c>
       <c r="N3" s="22">
@@ -10383,7 +10390,7 @@
         <v>0.28130797886052367</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A4" s="11">
         <v>45482</v>
       </c>
@@ -10392,19 +10399,19 @@
         <v>0.77324940630491401</v>
       </c>
       <c r="C4" s="21">
-        <f t="shared" ref="C4:F4" si="8">+C3*C$3</f>
+        <f t="shared" ref="C4:F4" si="9">+C3*C$3</f>
         <v>0.75576248609351926</v>
       </c>
       <c r="D4" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.73847556588212449</v>
       </c>
       <c r="E4" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.72138864567072969</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.70450172545933498</v>
       </c>
       <c r="H4">
@@ -10415,48 +10422,48 @@
         <v>0.75869202113947631</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:M4" si="9">+(1-J3)</f>
+        <f t="shared" ref="J4:M4" si="10">+(1-J3)</f>
         <v>0.7386920211394763</v>
       </c>
       <c r="K4" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.71869202113947628</v>
       </c>
       <c r="L4" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.69869202113947626</v>
       </c>
       <c r="M4" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.67869202113947624</v>
       </c>
       <c r="N4" s="22">
-        <f t="shared" ref="N4:N26" si="10">+AVERAGE(I4:M4)</f>
+        <f t="shared" ref="N4:N26" si="11">+AVERAGE(I4:M4)</f>
         <v>0.71869202113947628</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A5" s="11">
         <v>45666</v>
       </c>
       <c r="B5" s="21">
-        <f t="shared" ref="B5:B16" si="11">+B4*B$3</f>
+        <f t="shared" ref="B5:B16" si="12">+B4*B$3</f>
         <v>0.67995378060964462</v>
       </c>
       <c r="C5" s="21">
-        <f t="shared" ref="C5:C16" si="12">+C4*C$3</f>
+        <f t="shared" ref="C5:C16" si="13">+C4*C$3</f>
         <v>0.65701910222366822</v>
       </c>
       <c r="D5" s="21">
-        <f t="shared" ref="D5:D16" si="13">+D4*D$3</f>
+        <f t="shared" ref="D5:D16" si="14">+D4*D$3</f>
         <v>0.63460603144403349</v>
       </c>
       <c r="E5" s="21">
-        <f t="shared" ref="E5:E16" si="14">+E4*E$3</f>
+        <f t="shared" ref="E5:E16" si="15">+E4*E$3</f>
         <v>0.61270856827074061</v>
       </c>
       <c r="F5" s="21">
-        <f t="shared" ref="F5:F16" si="15">+F4*F$3</f>
+        <f t="shared" ref="F5:F16" si="16">+F4*F$3</f>
         <v>0.59132071270378972</v>
       </c>
       <c r="H5">
@@ -10464,292 +10471,292 @@
         <v>2025</v>
       </c>
       <c r="I5" s="21">
-        <f>+I4*(1-I$3)</f>
+        <f t="shared" ref="I5:M10" si="17">+I4*(1-I$3)</f>
         <v>0.57561358294070353</v>
       </c>
       <c r="J5" s="21">
-        <f>+J4*(1-J$3)</f>
+        <f t="shared" si="17"/>
         <v>0.54566590209512444</v>
       </c>
       <c r="K5" s="21">
-        <f>+K4*(1-K$3)</f>
+        <f t="shared" si="17"/>
         <v>0.51651822124954538</v>
       </c>
       <c r="L5" s="21">
-        <f>+L4*(1-L$3)</f>
+        <f t="shared" si="17"/>
         <v>0.48817054040396635</v>
       </c>
       <c r="M5" s="21">
-        <f>+M4*(1-M$3)</f>
+        <f t="shared" si="17"/>
         <v>0.46062285955838728</v>
       </c>
       <c r="N5" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.51731822124954541</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A6" s="11">
         <v>45847</v>
       </c>
       <c r="B6" s="21">
+        <f t="shared" si="12"/>
+        <v>0.59791464435090202</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="13"/>
+        <v>0.57117693538625691</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="14"/>
+        <v>0.54534616140492398</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="15"/>
+        <v>0.52040157810264953</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="16"/>
+        <v>0.49632268117518019</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H26" si="18">+H5+1</f>
+        <v>2026</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="17"/>
+        <v>0.43671343263661794</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="17"/>
+        <v>0.40307904808554307</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="17"/>
+        <v>0.37121752438520295</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="17"/>
+        <v>0.34108086153559758</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" si="17"/>
+        <v>0.31262105953672698</v>
+      </c>
+      <c r="N6" s="22">
         <f t="shared" si="11"/>
-        <v>0.59791464435090202</v>
-      </c>
-      <c r="C6" s="21">
-        <f t="shared" si="12"/>
-        <v>0.57117693538625691</v>
-      </c>
-      <c r="D6" s="21">
-        <f t="shared" si="13"/>
-        <v>0.54534616140492398</v>
-      </c>
-      <c r="E6" s="21">
-        <f t="shared" si="14"/>
-        <v>0.52040157810264953</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="15"/>
-        <v>0.49632268117518019</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H26" si="16">+H5+1</f>
-        <v>2026</v>
-      </c>
-      <c r="I6" s="21">
-        <f>+I5*(1-I$3)</f>
-        <v>0.43671343263661794</v>
-      </c>
-      <c r="J6" s="21">
-        <f>+J5*(1-J$3)</f>
-        <v>0.40307904808554307</v>
-      </c>
-      <c r="K6" s="21">
-        <f>+K5*(1-K$3)</f>
-        <v>0.37121752438520295</v>
-      </c>
-      <c r="L6" s="21">
-        <f>+L5*(1-L$3)</f>
-        <v>0.34108086153559758</v>
-      </c>
-      <c r="M6" s="21">
-        <f>+M5*(1-M$3)</f>
-        <v>0.31262105953672698</v>
-      </c>
-      <c r="N6" s="22">
-        <f t="shared" si="10"/>
         <v>0.3729423852359377</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A7" s="11">
         <v>46031</v>
       </c>
       <c r="B7" s="21">
+        <f t="shared" si="12"/>
+        <v>0.52577385717118952</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="13"/>
+        <v>0.49655039010749152</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="14"/>
+        <v>0.46864104818284191</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="15"/>
+        <v>0.4420010042556814</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="16"/>
+        <v>0.41658646239966357</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="18"/>
+        <v>2027</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="17"/>
+        <v>0.33133099686583423</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="17"/>
+        <v>0.29775127670928597</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="17"/>
+        <v>0.2667910728827943</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="17"/>
+        <v>0.23831047651830051</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="17"/>
+        <v>0.21217341874774576</v>
+      </c>
+      <c r="N7" s="22">
         <f t="shared" si="11"/>
-        <v>0.52577385717118952</v>
-      </c>
-      <c r="C7" s="21">
-        <f t="shared" si="12"/>
-        <v>0.49655039010749152</v>
-      </c>
-      <c r="D7" s="21">
-        <f t="shared" si="13"/>
-        <v>0.46864104818284191</v>
-      </c>
-      <c r="E7" s="21">
-        <f t="shared" si="14"/>
-        <v>0.4420010042556814</v>
-      </c>
-      <c r="F7" s="21">
-        <f t="shared" si="15"/>
-        <v>0.41658646239966357</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="16"/>
-        <v>2027</v>
-      </c>
-      <c r="I7" s="21">
-        <f>+I6*(1-I$3)</f>
-        <v>0.33133099686583423</v>
-      </c>
-      <c r="J7" s="21">
-        <f>+J6*(1-J$3)</f>
-        <v>0.29775127670928597</v>
-      </c>
-      <c r="K7" s="21">
-        <f>+K6*(1-K$3)</f>
-        <v>0.2667910728827943</v>
-      </c>
-      <c r="L7" s="21">
-        <f>+L6*(1-L$3)</f>
-        <v>0.23831047651830051</v>
-      </c>
-      <c r="M7" s="21">
-        <f>+M6*(1-M$3)</f>
-        <v>0.21217341874774576</v>
-      </c>
-      <c r="N7" s="22">
-        <f t="shared" si="10"/>
         <v>0.26927144834479211</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A8" s="11">
         <v>46212</v>
       </c>
       <c r="B8" s="21">
+        <f t="shared" si="12"/>
+        <v>0.46233714376534879</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="13"/>
+        <v>0.4316741006867949</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="14"/>
+        <v>0.40272481514514563</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="15"/>
+        <v>0.37541178963238087</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="16"/>
+        <v>0.34966018527251785</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="18"/>
+        <v>2028</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="17"/>
+        <v>0.25137818367829728</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="17"/>
+        <v>0.21994649238924194</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="17"/>
+        <v>0.19174061539210477</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="17"/>
+        <v>0.16650562849728309</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="17"/>
+        <v>0.14400040640198</v>
+      </c>
+      <c r="N8" s="22">
         <f t="shared" si="11"/>
-        <v>0.46233714376534879</v>
-      </c>
-      <c r="C8" s="21">
-        <f t="shared" si="12"/>
-        <v>0.4316741006867949</v>
-      </c>
-      <c r="D8" s="21">
-        <f t="shared" si="13"/>
-        <v>0.40272481514514563</v>
-      </c>
-      <c r="E8" s="21">
-        <f t="shared" si="14"/>
-        <v>0.37541178963238087</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="15"/>
-        <v>0.34966018527251785</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="16"/>
-        <v>2028</v>
-      </c>
-      <c r="I8" s="21">
-        <f>+I7*(1-I$3)</f>
-        <v>0.25137818367829728</v>
-      </c>
-      <c r="J8" s="21">
-        <f>+J7*(1-J$3)</f>
-        <v>0.21994649238924194</v>
-      </c>
-      <c r="K8" s="21">
-        <f>+K7*(1-K$3)</f>
-        <v>0.19174061539210477</v>
-      </c>
-      <c r="L8" s="21">
-        <f>+L7*(1-L$3)</f>
-        <v>0.16650562849728309</v>
-      </c>
-      <c r="M8" s="21">
-        <f>+M7*(1-M$3)</f>
-        <v>0.14400040640198</v>
-      </c>
-      <c r="N8" s="22">
-        <f t="shared" si="10"/>
         <v>0.19471426527178143</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A9" s="11">
         <v>46396</v>
       </c>
       <c r="B9" s="21">
+        <f t="shared" si="12"/>
+        <v>0.40655432290826693</v>
+      </c>
+      <c r="C9" s="21">
+        <f t="shared" si="13"/>
+        <v>0.37527415729834462</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="14"/>
+        <v>0.34607996325241613</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="15"/>
+        <v>0.31885450584510849</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="16"/>
+        <v>0.29348588156356337</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="18"/>
+        <v>2029</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="17"/>
+        <v>0.19071862224525787</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="17"/>
+        <v>0.16247271900554758</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" si="17"/>
+        <v>0.13780245041067876</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="17"/>
+        <v>0.11633615410586549</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="17"/>
+        <v>9.7731926865865779E-2</v>
+      </c>
+      <c r="N9" s="22">
         <f t="shared" si="11"/>
-        <v>0.40655432290826693</v>
-      </c>
-      <c r="C9" s="21">
-        <f t="shared" si="12"/>
-        <v>0.37527415729834462</v>
-      </c>
-      <c r="D9" s="21">
-        <f t="shared" si="13"/>
-        <v>0.34607996325241613</v>
-      </c>
-      <c r="E9" s="21">
-        <f t="shared" si="14"/>
-        <v>0.31885450584510849</v>
-      </c>
-      <c r="F9" s="21">
-        <f t="shared" si="15"/>
-        <v>0.29348588156356337</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="16"/>
-        <v>2029</v>
-      </c>
-      <c r="I9" s="21">
-        <f>+I8*(1-I$3)</f>
-        <v>0.19071862224525787</v>
-      </c>
-      <c r="J9" s="21">
-        <f>+J8*(1-J$3)</f>
-        <v>0.16247271900554758</v>
-      </c>
-      <c r="K9" s="21">
-        <f>+K8*(1-K$3)</f>
-        <v>0.13780245041067876</v>
-      </c>
-      <c r="L9" s="21">
-        <f>+L8*(1-L$3)</f>
-        <v>0.11633615410586549</v>
-      </c>
-      <c r="M9" s="21">
-        <f>+M8*(1-M$3)</f>
-        <v>9.7731926865865779E-2</v>
-      </c>
-      <c r="N9" s="22">
-        <f t="shared" si="10"/>
         <v>0.14101237452664309</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A10" s="11">
         <v>46577</v>
       </c>
       <c r="B10" s="21">
+        <f t="shared" si="12"/>
+        <v>0.35750192192926561</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="13"/>
+        <v>0.32624309151723629</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="14"/>
+        <v>0.29740243575908537</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="15"/>
+        <v>0.27081780249172815</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="16"/>
+        <v>0.24633620384891958</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="18"/>
+        <v>2030</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="17"/>
+        <v>0.144696696980191</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="17"/>
+        <v>0.12001730118223414</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="17"/>
+        <v>9.9037521603623169E-2</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="17"/>
+        <v>8.1283142643820736E-2</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="17"/>
+        <v>6.6329878974449918E-2</v>
+      </c>
+      <c r="N10" s="22">
         <f t="shared" si="11"/>
-        <v>0.35750192192926561</v>
-      </c>
-      <c r="C10" s="21">
-        <f t="shared" si="12"/>
-        <v>0.32624309151723629</v>
-      </c>
-      <c r="D10" s="21">
-        <f t="shared" si="13"/>
-        <v>0.29740243575908537</v>
-      </c>
-      <c r="E10" s="21">
-        <f t="shared" si="14"/>
-        <v>0.27081780249172815</v>
-      </c>
-      <c r="F10" s="21">
-        <f t="shared" si="15"/>
-        <v>0.24633620384891958</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="16"/>
-        <v>2030</v>
-      </c>
-      <c r="I10" s="21">
-        <f>+I9*(1-I$3)</f>
-        <v>0.144696696980191</v>
-      </c>
-      <c r="J10" s="21">
-        <f>+J9*(1-J$3)</f>
-        <v>0.12001730118223414</v>
-      </c>
-      <c r="K10" s="21">
-        <f>+K9*(1-K$3)</f>
-        <v>9.9037521603623169E-2</v>
-      </c>
-      <c r="L10" s="21">
-        <f>+L9*(1-L$3)</f>
-        <v>8.1283142643820736E-2</v>
-      </c>
-      <c r="M10" s="21">
-        <f>+M9*(1-M$3)</f>
-        <v>6.6329878974449918E-2</v>
-      </c>
-      <c r="N10" s="22">
-        <f t="shared" si="10"/>
         <v>0.10227290827686379</v>
       </c>
       <c r="O10" s="21"/>
@@ -10758,53 +10765,53 @@
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A11" s="11">
         <v>46761</v>
       </c>
       <c r="B11" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.31436788881951372</v>
       </c>
       <c r="C11" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.28361813008644737</v>
       </c>
       <c r="D11" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.25557159670329282</v>
       </c>
       <c r="E11" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.23001802013761261</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.20676130995948441</v>
       </c>
       <c r="H11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2031</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21">
-        <f>+J10*(1-J$3)</f>
+        <f t="shared" ref="J11:M15" si="19">+J10*(1-J$3)</f>
         <v>8.8655822782009799E-2</v>
       </c>
       <c r="K11" s="21">
-        <f>+K10*(1-K$3)</f>
+        <f t="shared" si="19"/>
         <v>7.1177476569952478E-2</v>
       </c>
       <c r="L11" s="21">
-        <f>+L10*(1-L$3)</f>
+        <f t="shared" si="19"/>
         <v>5.6791883218379462E-2</v>
       </c>
       <c r="M11" s="21">
-        <f>+M10*(1-M$3)</f>
+        <f t="shared" si="19"/>
         <v>4.5017559623106267E-2</v>
       </c>
       <c r="N11" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.5410685548362005E-2</v>
       </c>
       <c r="O11" s="21"/>
@@ -10813,53 +10820,53 @@
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A12" s="11">
         <v>46943</v>
       </c>
       <c r="B12" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.27643814888467039</v>
       </c>
       <c r="C12" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.24656228991590204</v>
       </c>
       <c r="D12" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21962443204191273</v>
       </c>
       <c r="E12" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.19536488776303096</v>
       </c>
       <c r="F12" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.17354428065466632</v>
       </c>
       <c r="H12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2032</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21">
-        <f>+J11*(1-J$3)</f>
+        <f t="shared" si="19"/>
         <v>6.5489348916626042E-2</v>
       </c>
       <c r="K12" s="21">
-        <f>+K11*(1-K$3)</f>
+        <f t="shared" si="19"/>
         <v>5.1154684495666861E-2</v>
       </c>
       <c r="L12" s="21">
-        <f>+L11*(1-L$3)</f>
+        <f t="shared" si="19"/>
         <v>3.9680035670166647E-2</v>
       </c>
       <c r="M12" s="21">
-        <f>+M11*(1-M$3)</f>
+        <f t="shared" si="19"/>
         <v>3.0553058527372872E-2</v>
       </c>
       <c r="N12" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.6719281902458103E-2</v>
       </c>
       <c r="O12" s="9"/>
@@ -10868,437 +10875,437 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A13" s="11">
         <v>47127</v>
       </c>
       <c r="B13" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.24308478339101822</v>
       </c>
       <c r="C13" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.21434794309532862</v>
       </c>
       <c r="D13" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.18873337949886226</v>
       </c>
       <c r="E13" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.165932388026935</v>
       </c>
       <c r="F13" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.14566369962468914</v>
       </c>
       <c r="H13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2033</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21">
-        <f>+J12*(1-J$3)</f>
+        <f t="shared" si="19"/>
         <v>4.8376459514330866E-2</v>
       </c>
       <c r="K13" s="21">
-        <f>+K12*(1-K$3)</f>
+        <f t="shared" si="19"/>
         <v>3.6764463590943049E-2</v>
       </c>
       <c r="L13" s="21">
-        <f>+L12*(1-L$3)</f>
+        <f t="shared" si="19"/>
         <v>2.7724124321275245E-2</v>
       </c>
       <c r="M13" s="21">
-        <f>+M12*(1-M$3)</f>
+        <f t="shared" si="19"/>
         <v>2.0736117043935406E-2</v>
       </c>
       <c r="N13" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3400291117621141E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A14" s="11">
         <v>47308</v>
       </c>
       <c r="B14" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.21375563450510082</v>
       </c>
       <c r="C14" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.18634252920375319</v>
       </c>
       <c r="D14" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.16218727673369168</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.14093401179498702</v>
       </c>
       <c r="F14" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.12226224516481149</v>
       </c>
       <c r="H14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2034</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21">
-        <f>+J13*(1-J$3)</f>
+        <f t="shared" si="19"/>
         <v>3.5735304654213117E-2</v>
       </c>
       <c r="K14" s="21">
-        <f>+K13*(1-K$3)</f>
+        <f t="shared" si="19"/>
         <v>2.6422326644283546E-2</v>
       </c>
       <c r="L14" s="21">
-        <f>+L13*(1-L$3)</f>
+        <f t="shared" si="19"/>
         <v>1.9370624456353912E-2</v>
       </c>
       <c r="M14" s="21">
-        <f>+M13*(1-M$3)</f>
+        <f t="shared" si="19"/>
         <v>1.4073437187133261E-2</v>
       </c>
       <c r="N14" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.390042323549596E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A15" s="11">
         <v>47492</v>
       </c>
       <c r="B15" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18796516443886346</v>
       </c>
       <c r="C15" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.16199613436275775</v>
       </c>
       <c r="D15" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13937498922626806</v>
       </c>
       <c r="E15" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.11970174067166064</v>
       </c>
       <c r="F15" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.10262032772238378</v>
       </c>
       <c r="H15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2035</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21">
-        <f>+J14*(1-J$3)</f>
+        <f t="shared" si="19"/>
         <v>2.639738442105562E-2</v>
       </c>
       <c r="K15" s="21">
-        <f>+K14*(1-K$3)</f>
+        <f t="shared" si="19"/>
         <v>1.8989515339187579E-2</v>
       </c>
       <c r="L15" s="21">
-        <f>+L14*(1-L$3)</f>
+        <f t="shared" si="19"/>
         <v>1.3534100752143684E-2</v>
       </c>
       <c r="M15" s="21">
-        <f>+M14*(1-M$3)</f>
+        <f t="shared" si="19"/>
         <v>9.5515295289149392E-3</v>
       </c>
       <c r="N15" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7118132510325457E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A16" s="11">
         <v>47673</v>
       </c>
       <c r="B16" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16528641747539941</v>
       </c>
       <c r="C16" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.14083069313598273</v>
       </c>
       <c r="D16" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11977134096479369</v>
       </c>
       <c r="E16" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.10166819589772834</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.613396267714192E-2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2036</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21">
-        <f>+K15*(1-K$3)</f>
+        <f t="shared" ref="K16:M18" si="20">+K15*(1-K$3)</f>
         <v>1.3647613159579809E-2</v>
       </c>
       <c r="L16" s="21">
-        <f>+L15*(1-L$3)</f>
+        <f t="shared" si="20"/>
         <v>9.4561682088205763E-3</v>
       </c>
       <c r="M16" s="21">
-        <f>+M15*(1-M$3)</f>
+        <f t="shared" si="20"/>
         <v>6.4825468809526698E-3</v>
       </c>
       <c r="N16" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.8621094164510186E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A17" s="11">
         <v>47857</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21">
-        <f t="shared" ref="C17:C26" si="17">+C16*C$3</f>
+        <f t="shared" ref="C17:C26" si="21">+C16*C$3</f>
         <v>0.12243060124353759</v>
       </c>
       <c r="D17" s="21">
-        <f t="shared" ref="D17:D26" si="18">+D16*D$3</f>
+        <f t="shared" ref="D17:D26" si="22">+D16*D$3</f>
         <v>0.10292502403868331</v>
       </c>
       <c r="E17" s="21">
-        <f t="shared" ref="E17:E26" si="19">+E16*E$3</f>
+        <f t="shared" ref="E17:E26" si="23">+E16*E$3</f>
         <v>8.6351476587558179E-2</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" ref="F17:F26" si="20">+F16*F$3</f>
+        <f t="shared" ref="F17:F26" si="24">+F16*F$3</f>
         <v>7.2296197947621793E-2</v>
       </c>
       <c r="H17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2037</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21">
-        <f>+K16*(1-K$3)</f>
+        <f t="shared" si="20"/>
         <v>9.8084306853881264E-3</v>
       </c>
       <c r="L17" s="21">
-        <f>+L16*(1-L$3)</f>
+        <f t="shared" si="20"/>
         <v>6.6069492780557095E-3</v>
       </c>
       <c r="M17" s="21">
-        <f>+M16*(1-M$3)</f>
+        <f t="shared" si="20"/>
         <v>4.3996528447651749E-3</v>
       </c>
       <c r="N17" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9383442694030033E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A18" s="11">
         <v>48038</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.10643455476272383</v>
       </c>
       <c r="D18" s="21">
+        <f t="shared" si="22"/>
+        <v>8.8448208795436897E-2</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="23"/>
+        <v>7.3342282146448681E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="24"/>
+        <v>6.0681525326696441E-2</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="18"/>
-        <v>8.8448208795436897E-2</v>
-      </c>
-      <c r="E18" s="21">
-        <f t="shared" si="19"/>
-        <v>7.3342282146448681E-2</v>
-      </c>
-      <c r="F18" s="21">
-        <f t="shared" si="20"/>
-        <v>6.0681525326696441E-2</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="16"/>
         <v>2038</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21">
-        <f>+K17*(1-K$3)</f>
+        <f t="shared" si="20"/>
         <v>7.049240873488051E-3</v>
       </c>
       <c r="L18" s="21">
-        <f>+L17*(1-L$3)</f>
+        <f t="shared" si="20"/>
         <v>4.616222744650747E-3</v>
       </c>
       <c r="M18" s="21">
-        <f>+M17*(1-M$3)</f>
+        <f t="shared" si="20"/>
         <v>2.9860092815257228E-3</v>
       </c>
       <c r="N18" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.8838242998881735E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A19" s="11">
         <v>48222</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9.2528455569740278E-2</v>
       </c>
       <c r="D19" s="21">
+        <f t="shared" si="22"/>
+        <v>7.6007615370397921E-2</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="23"/>
+        <v>6.2292974747166316E-2</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="24"/>
+        <v>5.0932796198249183E-2</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="18"/>
-        <v>7.6007615370397921E-2</v>
-      </c>
-      <c r="E19" s="21">
-        <f t="shared" si="19"/>
-        <v>6.2292974747166316E-2</v>
-      </c>
-      <c r="F19" s="21">
-        <f t="shared" si="20"/>
-        <v>5.0932796198249183E-2</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="16"/>
         <v>2039</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21">
-        <f>+L18*(1-L$3)</f>
+        <f t="shared" ref="L19:M21" si="25">+L18*(1-L$3)</f>
         <v>3.2253179994900507E-3</v>
       </c>
       <c r="M19" s="21">
-        <f>+M18*(1-M$3)</f>
+        <f t="shared" si="25"/>
         <v>2.0265806744199284E-3</v>
       </c>
       <c r="N19" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.6259493369549898E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A20" s="11">
         <v>48404</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8.0439243713732983E-2</v>
       </c>
       <c r="D20" s="21">
+        <f t="shared" si="22"/>
+        <v>6.5316841041470564E-2</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="23"/>
+        <v>5.2908289588027152E-2</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="24"/>
+        <v>4.2750239296161979E-2</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="18"/>
-        <v>6.5316841041470564E-2</v>
-      </c>
-      <c r="E20" s="21">
-        <f t="shared" si="19"/>
-        <v>5.2908289588027152E-2</v>
-      </c>
-      <c r="F20" s="21">
-        <f t="shared" si="20"/>
-        <v>4.2750239296161979E-2</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="16"/>
         <v>2040</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21">
-        <f>+L19*(1-L$3)</f>
+        <f t="shared" si="25"/>
         <v>2.2535039518812357E-3</v>
       </c>
       <c r="M20" s="21">
-        <f>+M19*(1-M$3)</f>
+        <f t="shared" si="25"/>
         <v>1.3754241339242641E-3</v>
       </c>
       <c r="N20" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8144640429027499E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A21" s="11">
         <v>48588</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6.9929535615780664E-2</v>
       </c>
       <c r="D21" s="21">
+        <f t="shared" si="22"/>
+        <v>5.6129766772005471E-2</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="23"/>
+        <v>4.4937444687659277E-2</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="24"/>
+        <v>3.5882242804135205E-2</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="18"/>
-        <v>5.6129766772005471E-2</v>
-      </c>
-      <c r="E21" s="21">
-        <f t="shared" si="19"/>
-        <v>4.4937444687659277E-2</v>
-      </c>
-      <c r="F21" s="21">
-        <f t="shared" si="20"/>
-        <v>3.5882242804135205E-2</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="16"/>
         <v>2041</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21">
-        <f>+L20*(1-L$3)</f>
+        <f t="shared" si="25"/>
         <v>1.5745052307856978E-3</v>
       </c>
       <c r="M21" s="21">
-        <f>+M20*(1-M$3)</f>
+        <f t="shared" si="25"/>
         <v>9.334893853770725E-4</v>
       </c>
       <c r="N21" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2539973080813852E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A22" s="11">
         <v>48769</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6.0792962808573339E-2</v>
       </c>
       <c r="D22" s="21">
+        <f t="shared" si="22"/>
+        <v>4.8234891149732749E-2</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="23"/>
+        <v>3.8167439370661679E-2</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="24"/>
+        <v>3.0117617347945578E-2</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="18"/>
-        <v>4.8234891149732749E-2</v>
-      </c>
-      <c r="E22" s="21">
-        <f t="shared" si="19"/>
-        <v>3.8167439370661679E-2</v>
-      </c>
-      <c r="F22" s="21">
-        <f t="shared" si="20"/>
-        <v>3.0117617347945578E-2</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="16"/>
         <v>2042</v>
       </c>
       <c r="I22" s="21"/>
@@ -11310,33 +11317,33 @@
         <v>6.3355179767381274E-4</v>
       </c>
       <c r="N22" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.3355179767381274E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A23" s="11">
         <v>48953</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5.2850119688347699E-2</v>
       </c>
       <c r="D23" s="21">
+        <f t="shared" si="22"/>
+        <v>4.1450461279788409E-2</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="23"/>
+        <v>3.2417362363133854E-2</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="24"/>
+        <v>2.5279101968864057E-2</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="18"/>
-        <v>4.1450461279788409E-2</v>
-      </c>
-      <c r="E23" s="21">
-        <f t="shared" si="19"/>
-        <v>3.2417362363133854E-2</v>
-      </c>
-      <c r="F23" s="21">
-        <f t="shared" si="20"/>
-        <v>2.5279101968864057E-2</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="16"/>
         <v>2043</v>
       </c>
       <c r="I23" s="21"/>
@@ -11348,33 +11355,33 @@
         <v>4.299865500597885E-4</v>
       </c>
       <c r="N23" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.299865500597885E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A24" s="11">
         <v>49134</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4.5945040709198248E-2</v>
       </c>
       <c r="D24" s="21">
+        <f t="shared" si="22"/>
+        <v>3.5620288537061569E-2</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="23"/>
+        <v>2.7533557396321316E-2</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="24"/>
+        <v>2.1217913388351658E-2</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="18"/>
-        <v>3.5620288537061569E-2</v>
-      </c>
-      <c r="E24" s="21">
-        <f t="shared" si="19"/>
-        <v>2.7533557396321316E-2</v>
-      </c>
-      <c r="F24" s="21">
-        <f t="shared" si="20"/>
-        <v>2.1217913388351658E-2</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="16"/>
         <v>2044</v>
       </c>
       <c r="I24" s="21"/>
@@ -11386,33 +11393,33 @@
         <v>2.9182844072286846E-4</v>
       </c>
       <c r="N24" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9182844072286846E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A25" s="11">
         <v>49318</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.9942137846005712E-2</v>
       </c>
       <c r="D25" s="21">
+        <f t="shared" si="22"/>
+        <v>3.0610152849666832E-2</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" si="23"/>
+        <v>2.3385517131358415E-2</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="24"/>
+        <v>1.7809170955127199E-2</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="18"/>
-        <v>3.0610152849666832E-2</v>
-      </c>
-      <c r="E25" s="21">
-        <f t="shared" si="19"/>
-        <v>2.3385517131358415E-2</v>
-      </c>
-      <c r="F25" s="21">
-        <f t="shared" si="20"/>
-        <v>1.7809170955127199E-2</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="16"/>
         <v>2045</v>
       </c>
       <c r="I25" s="21"/>
@@ -11424,33 +11431,33 @@
         <v>1.9806163426018544E-4</v>
       </c>
       <c r="N25" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9806163426018544E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A26" s="11">
         <v>49499</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.4723538190051619E-2</v>
       </c>
       <c r="D26" s="21">
+        <f t="shared" si="22"/>
+        <v>2.6304712734291094E-2</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="23"/>
+        <v>1.9862395680629537E-2</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="24"/>
+        <v>1.4948056592740467E-2</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="18"/>
-        <v>2.6304712734291094E-2</v>
-      </c>
-      <c r="E26" s="21">
-        <f t="shared" si="19"/>
-        <v>1.9862395680629537E-2</v>
-      </c>
-      <c r="F26" s="21">
-        <f t="shared" si="20"/>
-        <v>1.4948056592740467E-2</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="16"/>
         <v>2046</v>
       </c>
       <c r="I26" s="21"/>
@@ -11462,106 +11469,106 @@
         <v>1.34422850866233E-4</v>
       </c>
       <c r="N26" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.34422850866233E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A27" s="11">
         <v>49683</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
       <c r="D27" s="21">
-        <f t="shared" ref="D27:D31" si="21">+D26*D$3</f>
+        <f t="shared" ref="D27:D31" si="26">+D26*D$3</f>
         <v>2.260484994739604E-2</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" ref="E27:E31" si="22">+E26*E$3</f>
+        <f t="shared" ref="E27:E31" si="27">+E26*E$3</f>
         <v>1.6870046531700295E-2</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" ref="F27:F31" si="23">+F26*F$3</f>
+        <f t="shared" ref="F27:F31" si="28">+F26*F$3</f>
         <v>1.2546591666887383E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A28" s="11">
         <v>49865</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
       <c r="D28" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1.9425387621822342E-2</v>
       </c>
       <c r="E28" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>1.4328506719825492E-2</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.0530931661849445E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A29" s="11">
         <v>50049</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1.6693129356583802E-2</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>1.2169860019905466E-2</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>8.8390954779558745E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A30" s="11">
         <v>50230</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1.434517411650487E-2</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>1.0336422057098862E-2</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>7.4190595264672756E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A31" s="11">
         <v>50414</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
       <c r="D31" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1.2327468147946729E-2</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>8.7791988377619642E-3</v>
       </c>
       <c r="F31" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>6.2271580157197181E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A32" s="11">
         <v>50595</v>
       </c>
@@ -11569,15 +11576,15 @@
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="21">
-        <f t="shared" ref="E32:E38" si="24">+E31*E$3</f>
+        <f t="shared" ref="E32:E38" si="29">+E31*E$3</f>
         <v>7.4565775088516056E-3</v>
       </c>
       <c r="F32" s="21">
-        <f t="shared" ref="F32:F48" si="25">+F31*F$3</f>
+        <f t="shared" ref="F32:F48" si="30">+F31*F$3</f>
         <v>5.2267402376817117E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A33" s="11">
         <v>50779</v>
       </c>
@@ -11585,15 +11592,15 @@
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>6.3332143596471473E-3</v>
       </c>
       <c r="F33" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>4.3870435667824692E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A34" s="11">
         <v>50960</v>
       </c>
@@ -11601,15 +11608,15 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5.3790903504492829E-3</v>
       </c>
       <c r="F34" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>3.6822475159745001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A35" s="11">
         <v>51144</v>
       </c>
@@ -11617,15 +11624,15 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>4.5687089296482727E-3</v>
       </c>
       <c r="F35" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>3.0906797624635249E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A36" s="11">
         <v>51326</v>
       </c>
@@ -11633,15 +11640,15 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>3.8804147028510989E-3</v>
       </c>
       <c r="F36" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2.5941497285723856E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A37" s="11">
         <v>51510</v>
       </c>
@@ -11649,15 +11656,15 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>3.2958147472227366E-3</v>
       </c>
       <c r="F37" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2.177389225497801E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A38" s="11">
         <v>51691</v>
       </c>
@@ -11665,15 +11672,15 @@
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>2.7992871071305411E-3</v>
       </c>
       <c r="F38" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1.8275829598791112E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A39" s="11">
         <v>51875</v>
       </c>
@@ -11682,11 +11689,11 @@
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
       <c r="F39" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1.5339744663597657E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A40" s="11">
         <v>52056</v>
       </c>
@@ -11695,11 +11702,11 @@
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1.2875353486549123E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A41" s="11">
         <v>52240</v>
       </c>
@@ -11708,11 +11715,11 @@
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1.0806876583610175E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A42" s="11">
         <v>52421</v>
       </c>
@@ -11721,11 +11728,11 @@
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>9.0707087471727209E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A43" s="11">
         <v>52605</v>
       </c>
@@ -11734,11 +11741,11 @@
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>7.6134631999794501E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A44" s="11">
         <v>52787</v>
       </c>
@@ -11747,11 +11754,11 @@
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>6.3903299635222641E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A45" s="11">
         <v>52971</v>
       </c>
@@ -11760,11 +11767,11 @@
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>5.3636979611066727E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A46" s="11">
         <v>53152</v>
       </c>
@@ -11773,11 +11780,11 @@
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>4.5019984855559241E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A47" s="11">
         <v>53336</v>
       </c>
@@ -11786,11 +11793,11 @@
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>3.7787344684423678E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A48" s="11">
         <v>53517</v>
       </c>
@@ -11799,7 +11806,7 @@
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>3.1716657010894613E-4</v>
       </c>
     </row>
@@ -11822,9 +11829,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -11832,7 +11839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -11840,7 +11847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -11848,7 +11855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11856,7 +11863,7 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11864,7 +11871,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B8">
         <v>29</v>
       </c>
@@ -11884,7 +11891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -11904,7 +11911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>36</v>
       </c>

--- a/AL30.xlsx
+++ b/AL30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90BCDABC-A879-494A-897F-1FCECA1C7957}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF31D4ED-47FD-4357-B3AF-4112F9A19DFB}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="3" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,33 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PRICES!$A$1:$B$742</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">FFant!$Y$13</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">FFant!$AC$30</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>Fecha Pago</t>
   </si>
@@ -220,21 +247,43 @@
   <si>
     <t>Vida Media</t>
   </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>Prob</t>
+  </si>
+  <si>
+    <t>Dif Precio</t>
+  </si>
+  <si>
+    <t>Prob 2</t>
+  </si>
+  <si>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>VA de la pérdida</t>
+  </si>
+  <si>
+    <t>Valor esperado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.000000%"/>
     <numFmt numFmtId="169" formatCode="0.0000%"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??????_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -309,7 +358,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -356,11 +405,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -1310,6 +1361,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -7997,18 +8052,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AP30"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8034,28 +8090,34 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="11">
+      <c r="Y1" s="11">
         <v>45188</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="21">
+      <c r="AC1" s="21">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.75">
+      <c r="AD1" s="21">
+        <v>0.38807522271149991</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
         <v>44386</v>
       </c>
@@ -8082,60 +8144,61 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="W2" t="s">
+      <c r="L2" s="9"/>
+      <c r="X2" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="12">
+      <c r="Y2" s="12">
         <v>30.68</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="11">
-        <f t="array" ref="AB2:AO2">+TRANSPOSE(Z10:Z23)</f>
+      <c r="AC2" s="11">
+        <f t="array" ref="AC2:AP2">+TRANSPOSE(AA10:AA23)</f>
         <v>45300</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AD2" s="11">
         <v>45482</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AE2" s="11">
         <v>45666</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AF2" s="11">
         <v>45847</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AG2" s="11">
         <v>46031</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AH2" s="11">
         <v>46212</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AI2" s="11">
         <v>46396</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AJ2" s="11">
         <v>46577</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AK2" s="11">
         <v>46761</v>
       </c>
-      <c r="AK2" s="11">
+      <c r="AL2" s="11">
         <v>46943</v>
       </c>
-      <c r="AL2" s="11">
+      <c r="AM2" s="11">
         <v>47127</v>
       </c>
-      <c r="AM2" s="11">
+      <c r="AN2" s="11">
         <v>47308</v>
       </c>
-      <c r="AN2" s="11">
+      <c r="AO2" s="11">
         <v>47492</v>
       </c>
-      <c r="AO2" s="11">
+      <c r="AP2" s="11">
         <v>47673</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
@@ -8162,81 +8225,82 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="W3" t="s">
+      <c r="L3" s="9"/>
+      <c r="X3" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="13">
+      <c r="Y3" s="13">
         <f>44.69%*0+4%</f>
         <v>0.04</v>
       </c>
-      <c r="Y3" s="28">
-        <f>+Z3-AB3</f>
+      <c r="Z3" s="27">
+        <f>+AA3-AC3</f>
         <v>1.9945161313136452</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>90.851096387317099</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="26">
-        <f>+SUMPRODUCT($AA$10:$AA$23,AB$10:AB$23)/10000</f>
+      <c r="AC3" s="25">
+        <f>+SUMPRODUCT($AB$10:$AB$23,AC$10:AC$23)/10000</f>
         <v>88.856580256003454</v>
       </c>
-      <c r="AC3" s="26">
-        <f t="shared" ref="AC3:AO3" si="2">+SUMPRODUCT($AA$10:$AA$23,AC$10:AC$23)/10000</f>
+      <c r="AD3" s="25">
+        <f t="shared" ref="AD3:AP3" si="2">+SUMPRODUCT($AB$10:$AB$23,AD$10:AD$23)/10000</f>
         <v>90.851096386455538</v>
       </c>
-      <c r="AD3" s="26">
+      <c r="AE3" s="25">
         <f t="shared" si="2"/>
         <v>88.705341827276925</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AF3" s="9">
         <f t="shared" si="2"/>
         <v>82.167696756590487</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AG3" s="9">
         <f t="shared" si="2"/>
         <v>75.419679917879463</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AH3" s="9">
         <f t="shared" si="2"/>
         <v>68.503913026011645</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AI3" s="9">
         <f t="shared" si="2"/>
         <v>61.473792108162414</v>
       </c>
-      <c r="AI3" s="9">
+      <c r="AJ3" s="9">
         <f t="shared" si="2"/>
         <v>54.295549939296301</v>
       </c>
-      <c r="AJ3" s="9">
+      <c r="AK3" s="9">
         <f t="shared" si="2"/>
         <v>47.019005748327928</v>
       </c>
-      <c r="AK3" s="9">
+      <c r="AL3" s="9">
         <f t="shared" si="2"/>
         <v>39.382131305578348</v>
       </c>
-      <c r="AL3" s="9">
+      <c r="AM3" s="9">
         <f t="shared" si="2"/>
         <v>31.685079457674856</v>
       </c>
-      <c r="AM3" s="9">
+      <c r="AN3" s="9">
         <f t="shared" si="2"/>
         <v>23.902807293328763</v>
       </c>
-      <c r="AN3" s="9">
+      <c r="AO3" s="9">
         <f t="shared" si="2"/>
         <v>16.038339555722729</v>
       </c>
-      <c r="AO3" s="9">
+      <c r="AP3" s="9">
         <f t="shared" si="2"/>
         <v>8.07</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A4" s="3">
         <v>44751</v>
       </c>
@@ -8263,54 +8327,55 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="AA4" t="s">
+      <c r="L4" s="9"/>
+      <c r="AB4" t="s">
         <v>1</v>
       </c>
-      <c r="AB4">
-        <f t="array" ref="AB4:AO4">+TRANSPOSE(B7:B20)</f>
+      <c r="AC4">
+        <f t="array" ref="AC4:AP4">+TRANSPOSE(B7:B20)</f>
         <v>100</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>100</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>96</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>88</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>80</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>72</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>64</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>56</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>48</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>40</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>32</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>24</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>16</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>44935</v>
       </c>
@@ -8337,74 +8402,75 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="W5" t="s">
+      <c r="L5" s="9"/>
+      <c r="X5" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="15">
-        <f>+SUM(J7:J20)</f>
+      <c r="Y5" s="15">
+        <f>+SUM(K7:K20)</f>
         <v>874113.63501179824</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>28</v>
       </c>
-      <c r="AB5">
-        <f>+AB4*$AB$1</f>
+      <c r="AC5">
+        <f>+AC4*$AC$1</f>
         <v>30</v>
       </c>
-      <c r="AC5">
-        <f t="shared" ref="AC5:AO5" si="3">+AC4*$AB$1</f>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AP5" si="3">+AD4*$AC$1</f>
         <v>30</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <f t="shared" si="3"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="3"/>
         <v>26.4</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="3"/>
         <v>21.599999999999998</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <f t="shared" si="3"/>
         <v>19.2</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <f t="shared" si="3"/>
         <v>16.8</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <f t="shared" si="3"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <f t="shared" si="3"/>
         <v>9.6</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <f t="shared" si="3"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A6" s="3">
         <v>45116</v>
       </c>
@@ -8431,78 +8497,79 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="W6" t="s">
+      <c r="L6" s="9"/>
+      <c r="X6" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="12">
-        <f>+X5/10000</f>
+      <c r="Y6" s="12">
+        <f>+Y5/10000</f>
         <v>87.411363501179821</v>
       </c>
-      <c r="Z6" s="23">
-        <f>+SUM(AB6:AO6)</f>
+      <c r="AA6" s="23">
+        <f>+SUM(AC6:AP6)</f>
         <v>529.17101357830882</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="20">
-        <f t="shared" ref="AB6:AO6" si="4">+AB3-AB5</f>
+      <c r="AC6" s="20">
+        <f t="shared" ref="AC6:AP6" si="4">+AC3-AC5</f>
         <v>58.856580256003454</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AD6" s="20">
         <f t="shared" si="4"/>
         <v>60.851096386455538</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AE6" s="20">
         <f t="shared" si="4"/>
         <v>59.905341827276928</v>
       </c>
-      <c r="AE6" s="20">
+      <c r="AF6" s="20">
         <f t="shared" si="4"/>
         <v>55.767696756590489</v>
       </c>
-      <c r="AF6" s="20">
+      <c r="AG6" s="20">
         <f t="shared" si="4"/>
         <v>51.419679917879463</v>
       </c>
-      <c r="AG6" s="20">
+      <c r="AH6" s="20">
         <f t="shared" si="4"/>
         <v>46.903913026011651</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AI6" s="20">
         <f t="shared" si="4"/>
         <v>42.273792108162411</v>
       </c>
-      <c r="AI6" s="20">
+      <c r="AJ6" s="20">
         <f t="shared" si="4"/>
         <v>37.495549939296296</v>
       </c>
-      <c r="AJ6" s="20">
+      <c r="AK6" s="20">
         <f t="shared" si="4"/>
         <v>32.619005748327929</v>
       </c>
-      <c r="AK6" s="20">
+      <c r="AL6" s="20">
         <f t="shared" si="4"/>
         <v>27.382131305578348</v>
       </c>
-      <c r="AL6" s="20">
+      <c r="AM6" s="20">
         <f t="shared" si="4"/>
         <v>22.085079457674858</v>
       </c>
-      <c r="AM6" s="20">
+      <c r="AN6" s="20">
         <f t="shared" si="4"/>
         <v>16.702807293328764</v>
       </c>
-      <c r="AN6" s="20">
+      <c r="AO6" s="20">
         <f t="shared" si="4"/>
         <v>11.238339555722728</v>
       </c>
-      <c r="AO6" s="20">
+      <c r="AP6" s="20">
         <f t="shared" si="4"/>
         <v>5.67</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45300</v>
       </c>
@@ -8527,92 +8594,96 @@
         <v>0.75</v>
       </c>
       <c r="H7" s="15">
-        <f>+A7-$X$1</f>
+        <f>+A7-$Y$1</f>
         <v>112</v>
       </c>
       <c r="I7" s="9">
-        <f>+YEARFRAC($X$1,A7,0)</f>
+        <f>+YEARFRAC($Y$1,A7,0)</f>
         <v>0.30555555555555558</v>
       </c>
-      <c r="J7" s="9">
-        <f>+F7/(1+K7/100)^I7</f>
+      <c r="J7" s="22">
+        <f>+(1-$Y$12/2)</f>
+        <v>0.8600880144442713</v>
+      </c>
+      <c r="K7" s="9">
+        <f>+F7/(1+L7/100)^I7</f>
         <v>3688.7745908029106</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L7" s="9">
         <v>5.5351710299999999</v>
       </c>
-      <c r="L7" t="e">
-        <f>+(((1+K7/100)^(H7/365)/(1+$K$7/100)^($H$7/365))^(365/(H7-$H$7))-1)*100</f>
+      <c r="M7" t="e">
+        <f>+(((1+L7/100)^(H7/365)/(1+$L$7/100)^($H$7/365))^(365/(H7-$H$7))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="12">
-        <f>+X2-X6</f>
+      <c r="Y7" s="12">
+        <f>+Y2-Y6</f>
         <v>-56.731363501179821</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>30</v>
       </c>
-      <c r="AB7" s="25">
-        <f>+(1+$K$7/100)^-YEARFRAC(AB$2,$X$1)</f>
+      <c r="AC7" s="24">
+        <f>+(1+$L$7/100)^-YEARFRAC(AC$2,$Y$1)</f>
         <v>0.98367322421410941</v>
       </c>
-      <c r="AC7" s="25">
-        <f>+(1+$K$8/100)^-YEARFRAC(AC$2,$X$1)</f>
+      <c r="AD7" s="24">
+        <f>+(1+$L$8/100)^-YEARFRAC(AD$2,$Y$1)</f>
         <v>0.95794707249450151</v>
       </c>
-      <c r="AD7" s="25">
-        <f>+(1+$K$9/100)^-YEARFRAC(AD$2,$X$1)</f>
+      <c r="AE7" s="24">
+        <f>+(1+$L$9/100)^-YEARFRAC(AE$2,$Y$1)</f>
         <v>0.93407357792337098</v>
       </c>
-      <c r="AE7" s="25">
-        <f>+(1+$K$10/100)^-YEARFRAC(AE$2,$X$1)</f>
+      <c r="AF7" s="24">
+        <f>+(1+$L$10/100)^-YEARFRAC(AF$2,$Y$1)</f>
         <v>0.91316131924595789</v>
       </c>
-      <c r="AF7" s="25">
-        <f>+(1+$K$11/100)^-YEARFRAC(AF$2,$X$1)</f>
+      <c r="AG7" s="24">
+        <f>+(1+$L$11/100)^-YEARFRAC(AG$2,$Y$1)</f>
         <v>0.89418545573138519</v>
       </c>
-      <c r="AG7" s="25">
-        <f>+(1+$K$12/100)^-YEARFRAC(AG$2,$X$1)</f>
+      <c r="AH7" s="24">
+        <f>+(1+$L$12/100)^-YEARFRAC(AH$2,$Y$1)</f>
         <v>0.87594242787053134</v>
       </c>
-      <c r="AH7" s="25">
-        <f>+(1+$K$13/100)^-YEARFRAC(AH$2,$X$1)</f>
+      <c r="AI7" s="24">
+        <f>+(1+$L$13/100)^-YEARFRAC(AI$2,$Y$1)</f>
         <v>0.85843829963845064</v>
       </c>
-      <c r="AI7" s="25">
-        <f>+(1+$K$14/100)^-YEARFRAC(AI$2,$X$1)</f>
+      <c r="AJ7" s="24">
+        <f>+(1+$L$14/100)^-YEARFRAC(AJ$2,$Y$1)</f>
         <v>0.84149175605565185</v>
       </c>
-      <c r="AJ7" s="25">
-        <f>+(1+$K$15/100)^-YEARFRAC(AJ$2,$X$1)</f>
+      <c r="AK7" s="24">
+        <f>+(1+$L$15/100)^-YEARFRAC(AK$2,$Y$1)</f>
         <v>0.82493740269366544</v>
       </c>
-      <c r="AK7" s="25">
-        <f>+(1+$K$16/100)^-YEARFRAC(AK$2,$X$1)</f>
+      <c r="AL7" s="24">
+        <f>+(1+$L$16/100)^-YEARFRAC(AL$2,$Y$1)</f>
         <v>0.80848278291590814</v>
       </c>
-      <c r="AL7" s="25">
-        <f>+(1+$K$17/100)^-YEARFRAC(AL$2,$X$1)</f>
+      <c r="AM7" s="24">
+        <f>+(1+$L$17/100)^-YEARFRAC(AM$2,$Y$1)</f>
         <v>0.79196450639116922</v>
       </c>
-      <c r="AM7" s="25">
-        <f>+(1+$K$18/100)^-YEARFRAC(AM$2,$X$1)</f>
+      <c r="AN7" s="24">
+        <f>+(1+$L$18/100)^-YEARFRAC(AN$2,$Y$1)</f>
         <v>0.77533308453965977</v>
       </c>
-      <c r="AN7" s="25">
-        <f>+(1+$K$19/100)^-YEARFRAC(AN$2,$X$1)</f>
+      <c r="AO7" s="24">
+        <f>+(1+$L$19/100)^-YEARFRAC(AO$2,$Y$1)</f>
         <v>0.75876560315341157</v>
       </c>
-      <c r="AO7" s="25">
-        <f>+(1+$K$20/100)^-YEARFRAC(AO$2,$X$1)</f>
+      <c r="AP7" s="24">
+        <f>+(1+$L$20/100)^-YEARFRAC(AP$2,$Y$1)</f>
         <v>0.7424919104329113</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A8" s="3">
         <v>45482</v>
       </c>
@@ -8637,109 +8708,113 @@
         <v>0.75</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" ref="H8:H20" si="6">+A8-$X$1</f>
+        <f t="shared" ref="H8:H20" si="6">+A8-$Y$1</f>
         <v>294</v>
       </c>
       <c r="I8" s="9">
-        <f>+YEARFRAC($X$1,A8,0)</f>
+        <f>+YEARFRAC($Y$1,A8,0)</f>
         <v>0.80555555555555558</v>
       </c>
-      <c r="J8" s="9">
-        <f t="shared" ref="J8:J20" si="7">+F8/(1+K8/100)^I8</f>
+      <c r="J8" s="22">
+        <f>+$J$7*J7</f>
+        <v>0.73975139259068901</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" ref="K8:K20" si="7">+F8/(1+L8/100)^I8</f>
         <v>41910.18442163444</v>
       </c>
-      <c r="K8" s="9">
+      <c r="L8" s="9">
         <v>5.4780901999999996</v>
       </c>
-      <c r="L8" s="26">
-        <f t="shared" ref="L8:L20" si="8">+(((1+K8/100)^(H8/365)/(1+$K$7/100)^($H$7/365))^(365/(H8-$H$7))-1)*100</f>
+      <c r="M8" s="25">
+        <f t="shared" ref="M8:M20" si="8">+(((1+L8/100)^(H8/365)/(1+$L$7/100)^($H$7/365))^(365/(H8-$H$7))-1)*100</f>
         <v>5.4429788817679459</v>
       </c>
-      <c r="M8" s="26" t="e">
-        <f>+(((1+K8/100)^(H8/365)/(1+$K$8/100)^($H$8/365))^(365/(H8-$H$8))-1)*100</f>
+      <c r="N8" s="25" t="e">
+        <f>+(((1+L8/100)^(H8/365)/(1+$L$8/100)^($H$8/365))^(365/(H8-$H$8))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" t="s">
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="16">
-        <f>+X7/X2</f>
+      <c r="Y8" s="16">
+        <f>+Y7/Y2</f>
         <v>-1.8491317959967348</v>
       </c>
-      <c r="Z8" s="23">
-        <f>+SUM(AB8:AO8)</f>
+      <c r="AA8" s="23">
+        <f>+SUM(AC8:AP8)</f>
         <v>470.19882035455305</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>31</v>
       </c>
-      <c r="AB8" s="23">
-        <f>+AB7*AB6</f>
+      <c r="AC8" s="23">
+        <f>+AC7*AC6</f>
         <v>57.895642066639411</v>
       </c>
-      <c r="AC8" s="23">
-        <f t="shared" ref="AC8:AO8" si="9">+AC7*AC6</f>
+      <c r="AD8" s="23">
+        <f t="shared" ref="AD8:AP8" si="9">+AD7*AD6</f>
         <v>58.292129641485822</v>
       </c>
-      <c r="AD8" s="23">
+      <c r="AE8" s="23">
         <f t="shared" si="9"/>
         <v>55.955996977327132</v>
       </c>
-      <c r="AE8" s="23">
+      <c r="AF8" s="23">
         <f t="shared" si="9"/>
         <v>50.924903541556695</v>
       </c>
-      <c r="AF8" s="23">
+      <c r="AG8" s="23">
         <f t="shared" si="9"/>
         <v>45.978729920931002</v>
       </c>
-      <c r="AG8" s="23">
+      <c r="AH8" s="23">
         <f t="shared" si="9"/>
         <v>41.085127452632882</v>
       </c>
-      <c r="AH8" s="23">
+      <c r="AI8" s="23">
         <f t="shared" si="9"/>
         <v>36.289442216600293</v>
       </c>
-      <c r="AI8" s="23">
+      <c r="AJ8" s="23">
         <f t="shared" si="9"/>
         <v>31.55219616269083</v>
       </c>
-      <c r="AJ8" s="23">
+      <c r="AK8" s="23">
         <f t="shared" si="9"/>
         <v>26.908637880475386</v>
       </c>
-      <c r="AK8" s="23">
+      <c r="AL8" s="23">
         <f t="shared" si="9"/>
         <v>22.137981720102793</v>
       </c>
-      <c r="AL8" s="23">
+      <c r="AM8" s="23">
         <f t="shared" si="9"/>
         <v>17.490599051307221</v>
       </c>
-      <c r="AM8" s="23">
+      <c r="AN8" s="23">
         <f t="shared" si="9"/>
         <v>12.950239099208117</v>
       </c>
-      <c r="AN8" s="23">
+      <c r="AO8" s="23">
         <f t="shared" si="9"/>
         <v>8.527265491440799</v>
       </c>
-      <c r="AO8" s="23">
+      <c r="AP8" s="23">
         <f t="shared" si="9"/>
         <v>4.2099291321546071</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45666</v>
       </c>
@@ -8768,47 +8843,51 @@
         <v>478</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ref="I9:I20" si="11">+YEARFRAC($X$1,A9,0)</f>
+        <f t="shared" ref="I9:I20" si="11">+YEARFRAC($Y$1,A9,0)</f>
         <v>1.3055555555555556</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="22">
+        <f t="shared" ref="J9:J20" si="12">+$J$7*J8</f>
+        <v>0.63625130643571037</v>
+      </c>
+      <c r="K9" s="9">
         <f t="shared" si="7"/>
         <v>78088.55111439382</v>
       </c>
-      <c r="K9" s="9">
+      <c r="L9" s="9">
         <v>5.3626843400000004</v>
       </c>
-      <c r="L9" s="26">
+      <c r="M9" s="25">
         <f t="shared" si="8"/>
         <v>5.3099578826998561</v>
       </c>
-      <c r="M9" s="26">
-        <f t="shared" ref="M9:M20" si="12">+(((1+K9/100)^(H9/365)/(1+$K$8/100)^($H$8/365))^(365/(H9-$H$8))-1)*100</f>
+      <c r="N9" s="25">
+        <f t="shared" ref="N9:N20" si="13">+(((1+L9/100)^(H9/365)/(1+$L$8/100)^($H$8/365))^(365/(H9-$H$8))-1)*100</f>
         <v>5.1785478505568916</v>
       </c>
-      <c r="N9" s="26" t="e">
-        <f>+(((1+K9/100)^(H9/365)/(1+$K$9/100)^($H$9/365))^(365/(H9-$H$9))-1)*100</f>
+      <c r="O9" s="25" t="e">
+        <f>+(((1+L9/100)^(H9/365)/(1+$L$9/100)^($H$9/365))^(365/(H9-$H$9))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="Z9" t="s">
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="AA9" t="s">
         <v>26</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>3</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A10" s="3">
         <v>45847</v>
       </c>
@@ -8840,58 +8919,62 @@
         <f t="shared" si="11"/>
         <v>1.8055555555555556</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="22">
+        <f t="shared" si="12"/>
+        <v>0.54723212283986378</v>
+      </c>
+      <c r="K10" s="9">
         <f t="shared" si="7"/>
         <v>76066.337893188291</v>
       </c>
-      <c r="K10" s="9">
+      <c r="L10" s="9">
         <v>5.1600082699999996</v>
       </c>
-      <c r="L10" s="26">
+      <c r="M10" s="25">
         <f t="shared" si="8"/>
         <v>5.0833571404693689</v>
       </c>
-      <c r="M10" s="26">
-        <f t="shared" si="12"/>
+      <c r="N10" s="25">
+        <f t="shared" si="13"/>
         <v>4.9044974294241594</v>
       </c>
-      <c r="N10" s="26">
-        <f t="shared" ref="N10:N20" si="13">+(((1+K10/100)^(H10/365)/(1+$K$9/100)^($H$9/365))^(365/(H10-$H$9))-1)*100</f>
+      <c r="O10" s="25">
+        <f t="shared" ref="O10:O20" si="14">+(((1+L10/100)^(H10/365)/(1+$L$9/100)^($H$9/365))^(365/(H10-$H$9))-1)*100</f>
         <v>4.6266366349654975</v>
       </c>
-      <c r="O10" s="26" t="e">
-        <f>+(((1+K10/100)^(H10/365)/(1+$K$10/100)^($H$10/365))^(365/(H10-$H$10))-1)*100</f>
+      <c r="P10" s="25" t="e">
+        <f>+(((1+L10/100)^(H10/365)/(1+$L$10/100)^($H$10/365))^(365/(H10-$H$10))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" t="s">
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" t="s">
         <v>25</v>
       </c>
-      <c r="X10" s="12">
-        <f>+X6-X2</f>
+      <c r="Y10" s="12">
+        <f>+Y6-Y2</f>
         <v>56.731363501179821</v>
       </c>
-      <c r="Z10" s="11">
-        <f t="shared" ref="Z10:Z23" si="14">+A7</f>
+      <c r="AA10" s="11">
+        <f t="shared" ref="AA10:AA23" si="15">+A7</f>
         <v>45300</v>
       </c>
-      <c r="AA10" s="15">
-        <f t="shared" ref="AA10:AA23" si="15">+F7</f>
+      <c r="AB10" s="15">
+        <f>+F7</f>
         <v>3750</v>
       </c>
-      <c r="AB10" s="13">
-        <f>+(1+$X$3)^-YEARFRAC($Z10,$Z$10)</f>
+      <c r="AC10" s="13">
+        <f>+(1+$Y$3)^-YEARFRAC($AA10,$AA$10)</f>
         <v>1</v>
       </c>
-      <c r="AC10" s="13"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.75">
+      <c r="AD10" s="13"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>46031</v>
       </c>
@@ -8923,64 +9006,68 @@
         <f t="shared" si="11"/>
         <v>2.3055555555555554</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="22">
+        <f t="shared" si="12"/>
+        <v>0.47066778997346198</v>
+      </c>
+      <c r="K11" s="9">
         <f t="shared" si="7"/>
         <v>74217.39282570497</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="9">
         <v>4.9705677799999997</v>
       </c>
-      <c r="L11" s="26">
+      <c r="M11" s="25">
         <f t="shared" si="8"/>
         <v>4.8843294764046252</v>
       </c>
-      <c r="M11" s="26">
-        <f t="shared" si="12"/>
+      <c r="N11" s="25">
+        <f t="shared" si="13"/>
         <v>4.699784600691026</v>
       </c>
-      <c r="N11" s="26">
-        <f t="shared" si="13"/>
+      <c r="O11" s="25">
+        <f t="shared" si="14"/>
         <v>4.4592622852936969</v>
       </c>
-      <c r="O11" s="26">
-        <f t="shared" ref="O11:O20" si="16">+(((1+K11/100)^(H11/365)/(1+$K$10/100)^($H$10/365))^(365/(H11-$H$10))-1)*100</f>
+      <c r="P11" s="25">
+        <f t="shared" ref="P11:P20" si="16">+(((1+L11/100)^(H11/365)/(1+$L$10/100)^($H$10/365))^(365/(H11-$H$10))-1)*100</f>
         <v>4.2948781085087262</v>
       </c>
-      <c r="P11" s="26" t="e">
-        <f>+(((1+K11/100)^(H11/365)/(1+$K$11/100)^($H$11/365))^(365/(H11-$H$11))-1)*100</f>
+      <c r="Q11" s="25" t="e">
+        <f>+(((1+L11/100)^(H11/365)/(1+$L$11/100)^($H$11/365))^(365/(H11-$H$11))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" t="s">
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="22">
-        <f>+X10/SUM(AB8:AO8)*2</f>
+      <c r="Y11" s="28">
+        <f>+Y10/SUM(AC8:AP8)*2</f>
         <v>0.24130797886052366</v>
       </c>
-      <c r="Z11" s="11">
-        <f t="shared" si="14"/>
+      <c r="AA11" s="11">
+        <f t="shared" si="15"/>
         <v>45482</v>
       </c>
-      <c r="AA11" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB11" s="15">
+        <f>+F8</f>
         <v>43750</v>
       </c>
-      <c r="AB11" s="27">
-        <f t="shared" ref="AB11:AB23" si="17">+(1+L8/100)^-((H8-$H$7)/365)</f>
+      <c r="AC11" s="26">
+        <f t="shared" ref="AC11:AC23" si="17">+(1+M8/100)^-((H8-$H$7)/365)</f>
         <v>0.97391868425700878</v>
       </c>
-      <c r="AC11" s="13">
-        <f>+(1+$X$3)^-YEARFRAC($Z11,$Z$11)</f>
+      <c r="AD11" s="13">
+        <f>+(1+$Y$3)^-YEARFRAC($AA11,$AA$11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A12" s="3">
         <v>46212</v>
       </c>
@@ -9012,64 +9099,74 @@
         <f t="shared" si="11"/>
         <v>2.8055555555555554</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="22">
+        <f t="shared" si="12"/>
+        <v>0.4048157249411482</v>
+      </c>
+      <c r="K12" s="9">
         <f t="shared" si="7"/>
         <v>72440.438784892947</v>
       </c>
-      <c r="K12" s="9">
+      <c r="L12" s="9">
         <v>4.8343869399999999</v>
       </c>
-      <c r="L12" s="26">
+      <c r="M12" s="25">
         <f t="shared" si="8"/>
         <v>4.7486471868301461</v>
       </c>
-      <c r="M12" s="26">
-        <f t="shared" si="12"/>
+      <c r="N12" s="25">
+        <f t="shared" si="13"/>
         <v>4.5762530533879575</v>
       </c>
-      <c r="N12" s="26">
-        <f t="shared" si="13"/>
+      <c r="O12" s="25">
+        <f t="shared" si="14"/>
         <v>4.3740598904487893</v>
       </c>
-      <c r="O12" s="26">
+      <c r="P12" s="25">
         <f t="shared" si="16"/>
         <v>4.2490357483834007</v>
       </c>
-      <c r="P12" s="26">
-        <f t="shared" ref="P12:P20" si="18">+(((1+K12/100)^(H12/365)/(1+$K$11/100)^($H$11/365))^(365/(H12-$H$11))-1)*100</f>
+      <c r="Q12" s="25">
+        <f t="shared" ref="Q12:Q20" si="18">+(((1+L12/100)^(H12/365)/(1+$L$11/100)^($H$11/365))^(365/(H12-$H$11))-1)*100</f>
         <v>4.2024542236241746</v>
       </c>
-      <c r="Q12" s="26" t="e">
-        <f>+(((1+K12/100)^(H12/365)/(1+$K$12/100)^($H$12/365))^(365/(H12-$H$12))-1)*100</f>
+      <c r="R12" s="25" t="e">
+        <f>+(((1+L12/100)^(H12/365)/(1+$L$12/100)^($H$12/365))^(365/(H12-$H$12))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="Z12" s="11">
-        <f t="shared" si="14"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0.27982397111145751</v>
+      </c>
+      <c r="AA12" s="11">
+        <f t="shared" si="15"/>
         <v>45666</v>
       </c>
-      <c r="AA12" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB12" s="15">
+        <f>+F9</f>
         <v>83600</v>
       </c>
-      <c r="AB12" s="27">
+      <c r="AC12" s="26">
         <f t="shared" si="17"/>
         <v>0.94944322717756691</v>
       </c>
-      <c r="AC12" s="27">
-        <f t="shared" ref="AC12:AC23" si="19">+(1+M9/100)^-((H9-$H$8)/365)</f>
+      <c r="AD12" s="26">
+        <f t="shared" ref="AD12:AD23" si="19">+(1+N9/100)^-((H9-$H$8)/365)</f>
         <v>0.97486909587517168</v>
       </c>
-      <c r="AD12" s="13">
-        <f>+(1+$X$3)^-YEARFRAC($Z12,$Z$12)</f>
+      <c r="AE12" s="13">
+        <f>+(1+$Y$3)^-YEARFRAC($AA12,$AA$12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>46396</v>
       </c>
@@ -9101,71 +9198,81 @@
         <f t="shared" si="11"/>
         <v>3.3055555555555554</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="22">
+        <f t="shared" si="12"/>
+        <v>0.34817715308045044</v>
+      </c>
+      <c r="K13" s="9">
         <f t="shared" si="7"/>
         <v>70735.315890208323</v>
       </c>
-      <c r="K13" s="9">
+      <c r="L13" s="9">
         <v>4.7259706399999999</v>
       </c>
-      <c r="L13" s="26">
+      <c r="M13" s="25">
         <f t="shared" si="8"/>
         <v>4.643628854920534</v>
       </c>
-      <c r="M13" s="26">
-        <f t="shared" si="12"/>
+      <c r="N13" s="25">
+        <f t="shared" si="13"/>
         <v>4.4851834308631044</v>
       </c>
-      <c r="N13" s="26">
-        <f t="shared" si="13"/>
+      <c r="O13" s="25">
+        <f t="shared" si="14"/>
         <v>4.3111400407220835</v>
       </c>
-      <c r="O13" s="26">
+      <c r="P13" s="25">
         <f t="shared" si="16"/>
         <v>4.207332532597996</v>
       </c>
-      <c r="P13" s="26">
+      <c r="Q13" s="25">
         <f t="shared" si="18"/>
         <v>4.1632278320903771</v>
       </c>
-      <c r="Q13" s="26">
-        <f t="shared" ref="Q13:Q20" si="20">+(((1+K13/100)^(H13/365)/(1+$K$12/100)^($H$12/365))^(365/(H13-$H$12))-1)*100</f>
+      <c r="R13" s="25">
+        <f t="shared" ref="R13:R20" si="20">+(((1+L13/100)^(H13/365)/(1+$L$12/100)^($H$12/365))^(365/(H13-$H$12))-1)*100</f>
         <v>4.1246554086828757</v>
       </c>
-      <c r="R13" s="26" t="e">
-        <f>+(((1+K13/100)^(H13/365)/(1+$K$13/100)^($H$13/365))^(365/(H13-$H$13))-1)*100</f>
+      <c r="S13" s="25" t="e">
+        <f>+(((1+L13/100)^(H13/365)/(1+$L$13/100)^($H$13/365))^(365/(H13-$H$13))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="Z13" s="11">
-        <f t="shared" si="14"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y13" s="21">
+        <v>1.7664116049495957</v>
+      </c>
+      <c r="AA13" s="11">
+        <f t="shared" si="15"/>
         <v>45847</v>
       </c>
-      <c r="AA13" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB13" s="15">
+        <f>+F10</f>
         <v>83300</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AC13" s="26">
         <f t="shared" si="17"/>
         <v>0.92838601596869119</v>
       </c>
-      <c r="AC13" s="27">
+      <c r="AD13" s="26">
         <f t="shared" si="19"/>
         <v>0.95324797744993039</v>
       </c>
-      <c r="AD13" s="27">
-        <f>+(1+N10/100)^-((H10-$H$9)/365)</f>
+      <c r="AE13" s="26">
+        <f>+(1+O10/100)^-((H10-$H$9)/365)</f>
         <v>0.97782151622538471</v>
       </c>
-      <c r="AE13" s="13">
-        <f t="shared" ref="AE13" si="21">+(1+$X$3)^-YEARFRAC($Z13,$Z$13)</f>
+      <c r="AF13" s="13">
+        <f t="shared" ref="AF13" si="21">+(1+$Y$3)^-YEARFRAC($AA13,$AA$13)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A14" s="3">
         <v>46577</v>
       </c>
@@ -9197,79 +9304,89 @@
         <f t="shared" si="11"/>
         <v>3.8055555555555554</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="22">
+        <f t="shared" si="12"/>
+        <v>0.29946299626782374</v>
+      </c>
+      <c r="K14" s="9">
         <f t="shared" si="7"/>
         <v>69086.473172169019</v>
       </c>
-      <c r="K14" s="9">
+      <c r="L14" s="9">
         <v>4.6393241200000004</v>
       </c>
-      <c r="L14" s="26">
+      <c r="M14" s="25">
         <f t="shared" si="8"/>
         <v>4.561117031462425</v>
       </c>
-      <c r="M14" s="26">
-        <f t="shared" si="12"/>
+      <c r="N14" s="25">
+        <f t="shared" si="13"/>
         <v>4.4152592058345652</v>
       </c>
-      <c r="N14" s="26">
-        <f t="shared" si="13"/>
+      <c r="O14" s="25">
+        <f t="shared" si="14"/>
         <v>4.261767016018303</v>
       </c>
-      <c r="O14" s="26">
+      <c r="P14" s="25">
         <f t="shared" si="16"/>
         <v>4.1714963743308742</v>
       </c>
-      <c r="P14" s="26">
+      <c r="Q14" s="25">
         <f t="shared" si="18"/>
         <v>4.1299500729113925</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="R14" s="25">
         <f t="shared" si="20"/>
         <v>4.094014673277302</v>
       </c>
-      <c r="R14" s="26">
-        <f t="shared" ref="R14:R20" si="22">+(((1+K14/100)^(H14/365)/(1+$K$13/100)^($H$13/365))^(365/(H14-$H$13))-1)*100</f>
+      <c r="S14" s="25">
+        <f t="shared" ref="S14:S20" si="22">+(((1+L14/100)^(H14/365)/(1+$L$13/100)^($H$13/365))^(365/(H14-$H$13))-1)*100</f>
         <v>4.0628753224142278</v>
       </c>
-      <c r="S14" s="26" t="e">
-        <f>+(((1+K14/100)^(H14/365)/(1+$K$14/100)^($H$14/365))^(365/(H14-$H$14))-1)*100</f>
+      <c r="T14" s="25" t="e">
+        <f>+(((1+L14/100)^(H14/365)/(1+$L$14/100)^($H$14/365))^(365/(H14-$H$14))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="X14" s="24"/>
-      <c r="Z14" s="11">
-        <f t="shared" si="14"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y14" s="21">
+        <f>+Y11-Y12</f>
+        <v>-3.8515992250933856E-2</v>
+      </c>
+      <c r="AA14" s="11">
+        <f t="shared" si="15"/>
         <v>46031</v>
       </c>
-      <c r="AA14" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB14" s="15">
+        <f>+F11</f>
         <v>83000</v>
       </c>
-      <c r="AB14" s="27">
+      <c r="AC14" s="26">
         <f t="shared" si="17"/>
         <v>0.90891243763956242</v>
       </c>
-      <c r="AC14" s="27">
+      <c r="AD14" s="26">
         <f t="shared" si="19"/>
         <v>0.93325290122446036</v>
       </c>
-      <c r="AD14" s="27">
-        <f>+(1+N11/100)^-(($H11-$H$9)/365)</f>
+      <c r="AE14" s="26">
+        <f>+(1+O11/100)^-(($H11-$H$9)/365)</f>
         <v>0.95731099198159386</v>
       </c>
-      <c r="AE14" s="27">
-        <f>+(1+O11/100)^-(($H11-$H$10)/365)</f>
+      <c r="AF14" s="26">
+        <f>+(1+P11/100)^-(($H11-$H$10)/365)</f>
         <v>0.97902426577504031</v>
       </c>
-      <c r="AF14" s="13">
-        <f t="shared" ref="AF14" si="23">+(1+$X$3)^-YEARFRAC($Z14,$Z$14)</f>
+      <c r="AG14" s="13">
+        <f t="shared" ref="AG14" si="23">+(1+$Y$3)^-YEARFRAC($AA14,$AA$14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>46761</v>
       </c>
@@ -9301,85 +9418,96 @@
         <f t="shared" si="11"/>
         <v>4.3055555555555554</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="22">
+        <f t="shared" si="12"/>
+        <v>0.25756453385952477</v>
+      </c>
+      <c r="K15" s="9">
         <f t="shared" si="7"/>
         <v>69459.729306806636</v>
       </c>
-      <c r="K15" s="9">
+      <c r="L15" s="9">
         <v>4.5711533299999996</v>
       </c>
-      <c r="L15" s="26">
+      <c r="M15" s="25">
         <f t="shared" si="8"/>
         <v>4.4976163343802833</v>
       </c>
-      <c r="M15" s="26">
-        <f t="shared" si="12"/>
+      <c r="N15" s="25">
+        <f t="shared" si="13"/>
         <v>4.3637831314438325</v>
       </c>
-      <c r="N15" s="26">
-        <f t="shared" si="13"/>
+      <c r="O15" s="25">
+        <f t="shared" si="14"/>
         <v>4.2274936254728335</v>
       </c>
-      <c r="O15" s="26">
+      <c r="P15" s="25">
         <f t="shared" si="16"/>
         <v>4.148631894552568</v>
       </c>
-      <c r="P15" s="26">
+      <c r="Q15" s="25">
         <f t="shared" si="18"/>
         <v>4.111802205426307</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="R15" s="25">
         <f t="shared" si="20"/>
         <v>4.0819323999029322</v>
       </c>
-      <c r="R15" s="26">
+      <c r="S15" s="25">
         <f t="shared" si="22"/>
         <v>4.0604019677131342</v>
       </c>
-      <c r="S15" s="26">
-        <f t="shared" ref="S15:S20" si="24">+(((1+K15/100)^(H15/365)/(1+$K$14/100)^($H$14/365))^(365/(H15-$H$14))-1)*100</f>
+      <c r="T15" s="25">
+        <f t="shared" ref="T15:T20" si="24">+(((1+L15/100)^(H15/365)/(1+$L$14/100)^($H$14/365))^(365/(H15-$H$14))-1)*100</f>
         <v>4.0579689968039068</v>
       </c>
-      <c r="T15" s="26" t="e">
-        <f>+(((1+K15/100)^(H15/365)/(1+$K$15/100)^($H$15/365))^(365/(H15-$H$15))-1)*100</f>
+      <c r="U15" s="25" t="e">
+        <f>+(((1+L15/100)^(H15/365)/(1+$L$15/100)^($H$15/365))^(365/(H15-$H$15))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="Z15" s="11">
-        <f t="shared" si="14"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="9">
+        <f>+SUMPRODUCT(J7:J20,K7:K20)/10000</f>
+        <v>30.679998066791157</v>
+      </c>
+      <c r="AA15" s="11">
+        <f t="shared" si="15"/>
         <v>46212</v>
       </c>
-      <c r="AA15" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB15" s="15">
+        <f>+F12</f>
         <v>82700</v>
       </c>
-      <c r="AB15" s="27">
+      <c r="AC15" s="26">
         <f t="shared" si="17"/>
         <v>0.89054638184803325</v>
       </c>
-      <c r="AC15" s="27">
+      <c r="AD15" s="26">
         <f t="shared" si="19"/>
         <v>0.91439500673243634</v>
       </c>
-      <c r="AD15" s="27">
-        <f t="shared" ref="AD15:AD23" si="25">+(1+N12/100)^-((H12-$H$9)/365)</f>
+      <c r="AE15" s="26">
+        <f t="shared" ref="AE15:AE23" si="25">+(1+O12/100)^-((H12-$H$9)/365)</f>
         <v>0.93796696459185058</v>
       </c>
-      <c r="AE15" s="27">
-        <f t="shared" ref="AE15:AE23" si="26">+(1+O12/100)^-(($H12-$H$10)/365)</f>
+      <c r="AF15" s="26">
+        <f t="shared" ref="AF15:AF23" si="26">+(1+P12/100)^-(($H12-$H$10)/365)</f>
         <v>0.95924148633241157</v>
       </c>
-      <c r="AF15" s="27">
-        <f>+(1+P12/100)^-(($H12-$H$11)/365)</f>
+      <c r="AG15" s="26">
+        <f>+(1+Q12/100)^-(($H12-$H$11)/365)</f>
         <v>0.97979337169240877</v>
       </c>
-      <c r="AG15" s="13">
-        <f t="shared" ref="AG15" si="27">+(1+$X$3)^-YEARFRAC($Z15,$Z$15)</f>
+      <c r="AH15" s="13">
+        <f t="shared" ref="AH15" si="27">+(1+$Y$3)^-YEARFRAC($AA15,$AA$15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A16" s="3">
         <v>46943</v>
       </c>
@@ -9411,92 +9539,103 @@
         <f t="shared" si="11"/>
         <v>4.8055555555555554</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="22">
+        <f t="shared" si="12"/>
+        <v>0.22152816851850293</v>
+      </c>
+      <c r="K16" s="9">
         <f t="shared" si="7"/>
         <v>67508.312373478329</v>
       </c>
-      <c r="K16" s="9">
+      <c r="L16" s="9">
         <v>4.5232771300000003</v>
       </c>
-      <c r="L16" s="26">
+      <c r="M16" s="25">
         <f t="shared" si="8"/>
         <v>4.4546526525185648</v>
       </c>
-      <c r="M16" s="26">
-        <f t="shared" si="12"/>
+      <c r="N16" s="25">
+        <f t="shared" si="13"/>
         <v>4.3321853274355338</v>
       </c>
-      <c r="N16" s="26">
-        <f t="shared" si="13"/>
+      <c r="O16" s="25">
+        <f t="shared" si="14"/>
         <v>4.2107975476220361</v>
       </c>
-      <c r="O16" s="26">
+      <c r="P16" s="25">
         <f t="shared" si="16"/>
         <v>4.1422825788048456</v>
       </c>
-      <c r="P16" s="26">
+      <c r="Q16" s="25">
         <f t="shared" si="18"/>
         <v>4.1115228382808899</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="R16" s="25">
         <f t="shared" si="20"/>
         <v>4.0890199388937898</v>
       </c>
-      <c r="R16" s="26">
+      <c r="S16" s="25">
         <f t="shared" si="22"/>
         <v>4.0770356118608575</v>
       </c>
-      <c r="S16" s="26">
+      <c r="T16" s="25">
         <f t="shared" si="24"/>
         <v>4.0840390900061418</v>
       </c>
-      <c r="T16" s="26">
-        <f t="shared" ref="T16:T20" si="28">+(((1+K16/100)^(H16/365)/(1+$K$15/100)^($H$15/365))^(365/(H16-$H$15))-1)*100</f>
+      <c r="U16" s="25">
+        <f t="shared" ref="U16:U20" si="28">+(((1+L16/100)^(H16/365)/(1+$L$15/100)^($H$15/365))^(365/(H16-$H$15))-1)*100</f>
         <v>4.1104023072640494</v>
       </c>
-      <c r="U16" s="26" t="e">
-        <f>+(((1+K16/100)^(H16/365)/(1+$K$16/100)^($H$16/365))^(365/(H16-$H$16))-1)*100</f>
+      <c r="V16" s="25" t="e">
+        <f>+(((1+L16/100)^(H16/365)/(1+$L$16/100)^($H$16/365))^(365/(H16-$H$16))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V16" s="26"/>
-      <c r="Z16" s="11">
-        <f t="shared" si="14"/>
+      <c r="W16" s="25"/>
+      <c r="X16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y16" s="12">
+        <f>+Y15-Y2</f>
+        <v>-1.9332088427859162E-6</v>
+      </c>
+      <c r="AA16" s="11">
+        <f t="shared" si="15"/>
         <v>46396</v>
       </c>
-      <c r="AA16" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB16" s="15">
+        <f>+F13</f>
         <v>82400</v>
       </c>
-      <c r="AB16" s="27">
+      <c r="AC16" s="26">
         <f t="shared" si="17"/>
         <v>0.87258474661011476</v>
       </c>
-      <c r="AC16" s="27">
+      <c r="AD16" s="26">
         <f t="shared" si="19"/>
         <v>0.89595236308234438</v>
       </c>
-      <c r="AD16" s="27">
+      <c r="AE16" s="26">
         <f t="shared" si="25"/>
         <v>0.9190488926905811</v>
       </c>
-      <c r="AE16" s="27">
+      <c r="AF16" s="26">
         <f t="shared" si="26"/>
         <v>0.93989432369858295</v>
       </c>
-      <c r="AF16" s="27">
-        <f t="shared" ref="AF16:AF23" si="29">+(1+P13/100)^-(($H13-$H$11)/365)</f>
+      <c r="AG16" s="26">
+        <f t="shared" ref="AG16:AG23" si="29">+(1+Q13/100)^-(($H13-$H$11)/365)</f>
         <v>0.96003169334574157</v>
       </c>
-      <c r="AG16" s="27">
-        <f>+(1+Q13/100)^-(($H13-$H$12)/365)</f>
+      <c r="AH16" s="26">
+        <f>+(1+R13/100)^-(($H13-$H$12)/365)</f>
         <v>0.97983076950956227</v>
       </c>
-      <c r="AH16" s="13">
-        <f t="shared" ref="AH16" si="30">+(1+$X$3)^-YEARFRAC($Z16,$Z$16)</f>
+      <c r="AI16" s="13">
+        <f t="shared" ref="AI16" si="30">+(1+$Y$3)^-YEARFRAC($AA16,$AA$16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>47127</v>
       </c>
@@ -9528,99 +9667,103 @@
         <f t="shared" si="11"/>
         <v>5.3055555555555554</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="22">
+        <f t="shared" si="12"/>
+        <v>0.19053372260455512</v>
+      </c>
+      <c r="K17" s="9">
         <f t="shared" si="7"/>
         <v>65574.661129188811</v>
       </c>
-      <c r="K17" s="9">
+      <c r="L17" s="9">
         <v>4.4941832899999996</v>
       </c>
-      <c r="L17" s="26">
+      <c r="M17" s="25">
         <f t="shared" si="8"/>
         <v>4.4307030134264735</v>
       </c>
-      <c r="M17" s="26">
-        <f t="shared" si="12"/>
+      <c r="N17" s="25">
+        <f t="shared" si="13"/>
         <v>4.3193053155156313</v>
       </c>
-      <c r="N17" s="26">
-        <f t="shared" si="13"/>
+      <c r="O17" s="25">
+        <f t="shared" si="14"/>
         <v>4.2115902120785975</v>
       </c>
-      <c r="O17" s="26">
+      <c r="P17" s="25">
         <f t="shared" si="16"/>
         <v>4.1530330758927203</v>
       </c>
-      <c r="P17" s="26">
+      <c r="Q17" s="25">
         <f t="shared" si="18"/>
         <v>4.1292385955917554</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="R17" s="25">
         <f t="shared" si="20"/>
         <v>4.1147615999095999</v>
       </c>
-      <c r="R17" s="26">
+      <c r="S17" s="25">
         <f t="shared" si="22"/>
         <v>4.1122713775396003</v>
       </c>
-      <c r="S17" s="26">
+      <c r="T17" s="25">
         <f t="shared" si="24"/>
         <v>4.1285322974609517</v>
       </c>
-      <c r="T17" s="26">
+      <c r="U17" s="25">
         <f t="shared" si="28"/>
         <v>4.1640248163483884</v>
       </c>
-      <c r="U17" s="26">
-        <f t="shared" ref="U17:U20" si="31">+(((1+K17/100)^(H17/365)/(1+$K$16/100)^($H$16/365))^(365/(H17-$H$16))-1)*100</f>
+      <c r="V17" s="25">
+        <f t="shared" ref="V17:V20" si="31">+(((1+L17/100)^(H17/365)/(1+$L$16/100)^($H$16/365))^(365/(H17-$H$16))-1)*100</f>
         <v>4.2170916418554194</v>
       </c>
-      <c r="V17" s="26" t="e">
-        <f>+(((1+K17/100)^(H17/365)/(1+$K$17/100)^($H$17/365))^(365/(H17-$H$17))-1)*100</f>
+      <c r="W17" s="25" t="e">
+        <f>+(((1+L17/100)^(H17/365)/(1+$L$17/100)^($H$17/365))^(365/(H17-$H$17))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z17" s="11">
-        <f t="shared" si="14"/>
+      <c r="AA17" s="11">
+        <f t="shared" si="15"/>
         <v>46577</v>
       </c>
-      <c r="AA17" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB17" s="15">
+        <f>+F14</f>
         <v>82100</v>
       </c>
-      <c r="AB17" s="27">
+      <c r="AC17" s="26">
         <f t="shared" si="17"/>
         <v>0.85552121766387323</v>
       </c>
-      <c r="AC17" s="27">
+      <c r="AD17" s="26">
         <f t="shared" si="19"/>
         <v>0.87843187680143997</v>
       </c>
-      <c r="AD17" s="27">
+      <c r="AE17" s="26">
         <f t="shared" si="25"/>
         <v>0.90107675022033928</v>
       </c>
-      <c r="AE17" s="27">
+      <c r="AF17" s="26">
         <f t="shared" si="26"/>
         <v>0.92151454561840929</v>
       </c>
-      <c r="AF17" s="27">
+      <c r="AG17" s="26">
         <f t="shared" si="29"/>
         <v>0.941258125904465</v>
       </c>
-      <c r="AG17" s="27">
-        <f t="shared" ref="AG17:AG23" si="32">+(1+Q14/100)^-(($H14-$H$12)/365)</f>
+      <c r="AH17" s="26">
+        <f t="shared" ref="AH17:AH23" si="32">+(1+R14/100)^-(($H14-$H$12)/365)</f>
         <v>0.96067002808828827</v>
       </c>
-      <c r="AH17" s="27">
-        <f>+(1+R14/100)^-(($H14-$H$13)/365)</f>
+      <c r="AI17" s="26">
+        <f>+(1+S14/100)^-(($H14-$H$13)/365)</f>
         <v>0.98044484617393202</v>
       </c>
-      <c r="AI17" s="13">
-        <f t="shared" ref="AI17" si="33">+(1+$X$3)^-YEARFRAC($Z17,$Z$17)</f>
+      <c r="AJ17" s="13">
+        <f t="shared" ref="AJ17" si="33">+(1+$Y$3)^-YEARFRAC($AA17,$AA$17)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A18" s="3">
         <v>47308</v>
       </c>
@@ -9652,107 +9795,111 @@
         <f t="shared" si="11"/>
         <v>5.8055555555555554</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="22">
+        <f t="shared" si="12"/>
+        <v>0.16387577115962737</v>
+      </c>
+      <c r="K18" s="9">
         <f t="shared" si="7"/>
         <v>63654.846240706065</v>
       </c>
-      <c r="K18" s="9">
+      <c r="L18" s="9">
         <v>4.4805632800000001</v>
       </c>
-      <c r="L18" s="26">
+      <c r="M18" s="25">
         <f t="shared" si="8"/>
         <v>4.4220518172592094</v>
       </c>
-      <c r="M18" s="26">
-        <f t="shared" si="12"/>
+      <c r="N18" s="25">
+        <f t="shared" si="13"/>
         <v>4.3208378761914856</v>
       </c>
-      <c r="N18" s="26">
-        <f t="shared" si="13"/>
+      <c r="O18" s="25">
+        <f t="shared" si="14"/>
         <v>4.2251610776168125</v>
       </c>
-      <c r="O18" s="26">
+      <c r="P18" s="25">
         <f t="shared" si="16"/>
         <v>4.1755305452836566</v>
       </c>
-      <c r="P18" s="26">
+      <c r="Q18" s="25">
         <f t="shared" si="18"/>
         <v>4.1583452893522832</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="R18" s="25">
         <f t="shared" si="20"/>
         <v>4.1510626725093092</v>
       </c>
-      <c r="R18" s="26">
+      <c r="S18" s="25">
         <f t="shared" si="22"/>
         <v>4.1563912656517266</v>
       </c>
-      <c r="S18" s="26">
+      <c r="T18" s="25">
         <f t="shared" si="24"/>
         <v>4.1795593534426079</v>
       </c>
-      <c r="T18" s="26">
+      <c r="U18" s="25">
         <f t="shared" si="28"/>
         <v>4.2204918744895847</v>
       </c>
-      <c r="U18" s="26">
+      <c r="V18" s="25">
         <f t="shared" si="31"/>
         <v>4.2754293379786867</v>
       </c>
-      <c r="V18" s="26">
-        <f t="shared" ref="V18:V20" si="34">+(((1+K18/100)^(H18/365)/(1+$K$17/100)^($H$17/365))^(365/(H18-$H$17))-1)*100</f>
+      <c r="W18" s="25">
+        <f t="shared" ref="W18:W20" si="34">+(((1+L18/100)^(H18/365)/(1+$L$17/100)^($H$17/365))^(365/(H18-$H$17))-1)*100</f>
         <v>4.3347674294595295</v>
       </c>
-      <c r="W18" s="26" t="e">
-        <f>+(((1+K18/100)^(H18/365)/(1+$K$18/100)^($H$18/365))^(365/(H18-$H$18))-1)*100</f>
+      <c r="X18" s="25" t="e">
+        <f>+(((1+L18/100)^(H18/365)/(1+$L$18/100)^($H$18/365))^(365/(H18-$H$18))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z18" s="11">
-        <f t="shared" si="14"/>
+      <c r="AA18" s="11">
+        <f t="shared" si="15"/>
         <v>46761</v>
       </c>
-      <c r="AA18" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB18" s="15">
+        <f>+F15</f>
         <v>84200</v>
       </c>
-      <c r="AB18" s="27">
+      <c r="AC18" s="26">
         <f t="shared" si="17"/>
         <v>0.83853678258983899</v>
       </c>
-      <c r="AC18" s="27">
+      <c r="AD18" s="26">
         <f t="shared" si="19"/>
         <v>0.86099260250823562</v>
       </c>
-      <c r="AD18" s="27">
+      <c r="AE18" s="26">
         <f t="shared" si="25"/>
         <v>0.88318791328111057</v>
       </c>
-      <c r="AE18" s="27">
+      <c r="AF18" s="26">
         <f t="shared" si="26"/>
         <v>0.90321996256578418</v>
       </c>
-      <c r="AF18" s="27">
+      <c r="AG18" s="26">
         <f t="shared" si="29"/>
         <v>0.92257157880632723</v>
       </c>
-      <c r="AG18" s="27">
+      <c r="AH18" s="26">
         <f t="shared" si="32"/>
         <v>0.94159810166173952</v>
       </c>
-      <c r="AH18" s="27">
-        <f t="shared" ref="AH18:AH23" si="35">+(1+R15/100)^-(($H15-$H$13)/365)</f>
+      <c r="AI18" s="26">
+        <f t="shared" ref="AI18:AI23" si="35">+(1+S15/100)^-(($H15-$H$13)/365)</f>
         <v>0.96098033554614792</v>
       </c>
-      <c r="AI18" s="27">
-        <f>+(1+S15/100)^-(($H15-$H$14)/365)</f>
+      <c r="AJ18" s="26">
+        <f>+(1+T15/100)^-(($H15-$H$14)/365)</f>
         <v>0.9801472661070717</v>
       </c>
-      <c r="AJ18" s="13">
-        <f t="shared" ref="AJ18" si="36">+(1+$X$3)^-YEARFRAC($Z18,$Z$18)</f>
+      <c r="AK18" s="13">
+        <f t="shared" ref="AK18" si="36">+(1+$Y$3)^-YEARFRAC($AA18,$AA$18)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>47492</v>
       </c>
@@ -9784,115 +9931,119 @@
         <f t="shared" si="11"/>
         <v>6.3055555555555554</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="22">
+        <f t="shared" si="12"/>
+        <v>0.14094758663220769</v>
+      </c>
+      <c r="K19" s="9">
         <f t="shared" si="7"/>
         <v>61763.520096687695</v>
       </c>
-      <c r="K19" s="9">
+      <c r="L19" s="9">
         <v>4.4753337399999999</v>
       </c>
-      <c r="L19" s="26">
+      <c r="M19" s="25">
         <f t="shared" si="8"/>
         <v>4.421468187522426</v>
       </c>
-      <c r="M19" s="26">
-        <f t="shared" si="12"/>
+      <c r="N19" s="25">
+        <f t="shared" si="13"/>
         <v>4.3294632360785901</v>
       </c>
-      <c r="N19" s="26">
-        <f t="shared" si="13"/>
+      <c r="O19" s="25">
+        <f t="shared" si="14"/>
         <v>4.244284854036473</v>
       </c>
-      <c r="O19" s="26">
+      <c r="P19" s="25">
         <f t="shared" si="16"/>
         <v>4.2022999591223131</v>
       </c>
-      <c r="P19" s="26">
+      <c r="Q19" s="25">
         <f t="shared" si="18"/>
         <v>4.1906463898020885</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="R19" s="25">
         <f t="shared" si="20"/>
         <v>4.1889767962836943</v>
       </c>
-      <c r="R19" s="26">
+      <c r="S19" s="25">
         <f t="shared" si="22"/>
         <v>4.1997791719838418</v>
       </c>
-      <c r="S19" s="26">
+      <c r="T19" s="25">
         <f t="shared" si="24"/>
         <v>4.2268820289466325</v>
       </c>
-      <c r="T19" s="26">
+      <c r="U19" s="25">
         <f t="shared" si="28"/>
         <v>4.2694423026506056</v>
       </c>
-      <c r="U19" s="26">
+      <c r="V19" s="25">
         <f t="shared" si="31"/>
         <v>4.3222195465906443</v>
       </c>
-      <c r="V19" s="26">
+      <c r="W19" s="25">
         <f t="shared" si="34"/>
         <v>4.3752557289503002</v>
       </c>
-      <c r="W19" s="26">
-        <f t="shared" ref="W19:W20" si="37">+(((1+K19/100)^(H19/365)/(1+$K$18/100)^($H$18/365))^(365/(H19-$H$18))-1)*100</f>
+      <c r="X19" s="25">
+        <f t="shared" ref="X19:X20" si="37">+(((1+L19/100)^(H19/365)/(1+$L$18/100)^($H$18/365))^(365/(H19-$H$18))-1)*100</f>
         <v>4.4150992228672914</v>
       </c>
-      <c r="X19" s="26" t="e">
-        <f>+(((1+K19/100)^(H19/365)/(1+$K$19/100)^($H$19/365))^(365/(H19-$H$19))-1)*100</f>
+      <c r="Y19" s="25" t="e">
+        <f>+(((1+L19/100)^(H19/365)/(1+$L$19/100)^($H$19/365))^(365/(H19-$H$19))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z19" s="11">
-        <f t="shared" si="14"/>
+      <c r="AA19" s="11">
+        <f t="shared" si="15"/>
         <v>46943</v>
       </c>
-      <c r="AA19" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB19" s="15">
+        <f>+F16</f>
         <v>83500</v>
       </c>
-      <c r="AB19" s="27">
+      <c r="AC19" s="26">
         <f t="shared" si="17"/>
         <v>0.82186222579540658</v>
       </c>
-      <c r="AC19" s="27">
+      <c r="AD19" s="26">
         <f t="shared" si="19"/>
         <v>0.84387150496285634</v>
       </c>
-      <c r="AD19" s="27">
+      <c r="AE19" s="26">
         <f t="shared" si="25"/>
         <v>0.86562545528770207</v>
       </c>
-      <c r="AE19" s="27">
+      <c r="AF19" s="26">
         <f t="shared" si="26"/>
         <v>0.88525916123140225</v>
       </c>
-      <c r="AF19" s="27">
+      <c r="AG19" s="26">
         <f t="shared" si="29"/>
         <v>0.90422596474724837</v>
       </c>
-      <c r="AG19" s="27">
+      <c r="AH19" s="26">
         <f t="shared" si="32"/>
         <v>0.92287413945796359</v>
       </c>
-      <c r="AH19" s="27">
+      <c r="AI19" s="26">
         <f t="shared" si="35"/>
         <v>0.94187095177659363</v>
       </c>
-      <c r="AI19" s="27">
-        <f t="shared" ref="AI19:AI23" si="38">+(1+S16/100)^-(($H16-$H$14)/365)</f>
+      <c r="AJ19" s="26">
+        <f t="shared" ref="AJ19:AJ23" si="38">+(1+T16/100)^-(($H16-$H$14)/365)</f>
         <v>0.96065674214325425</v>
       </c>
-      <c r="AJ19" s="27">
-        <f>+(1+T16/100)^-(($H16-$H$15)/365)</f>
+      <c r="AK19" s="26">
+        <f>+(1+U16/100)^-(($H16-$H$15)/365)</f>
         <v>0.98011469843584886</v>
       </c>
-      <c r="AK19" s="13">
-        <f>+(1+$X$3)^-YEARFRAC($Z19,$Z$19)</f>
+      <c r="AL19" s="13">
+        <f>+(1+$Y$3)^-YEARFRAC($AA19,$AA$19)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.75">
       <c r="A20" s="3">
         <v>47673</v>
       </c>
@@ -9924,302 +10075,564 @@
         <f t="shared" si="11"/>
         <v>6.8055555555555554</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="22">
+        <f t="shared" si="12"/>
+        <v>0.12122732992720743</v>
+      </c>
+      <c r="K20" s="9">
         <f t="shared" si="7"/>
         <v>59919.097171935944</v>
       </c>
-      <c r="K20" s="9">
+      <c r="L20" s="9">
         <v>4.472118</v>
       </c>
-      <c r="L20" s="26">
+      <c r="M20" s="25">
         <f t="shared" si="8"/>
         <v>4.4222098818722744</v>
       </c>
-      <c r="M20" s="26">
-        <f t="shared" si="12"/>
+      <c r="N20" s="25">
+        <f t="shared" si="13"/>
         <v>4.3378634105531111</v>
       </c>
-      <c r="N20" s="26">
-        <f t="shared" si="13"/>
+      <c r="O20" s="25">
+        <f t="shared" si="14"/>
         <v>4.2611272744993434</v>
       </c>
-      <c r="O20" s="26">
+      <c r="P20" s="25">
         <f t="shared" si="16"/>
         <v>4.2249662409467037</v>
       </c>
-      <c r="P20" s="26">
+      <c r="Q20" s="25">
         <f t="shared" si="18"/>
         <v>4.2171349449303008</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="R20" s="25">
         <f t="shared" si="20"/>
         <v>4.21895385041966</v>
       </c>
-      <c r="R20" s="26">
+      <c r="S20" s="25">
         <f t="shared" si="22"/>
         <v>4.2325481337213811</v>
       </c>
-      <c r="S20" s="26">
+      <c r="T20" s="25">
         <f t="shared" si="24"/>
         <v>4.2605955215344382</v>
       </c>
-      <c r="T20" s="26">
+      <c r="U20" s="25">
         <f t="shared" si="28"/>
         <v>4.3015241196660892</v>
       </c>
-      <c r="U20" s="26">
+      <c r="V20" s="25">
         <f t="shared" si="31"/>
         <v>4.3492282831167461</v>
       </c>
-      <c r="V20" s="26">
+      <c r="W20" s="25">
         <f t="shared" si="34"/>
         <v>4.3937955793358796</v>
       </c>
-      <c r="W20" s="26">
+      <c r="X20" s="25">
         <f t="shared" si="37"/>
         <v>4.4230794580498722</v>
       </c>
-      <c r="X20" s="26">
-        <f>+(((1+K20/100)^(H20/365)/(1+$K$19/100)^($H$19/365))^(365/(H20-$H$19))-1)*100</f>
+      <c r="Y20" s="25">
+        <f>+(((1+L20/100)^(H20/365)/(1+$L$19/100)^($H$19/365))^(365/(H20-$H$19))-1)*100</f>
         <v>4.4311925874847446</v>
       </c>
-      <c r="Z20" s="11">
-        <f t="shared" si="14"/>
+      <c r="AA20" s="11">
+        <f t="shared" si="15"/>
         <v>47127</v>
       </c>
-      <c r="AA20" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB20" s="15">
+        <f>+F17</f>
         <v>82800</v>
       </c>
-      <c r="AB20" s="27">
+      <c r="AC20" s="26">
         <f t="shared" si="17"/>
         <v>0.80492575504020869</v>
       </c>
-      <c r="AC20" s="27">
+      <c r="AD20" s="26">
         <f t="shared" si="19"/>
         <v>0.82648147946178596</v>
       </c>
-      <c r="AD20" s="27">
+      <c r="AE20" s="26">
         <f t="shared" si="25"/>
         <v>0.84778713671277706</v>
       </c>
-      <c r="AE20" s="27">
+      <c r="AF20" s="26">
         <f t="shared" si="26"/>
         <v>0.86701624237665587</v>
       </c>
-      <c r="AF20" s="27">
+      <c r="AG20" s="26">
         <f t="shared" si="29"/>
         <v>0.88559218875978141</v>
       </c>
-      <c r="AG20" s="27">
+      <c r="AH20" s="26">
         <f t="shared" si="32"/>
         <v>0.90385607245953037</v>
       </c>
-      <c r="AH20" s="27">
+      <c r="AI20" s="26">
         <f t="shared" si="35"/>
         <v>0.92246140924104703</v>
       </c>
-      <c r="AI20" s="27">
+      <c r="AJ20" s="26">
         <f t="shared" si="38"/>
         <v>0.94086007269133154</v>
       </c>
-      <c r="AJ20" s="27">
-        <f t="shared" ref="AJ20:AJ23" si="39">+(1+T17/100)^-(($H17-$H$15)/365)</f>
+      <c r="AK20" s="26">
+        <f t="shared" ref="AK20:AK23" si="39">+(1+U17/100)^-(($H17-$H$15)/365)</f>
         <v>0.95991705045326481</v>
       </c>
-      <c r="AK20" s="27">
-        <f>+(1+U17/100)^-(($H17-$H$16)/365)</f>
+      <c r="AL20" s="26">
+        <f>+(1+V17/100)^-(($H17-$H$16)/365)</f>
         <v>0.97939256699770227</v>
       </c>
-      <c r="AL20" s="13">
-        <f>+(1+$X$3)^-YEARFRAC($Z20,$Z$20)</f>
+      <c r="AM20" s="13">
+        <f>+(1+$Y$3)^-YEARFRAC($AA20,$AA$20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.75">
-      <c r="Z21" s="11">
-        <f t="shared" si="14"/>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.75">
+      <c r="AA21" s="11">
+        <f t="shared" si="15"/>
         <v>47308</v>
       </c>
-      <c r="AA21" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB21" s="15">
+        <f>+F18</f>
         <v>82100</v>
       </c>
-      <c r="AB21" s="27">
+      <c r="AC21" s="26">
         <f t="shared" si="17"/>
         <v>0.78816479683970209</v>
       </c>
-      <c r="AC21" s="27">
+      <c r="AD21" s="26">
         <f t="shared" si="19"/>
         <v>0.80927166670078199</v>
       </c>
-      <c r="AD21" s="27">
+      <c r="AE21" s="26">
         <f t="shared" si="25"/>
         <v>0.83013367653661463</v>
       </c>
-      <c r="AE21" s="27">
+      <c r="AF21" s="26">
         <f t="shared" si="26"/>
         <v>0.84896237479117997</v>
       </c>
-      <c r="AF21" s="27">
+      <c r="AG21" s="26">
         <f t="shared" si="29"/>
         <v>0.86715151449193395</v>
       </c>
-      <c r="AG21" s="27">
+      <c r="AH21" s="26">
         <f t="shared" si="32"/>
         <v>0.88503508958638166</v>
       </c>
-      <c r="AH21" s="27">
+      <c r="AI21" s="26">
         <f t="shared" si="35"/>
         <v>0.90325300768965511</v>
       </c>
-      <c r="AI21" s="27">
+      <c r="AJ21" s="26">
         <f t="shared" si="38"/>
         <v>0.92126855601770063</v>
       </c>
-      <c r="AJ21" s="27">
+      <c r="AK21" s="26">
         <f t="shared" si="39"/>
         <v>0.93992871058731409</v>
       </c>
-      <c r="AK21" s="27">
-        <f t="shared" ref="AK21:AK23" si="40">+(1+U18/100)^-(($H18-$H$16)/365)</f>
+      <c r="AL21" s="26">
+        <f t="shared" ref="AL21:AL23" si="40">+(1+V18/100)^-(($H18-$H$16)/365)</f>
         <v>0.95899868871197724</v>
       </c>
-      <c r="AL21" s="27">
-        <f>+(1+V18/100)^-(($H18-$H$17)/365)</f>
+      <c r="AM21" s="26">
+        <f>+(1+W18/100)^-(($H18-$H$17)/365)</f>
         <v>0.97917701341328134</v>
       </c>
-      <c r="AM21" s="13">
-        <f>+(1+$X$3)^-YEARFRAC($Z21,$Z$21)</f>
+      <c r="AN21" s="13">
+        <f>+(1+$Y$3)^-YEARFRAC($AA21,$AA$21)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.75">
-      <c r="Z22" s="11">
-        <f t="shared" si="14"/>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.75">
+      <c r="AA22" s="11">
+        <f t="shared" si="15"/>
         <v>47492</v>
       </c>
-      <c r="AA22" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB22" s="15">
+        <f>+F19</f>
         <v>81400</v>
       </c>
-      <c r="AB22" s="27">
+      <c r="AC22" s="26">
         <f t="shared" si="17"/>
         <v>0.77118446265703189</v>
       </c>
-      <c r="AC22" s="27">
+      <c r="AD22" s="26">
         <f t="shared" si="19"/>
         <v>0.79183660311985882</v>
       </c>
-      <c r="AD22" s="27">
+      <c r="AE22" s="26">
         <f t="shared" si="25"/>
         <v>0.81224915885655535</v>
       </c>
-      <c r="AE22" s="27">
+      <c r="AF22" s="26">
         <f t="shared" si="26"/>
         <v>0.83067220896511229</v>
       </c>
-      <c r="AF22" s="27">
+      <c r="AG22" s="26">
         <f t="shared" si="29"/>
         <v>0.848469479260061</v>
       </c>
-      <c r="AG22" s="27">
+      <c r="AH22" s="26">
         <f t="shared" si="32"/>
         <v>0.86596776807592579</v>
       </c>
-      <c r="AH22" s="27">
+      <c r="AI22" s="26">
         <f t="shared" si="35"/>
         <v>0.8837931967674082</v>
       </c>
-      <c r="AI22" s="27">
+      <c r="AJ22" s="26">
         <f t="shared" si="38"/>
         <v>0.90142061556680597</v>
       </c>
-      <c r="AJ22" s="27">
+      <c r="AK22" s="26">
         <f t="shared" si="39"/>
         <v>0.91967875311946679</v>
       </c>
-      <c r="AK22" s="27">
+      <c r="AL22" s="26">
         <f t="shared" si="40"/>
         <v>0.93833788493037518</v>
       </c>
-      <c r="AL22" s="27">
-        <f t="shared" ref="AL22:AL23" si="41">+(1+V19/100)^-(($H19-$H$17)/365)</f>
+      <c r="AM22" s="26">
+        <f t="shared" ref="AM22:AM23" si="41">+(1+W19/100)^-(($H19-$H$17)/365)</f>
         <v>0.95808148494206036</v>
       </c>
-      <c r="AM22" s="27">
-        <f>+(1+W19/100)^-(($H19-$H$18)/365)</f>
+      <c r="AN22" s="26">
+        <f>+(1+X19/100)^-(($H19-$H$18)/365)</f>
         <v>0.97845585815205716</v>
       </c>
-      <c r="AN22" s="13">
-        <f>+(1+$X$3)^-YEARFRAC($Z22,$Z$22)</f>
+      <c r="AO22" s="13">
+        <f>+(1+$Y$3)^-YEARFRAC($AA22,$AA$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.75">
-      <c r="Z23" s="11">
-        <f t="shared" si="14"/>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.75">
+      <c r="AA23" s="11">
+        <f t="shared" si="15"/>
         <v>47673</v>
       </c>
-      <c r="AA23" s="15">
-        <f t="shared" si="15"/>
+      <c r="AB23" s="15">
+        <f>+F20</f>
         <v>80700</v>
       </c>
-      <c r="AB23" s="27">
+      <c r="AC23" s="26">
         <f t="shared" si="17"/>
         <v>0.75478026594334802</v>
       </c>
-      <c r="AC23" s="27">
+      <c r="AD23" s="26">
         <f t="shared" si="19"/>
         <v>0.77499310583527892</v>
       </c>
-      <c r="AD23" s="27">
+      <c r="AE23" s="26">
         <f t="shared" si="25"/>
         <v>0.79497145731093499</v>
       </c>
-      <c r="AE23" s="27">
+      <c r="AF23" s="26">
         <f t="shared" si="26"/>
         <v>0.81300262278918456</v>
       </c>
-      <c r="AF23" s="27">
+      <c r="AG23" s="26">
         <f t="shared" si="29"/>
         <v>0.83042131968565103</v>
       </c>
-      <c r="AG23" s="27">
+      <c r="AH23" s="26">
         <f t="shared" si="32"/>
         <v>0.84754739486679154</v>
       </c>
-      <c r="AH23" s="27">
+      <c r="AI23" s="26">
         <f t="shared" si="35"/>
         <v>0.86499365119041638</v>
       </c>
-      <c r="AI23" s="27">
+      <c r="AJ23" s="26">
         <f t="shared" si="38"/>
         <v>0.88224610957561767</v>
       </c>
-      <c r="AJ23" s="27">
+      <c r="AK23" s="26">
         <f t="shared" si="39"/>
         <v>0.90011587042394581</v>
       </c>
-      <c r="AK23" s="27">
+      <c r="AL23" s="26">
         <f t="shared" si="40"/>
         <v>0.91837809580901908</v>
       </c>
-      <c r="AL23" s="27">
+      <c r="AM23" s="26">
         <f t="shared" si="41"/>
         <v>0.93770172120488793</v>
       </c>
-      <c r="AM23" s="27">
-        <f>+(1+W20/100)^-(($H20-$H$18)/365)</f>
+      <c r="AN23" s="26">
+        <f>+(1+X20/100)^-(($H20-$H$18)/365)</f>
         <v>0.95764270235080773</v>
       </c>
-      <c r="AN23" s="27">
-        <f>+(1+X20/100)^-(($H20-$H$19)/365)</f>
+      <c r="AO23" s="26">
+        <f>+(1+Y20/100)^-(($H20-$H$19)/365)</f>
         <v>0.9787285694823703</v>
       </c>
-      <c r="AO23" s="13">
-        <f>+(1+$X$3)^-YEARFRAC($Z23,$Z$23)</f>
+      <c r="AP23" s="13">
+        <f>+(1+$Y$3)^-YEARFRAC($AA23,$AA$23)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.75">
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <f>+AC25+1</f>
+        <v>2</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" ref="AE25:AP25" si="42">+AD25+1</f>
+        <v>3</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="42"/>
+        <v>7</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="42"/>
+        <v>9</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="42"/>
+        <v>11</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="42"/>
+        <v>12</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="42"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.75">
+      <c r="AA26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC26" s="26">
+        <f>+Y13/2</f>
+        <v>0.88320580247479785</v>
+      </c>
+      <c r="AD26" s="26">
+        <f>+(1-$AC$26)^(AD$25-$AC$25)*$AC$26</f>
+        <v>0.10315331294964621</v>
+      </c>
+      <c r="AE26" s="26">
+        <f>+(1-$AC$26)^(AE$25-$AC$25)*$AC$26</f>
+        <v>1.2047708408019973E-2</v>
+      </c>
+      <c r="AF26" s="26">
+        <f t="shared" ref="AF26:AP26" si="43">+(1-$AC$26)^(AF$25-$AC$25)*$AC$26</f>
+        <v>1.4071024355323232E-3</v>
+      </c>
+      <c r="AG26" s="26">
+        <f t="shared" si="43"/>
+        <v>1.6434139979375521E-4</v>
+      </c>
+      <c r="AH26" s="26">
+        <f t="shared" si="43"/>
+        <v>1.9194121909080059E-5</v>
+      </c>
+      <c r="AI26" s="26">
+        <f t="shared" si="43"/>
+        <v>2.2417620655719067E-6</v>
+      </c>
+      <c r="AJ26" s="26">
+        <f t="shared" si="43"/>
+        <v>2.6182480149091043E-7</v>
+      </c>
+      <c r="AK26" s="26">
+        <f t="shared" si="43"/>
+        <v>3.0579617582326238E-8</v>
+      </c>
+      <c r="AL26" s="26">
+        <f t="shared" si="43"/>
+        <v>3.571521896155355E-9</v>
+      </c>
+      <c r="AM26" s="26">
+        <f t="shared" si="43"/>
+        <v>4.1713303380515302E-10</v>
+      </c>
+      <c r="AN26" s="26">
+        <f t="shared" si="43"/>
+        <v>4.8718717944525873E-11</v>
+      </c>
+      <c r="AO26" s="26">
+        <f t="shared" si="43"/>
+        <v>5.6900635667875648E-12</v>
+      </c>
+      <c r="AP26" s="26">
+        <f t="shared" si="43"/>
+        <v>6.6456640815034316E-13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.75">
+      <c r="AA27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC27" s="29">
+        <f>+AC6*AC7</f>
+        <v>57.895642066639411</v>
+      </c>
+      <c r="AD27" s="29">
+        <f t="shared" ref="AD27:AP27" si="44">+AD6*AD7</f>
+        <v>58.292129641485822</v>
+      </c>
+      <c r="AE27" s="29">
+        <f t="shared" si="44"/>
+        <v>55.955996977327132</v>
+      </c>
+      <c r="AF27" s="29">
+        <f t="shared" si="44"/>
+        <v>50.924903541556695</v>
+      </c>
+      <c r="AG27" s="29">
+        <f t="shared" si="44"/>
+        <v>45.978729920931002</v>
+      </c>
+      <c r="AH27" s="29">
+        <f t="shared" si="44"/>
+        <v>41.085127452632882</v>
+      </c>
+      <c r="AI27" s="29">
+        <f t="shared" si="44"/>
+        <v>36.289442216600293</v>
+      </c>
+      <c r="AJ27" s="29">
+        <f t="shared" si="44"/>
+        <v>31.55219616269083</v>
+      </c>
+      <c r="AK27" s="29">
+        <f t="shared" si="44"/>
+        <v>26.908637880475386</v>
+      </c>
+      <c r="AL27" s="29">
+        <f t="shared" si="44"/>
+        <v>22.137981720102793</v>
+      </c>
+      <c r="AM27" s="29">
+        <f t="shared" si="44"/>
+        <v>17.490599051307221</v>
+      </c>
+      <c r="AN27" s="29">
+        <f t="shared" si="44"/>
+        <v>12.950239099208117</v>
+      </c>
+      <c r="AO27" s="29">
+        <f t="shared" si="44"/>
+        <v>8.527265491440799</v>
+      </c>
+      <c r="AP27" s="29">
+        <f t="shared" si="44"/>
+        <v>4.2099291321546071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.75">
+      <c r="AA28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC28" s="30">
+        <f>+AC27*AC26</f>
+        <v>51.133767011259927</v>
+      </c>
+      <c r="AD28" s="30">
+        <f t="shared" ref="AD28:AP28" si="45">+AD27*AD26</f>
+        <v>6.0130262914095347</v>
+      </c>
+      <c r="AE28" s="30">
+        <f t="shared" si="45"/>
+        <v>0.67414153526288423</v>
+      </c>
+      <c r="AF28" s="30">
+        <f t="shared" si="45"/>
+        <v>7.165655580257306E-2</v>
+      </c>
+      <c r="AG28" s="30">
+        <f t="shared" si="45"/>
+        <v>7.5562088359448169E-3</v>
+      </c>
+      <c r="AH28" s="30">
+        <f t="shared" si="45"/>
+        <v>7.8859294497592744E-4</v>
+      </c>
+      <c r="AI28" s="30">
+        <f t="shared" si="45"/>
+        <v>8.1352294941938226E-5</v>
+      </c>
+      <c r="AJ28" s="30">
+        <f t="shared" si="45"/>
+        <v>8.2611474968987933E-6</v>
+      </c>
+      <c r="AK28" s="30">
+        <f t="shared" si="45"/>
+        <v>8.2285585604623492E-7</v>
+      </c>
+      <c r="AL28" s="30">
+        <f t="shared" si="45"/>
+        <v>7.9066286450034117E-8</v>
+      </c>
+      <c r="AM28" s="30">
+        <f t="shared" si="45"/>
+        <v>7.2959066453413126E-9</v>
+      </c>
+      <c r="AN28" s="30">
+        <f t="shared" si="45"/>
+        <v>6.3091904598849108E-10</v>
+      </c>
+      <c r="AO28" s="30">
+        <f t="shared" si="45"/>
+        <v>4.8520682697172148E-11</v>
+      </c>
+      <c r="AP28" s="30">
+        <f t="shared" si="45"/>
+        <v>2.7977774819234787E-12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.75">
+      <c r="AA29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC29" s="30">
+        <f>+SUM(AC28:AP28)</f>
+        <v>57.901026718858581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.75">
+      <c r="AA30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC30" s="12">
+        <f>+AC29-Y10</f>
+        <v>1.1696632176787602</v>
       </c>
     </row>
   </sheetData>
@@ -10232,8 +10645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1964DC9F-440D-4507-9807-7E23CFD75A02}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10290,7 +10703,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="21">
-        <f>+FFant!X11</f>
+        <f>+FFant!Y11</f>
         <v>0.24130797886052366</v>
       </c>
       <c r="C2" s="22">
